--- a/기사데이터/토스/엑셀파일/news(토스, 2023.09.16~2023.09.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.09.16~2023.09.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>업비트, '가짜 코인'을 진짜로 인식…자금 회수 조치 나서</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001940571?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>업비트 제공국내 최대 가상자산 거래소인 업비트에서 가짜 코인이 진짜 코인으로 인식되는 일이 벌어졌다. 업비트는 내부 점검을 실시하고 자금 회수에 나섰다.25일 업비트는 최근 불특정 계좌로부터 가상자산 앱토스(APT)로 둔갑한 가짜 코인이 다수의 계좌로 입금됐다고 밝혔다. 가짜 코인이 시스템에서 걸러지지 못하고 진짜 코인으로 인식된 건데, 일부 사용자는 가짜 코인을 진짜 코인으로 매도한 것으로 나타났다.이에 업비트는 24일 오후 3시경 앱토스에 대한 입출금을 일시 중지했다가 오후 11시 재개했다. 오입금된 금액은 2,000만 원 정도로 이 중 3분의 2가 회수됐으며 나머지 700만 원 가량은 개별 유선 연락을 통해 회수에 나섰다.업비트 측은 앱토스 메인넷 기반으로 발행된 토큰을 앱토스 네이티브 코인으로 인식하면서 비정상 입금이 이뤄진 것으로 파악하고 있다.한편 이번 사건으로 6,900원대를 유지하던 앱토스 시세는 한때 9,400원까지 치솟기도 했다. 현재는 다시 하락해 7,600원 대에 거래되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[스타트업·혁신기업] 우물 안 개구리서 `뽑을만한` SW개발자로… 인재육성 나선 SW마에스트로들</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002826807?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>미래산업 캐는 젊은 SW장인들*에프랩앤컴퍼니자바·파이썬 등 6가지 코스원격 직무교육 플랫폼 구축현직 속해있는 강사진 모아수강생에 질의응답 등 과외*소프트스퀘어드개발 플랫폼 '그릿지' 운영IT 개발팀 빌딩·운용 맡아기업 외주프로그램에 투입대학생·초급생에 성장기회미래산업 캐는 젊은 SW장인들(끝)'파괴적 혁신'의 주역인 SW(소프트웨어)가 전 산업을 바꿔놓고 있다. 이제 자동차도 SDV(SW정의차량)로 진화하고 있다. 코로나19 기간에는 비대면이 일상화되면서 DX(디지털전환)가 가속화돼, SW개발자 수요가 세계적으로 급증하며 쟁탈전이 벌어지기도 했다. 최근 경제 불확실성이 지속됨녀서 그 열기가 다소 가라앉았음에도 SW아키텍트 등 수준급 개발자는 여전히 '귀하신 몸'이다.SW 개발역량을 보유한 인재에 대한 수요는 이제 전 산업분야에 걸쳐 발생하고 있다. 정부는 2026년까지 디지털인재 100만명을 양성하겠다는 비전을 지난해 제시한 데 이어 올해는 'SW진흥전략'을 통해 2027년까지 SW·AI 고급·전문인재 20만명을 육성하겠다는 목표를 추가했다. 이 가운데 SW마에스트로 출신 개발자들이 SW 교육사업을 위한 스타트업을 세워 흐름을 이끌고 있다. 좋은 SW개발자가 곧 좋은 SW교육자가 될 수 있기 때문이다.박중수 에프랩앤컴퍼니 대표. 팽동현 기자    에프랩앤컴퍼니 'F랩' 홈페이지. 온라인캡처    ◇에프랩앤컴퍼니, 기업 현장서 원하는 수준급 개발자 키운다SW개발자 연봉이 높아짐에 따라 컴퓨터공학 등 관련 전공 지원자가 늘어나고, 인재양성 정책 등으로 단기 교육을 수료하고 SW업계에 합류하는 이들이 늘어나고 있다. 기업 현장에서 개발자에 대한 수요는 증가하고 있지만 '뽑을 만한' 개발자는 부족하다는 말도 심심찮게 나온다. 기업들이 목말라하는 것은 중급 이상 개발자이기 때문이다.에프랩앤컴퍼니는 과기정통부와 IITP(정보통신기획평가원)가 운영하는 SW마에스트로 8기를 수료한 박중수 대표가 이런 간극에 착안해 2020년 설립한 스타트업이다. 그는 SW마에스트로를 수료하고 네이버, 하이퍼커넥트 등을 거치며 얻은 경험과 교훈을 바탕으로 창업에 도전했다. 여러 책을 읽으며 SW공학 지식을 습득해 기본기를 다지고, 이를 실전에 응용하며 창의성을 발휘할 수 있게 되기 전까진 그 자신도 '우물 안 개구리'였다고 말한다.박 대표는 "국비 학원이나 부트캠프 등에서 SW개발을 얇게 배우면 경력이 쌓인 만큼 반복 숙달로 해온 건 잘할 수 있다. 하지만 하던 것과 다른 문제가 주어졌을 때, 마치 변호사가 법률과 판례를 살펴보고 상담하듯 이론과 지식을 기반으로 풀어내는 접근을 초급 개발자는 할 수 없다. 이게 중급개발자와의 차이"라며 "네카라쿠배당토야(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스·야놀자) 등 개발자들에게 선망의 직장들은 단순 개발 용역을 수행할 수 있는 수준이 아니라 이런 역량을 지닌 이들을 선호한다"고 짚었다.이를 위한 고급 SW개발자 양성 원격 직무교육 플랫폼을 표방하는 'F-랩' 서비스는 현재 △자바 백엔드 △프론트엔드 △안드로이드 △파이썬 △iOS △노드JS 백엔드 등 여섯 가지 멘토링 코스를 운영한다. 유수의 기업에 속한 개발자들이 부업으로 강사로 참여, 직접 수강생 상대로 질의응답 위주 일대일 과외를 해주며 실제 현장에서 필요로 하는 지식과 역량을 전수해주는 게 특징이다. 에프랩앤컴퍼니는 플랫폼으로서 강사와 수강생을 이어주는 동시에 커리큘럼을 비롯한 관리 전반을 지원한다.에프랩앤컴퍼니에 따르면 수강생들 가운데 취준생과 5년차 미만 개발자가 각각 약 40%를 차지하며, 개발자 중에는 SI(시스템통합) 관련 종사자가 70%가량을 차지한다. 이들이 교육을 수료하고 절반 이상이 네카라구배당토야나 대기업 취직에 성공했다. 심사 과정을 거쳐 200여명이 플랫폼에서 교육을 받고 있고, 강사 풀은 120명가량이 확보돼 있다. 현재까지 수료생은 약 700명에 달한다.박 대표는 "SW마에스트로에서 좋은 멘토를 만난 덕분에 SW개발과 SW교육에 있어 멘토링의 중요성을 깨달을 수 있었다"며 "성장하기를 원함에도 그러지 못하고 있는 이들이 많다. 앞으로 개발자에 국한하지 않고 직군을 보다 넓혀갈 계획이며, 이를 연계한 채용 플랫폼도 운영할 계획"이라고 말했다.소프트스퀘이드 임직원 단체사진. 소프트스퀘이드 제공        소프트스퀘이드 사무실 모습. 소프트스퀘이드 제공    ◇소프트스퀘어드, 컴공선배들의 외주 개발 교육·연계 서비스어떤 일이든 하다보면 물어보거나 도움이 필요한 경우가 생긴다. SW분야 대학생과 초급자 대상으로 이를 돕는 역할을 자처하는 소프트스퀘어드는 SW마에스트로 8기에서 팀을 이뤄 수료한 이하늘 대표와 정우현 부대표가 2019년 설립한 스타트업이다.소프트스퀘어드는 △국내 컴퓨터공학과 학생 약 10%가 구독하는 유튜브 채널 '컴공선배' △국내 33개 대학교 앱 론칭 연합 동아리 'UMC' △소수정예 수익형 앱 론칭 동아리 'CMC' △외주 연계 500회에 달하는 프로그래밍 외주 연계 교육 '라이징캠프' △공유 킥보드 '스윙' 외 150건이 넘는 프로젝트를 론칭한 개발 플랫폼 '그릿지' 등을 운영한다. 교육부터 외주·출시·창업·취업연계의 선순환 생태계를 구축한다는 목표다.이 대표는 "소프트스퀘어드는 'IT 청년들이 자신감과 성장의 기회를 얻어 주체적인 삶을 사는 세상을 만들어간다'는 미션을 토대로 '전 세계 개발팀을 선순환 생태계를 통해 클라우드화한다'는 비전을 향해 나아가고 있다"며 "외주 프로젝트 수행에 필요한 IT 전문지식은 생각보다 깊지 않음에도 많은 학생들이 어렵게 여긴다는 점을 SW마에스트로 때 알게 됐다. 요구사항 정제, 프로젝트 관리 등 역량 부족 때문임을 파악하고 이를 돕는 사업을 시작했다"고 설명했다.특히 소프트스퀘어드의 '그릿지' 서비는 IT개발팀이 필요한 기업들에게 IT프로젝트 작업자를 자동으로 팀을 편성해 구독할 수 있게 하는 SaaS(서비스형SW)다. 외주 프로젝트를 맡기고자 하는 의뢰인들은 프로젝트 수행 기관의 '신뢰도'를 우선적으로 중시한다. '그릿지'는 통상 SW개발 인력 중개 서비스들이 의뢰인과 매칭된 에이전시에서 프로젝트 품질에 대한 책임을 지는 것과 달리 그릿지 명의로 계약을 체결해 프로젝트 품질을 보증하는 것을 차별점으로 내세운다.이 대표는 "검증된 개발팀을 직접 빌딩하고 팀을 운용할 수 있는 노하우와 관리 시스템을 자체 보유했기에 직접 프로젝트 품질 보증이 가능하다"며 "약 3300명의 즉시 투입 가능한 개발 인력, 프로젝트 관리 시스템, 요구사항 정제 노하우 등이 '그릿지'의 경쟁력"이라고 강조했다.소프트스퀘어드는 앞으로도 이 분야 많은 청년들이 자신의 길을 갈 수 있도록 돕는다는 방침으로, 이와 관련해 '그릿지' 서비스를 통한 IT생태계 활성화에 힘쓸 계획이다. 많은 청년들이 프로젝트를 통해 성장해 '나'를 찾아가기를 바란다는 게 이 대표의 말이다.그는 "SW마에스트로는 학생 신분으로는 가장 현업에 가까운 프로젝트를 수행할 수 있는 인프라를 제공받는 기회"라며 "많은 후배들이 토이프로젝트를 만들어 기술을 익히는 수준에 만족하기도 하는데, 실제 사용자가 있거나 수익화할 수 있는 프로젝트에서 트래픽을 만나보고 기상천외한 문제를 맞닥뜨려보는 경험이 결국 커리어를 성장시키는 원동력이 된다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>카드사도 글로벌 간편결제 시동... 신한페이 해외서 QR결제 서비스 개시</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005079580?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>신한카드 운영 신한플레이, 유니온페이와 연동해 해외서 QR결제 서비스 출시중국, 싱가폴, 일본, 태국, 터키 등 유니온페이 가맹점 5000만 곳 사용 가능  네카토에 해외결제 서비스 경쟁에 신한카드도 추격전 신한카드 CI. 사진=연합뉴스 제공 [파이낸셜뉴스] 신한카드가 생활 금융 플랫폼 '신한플레이'를 앞세워 글로벌 간편결제 서비스에 시동을 걸었다. 신한카드가 유니온페이와 손잡고 중국, 일본, 태국 등 해외 유니온페이 가맹점에서 QR결제 서비스를 시작한 것이다. 네이버페이, 카카오페이, 토스페이 등 국내 간편결제 3사의 해외결제 서비스 경쟁에 카드업계 1위인 신한카드가 신한플레이를 앞세워 추격에 나선 양상이다.   신한카드는 27일 글로벌 신용카드사 유니온페이 인터네셔널(유니온페이)과 손잡고 유니온페이 신한카드 고객이 해외에서 신한페이를 통해 결제할 수 있는'신한플레이 유니온페이 QR결제'(유니온페이 QR결제) 서비스를 출시했다고 밝혔다. 신한페이를 활성화하는 동시에 생활 금융 플랫폼 신한플레이의 고객을 묶어두기 위한 '록인전략'의 일환으로 보인다.   유니온페이 QR결제는 중국 가맹점 4700만 곳을 포함해 홍콩·마카오, 싱가폴, 일본, 태국, 터키, 말레이시아 300만 곳 등 약 5000만 곳에 달하는 가맹점 망을 확보하고 있다. 즉, 유니온페이 신한카드 고객은 중국 뿐만 아니라 일본, 태국, 터키 등 유니온페이 가맹점이라면 신한플레이 앱을 활용해 환전 없이 QR결제를 이용할 수 있게 된 것이다.   앞서 카카오페이에 이어 네이버페이, 토스페이도 지난 19일과 20일 항저우 아시안게임에 맞춰 중국 알리페이와 손잡고 알리페이 가맹점에서 네이버페이, 토스페이 앱에서 QR결제 서비스에 돌입하는 등 중국, 일본, 동남아시아에서 간편결제 서비스 간 격전이 벌어지고 있다.   신한카드는 서비스 출시를 기념해 유니온페이 신한카드 고객의 해외현지 QR결제 할인 및 캐시백 이벤트를 연다.   행사기간 중 유니온페이 QR로 해외이용 한 거래 건 당 20% 즉시 할인(카드당 5회, 거래 건당 최대 20달러)을 제공하며 행사기간 중 QR 해외이용 누적 금액에 대해서는 구간별 캐시백(회원 당 최대 10만원)도 제공해 중복 혜택을 받을 수 있다. 행사 기간은 오는 11월 30일까지다.   한편 신한카드는 신한플레이 앱에서 비자, 마스터, UPI카드 해외 NFC 결제 서비스를 제공하고 있으며 최근에는 삼성페이를 통한 해외 NFC 결제 서비스도 제공하는 등 해외 간편결제 서비스도 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>7월 은행 연체율 0.39%... 지난해 중반부터 계속 상승중</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004940127?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>자료=금융감독원금융감독원은 지난 7월 국내은행의 원화대출 연체율이 0.39%로 전월말보다 0.04%포인트(p) 올랐다고 19일 밝혔다. 3개월 전과 비교했을 땐 연체율이 0.02%p 상승했다. 통상 은행들은 분기말에 연체채권을 상각과 매각을 늘린다. 이에 따라 연체율은 분기중 상승했다가 분기말에 떨어지는 모습을 보인다. 이 같은 경향을 고려해도 은행의 연체율은 고금리 기조가 시작된 지난해 중반부터 꾸준히 높아지고 있다. 7월 기준으로는 2019년 7월 0.45% 이후 가장 높다. 지난 7월중 신규연체 발생액은 2조원으로 전월과 비슷했으나, 연체채권 정리규모는 1조1000억원으로 같은 기간 2조원 감소했다. 지난 7월중 신규연체율은 0.09%로 전월과 유사했다.  부문별로는 기업대출 연체율이 0.41%로 전월말보다 0.04%p 올랐다. 대기업대출 연체율은 0.01%p 상승한 0.12%를, 중소기업대출 연체율은 0.06%p 높아진 0.49%를 기록했다. 같은 기간 중소법인 연체율은 0.06%p 오른 0.51%로, 개인사업자대출 연체율은 0.04%p 오른 0.45%로 조사됐다.가계대출 연체율은 0.36%로 전월말보다 0.03%p 상승했다. 주택담보대출 연체율은 0.01%p 높아진 0.23%, 이를 제외한 신용대출 등 기타대출의 연체율은 0.09%p 오른 0.71%로 집계됐다. 특히 최근 인터넷은행의 중·저신용자 대출을 중심으로 연체율이 높아지고 있다. 양경숙 더불어민주당 의원실이 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행 3사로부터 받은 자료에 따르면 이들의 중·저신용자 대출 연체율은 2.79%였다. 2021년말 0.82%에서 지난해말 1.71%로 2배 이상 늘더니, 올 상반기에는 2.46%까지 높아졌다. 은행별로는 케이뱅크가 4.13%로 가장 높았다. 이어 토스뱅크 3.40%, 카카오뱅크 1.68% 순이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.09.29.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>"매일 커피 대신 주식 투자"…토스 '주식모으기' 1위 종목은</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012120165?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>장기 재테크 위한 적립식 투자에 관심"주가 조정기, 매입 단가 낮출 수 있어"[서울=뉴시스] 박은비 기자 = 하루 커피 한 잔 값 대신 주식에 투자하는 짠테크(절약+재테크)족들이 늘고 있는 것으로 나타났다.29일 토스증권에 따르면 이달 '주식 모으기' 상위 미국 주식은 1위 테슬라, 2위 애플, 3위 마이크로소프트로 집계됐다. 대표적인 미국 상장지수펀드(ETF)인 QQQ(나스닥 100 추종), SPY(S&amp;P500지수 추종) 유저 증가율은 지난 24일 기준 연초 대비 각 128.53%, 87.03% 증가한 것으로 나타났다. 우량 기업에 분산 투자할 수 있어 장기 투자자들이 선호하는 상품이다.토스증권은 지난해 3월 주식 모으기 서비스를 출시했다. 적금과 적립식 펀드처럼 주기적으로 주식을 사 모을 수 있는 서비스다. 국내·해외 종목 모두 투자가 가능하며 투자 주기는 매일·매주·매월 단위로 선택할 수 있다. 현재 주식 모으기 유저 매수 주기는 일별 단위가 가장 많고 그 다음이 주별, 월별 순이다.특히 해외주식의 경우 실시간 소수점 거래로 1000원 단위 투자가 가능해 매일 커피 한 잔 가격으로 적립식 투자할 수 있어 누구나 부담 없이 투자할 수 있는 게 장점이다.토스증권 관계자는 "2000년대 초반 적립식 펀드 투자 열풍이 불면서 국내 종목 뿐 아니라 해외 간접투자상품까지 장기 재테크 수단으로 각광받던 시기가 있었는데, 최근에도 주식 모으기를 통해 우상향하는 주식, ETF 등에 투자하려는 수요를 확인할 수 있다"며 "변동성이 큰 시장에서 소액 투자가 가능하고, 주가 조정기에도 매입 단가를 낮추는 등 장기투자에 적합한 투자방법 중 하나"라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 주담대 규제에 전월세대출 전쟁</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002826031?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>당국, 연체율 급등에 주담대 제동갈아타기·고정금리 앞세워 경쟁건전성 관리·포트폴리오 강화도전·월세보증금 대출 시장을 놓고 인터넷은행 3사(카카오·케이·토스뱅크) 간 치열한 경쟁이 펼쳐지고 있다. 최근 금융당국이 가계대출 증가세에 경계심을 높이면서 주택담보대출 공격적 영업이 어려워지자 전월세대출 확대에 힘을 주고 있는 모습이다. 토스뱅크는 지난 5일 전월세대출을 선보였다. 가장 큰 특징은 전세지킴보증, 등기변동알림, 다자녀 특례 대출 등 3가지로 구성된 '토스뱅크 케어' 도입이다.고객들은 전월세대출을 받은 후 전세보증금반환보증도 앱에서 한번에 신청할 수 있다. 반환보증을 신청하지 못해 발생하는 전세사기 등의 피해를 막을 수 있을 것으로 기대된다. 토스뱅크는 주택금융공사(HF)와 함께 최저 연 0.02~0.04%의 보증료를 적용, 비용을 최소화했다. 전월세대출 상품을 보유하고 있던 카카오뱅크는 지난 13일 '전월세보증금 대출 갈아타기 서비스'를 출시했다.  그간 카카오뱅크 앱에서 신규로 대출을 받거나 기존 대출을 연장하는 계약만 가능했다. 앞으로는 이사를 가거나 전월세보증금이 오를 때도 비대면으로 편리하게 대출을 갈아탈 수 있게 됐다. 카카오뱅크는 당행 전월세보증금 대출을 포함해 타행의 전월세보증금 대출도 비대면으로 갈아탈 수 있도록 서비스를 구현했다. 당행 대환의 경우 기존 대출을 보유한 차주의 증액 대환도 할 수 있다. 아울러 주택금융공사와 청년 전월세보증금 대출, SGI 전월세보증금 대출 라인업을 보유한 만큼 상품 간 갈아타기도 가능하도록 했다. 케이뱅크는 지난 3월 일반·청년 전세대출 외 고정금리 전세대출을 출시했다. 대출 기간 동안 금리가 고정돼 이자 비용을 계획적으로 관리할 수 있다는 장점이 있다. 인터넷은행들이 전월세대출 시장을 주목하고 있는 이유는 건전성 관리와 여신 포트폴리오 강화를 위해서다.최근 인터넷은행 3사가 국회 기획재정위원회 소속 양경숙 더불어민주당 의원에게 제출한 자료에 따르면 지난달 말 기준 인터넷은행들의 신용대출 연체율은 지난해 12월 말 0.77%에서 올해 6월 말 1.04%까지 뛰더니 8월 말 1.20%까지 상승했다. 인터넷은행 3사 출범 이후 가장 높은 수준이다. 중·저신용자 대출만 떼어 보면 연체율 증가세는 더 가파르다. 지난해 6월 말 0.84%에서 올 6월 말 2.46%까지 올랐다. 8월 말에는 2.79%로 집계됐다. 전월세대출의 경우 HF 등 보증기관이 대출을 보증하는 만큼 발급한 보증서를 통해 대출금 회수가 원활하다. 신용대출에 비해 안정적인 대출로 평가받는 이유다. 건전성 개선에도 긍정적인 영향을 줄 것으로 보인다. '중저신용 대출 비중 목표치' 달성을 의식한 측면도 있다. 인터넷은행의 출범 취지는 중저신용자 포용이다. 연말까지 목표치를 맞춰야한다. 카카오뱅크와 케이뱅크, 토스뱅크의 목표치는 각각 30%, 32%, 44%다. 연말까지 3개월 가량 남은 상황에서 인터넷은행들이 목표치를 맞추기 위해 신용대출을 확 늘리지 못하고 있다. 신용대출 규모를 늘리면 그만큼 중·저신용자들에게 대출을 더 많이 내줘야 하기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.09.24.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>초등학생용 은행 통장·카드에 담긴 '금융 방정식'</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002752434?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>은행권 '어린이 서비스' 총력규제 완화 덕에 상품 다양화중·고등생 절반 유스 앱 경험미래 고객 사로잡기 물밑경쟁유스카드 이미지. ⓒ토스[데일리안 = 김효숙 기자] 국내 은행들이 잇따라 어린이와 청소년 고객을 잡기 위한 유스 서비스를 내놓고 있다. 가상 계좌에 선불금을 충전해놓고 쓰는 단순 결제서비스를 넘어 청소년 실명 계좌 기반의 은행 서비스까지 다양하게 발전하는 모습이다.금융당국의 규제 완화가 변화에 더욱 힘을 보태는 가운데, 미래 고객을 사로잡으려는 은행권의 움직임은 더욱 분주해질 것으로 보인다.24일 금융권에 따르면 토스뱅크는 아이들이 금융 습관을 기를 수 있는 아이 서비스 출시를 준비 중이다. 홍민택 토스뱅크 대표는 지난 5일 열린 기자간담회에서 "부모가 아이를 위한 계좌를 개설을 하거나 금융상품을 개설하기 위해서는 복잡한 서류들을 가지고 영업점에 가야만 했다"며 "이 모든 과정을 토스 애플리케이션 안에서 해결할 수 있도록 비대면으로 구현하겠다"고 설명했다.그러면서 부모가 아이의 미래를 위해서 오랜 기간 목돈을 마련할 수 있도록 적금 상품을 내놓고, 아이 스스로 계좌와 적금을 사용하거나 체크카드를 발급할 수 있도록 해 건전한 금융 습관을 기를 수 있도록 포괄적인 서비스를 준비 중이라고 부연했다.인터넷은행과 핀테크업계는 가상 계좌에 선불금을 충전해놓고 체크카드처럼 쓰는 청소년용 결제서비스를 선보이며 미래 고객 경쟁에 열을 올리고 있다.카카오뱅크가 2020년 9월 청소년을 위한 선불서비스 카카오뱅크 미니를 출시한 것이 시초다. 만 14~18세 미만 고객 대상으로 하며 최대 50만원까지 보유가 가능하고 하루 30만원, 월 200만원까지 쓸 수 있다. 관련 카드를 발급받으면 결제, 현금자동입출금기 입·출금이 가능하다. 첫 주자답게 카카오뱅크 미니의 지난달 말 기준 가입자 수는 약 157만명에 달했다. 이들의 82%인 129만명이 미니 카드를 발급받았다.핀테크업체인 토스도 2021년 12월에 7세부터 사용할 수 있는 토스 유스카드를 선보였다. 케이뱅크도 지난해 말 14세부터 18세까지 이용할 수 있는 선불충전금 서비스 하이틴을 내놨다.카카오뱅크 미니. ⓒ카카오뱅크시중은행 중에서는 하나은행이 어린이·청소년 전용 플랫폼인 아이부자 서비스를 선보였다. 부모와 자녀가 각자 휴대폰에 앱을 설치한 뒤 선불 충전금을 활용해 용돈을 관리할 수 있다. 14세 미만이면 하루 5만원, 월 50만원까지 이용한도를 제한, 청소년 유해업종 사용도 막는다. 올해 5월 기준 누적 가입자 수 100만명을 돌파했다.뒤이어 KB국민은행이 14~18세 청소년의 금융거래를 지원하는 리브 넥스트 플랫폼을 개설했고 신한은행도 태아부터 이용 가능한 금융 플랫폼 리틀 신한 케어를 내놨다. 우리은행이 지난 6월 가장 뒤늦게 청소년 전용 선불 서비스 우리 틴틴을 출시했다.은행권이 청소년 서비스에 열을 올리는 것은 잠재 고객을 먼저 확보하려는 전략적인 차원이다. 인터넷과 모바일에 익숙한 Z세대에게 편리한 플랫폼으로 서비스를 경험하게 하면, 금융사를 갈아타기 쉽지 않기 때문이다.하나금융경영연구소의 '잘파세대의 금융 인식 특징과 거래 특징의 이해' 보고서에 따르면 중·고등학생의 46.2%는 첫 거래 금융기관으로 인터넷은행이나 유스 앱을 이용했다. 중·고등학생 절반은 인터넷전문은행이나 청소년 특화 금융 앱에서 처음 금융거래를 시작한 것이다.보고서는 "중·고등학생이 가장 많이 인지하는 브랜드는 시중은행이 아닌 인터넷은행이었고, 처음 거래를 시작한 금융기관도 인터넷은행이나 유스앱"이라며 "청소년 특화 앱 출시 후 중고등학생의 거래가 앱 기반으로 급변했다고 볼 수 있다"고 분석했다.최근 금융당국이 비대면 계좌 개설 규제를 풀어주면서 청소년을 위한 실제 은행 서비스 경쟁은 더욱 다양화하고 있다. 금융위원회는 지난 4월 비대면 실명확인 가이드라인을 개편했다. 기존에는 부모가 자녀 계좌를 개설하려면 영업점을 방문해 가족관계 입증서류들을 제출해야 하는 번거로움이 있었지만, 비대면으로도 부모의 신분증과 가족관계증명서를 내면 즉시 모바일로 자녀의 계좌를 개설할 수 있다.은행도 어린이·청소년을 위한 실제 계좌 서비스로 영역을 넓히는 모양새다. 신한은행과 하나은행, 우리은행은 미성년자 자녀 계좌를 개설할 수 있는 '우리아이 통장 만들기' 비대면 서비스를 시작했다. 은행권 관계자는 "우리아이 계좌개설 서비스가 자녀들의 용돈 관리 등 자산형성에 효과적으로 활용될 수 있도록 상품 라인업을 꾸준히 확대하고 다양한 메뉴를 제공할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>저신용자 대출 과식에 인터넷銀 결국 체했다</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005188278?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>신용대출 연체율 1.2% '최고'인터넷전문은행 신용대출 연체율이 사상 최고다. 정부가 시켜서 내준 중저신용대출이 금리 인상기를 거치며 대거 부실화했기 때문이다. 금융당국은 출범 초기 약조에 따라 인터넷은행 중저신용대출 비중이 계속 커져야 한다는 입장이다. 17일 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)가 양경숙 더불어민주당 의원에게 제출한 자료에 따르면 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%다. 3사가 출범한 이후 최고치다. 국내 은행의 지난 6월 말 기준 주택담보대출 제외 가계대출(신용대출 등) 연체율인 0.62%와 비교하면 약 1.9배다. 중저신용대출 건전성이 나빠진 영향이 크다. 지난달 말 기준 인터넷은행 3사의 중저신용대출 연체율은 2.79%로 집계됐다. 지난해 상반기에는 0.84%로 1% 아래였지만, 이후 급속도로 악화되며 3배 이상으로 증가했다. 금융감독원 관계자는 "금리가 오르면 취약차주부터 부실이 발생하는데, 통상 금리가 인상된 뒤 1년 정도의 시차를 두고 연체율이 오른다"고 말했다. 은행별로는 지난 8월 말 기준 케이뱅크가 4.13%로 중저신용대출 연체율이 가장 높았다. 이어 토스뱅크(3.40%), 카카오뱅크(1.68%) 순이었다. 이는 회사별로도, 3곳 합산으로도 모두 역대 최고다. 인터넷은행은 중저신용대출 실질 공급을 줄이며 대응에 나섰다. 전체 신용대출 신규 공급액에서 중저신용 신규 공급액이 차지하는 비중은 지난해 상반기 44.1%에서 하반기 34.7%, 올해 1∼8월 26.7%로 감소했다. 한국은행은 지난 14일 국회에 제출한 통화신용정책보고서에서 "긴축 기조를 상당 기간 지속할 것"이라고 했다. '돈줄 조이기'에도 불구하고 인터넷은행은 중저신용자 신용대출 공급을 완화해야 하는 상황이다. 8월 말 기준 비중은 카카오뱅크 28.4%, 케이뱅크 25.4%, 토스뱅크 35.6%로 각각 연말 목표치인 30%, 32%, 44%에 미달한다. 이를 못 맞추면 신사업에 진출할 때 불이익을 받는다. 바뀐 거시경제 환경을 고려해 올 초 인터넷전문은행협의회는 금융당국에 목표 수정을 건의했지만 받아들여지지 않았다. [서정원 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>토스페이, 중국에서도 쓴다…알리페이 가맹점 결제 지원</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005579164?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>항저우 아시안게임 앞두고 서비스 개시[이데일리 임유경 기자] 토스는 자사 간편결제 서비스 토스페이가 제19회 항저우 아시안게임을 앞두고 중국 알리페이플러스 가맹점에서 결제를 지원한다고 20일 밝혔다. 이로써 토스페이 이용자들은 중국 내 ‘알리페이플러스’ 로고 또는 ‘토스페이’ 로고가 있는 오프라인 매장에서 토스 앱으로 결제가 가능하다.결제는 토스 앱에 있는 바코드 또는 QR코드를 활용한다. 방법은 총 세 가지다. △토스 앱 하단 세 번째에 위치한 ‘토스페이’ 탭의 오른쪽 위 바코드 아이콘을 클릭해 ‘해외’ 탭을 누르거나 △전체 메뉴에서 ‘현장결제’ 메뉴를 검색해 ‘해외’ 탭을 클릭하거나 △해외에서 토스 앱 홈 화면 오른쪽 상단에 나타나는 QR 아이콘을 클릭하면 사용할 수 있다. 결제를 진행하면 ‘토스페이’에 연결해 둔 계좌에서 결제 금액만큼 원화로 출금된다.토스 관계자는 “2600만명 이상의 토스 유저가 해외에서도 토스페이를 사용할 수 있게 됐다”며 “중국을 시작으로 ‘토스페이‘ 해외 현장 결제 가능 국가를 점차 늘려갈 예정”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.09.22.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>청약 당첨, 부동산 실패, 비혼의 축의금 회수…신인류 16명 솔직한 돈 이야기</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007067908?sid=103</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[신간] 우리에겐 더 많은 돈이 필요하다우리에겐 더 많은 돈이 필요하다(서울=뉴스1) 김지영 디자이너 = 세상을 혁신한 금융 서비스, 토스가 또 한 번의 유난한 도전을 벌였다.‘모든 돈 이야기는 쓰일 가치가 있다’는 슬로건 아래 펼쳐진 '제1회 토스 머니스토리 공모전 DRAFT'에서 발굴된 수상작들을 엮은 책으로, 100 대 1의 높은 경쟁률을 뚫고 선정된 16인의 솔직하고 용감한 이야기를 담았다.책은 사칙연산 순서로 구성됐다. 좋아하는 일을 사이드 프로젝트로 시작해 수익화한 직장인부터 그동안 냈던 축의금 회수를 위해 비혼식을 연 비혼주의자, 밤마다 재벌집 카운슬러로 이중생활을 하는 금융사 김 과장, 집주인의 횡포에 울컥한 사회초년생의 유쾌한 청약 당첨기와 부동산과 비트코인에 올인했다가 실패한 투자자 이야기, 마지막으로는 돈에 국한되지않고 어떻게 나누며 살아가야 하는지 인생의 태도까지 반추해 볼 수 있는 감동을 주는 이야기가 담겨 있다.돈을 벌고(＋) 쓰고(－) 불리며(×) 때로는 나누는(÷) 각 기호에 얽힌 현실적인 돈 이야기들에, 16인 개인의 이야기를 넘어서 우리 모두는 공감하게 될 것이다. 또한 극한 자본주의 사회 속 돈과 어떻게 관계 맺고 살아가야 하는지 혼란스러운 이들에게 돈을 바라볼 수 있는 방법을 터득할 수 있게 해줄 것이다.△ 토스 기획/ 웨일북(whalebooks)/ 1만6800원</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>취준생이 가장 가고싶은 금융회사 1위는?…'KB국민은행'</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012113703?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이현주 기자 = 신입 취업을 준비하는 구직자 10명 중 8명이 금융권 회사에 취업할 의사가 있는 것으로 나타났다. 가장 취업하고 싶은 금융회사로는 'KB국민은행'을 꼽았다.26일 취업플랫폼 잡코리아가 신입 취업을 준비하는 4년대졸 학력 구직자 407명을 대상으로 조사한 금융권 취업 선호도에 따르면 금융권에 취업할 의사가 있냐는 질문에 전체 응답자 78.1%가 '있다'고 답했다.특히 상경계열 전공자 중에는 대부분에 달하는 90.4%가 '금융권에 취업할 의사가 있다'고 답했고, 인문계열(76.8%), 사회과학계열(76.7%) 전공자 중에도 이같은 답변이 상대적으로 높았다.금융권 중에도 '은행' 취업을 선호하는 신입 구직자가 많았다. 금융권에서 가장 취업하고 싶은 업계는 어디냐는 질문에 과반 이상인 58.5%가 '은행'을 꼽았으며, '증권'이 21.1%로 뒤를 이었다. 가장 취업하고 싶은 금융회사 1위는 'KB국민은행'이 차지했다. 국내 주요 금융회사를 보기 문항·복수응답으로 조사한 결과, 'KB국민은행'을 가장 취업하고 싶은 금융회사로 꼽은 신입 구직자가 20.8%로 가장 많았다. 이어 '토스뱅크'가 19.5%로 2위였으며, '카카오뱅크' 17.0%, 'IBK기업은행' 11.3%, '신한은행' 9.1% 등의 순으로 나타났다.  성별로 보면 남성 구직자 중에는 '토스뱅크(15.7%)', 여성 구직자 중에는 'KB국민은행(25.8%)'를 가장 취업하고 싶은 금융회사로 꼽은 응답자가 가장 많았다.  신입 구직자들이 이들 금융회사에 취업하고 싶은 이유로는 '직원 복지가 우수할 것'(28.9%)이라는 기대감과 '어릴 때부터 이용하던 회사'(23.6%)라는 익숙함이 높은 비율을 차지했다. 이외에 '연봉이 높을 것 같아서'(23.3%), '평소 기업 이미지가 좋아서'(17.0%) 순으로 높은 응답률을 보였다. 신입 구직자들이 금융권 취업을 위해 가장 열심히 준비하는 것은 '인턴십'(25.5%)과 '금융분야 자격증 취득'(24.5%)인 것으로 나타났다. 이어 '전공분야 자격증 취득'(23.9%), '영어 실력(20.4%)' 순으로 준비했다는 응답자가 많았다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>토스뱅크, '공모주 청약 일정' 서비스에 '공모주 상장일 알림' 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002316216?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>청약부터 실제 매수·매도 원하는 고객 니즈 고려...원스톱 정보 제공토스뱅크(대표 홍민택) '공모주 청약 일정' 서비스에 '상장일 알림' 서비스 도입하는 등 한 단계 도약한다고 20일 밝혔다.     ◆…［이미지=토스뱅크 제공］'상장일 알림'은 공모주 청약 일정을 신청한 고객을 대상으로, 공모주가 상장하는 당일 알림을 제공하는 서비스다. 청약에 성공한 고객들은 당일 주가 흐름에 따라 보유한 주식을 팔거나, 추가로 살 수 있다. 또 청약에 성공하지 못한 고객들의 경우 원하는 주식을 매입할 수 있다.   상장을 앞둔 기업들의 실제 정보까지 상세히 제공하는 서비스도 더했다. 해당 기업이 어떠한 제품과 서비스를 선보이고 있는지 등을 고객에게 알려준다. 토스뱅크는 공모 기업에 대한 객관적인 정보 전달을 통해 고객들의 판단을 도울 방침이다.   '두산 로보틱스' 등 이른바 '공모주 대어'들이 하반기 청약 일정을 앞두고 있는 가운데 청약부터 실제 매수, 매도를 원하는 고객들의 니즈까지 고려했다는 게 회사 측 설명이다.   토스뱅크는 올해 7월 코스피, 코스닥 시장에 상장을 앞둔 공모주의 청약 일정 확인부터 실제 청약까지 가능한 서비스를 도입했다. 고객들은 자신이 원하는 공모주의 희망 가격, 실시간 청약 경쟁률 등을 한눈에 확인할 수 있으며, 자체 계좌개설은 물론 제휴 증권사를 통한 실제 청약까지 가능하다.   그동안 고객들은 공모주 청약을 하려고 해도, 원하는 공모주의 일정을 놓치거나 주관사가 어디인지 몰라 찾는 데 어려움을 겪는 등 불편을 겪어야 했다. 이런 애로사항을 해결하기 위해 토스뱅크가 '공모주 청약 일정' 서비스는 물론 '상장일 알림 서비스'까지 도입해 원스톱으로 정보를 제공하고 있다.   고객들은 상장 완료한 공모주의 공모가 대비 시초가 수익률까지 확인하며 '청약에 대한 모든 서비스'를 누릴 수 있는 셈이다.   토스뱅크 관계자는 "'공모주 청약 일정' 서비스를 통해 고객들이 청약에 대한 모든 것을 원스톱으로 누릴 수 있도록 지속적으로 서비스를 업그레이드하고 있다"며 "고객들의 불편한 요인들을 지속적으로 제거해 나감과 동시에 고객들이 안정적으로 자산관리를 할 수 있도록 도울 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>[9/25 데일리안 퇴근길뉴스] "오물통 같은 골통"…북한, 윤대통령에 막말 등</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002752938?sid=100</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>윤석열 대통령이 지난 20일(현지시간) 뉴욕 유엔 총회장에서 기조연설을 하고 있다. ⓒ뉴시스[데일리안 = 유정선 기자] ▲"오물통 같은 골통"…북한, 윤대통령에 막말북한 관영매체가 윤석열 대통령을 "놈" "바보" "멍텅구리" 등으로 지칭하며 막말을 쏟아냈다.북한·러시아 간 무기거래 가능성에 우려를 표한 윤 대통령의 유엔총회 발언을 문제 삼으며 불편한 심기를 노골적으로 드러낸 셈이다.관영매체인 조선중앙통신은 25일 '정치 문외한, 외교 백치의 히스테리적 망발'이라는 제목의 기사에서 "윤석열 괴뢰역도가 제78차 유엔총회 마당에까지 게바라가(나돌아) 입에 게 거품을 물고 우리와 러시아와의 관계를 악랄하게 헐뜯었다"며 "초보적인 정치 지식도 국제관계 상식도 전혀 없는 괴뢰가 스스로 미국의 어용 나팔수, 확성기로 나서 무턱대고 악청을 돋우는 꼴이 참으로 가관이었다"고 전했다.앞서 윤 대통령은 유엔총회 연설에서 "북한이 러시아에 재래식 무기를 지원하는 대가로 대량살상무기(WMD) 능력 강화에 필요한 정보와 기술을 얻게 된다면, 러시아와 북한의 군사 거래는 우크라이나뿐만 아니라 대한민국의 안보와 평화를 직접적으로 겨냥한 도발이 될 것"이라고 강조했다. 그러면서 "대한민국과 동맹, 우방국들은 이를 좌시하지 않을 것"이라고 덧붙였다.통신은 "놈(윤 대통령)은 전통적인 조로(북러)친선 협조관계를 저들의 '안보와 평화를 직접적으로 겨냥한 도발'로, '지역과 전세계 평화에 대한 중대한 도전'으로 매도하면서 '동맹, 우방국들은 이를 좌시하지 않을 것'이라고 어망처망한 나발을 불어댔다"며 "이웃나라들끼리 서로 친하게 지내는 것은 지극히 자연스럽고 정상적인 일"이라고 말했다.▲조정식은 '고심' 송갑석은 '즉시?'…이재명, 친명·비명 사표수리 온도차이재명 더불어민주당 대표 체포동의안 가결 책임에 비명(비이재명)계 박광온 원내대표와 송갑석 최고위원이 잇따라 사의를 표명했다. 친명(친이재명)계 지도부의 '책임 떠넘기기'라는 비판이 나오는 가운데, 이 대표는 사표 수리에도 계파에 따라 온도차를 보이고 있다는 지적이 더해진다.25일 야권에 따르면 이 대표는 지난 23일 송 의원의 최고위원직 사의를 하루 만에 받아들였다. 비명계로 분류되는 송 의원은 이 대표가 당내 의견을 두루 아우르겠다는 탕평의 의지로 지명한 최고위원이다. 그는 민주당에 제기되는 다양한 비판을 이 대표에 직언하던 '소신파' 중 하나다.송 의원은 이날 오전 국회에서 열린 자신의 마지막 최고위원회의에서도 '작심 발언'을 서슴지 않았다. 그는 체포안 가결 직후 민주당의 상황과 관련 "매말라버린 신뢰, 실종된 리더십, 빈약한 정치적 상상력 등 우리 당의 현 상황이 고스란히 드러나며 걸림돌로 작용했다"며 "나의 실패였고, 지도부의 실패였으며 168명 민주당 국회의원 모두의 실패였다"고 꼬집었다.그러면서 "급기야 우리 의원들이 (강성 당원들에게 자신의) 가·부결을 고백함으로써 자신을 증명해야하는 상황에 내몰려있지만, 그것이야말로 양심과 소신에 기반한 정치생명을 스스로 끊는 행위"라며 "나는 다시 민심의 바다에서 극단의 정치로부터 소외된 국민의 고단함과 불신을 정면으로 응시하며 민주당을 다시 세우는 길에 당원동지 여러분과 함께 하겠다"고 다짐하면서 마지막 최고위원회의를 끝마쳤다.앞서 송 의원은 지난 22일 사의 표명 후 입장문을 통해 "공개 사퇴 입장을 밝히기에 앞서 임명권자인 대표께 수용을 구하는 게 순서이자 도리라 생각해 어제 천준호 비서실장을 통해 사의를 표명했고, 오늘 조 사무총장으로부터 대표의 사의 수용 의사를 전달받았다"고 밝힌 바 있다.▲인뱅 대출 손실처리 1700억…몸집 불리는 중·저신용 리스크인터넷전문은행이 고객에 내준 대출에서 앞으로 돌려받지 못할 돈으로 보고 손실로 떠안은 비용이 한 해 동안에만 네 배 넘게 불어나며, 올해 들어 반년 동안만 1700억원에 육박한 것으로 나타났다. 고금리 충격파에 대출을 갚지 못하는 서민들이 많아지면서 손실 비용도 몸집을 불리는 모양새다.그럼에도 인터넷은행들로서는 정부가 요구한 중·저신용자 대출 목표를 채워야 하는 숙제 탓에 앞으로 비용 부담이 더 커질 것으로 보인다.25일 금융권에 따르면 카카오·케이·토스뱅크에서 올해 상반기 발생한 대손상각비는 총 1689억원으로 전년 동기 대비 345.6% 증가했다. 지난해 연간 기록과 비교해도 103.0% 늘며 두 배 넘게 불어났다.대손상각비는 금융사가 대출을 내줬지만 이를 돌려받지 못하고 손실 처리한 비용이다. 대손상각비가 확대됐다는 것은 금융사가 회수를 포기해야할 만큼 차주의 경제적 사정이 나빠진 대출이 늘고 있다는 뜻이다. 아울러 금융사 입장에서 대출 리스크 관리에 실패한 케이스가 많아지고 있다는 의미로도 볼 수 있다.은행별로 보면 케이뱅크의 올해 상반기 대손상각비가 797억원으로 전년 동기 대비 469.3% 증가했다. 카카오뱅크 역시 439억원으로 같은 기간 대비 84.7% 늘었다. 지난해 초부터 본격 대출 영업을 시작한 토스뱅크도 453억원으로 급증했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>'2000만원 가짜 코인' 진짜 거래… 업비트 "입출금 중단, 회수 조치"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000951399?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>업비트에서 가짜 코인이 진짜 코인으로 인식돼 입금되는 사태가 일어났다./사진=뉴스1  가상자산 거래소 업비트에서 '가짜 코인'이 진짜 코인으로 잘못 판매되는 가상자산 오입금 사고가 발생했다. 업비트는 해당 가상자산에 대한 입출금을 일시 중단하고 자금 회수에 나섰다.26일 업비트에 따르면 지난 24일 가상자산 앱토스(APT)를 가장한 코인이 앱토스로 인식돼 업비트 계좌로 입금되는 사고가 발생했다. 오입금 규모는 2000만원 정도다.업비트는 사건이 발생한 다음날인 지난 25일 문제를 인지하고 공지를 냈다. 앱토스 입출금 모니터링 과정에서 비정상적인 입금 시도가 확인돼 입출금을 중단하고 월렛 시스템 점검을 진행한다는 내용이다. 같은 날 밤 11시에는 점검을 완료했다며 입출금 서비스를 재개했다. 업비트는 앱토스 코인을 기반으로 제작된 토큰이 진짜 코인으로 인식되는 오류가 발생했다고 파악했다. 일부 가상자산은 같은 블록체인 네트워크를 공유하는 토큰을 만들 수 있는데, 앱토스 블록체인을 활용해 만들어진 토큰이 앱토스 코인으로 인식했다는 것이다.  이번 사태에 앱토스 가격도 출렁거렸다. 앱토스 가격은 지난 24일 오후 8시까지 6900원대를 유지하다가 오후 8시30분부터 급등했다. 업비트에서는 이후 9시 9400원대까지 치솟는 기현상이 일어나기도 했다. 업비트 관계자는 "나머지 3분의 1 입금액도 회수 진행 중에 있다"며 "이용자에게 불편을 드려 사과의 말씀을 드린다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.09.28.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>“고금리 특판 적금은 무조건 찜” “카드값 결제일은 매달 14일로”</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003523204?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>MZ세대위한 재테크 비법 공개《맞춤형 투자 전략 강연 호평 ‘2023 동아재테크쇼’가 이틀간의 일정을 마치고 27일 막을 내렸다. 2014년 한국 최초의 핀테크 전문 박람회로 출발한 ‘동아재테크·핀테크쇼’는 올해 10주년을 맞아 명칭을 바꾸고 한층 더 깊이 있는 재테크 전략을 공유하는 행사로 거듭났다. 총 50개 기업이 행사장에 마련한 197개 홍보관에서 글로벌 경제 격변기에 적합한 투자 상담 기회를 제공하고 인공지능(AI), 빅데이터 등을 접목한 첨단 금융 기술을 소개했다. 재테크 초보를 위한 입문 강연부터 부동산, 주식, 연금 등 각 분야 전문가들이 맞춤형 투자 전략을 제시한 강연들도 큰 호평을 받았다.》“취업을 준비 중인 20대는 고금리의 특판 적금 상품이 나오면 수중에 있는 몇만 원이라도 내서 반드시 가입하세요. 이렇게 ‘적금 찜하기’를 해놓으면 당장은 매달 적금 납입을 못 하더라도 나중에 월급을 받아 돈을 채워 넣을 수 있습니다.”(김지은 조이컴퍼니 대표) MZ세대(밀레니얼+Z세대)에게 ‘김짠부’라는 유튜버로 더 유명한 김 대표는 27일 서울 강남구 코엑스에서 열린 ‘2023 동아재테크쇼’에 연사로 나서 20대 청년들에게 필요한 재테크 전략을 전수했다. 그는 “최근 고금리 특판 상품이 많이 나오는데, 이런 상품은 금방 판매가 끝난다”면서 “적금 찜하기는 일단 이런 적금의 계좌를 만들어 선점한다는 개념”이라고 말했다. ‘슬기로운 투자 생활’을 슬로건으로 26일부터 이틀간 열린 이번 행사는 비가 내리는 궂은 날씨에도 수천 명의 관람객들로 붐볐다. 특히 부동산과 주식, 연금, 환율 등 다양한 분야의 ‘재테크 고수’들이 펼치는 릴레이 강연이 호응을 얻었다.● MZ 맞춤형-부동산 강연 인기 ‘거시경제 일타 강사’로 불리는 오건영 신한은행 WM본부 팀장이 27일 서울 강남구 코엑스에서 열린 ‘2023 동아재테크쇼’에서  환율과 금리, 인플레이션 등 글로벌 시장 상황에 대해 강연하고 있다. 오 팀장은 “2008년 글로벌 금융위기 이후 저금리 상황으로  다시 돌아갈 것을 기대하고 있다간 낭패를 볼 수 있다”고 강조했다. 신원건 기자 laputa@donga.com유튜버 ‘개념 있는 희애 씨’로 활동하고 있는 손희애 돈워리비리치 대표도 30대 직장인 등 MZ세대를 위한 재테크 비법을 공유했다. 손 대표는 MZ세대가 투자에 앞서 지출 상태를 알기 위해 가계부를 정확히 쓰려면 ‘카드값 결제일’부터 매달 14일 무렵으로 바꾸라고 조언했다. 그는 “금융회사들의 내부 시스템 때문에 사람들이 보통 카드값을 내는 매달 20∼25일은 실제 지난달 쓴 카드값과 고객에게 통보된 카드값이 일치하지 않는다”면서 “매달 14일 무렵으로 결제일을 해둬야 지난달(1일에서 말일까지) 소비 내역을 제대로 알 수 있다”고 설명했다. 이날 부동산 관련 강연장은 관람객들로 북적이며 최근 꿈틀거리고 있는 부동산 경기에 대한 시민들의 관심을 그대로 반영했다. 김제경 투미부동산컨설팅 소장은 재개발·재건축 등 주택정비사업에 대해 “사업성과 입지, 조합원의 분담금 납부 능력이라는 3가지 요건이 맞아야 신속하게 추진될 수 있다”면서 “경기 고양시 일산의 경우 비역세권 등 사업성이 떨어지는 곳은 분담금 문제를 감당하기 어려워 정비사업 추진에 속도가 나지 않을 것”이라고 내다봤다.  당초 예상보다 고금리가 장기화될 가능성이 높아지면서 보다 신중한 투자 전략이 필요하다는 조언도 나왔다. 김규정 한국투자증권 자산승계연구소장은 “부동산 가격 급락 지역을 중심으로 올해 초부터 6월까지 회복세였지만 3분기(7∼9월)부터는 분위기가 바뀌었다”면서 “내년까지는 올 상반기(1∼6월)만큼 가격을 회복하는 곳은 없다고 봐야 한다”며 신중한 부동산 투자를 당부했다.● ‘현미경 분석’에 ‘송곳 질문’ 재테크 고수들은 강연장을 찾은 관람객과 문답을 주고받으며 소통했다. 관람객들은 “고금리 상황이 내후년에도 계속될 것 같은지” “금리보다 높은 배당을 노리려면 어떤 주식을 택해야 할지” 등 구체적인 질문을 던졌다. 금리와 관련해 오건형 신한은행 WM본부 팀장은 “미국의 소비자물가 상승률이 완화되는 시기가 시장의 기대보다 늦춰지고 있다”고 진단했다. 그러면서 “물가 안정을 위해선 시간이 꽤 많이 필요할 것”이라며 “2008년 글로벌 금융위기 이후의 저금리로 다시 돌아갈 것이라고 기대하고 있다간 낭패를 볼 수 있다”고 지적했다. 올해 하반기(7∼12월) 주목해야 할 종목도 제시됐다. 민재기 KB증권 PRIME센터 팀장은 최근 주식시장에서 투자 대상으로 고려할 만한 종목으로 원자력 관련 주를 꼽았다. 그는 “원전주의 변동성이 크긴 하지만 우크라이나 전쟁 이후 세계 각국이 원자력을 외면할 수 없게 됐다”고 설명했다. 이날 행사장을 찾은 김창호 씨(71)는 “내 투자와 다른 사람의 투자 방식을 비교해 보기 위해 동아재테크쇼를 찾았는데, 도움이 될 만한 정보를 많이 얻어 간다”며 만족감을 표했다. 한편 총 50개 기업이 마련한 197개 홍보관에도 관람객들의 꾸준한 발길이 이어졌다. 특히 5대 금융지주(KB, 신한, 하나, 우리, NH농협)가 각 사의 자산관리 서비스를 관람객에게 무료로 상담해 주는 홍보관은 상담을 원하는 관람객들도 북적였다. 모바일 금융 플랫폼 ‘토스’는 특정 장소 방문이나 걸음 수에 따라 토스 포인트를 주는 만보기 서비스의 방문 미션 장소로 동아재테크쇼 행사장을 추가해 관람객들의 ‘짠테크’(짠돌이+재테크)를 도왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>서울 중구, 22~23일 장충단길 푸드페스티벌 개최</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002657292?sid=102</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[한겨레] 중구청 제공서울 중구가 장충단길 일대에서 22~23일 오전 11시부터 밤 10시까지 ‘장충단길 푸드페스티벌’을 개최한다. 남소영광장에서 열리는 개막식에서는 경관조명 점등 및 브랜드 선포식을 열어 어두웠던 장충단길을 빛으로 수놓으며 새로 출시하는 BI와 캐릭터를 선보인다. 이어서 상권 대표 음식의 전시와 시식회, 상인들이 참여하는 장충주막 등 본격적인 먹거리 축제를 벌인다. 매운 음식 빨리 먹기, 음식 먹고 휘파람 불기 등의 색다른 행사도 재미를 더할 예정이다. 동국대학교 학생, 장충동 주민 공연과 중구문화재단의 무대까지 볼거리도 다채롭다.구는 ‘장충단길 푸드페스티벌’과 연계해 23일 오전 11시 장충단 공원내 기억의 공간 전시실 앞에서 ‘Feeling Concert’도 개최한다. 4인조 재즈밴드 JIN’s Quartet이 장충단공원을 분위기 있는 재즈 선율로 물들일 전망이다. 장충단공원에서 재즈공연을 관람하면 토스에서 포인트도 받을 수 있다. 최근 앱테크로 인기를 끌고 있는 토스에 접속해 ‘친구와 함께 토스 켜고 받기 2배 이벤트’에 참여하면 최대 480원의 현금성 포인트를 챙겨갈 수 있다. ‘장충단, 기억의 공간’ 전시실을 관람하고 인스타그램이나 중구 유튜브에서 인증하면 ‘룰렛 돌리기’이벤트에서 경품도 받을 수 있다.앞서 21일 신당5동에서는 ‘백학시장 추석맞이 행운대축제’가 열린다. 백학시장은 지난 7월 서울시 전통시장 이벤트 지원사업 공모에 선정돼 이번 축제를 한층 풍성하게 진행할 수 있게 됐다. 안전한 행사를 위해 차없는 거리를 조성하고, 주민 동아리가 그동안 갈고 닦은 끼를 무대에 올린다. 아트정원, 나무랑, 아인닥종이, 꽃차, 오색수다, 지우글밭캘리그래피 등 주민 모임이 플리마켓에 참여하고 인생네컷 포토, 캐리커쳐 그리기, 고추장 만들기 등 온 가족이 함께 즐길 수 있는 체험 행사도 준비돼 있다.추석 대목을 앞두고 전통시장의 판매를 촉진하기 위한 상품권 행사도 추진한다. 충무로 골목형상점가(21~22일), 방산종합 상가(21일), 숭례문수입상가(23~27일)에서는 구매고객을 대상으로 온누리상품권 환급 이벤트가 진행된다. 25일에는 동평화시장, 테크노상가, 신평화패션타운, 평화시장, 아트프라자에서 방문객에게 떡을 증정하고, 방산시장(21일), 통일상가(25~27일)와 신중앙시장(25~27일)에서는 사은품 증정 행사가 열린다. 자세한 시장별 이벤트 내용은 중구청 누리집에서 확인할 수 있다. 김길성 중구청장도 골목형상점가와 전통시장을 찾아 상인을 격려하고 현장의 목소리를 듣는다. 15일 약수시장, 16일 동화동 골목형 상점가를 방문했고, 22일까지 신중부시장, 백학시장, 신중앙시장, 장충남소영길 골목형상점가를 찾아간다.김 구청장은 “명절을 앞두고 물가가 올라 상차림 준비가 고민이라면 품질 좋은 물건을 저렴하게 구입할 수 있는 전통시장이 좋다”며 아울러“온 가족이 함께 참여할 수 있는 축제도 마련했으니 명절 기분 한껏 내며 행복한 추석 보내시길 바란다”고 전했다.서울&amp; 온라인편집팀</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>"고객 상담사는 우리의 '히어로'...토스CX와 함께 성장하세요"</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002305731?sid=105</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>강희진 토스CX 대표 인터뷰…"토스와 동반 성장 가능, 하반기 70명 채용"직원들을 '히어로(영웅)'라고 칭하는 회사가 있다. 토스CX라는 회사다. 토스CX는 토스 계열사로 토스뱅크나 토스증권과 어깨를 나란히 한다. 토스 안에 '고객행복팀'이라는 이름으로 있던 고객 상담 조직이 2021년 계열사로 분사하면서 어엿한 회사가 됐다. 다소 과격하지만 '고객에게 미친 만족감을 제공하고 고객 경험을 수호한다'는 의미를 사명에 담았다.금융사가 금융 상담 전문 계열사를 두는 경우는 흔하지 않다. 토스CX는 그만큼 최고의 고객 상담 경험을 제공하기 위해 노력하고 있다. 쉽게 말해 외주를 주는 것이 아닌, 토스 안의 구성원으로서 상담뿐만 아니라 서비스 경험까지 향상시키려는 노력이다.토스CX는 어떤 회사이고, 어떤 히어로를 원하고 있는지 2017년부터 토스에 몸담고 있는 토스CX 강희진 대표를 만나봤다.강희진 토스CX 대표고객 상담사도 서비스 개선 참여한다토스CX는 다른 상담 전문 회사와는 다르다. 주된 업무는 고객 상담이지만, 서비스 개선이나 기획에 참여할 수 있는 기회도 주어진다. 퇴사율은 타사에 비해 낮은 편이다. 회사가 성장함에 따라 채용은 활발하게 진행되고 있다. 히어로들의 성취감이나 만족감을 높일 수 있도록 대표가 계속 고민한다는 것도 특별해 보인다.강희진 대표는 "토스 계열사들과 긴밀하게 소통할 수 있다는 점과 서비스 개선을 위해 직접적으로 관여할 수 있다는 점이 다른 회사와의 차별점이라고 할 수 있다"며 "서비스가 출시되기 전에 안내 사항과 같은 문구 작업을 할 때도 히어로들과 협업하는 과정이 있다"고 말했다.민원이 생기지 않기 위해 문구는 어떻게 작성돼야 하는지, 어떤 내용으로 문구가 쓰여 있으면 좋을지 기획 단계에서부터 히어로들이 참여할 수 있다는 설명이다.물론 고객 상담사 업무만 할 수 있지만, 의지가 있다면 리스크 매니저나 교육 코치, 프로덕트 매니저로 성장이 가능하다. 현재 해당 업무를 맡고 있는 직원들도 다 히어로부터 시작해 역할을 확장해 왔다.강 대표는 "히어로들도 리더십을 발휘할 수 있는 영역이 있다"며 "꼭 리더가 되지 않는다고 해도 VOC(고객의 소리)를 개선하거나 기획하는 업무에 참여할 수 있어 다양한 경험을 쌓을 수 있다"고 말했다.이어 "상담 업무가 가장 중요하지만, 토스CX에서 최대한 많은 서비스를 히어로들이 경험했으면 좋겠다"며 "채용할 때에도 상담 기업이라고 강조하는 것보다는, 상담이 주요 업무이지만 이를 통해서 성장할 수 있다는 것을 보여주려고 한다. 히어로들 또한 상담 이외의 업무도 경험해 볼 수 있다는 기대감에 토스CX에 합류한다"고 덧붙였다.토스 계열사상담 직무 경험 없어도 OK…충분한 교육 진행토스CX에 입사하기 위해서는 반드시 고객상담 서비스나 관련 업무 경험이 있어야 하는 것은 아니다. 강 대표는 토스CX의 온보딩 교육과정을 강조하고 자신있어했다. 2개월가량 꼼꼼하게 교육 스케줄이 짜여 있기 때문에 상담에 대한 배경지식이 없어도 충분한 학습을 통해 업무를 진행할 수 있다는 얘기다.실제 학업을 마치로 바로 합류한 히어로도 있고, 항공사나 여행사 등 대면 서비스 경험 후 상담 업무를 새로 시작한 히어로도 있다.강 대표는 "열정적인 동료들과 일에 몰입할 수 있는 경험을 할 수 있기 때문에 물론 토스 서비스나 토스 계열사들에 대한 애정이 있는 지원자들을 더 선호하게 된다"며 "또한 학습 의지가 있어야지 새로운 서비스를 계속 배워나가는 데 수월하기 때문에 학습하려는 의지도 중요하게 생각한다"고 조언했다.채용 절차는 서류→1차 면접→2차면접 순으로 진행된다. 회사 문화와 잘 맞을지도 평가하게 된다. 1차 직무 인터뷰에서는 상담에 대한 톤앤매너를 가져갈 수 있는지, 커뮤니케이션이 원할한지에 대해 보고, 2차에서는 회사와 합이 잘 맞을지 본다.강 대표는 "지난해부터는 고등학교 연계 채용도 하고 있어 금융 관련 특성화 고등학교 졸업 후 바로 토스CX에 합류해 사회생활을 시작한 히어로들도 있다"며 "올해부터는 대학교 연계 채용도 준비 중이기 때문에 고객 상담 직군으로만 한정해서 생각하지 않아도 된다"고 강조했다.강희진 토스CX 대표"고객 행복을 넘어 고객 경험을 최우선으로 수호"토스CX 홈페이지를 보면 '고객 행복을 넘어 고객 경험을 최우선으로 수호합니다'라는 말이 있다. 토스CX가 정의하는 고객경험은 이렇다. 히어로가 고객과의 상담 시 최고의 상담 경험을 제공하기 위해 문의 내용에 빠르고 정확하게 해결하는 동시 정중한 커뮤니케이션이 이뤄지는 것이다.고객이 토스와 계열사의 모든 서비스 관련 고객 경험까지 수호한다는 생각을 가지고 있다는 설명이다.강 대표는 "고객이 경험한 토스 계열사의 제품에 대한 생각을 담당 팀에 공유하는 것뿐만 아니라, 실제 제품 개선까지 이어질 수 있도록 하는 등 각 계열사의 팀과 협업하기 위해 많은 노력을 기울이고 있다"고 말했다.이에 토스CX는 정보보호 관리에도 최선을 다하고 있다. 고객에 대한 개인정보는 토스CX와 같은 고객 상담을 하는 직무군들이 가장 잘 지켜야 하는 분야라 생각하기 때문이다.강 대표는 "상담을 하는 직무군들이 고객의 개인정보를 더 많이 볼 수밖에 없기 때문에 고객상담 전문 기업이 정보보호를 관리하려는 노력을 더 많이 해야 한다고 생각한다"며 "그렇기 때문에 토스CX는 지난해 3월에 국내 고객상담 서비스 기업 중 최초로 정보보호 관리체계 보안 인증 ‘ISO/IEC 27001’과 ‘ISO/IEC 27701’을 동시에 취득했고, 올해 하반기 중 PCI-DSS v4.0 인증을 취득할 예정"이라고 귀띔했다.고객 상담 기업으로서 국내 최초로 PCI-DSS v4.0 인증을 취득하게 되는 것이다. 이런 인증 심사에 대한 노력은 토스CX가 정보보호 관리에 대한 높은 보안 의식과 책임감에서 나온 노력이라고 볼 수 있다.토스CX토스와 함께 토스CX도 성장 중…"올해 하반기 70명 채용"토스의 모든 서비스는 문의량이 많고 현재도 계속 성장 중인 회사이기 때문에 이를 담당하는 히어로의 채용도 활발하게 이뤄지고 있다.토스CX는 상담뿐만 아니라 고객 경험에 대한 지식을 풍부하게 가지고 있는 조직이라 그 역할을 확장하기 위해 내부 팀원을 인재로 만들기 위한 러닝&amp;디벨로퍼 매니저와 QA 상담품질 매니저를 채용하고 있다.또한 전화/채팅 상담의 시스템에 대한 이해도가 높고, 앞으로 토스CX를 대표할 수 있는 시스템을 개발 및 운영할 수 있도록 테크니컬 프로덕트 매니저, 시큐리티 엔지니어, 시스템 엔지니어, 풀스텍 디벨로퍼, 데이터 애널리스트를 채용 중이다.토스CX 복지는 토스와 같다. 리프레시 휴가와 개인 법인카드 지급, 사내 카페 및 편의점, 미용실 무료 이용, 체력단련비, 통신비 등 업계 최고 수준이라고 할 수 있다. 수습기간 6개월 후 동료평가를 거쳐 정규직이 된다.강 대표는 "물론, 현재도 인프라팀 이나 시스템 플랫폼 팀이 존재하지만, 더 전문적인 분야의 조직으로 만들기 위해 팀을 확장하고 있다"며 "금융과 연결되는 상담을 하고 있는 만큼 개인정보나 정보보안을 강화하기 위해 인포메이션 시큐리티 매니저도 채용 중이다"고 언급했다.이어 강 대표는 "토스 서비스가 워낙 빠르게 성장하고, 토스의 계열사들도 계속 성장하는 추세이기 때문에 하반기에 70명 정도까지 채용을 할 예정"이라며 "하반기에는 히어로 외에도 경력이 단절돼 있는 상담에 대한 경력직 히어로나 인프라, 개발자 등의 채용도 지속될 예정"이라고 설명했다.특히 토스CX는 올해 4분기 중 대규모 채용을 진행할 예정이다. 이와 함께 오는 25일부터 27일까지 삼성동 코엑스A 홀에서 개최되는 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌에도 참여한다. 잡테크 커넥팅 데이즈에서는 대중들에게 사랑받는 다수의 테크 기업들이 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.강희진 대표 또한 26일 '토스씨엑스는 어떻게 CX 전문가를 양성할까?'라는 주제로 강연에 나선다. 10년 이상 고객 상담 분야 경험을 보유하고 있는 강 대표는 고객상담 서비스 기업이 나아가야 하는 방향에 대해 다양한 생각을 공유할 예정이다.강 대표는 "고객 경험에 대한 시각을 넓히면 좋겠다. 대면 상담뿐만 아니라, 비대면 상담을 통해 만나는 고객도 모두 고객 경험인데, 고객상담 전문 기업으로서 최고의 비대면 상담 경험을 제공하기 위해 챗봇, 전화/채팅 시스템, 그리고 고객의 정보를 다루는 시스템 개발과 고도화를 주도적으로 추진할 수 있어야 한다고 생각한다"고 조언했다.이어 "고객상담 전문 기업은 상담이 전문 영역이라는 생각을 바탕으로 인재를 지속적으로 양성하고, 해당 인원이 상담을 통해 확보한 인사이트를 바탕으로 서비스 개선과 고도화를 위해 긴밀히 협업할 수 있는 환경을 구축해야 한다고 생각한다"며 "지금까지 제가 경험한 대다수의 히어로들은 무궁무진한 성장가능성을 보유하고 있었다. 히어로들이 토스CX에 재직하는 동안 성장할 수 있도록 만드는 것이 저의 목표이자 고객 상담 서비스 기업이 나아가야 하는 방향이라고 본다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.09.22.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>“중국서도 네이버·토스페이”…핀테크, 유니온·알리페이 손잡고 서비스 확장</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003773379?sid=103</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>중국 현지서 모바일 앱 QR결제 사용 가능네이버·유니온페이는 캐시백 이벤트 준비네이버페이, 토스페이가 최근 유니온페이, 알리페이플러스와 협력해 중국 내 간편결제 인프라를 확보했다./픽사베이[마이데일리 = 구현주 기자] 네이버·토스 등 핀테크(금융+기술) 업계가 중국 여행 수요 증가에 대비해 중국 내 간편결제 서비스를 제공한다. 최근 중국 비자 신청시 지문 등록이 면제돼 중국 비자 신청이 간소화됐다.22일 핀테크업계에 따르면 네이버페이, 토스페이가 최근 유니온페이, 알리페이플러스와 협력해 중국 내 간편결제 인프라를 확보했다. 또한 중국 신용카드사 유니온페이도 중국 오프라인 결제 고객을 위한 프로모션을 진행한다.네이버페이는 지난 7일 유니온페이 중국·일본 가맹점 현장결제 서비스를 시작했다. 네이버페이 머니 또는 포인트를 이용해 별도 환전 절차 없이 간편하게 결제 가능하다. 결제방식은 QR결제다.또한 네이버페이는 연말까지 해외 유니온페이 가맹점에서 2000원 이상 QR 현장결제 시 네이버페이 포인트를 2000원 페이백 해주는 이벤트를 시행한다.토스 간편결제 서비스 토스페이는 중국 ‘알리페이플러스’ 가맹점에서 결제를 지원한다.토스페이 이용자는 중국 내 알리페이플러스 로고 또는 토스페이 로고가 있는 오프라인 매장에서 토스 앱(애플리케이션)으로 간편결제를 쓸 수 있다. 결제는 토스 앱에 있는 바코드 또는 QR코드를 활용한다.한국에서 유니온페이 카드를 발급한 고객을 내달 말까지 중국 모든 오프라인 가맹점에서 카드결제시 10% 할인을 받을 수 있다./유니온페이유니온페이도 중국 방문 한국 여행객을 위한 프로모션을 진행한다.한국에서 유니온페이 카드를 발급한 고객을 내달 말까지 중국 모든 오프라인 가맹점에서 카드결제시 10% 할인을 받을 수 있다. 유니온페이 QR결제 사용시에는 20% 즉시할인이 적용된다.아울러 유니온페이는 중국비자센터 UPI고객 전용 창구를 오픈하는 등 유니온페이 프리미엄 카드 소지자에게 대기 없이 비자 발급이 가능한 서비스를 제공할 계획이다.이명호 유니온페이 인터내셔날 한국지사 대표는 “최근 중국 출국자 수가 증가함에 따라 중국내 거래금액 또한 회복 추세에 들어섰다”며 “본격적인 중국 프로모션 진행으로 유니온페이 카드 소지 여행객이 더욱 즐거운 여행을 할 수 있도록 다양한 혜택을 제공하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>아산나눔재단, '정주영 창업경진대회 데모데이 2023' 개최</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002305504?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>10월31일 코엑스 오디토리움서 14개 창업팀 피칭아산나눔재단(이사장 장석환)은 '정주영 창업경진대회(이하 '정창경')'의 데모데이를 10월 31일 코엑스 오디토리움에서 개최한다.올해로 12회째를 맞이하는 '정창경'은 아산 정주영 현대 창업자의 주요 어록 중 '불굴(Tenacity)'이라는 키워드를 주제로 지난 3월부터 참여팀을 모집하고, 결선 대회인 데모데이에 진출할 총 14개의 창업팀을 선발했다. 올해 대회에는 약 1천200여개 팀이 지원하며 87:1의 높은 경쟁률을 기록했다.최종 선발팀에게는 아산나눔재단이 운영하는 기업가정신 플랫폼 '마루'의 사무공간과 함께, 국내 대표 벤처캐피털 및 액셀러레이터 전문가의 1:1 전담 멘토링 기회 등을 제공해왔다. 또 6개월간의 사업 실행 단계를 거친 팀에게는 데모데이 현장에서 그동안 준비해온 사업에 대한 투자 유치 및 홍보를 위한 피칭 기회가 주어진다.아산나눔재단 '정주영 창업경진대회 데모데이 2023' 개최정창경 데모데이 행사는 이승건 토스팀 리더의 기조연설로 시작해, 총 14개 팀의 피칭 세션으로 진행될 예정이다. 예비 창업팀을 대상으로 하는 '도전 트랙'에는 ▲그리닉 ▲리뉴트라 ▲앰버로드 ▲오세나 ▲오프라이트 ▲TOFU ▲플로라바이오 등 총 7팀이, 법인 설립 2년 이내 스타트업을 대상으로 한 '성장 트랙'에는 ▲니어브레인 ▲다이노즈 ▲몰리턴 ▲바크 ▲플랜핏 ▲플릿튠 ▲헬퍼로보틱스 등 총 7팀이 참가해 각 팀에서 개발한 상품 및 서비스에 대해 발표하며 경합을 펼친다.이어서 열리는 시상식에서는 지난해보다 규모를 확장해 총 2억4천100만원의 상금을 수여한다. 도전 트랙에서는 ▲대상 3천만원 (1팀) ▲최우수상 2천만원 (1팀) ▲우수상 각 1천만원 (2팀) ▲장려상 각 500만원 (3팀)을, 성장 트랙에서는 ▲대상 5천만원(1팀) ▲최우수상 3천만원(1팀) ▲우수상 각 2천만원 (2팀) ▲장려상 각 1천만 원(3팀)의 상금을 수여한다. 특히, 올해 처음 신설된 '인기상'에서는 온라인 사전 투표 및 현장 투표에서 1위를 차지한 팀에게 100만원의 상금을, 사업 실행 기간동안 자신의 경험과 노하우를 적극 공유하는 '페이 잇 포워드(Pay it Forward)' 정신을 실천한 팀에게는 총 500만원의 상금을 추가 지급한다.이와 더불어 수상팀 전원에게는 아산나눔재단이 창업지원센터 마루 입주사에 제공하는 글로벌 진출 및 홍보 마케팅 지원, 전문가 매칭 프로그램 등의 활용할 수 있는 기회와 함께, 벤처캐피털 투자자 추천 등을 포함한 다양한 혜택까지 제공한다.아산나눔재단은 올해 처음으로 데모데이 참관객의 현장 투표와 온라인 사전 투표를 동시에 진행한다. 온라인 사전 투표는 마루 인스타그램 및 페이스북 채널에서 가능하다. 관련 포스팅에서 14개 팀의 정보를 확인하고 응원하는 팀의 이름을 쓴 댓글을 달면 투표가 완료된다. 추첨을 통해 커피 머신, 버티컬 마우스 등의 경품을 증정한다.정주영 창업경진대회 데모데이는 정창경 홈페이지를 통해 무료로 사전 등록이 가능하다.장석환 아산나눔재단 이사장은 "국내 유망 스타트업의 산실이자 등용문으로 불리는 '정주영 창업경진대회'가 투자 혹한기 속에서 창업가들의 '불굴'의 도전정신 일깨우고, 동시에 참관객들이 기업가정신을 경험하고 영감을 얻을 수 있는 자리가 되길 바란다"며 "아산나눔재단은 앞으로도 창업에 도전하고자 하는 이들의 꿈과 열정을 지속적으로 지원하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>한국투자증권, 토큰증권 발행 인프라 구축 완료</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000050515?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>클라우드 기반 분산원장 인프라 구현제도 변화 따라 시스템 개선 예정한국투자증권과 카카오뱅크, 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 ‘한국투자ST프렌즈’[사진 한국투자증권][이코노미스트 마켓in 허지은 기자] 한국투자증권은 증권업계 최초로 토큰증권(ST) 발행 인프라 구축을 완료했다고 21일 밝혔다. 이번 개발은 한국투자증권과 카카오뱅크(323410), 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 ‘한국투자ST프렌즈’ 차원에서 이뤄졌다. 앞서 한국투자ST프렌즈는 지난 5월 발행 인프라 구축을 목표로 개발에 착수했다. 이후 4개월여의 노력 끝에 국내 최초로 토큰증권 발행 및 청산에 필요한 모든 과정을 구현한 인프라를 개발하고 시범 발행까지 완료했다. 토큰증권은 분산원장 기술(Distributed Ledger Technology)을 활용해 발행된 디지털화된 증권으로,실물증권과 전자증권에 이은 새로운 발행 형태의 증권이다. 부동산은 물론 선박, 항공기 미술품 등 실물로 존재하는 자산의 권리를 손쉽게 유동화해 '증권형 디지털자산'로 전환, 조각 투자가 가능해진다. 아직 국내 토큰증권 사업은 법제화 단계에 놓여 있다. 한국투자증권은 이를 고려해 클라우드 시스템을 기반으로 분산우너장 인프라를 구현했다. 향후 제도 변화를 탄력적으로 수용하고 시스템 개선에 능동적으로 대처하기 위해서다. 또 애자일 개발 방식을 채택해 신속한 의사결정과 효율적인 협업을 통해 개발 시간을 크게 단축했다고 밝혔다. 새로운 발행 인프라가 기존 증권거래 시스템과 충돌 없이 결합하여 유기적으로 작동하도록 연동 작업도 마쳤다. 중앙집중식 계좌부에 기재하는 일반적인 금융시스템과 달리 분산원장에 기재되는 토큰증권의 특성상 이를 효과적으로 연결하기 위해서는 여러 기술적 난제를 해결해야만 했다고 회사 측은 설명했다.한국투자증권은 ▲스마트계약을 통한 배당 처리 ▲분산원장 예수금을 활용한 즉각적인 거래 완결성 보장 ▲개인정보 처리 및 보호 기술 등의 특허 출원도 진행 중이다. 토큰증권 인프라의 높은 기술력과 시스템 안정성을 입증하여 업계를 선도하는 기술적 우위를 확보해 나간다는 방침이다.최서룡 플랫폼본부장은 “이번 발행 인프라가 분산원장 기술이 제도권 금융으로 편입되는 과정에서 중요한 변곡점이 될 것으로 기대한다"면서 “투자자의 니즈를 반영한 우량자산 발굴에 힘쓰는 한편, 안정적인 제도 정착과 투자자보호에 노력하여 선도 사업자로서의 위상을 공고히 하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>가짜가 진짜로 둔갑?…업비트서 코인 오입금 사고</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000352451?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>[앵커]다음 소식입니다.가장 신뢰받는 가상자산 거래소라고 자평하던 업비트에서 가짜 가상자산이 진짜로 둔갑하는 사건이 발생했습니다.업비트는 뒤늦게 상황을 인지하고 해당 가상자산의 입출금을 일시 중단하는 등 진화에 나섰습니다.취재기자 연결합니다.김동필 기자, 일단 상황부터가 납득이 어려운데, 어떤 일이 벌어진 건가요?[기자]한 마디로 요약하면 '가짜 코인'이 '진짜 코인'으로 인식된 건데요.어제(24일) 가상자산거래소 업비트의 다수 계좌에 불특정 계좌로부터 가상자산 중 하나인 '앱토스'가 무더기로 입금됐습니다.7천 원을 두고 횡보하던 앱토스는 순식간에 9천 원 가까이 훌쩍 올랐고, 급등세에 올라탄 투자자들도 생겼는데요.이에 글로벌 시세와 20% 넘게 차이가 나기도 했습니다.문제는 이 코인들이 앱토스를 가장한 가짜였다는 점입니다.블록체인 기술만 공유한 가짜 코인이 앱토스로 인식돼 유통된 겁니다.특히 일부는 이미 매도해서 차익을 챙긴 것으로 알려졌습니다.[앵커]업비트 측 대응 방식은 어떻습니까?[기자]업비트는 이유는 밝히지 않고 시스템 점검을 한다면서 급히 입출금을 중단했는데요.그런데 일각에선 업비트에서 보유자들에게 전화를 돌리며 환수하고 있다는 말이 돌기도 했습니다.이후 자정 무렵 공지에서 "앱토스 입출금 모니터링 과정에서 비정상적인 입금 시도가 확인돼 입출금 중단 및 점검을 진행했다"라고 밝혔습니다.그러나 가짜 코인이 얼마나 유입됐고, 얼마나 팔렸는지는 공개되지 않았습니다.업비트 관계자는 "이상 입금을 인지해 대처했으며 파악된 가상자산의 3분의 2를 환수조치했다"라고 했습니다.SBS Biz 김동필입니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[Biz &amp; Now] 중국 앤트그룹, 토스페이먼츠에 1000억원대 지분 투자</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003308712?sid=105</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>금융 플랫폼 토스(운영사 비바리퍼블리카)가 중국 앤트 그룹과 손잡았다. 18일 정보통신(IT) 업계에 따르면 간편결제 ‘알리페이’로 유명한 앤트 그룹이 전자지급결제대행(PG) 사업을 하는 토스페이먼츠에 1000억원대 지분 투자를 단행했다. 이후 토스페이먼츠의 이사 5명 중 2명이 앤트 그룹 측 인사로 선임됐다. 향후 토스페이먼츠의 해외 결제 서비스 확대에 속도가 붙을 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.09.28.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>"빠를까 다양할까 편할까" 당신이 사용하는 뱅킹앱 평가보고서 [분석+]</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/665/0000001711?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>더스쿠프 마켓분석  국내 은행 뱅킹앱 보고서 서경대 MFS 연구팀 전수조사  시중은행 12사 인뱅 3사 앱 대상네가지 관점에서 정량적 분석 4대 시중은행 전반적인 평가 우수지방ㆍ특수은행 각박한 점수 받아인터넷전문은행 기대치 밑돌아서경대 MFS(Mobile Financial Service) 연구팀이 국내 뱅킹앱을 분석했다.[일러스트=게티이미지뱅크]# 금융산업에 디지털 바람이 거세게 불고 있다. 너도나도 자사 뱅킹앱을 고도화하기 위해 큰돈을 투자하고 있다. 국민 10명 중 9명이 모바일로 금융거래를 하는 시대가 왔으니 어찌 보면 당연한 일이다. 그럼 각 금융회사의 생활금융 플랫폼인 뱅킹앱 중 가장 우수한 앱은 어떤 걸까.# 서경대 MFS(Mobile Financial Service) 연구팀은 2023년 초부터 8월까지 국내 은행의 뱅킹앱을 두고 고객의 관점에서 정량적으로 분석했다. 12개 시중ㆍ지방은행과 3대 인터넷전문은행이 대상이었다. 그 결과, 4대 시중은행(우리ㆍ국민ㆍ신한ㆍ하나)의 뱅킹앱의 역량이 나머지 은행을 뛰어넘은 것으로 조사됐지만 사실 성적표가 중요한 건 아니다. # 이번 보고서는 그 자체로 함의가 크다. 무엇보다 각 뱅킹앱의 특성을 정량적으로 분석한 건 금융사뿐만 아니라 금융 소비자에게도 좋은 정보나 교본이 될 것이다. 아울러 '디지털 혁신'을 기치로 출범했지만 성장세가 금세 꺾여버린 인터넷전문은행의 진짜 숙제가 무엇인지도 확인할 수 있을 것으로 보인다. # 더스쿠프가 추석 특집 기획으로 서경대 MFS 연구팀과 함께 진행한 '국내 뱅킹앱 평가 보고서'를 공개한다. 내 손안의 뱅킹앱은 과연 어떤 평가를 받았을까.은행 점포를 찾지 않는 국민이 부쩍 늘었다. 스마트폰 하나로 대부분의 금융거래를 할 수 있는 세상, '뱅킹앱' 시대가 활짝 열려서다. 이제 금융소비자 대부분은 앱으로 통장이용내역과 잔액을 확인하고, 지문 인식이나 비밀번호 입력 하나로 송금한다. 간편결제로 쇼핑하는 이들도 흔해졌다. 뱅킹앱은 젊은 세대의 전유물도 아니다. 하나금융경영연구소가 국민 5000명의 금융생활 전반을 분석한 '2023 대한민국 금융소비자 보고서'에 따르면, 국민의 91.9%가 핀테크, 이를테면 '디지털 금융서비스'를 통해 금전적 거래를 하고 있었다. MZ세대(97.0%)의 이용률이 확실히 높긴 했지만, X세대(91.2%)와 베이비붐 세대(80.8%)의 비중도 만만치 않았다. 세대를 불문하고 스마트폰쯤은 능수능란하게 다루니 당연한 결과일지 모른다. 국내 은행들이 디지털 서비스 영역을 확장하고 있다.[사진=뉴시스]금융 생태계의 중심을 오프라인 은행에서 앱으로 바꾼 건 인터넷전문은행이었다. 금융당국은 2017년 4대 시중은행의 과점 체제를 깨겠다면서 인터넷전문은행을 허용했다. 그해 케이뱅크와 카카오뱅크가 인터넷전문은행 인가를 받았고, 2021년엔 토스뱅크가 합류하면서 3대 인터넷전문은행의 체제를 구축했다.당시만 해도 영업점 하나 없이 스마트폰 하나로 금융 거래를 하는 게 무모한 도전처럼 보였다. 전통의 시중은행들이 쌓아온 현장의 역량을 뛰어넘진 못할 것이란 전망도 많았다. 돈거래를 어떻게 '스마트폰'만으로 하느냐는 비관론도 팽배했다. 전망은 보기 좋게 빗나갔다. 국민들은 인터넷전문은행의 문턱을 가볍게 넘어갔다. 처음엔 카카오뱅크의 활약이 돋보였다. 출범 한달 만에 신규 계좌 300만좌, 여ㆍ수신 금액 3조원을 돌파하는 등 유례없는 성공기를 썼다. 인터넷전문은행 출신의 한 개발자 임원은 금융산업이 격변하던 상황을 이렇게 설명했다."요샌 모든 금융회사가 디지털 혁신을 강조하고 있지만, 인터넷전문은행 초창기만 해도 그렇지 않았다. 금융업계에 개발자 임원이 흔치 않았고, CTO 대신 최고정보책임자(CIO)가 많았다. 전산팀은 후방 지원조직에 가까웠다. 품이 많이 필요한 작업은 외주업체에 맡겼다. 지금은 다르다. 전통 은행들도 개발인력을 경쟁적으로 뽑고 있고, 투자 역시 많이 한다. 격세지감 수준으로 분위기가 바뀌었다."인터넷전문은행 막내 격인 토스뱅크의 출범도 파급력이 셌다. 올 7월 말 기준 가입자 수가 700만명을 넘어선 토스뱅크는 올해 상반기 월간활성사용자수(MAU) 기준 은행ㆍ뱅킹 서비스 앱 가운데 1위(1587만명ㆍ모바일인덱스 조사)를 차지했다. 이처럼 인터넷전문은행은 편리하고 직관적인 앱을 앞세워 MZ세대를 중심으로 금융 고객들을 빠르게 빨아들였다. 그 과정에선 전통 은행들의 간담을 서늘케 하는 일들이 줄줄이 벌어졌다. 2021년 8월 카카오뱅크의 시가총액이 금융 대장주 KB금융의 시총을 따돌린 건 대표적 사례다. 위기감이 커지자 전통 은행들도 '생활금융 플랫폼'을 고도화하는 데 실탄을 쏟아붓기 시작했다. 시중은행만이 아니었다. 지방은행도, 수협은행 같은 특수은행도 뱅킹앱 시장에 공격적으로 뛰어들었다.뱅킹앱 춘추전국시대는 이렇게 열렸다. 2023년 지금, 계좌등록부터 이체까지 척척 해내는 '앱'이 없는 은행은 사실상 없다. 요즘의 뱅킹앱은 한발 더 나아가 은행ㆍ보험ㆍ증권 등 모든 서비스를 아우르는 '슈퍼앱'을 표방하고 있다. 여러 앱에 역량을 분산하지 않고 한데 모아 경쟁력을 극대화하겠다는 전략이다. 문제는 '슈퍼앱'을 제대로 구현하려면 해결해야 할 과제가 숱하다는 점이다. 일단 고객이 앱 안에서 최대한 다양한 금융서비스를 누릴 수 있을 만큼 금융상품이 많아야 한다(다양성). 이런 상품의 정보는 빠르게 검색할 수 있어야 하고, 신속하게 서비스를 제공해야 한다(신속성). 일관성 있는 사용자경험(UX)을 통해 고객에게 매끄러운 앱 경험을 전달하는 것도 숙제다(편리성). 아울러 철통같은 보안 시스템을 구축해야 하고, 다양한 정보를 한눈에 볼 수 있어야 한다(보안성ㆍ가독성). 뱅킹앱 경쟁이 갈수록 격화하는 시대, 과연 어떤 은행의 앱이 가장 우수한 성능을 갖추고 있을까. 해답은 서기수 서경대 교수(금융정보공학)와 이 대학 MFS(Mobile Fin ancial Service) 연구팀이 8개월에 걸쳐 분석한 '국내 모바일 은행 앱 서비스 평가보고서'에 담겨 있다. MFS 연구팀은 각 은행이 운영하는 뱅킹앱을 여러 관점(▲다양성, ▲신속성, ▲편리성, ▲가독성ㆍ보안성)에서 정량분석했다. [※참고: 네가지 관점의 평가 결과는 파트 기사에서 자세히 다뤘다. 평가는 해당 항목의 여러 연구원이 개인 금융소비자 입장에서 앱을 직접 다루면서 진행했다. 8월 21일 업데이트 시점을 기준으로 삼았고, 모바일 앱 인터페이스(UI)와 사용자 경험(UX)을 중심으로 평가했다.]MFS 연구팀은 평가 그룹을 시중ㆍ지방은행과 인터넷전문은행으로 구분했다. 업력이 비교적 짧은 인터넷전문은행을 감안한 조사 방식이었다. 그렇다면 한국의 뱅킹앱은 어떤 성적표를 받아들었을까. 12개 시중ㆍ지방은행의 평가부터 보자. ■ 분석➊ 시중ㆍ지방은행 = 결론부터 말하면, ▲다양성, ▲신속성, ▲편리성, ▲가독성ㆍ보안성 측면에서 종합적으로 우수한 앱은 우리은행의 '우리원뱅킹'이었다. 종합 평가 점수 17.04점을 획득했다(각 평가항목 점수 5점, 총 20점 만점). 12개 시중ㆍ지방은행의 평균 점수는 15.56점이었는데, 이를 훌쩍 뛰어넘었다. 우리은행은 대부분의 평가에서 고득점을 얻었다. 다양성과 신속성 항목에선 12개 은행 중 가장 뛰어난 성능을 보였고, 가독성ㆍ보안성에선 2위, 편리성에선 3위를 차지했다. 특히 1위를 차지한 다양성 평가에선 '코어뱅킹(은행의 핵심 업무)'으로 불리는 적금 상품과 자유예금 상품, 신용ㆍ담보 대출 상품에서 다양한 가짓수를 뽐냈다. 신속성을 따져 봐도 우수했다. 앱을 켜고 2회만 터치하면 환율 조회가 가능했다. 4회를 터치하면 신용조회도 가능했고, 8회만 손을 놀리면 마이데이터를 등록할 수 있었다. 2위는 KB국민은행의 'KB스타뱅킹'이 차지했다. 종합 점수 16.82점으로 리딩뱅크의 자존심을 지켰다. 다양성과 신속성 측면에선 중위권에 머물렀지만, 편리성과 가독성ㆍ보안성 항목에선 가장 특출난 기능으로 우수한 평가를 받았다. MFS 연구팀이 분석한 세번째로 우수한 뱅킹앱은 신한은행 '쏠'이었다. 종합 평가 점수 16.59점을 기록했다. 신한은행은 4가지 항목에서 1위를 차지하진 못했지만, 모든 평가에서 '톱3' 안에 들면서 준수한 모바일 역량을 선보였다. 다양성 평가에선 공동 3위, 신속성 2위, 가독성ㆍ보안성 공동 2위, 편리성 2위 등이었다. 뱅킹앱 평가 4위는 종합 평가 점수 16.49점을 얻은 하나은행의 '하나원큐'였다. 신한은행과 마찬가지로 전반적인 평가에서 빼어난 기능을 보였다. 흥미롭게도 상위권을 차지한 은행은 '4대 시중은행'이었다. 인터넷전문은행이 촉발한 뱅킹앱 경쟁에서도 시장을 리드하던 은행들이 뛰어난 오프라인 역량과 자산을 모바일로 옮기는 데 성공했다는 거다. 반면 지방은행은 대체로 각박한 점수를 받는 데 그쳤다. 광주은행(15.73점)이 그나마 평균 점수(15.56점)를 웃돌면서 7위를 차지했지만, 나머지 은행은 하위권으로 밀렸다. 8위 JB전북은행(15.54점), 9위 BNK부산은행(15.34점), 10위 DGB대구은행(15.25점), 11위 BNK경남은행(13.66점) 등으로 모두 평균치를 밑돌았다. 다양성 평가에서 광주은행이 6위, 가독성ㆍ보안성 측면에서 DGB대구은행이 공동 3위를 차지하는 등 일부 항목에선 좋은 평가를 받았지만 종합적으론 평가가 나빴다. 이들 지방은행이 모바일을 기반으로 수도권에서 영업망을 확대하며 '전국구 은행'을 목표로 삼은 지 얼마 되지 않았기 때문으로 풀이된다. 지방은행의 한 관계자는 "정부가 지난 7월 지방은행의 시중은행 전환 허용을 발표한 이후 더 많은 고객을 끌어들일 토대는 마련됐다고 본다"면서도 "지역 거점 영업의 한계를 벗어나 체질을 완전히 바꾸려면 시간이 더 필요한 것 같다"고 말했다. ■ 분석➋ 인터넷전문은행 = 그렇다면 인터넷전문은행의 뱅킹앱은 어떤 평가를 받았을까. 총점에선 막내 토스뱅크가 총합 16.79점을 얻어 1위에 올랐다. 가독성ㆍ보안성을 제외한 3개 항목(다양성ㆍ신속성ㆍ편리성)에서 3사 중 가장 뛰어난 성능을 보였다. 가장 늦게 출범했음에도 국내 금융플랫폼 부분 MAU 1위를 거머쥔 뱅킹앱다운 성적표였다. 이어 카카오뱅크가 16.15점으로 2위, 케이뱅크는 15.02점으로 3위에 머물렀다. 특히 케이뱅크는 4가지 평가 분야에서 모두 가장 나쁜 점수를 얻었다. 그렇다고 1위 토스뱅크와 2위 카카오뱅크에 문제가 없다는 건 아니다. 시중ㆍ지방은행과 같은 선상에서 비교하는 게 어려울 만큼 전반적으로 평가가 좋지 않았다. 보안성ㆍ가독성 항목에선 3사 모두 기존 은행과 비교해 나쁘지 않은 점수를 얻었지만, 나머지 항목에선 그렇지 않았다. 특히 금융상품의 다양성과 서비스 신속성 측면에선 낙제점에 가까운 평가를 받았다. 앱에 담긴 금융상품의 가짓수가 많지 않은 데다, 화상상담 솔루션이나 투자성향 분석 서비스 같은 디지털 문화에 발맞춘 서비스도 갖추지 않았다. 이는 영업 인력보다 개발자 인력이 상대적으로 많은 인터넷전문은행의 태생적 한계 때문이기도 하다. 인터넷전문은행이 출범 초기 일으켰던 열풍이 최근 잦아든 이유 또한 여기서 찾을 수 있을 듯하다. 인터넷전문은행은 산업 경쟁의 메기 역할을 해냈지만, 갈수록 혁신성이 떨어진다는 평가를 받고 있다.[사진=뉴시스]하나금융경영연구소에 따르면, 국민 5000명 중 76.3%가 여전히 전통은행을 주거래 은행으로 삼고 있다고 답했다. 인터넷전문은행을 주거래 은행으로 이용하는 국민은 15.9%에 그쳤다. 대부분의 국민이 특정 거래에선 인터넷전문은행을 이용하고 있지만, 여전히 전통은행을 친숙하게 여기고 있다는 방증이다. 이번 평가를 총괄한 서기수 교수는 "뱅킹앱이 공기처럼 쓰이는 시대가 열렸지만, 이 정도만으로 혁신에 성공했다고 보긴 부족하다"면서 "고객의 특성 변화와 니즈를 이해하고, 더 예민하게 반응해야 하는데 아직은 오프라인에서 하던 일을 앱으로 옮기는 데 집중하고 있다"고 평가했다.서 교수는 "진짜 혁신은 상품과 서비스, 프로세스와 운영방식을 바꾸고 그에 따라 새로운 비즈니스 생태계를 구축하는 것"이라면서 "그 이상의 역량을 갖춰 고객의 선택을 받길 바란다"고 덧붙였다.  김다린 더스쿠프 기자quill@thescoop.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>토스뱅크, 공모주 상장일 알림·기업 정보 제공</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012100624?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 공모주 청약 일정 서비스에 상장일 알림과 기업 정보 제공을 더했다고 20일 밝혔다.토스뱅크에 따르면 상장일 알림은 공모주 청약 일정을 신청한 고객을 대상으로, 공모주가 상장하는 당일 알림을 제공하는 서비스다. 기업 정보는 상장을 앞둔 해당 기업이 어떤 제품과 서비스를 선보이고 있는지 등을 고객에게 알려준다. 토스뱅크는 코스피, 코스닥 시장에 상장을 앞둔 공모주의 청약 일정 확인부터 실제 청약까지 가능한 서비스를 지난 7월 도입했다. 고객은 원하는 공모주의 희망 가격, 실시간 청약 경쟁률 등을 확인할 수 있다. 자체 계좌개설과 제휴 증권사를 통한 실제 청약도 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>"가짜 코인 구분 못해"…가상자산 오입금 사고</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001126853?sid=004</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>국내 가상자산 거래소 업비트에서 2천만원 규모의 가상자산 오입금 사고가 발생했다.25일 가상자산 업계에 따르면 전날 가상자산 앱토스(APT)를 가장한 코인이 앱토스로 인식돼 업비트 계좌로 입금되는 사고가 발생했다.잘못 입금된 가상자산은 앱토스를 기반으로 발행된 가상자산으로, 업비트 측에서 진짜 앱토스와 앱토스 기반 발행 가상자산을 구분하지 못한 탓에 사고가 발생한 것으로 전해졌다.업비트는 전날 "앱토스 입출금 모니터링 과정에서 비정상적인 입금 시도가 확인됐다"고 밝히고 한동안 앱토스 입출금을 중단했다. 업비트는 앱토스가 잘못 입금된 고객들에게 연락해 자산을 회수하고 있으며 이상 입금의 3분의 2 정도를 회수한 상황이다.업비트 관계자는 "이용자에게 불편을 드려 사과의 말씀을 드린다"고 밝혔다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.09.17.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>“비용만 늘고 수익 줄면 어떡하나”…인터넷은행 ‘예금 전쟁’ 참여에 수익성 우려[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002198689?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>금융권 ‘예금 확보’ 경쟁에 인뱅도 참전낮은 예대율, 가계대출 관리 정책에 수익성 우려[게티이미지뱅크][헤럴드경제=김광우 기자] 최근 인터넷은행들이 잇따라 수신금리를 인상하며 예금 확보 전쟁에 동참하고 있다. 4%대 정기예금 금리와 편의성을 강조한 서비스에 소비자들의 반응도 뜨겁다. 그러나 이같은 움직임이 결국 수익성에 독이 될 수 있다는 우려가 나온다. 대출 성장이 우려되는 상황에서 지나친 예금 혜택에 따른 비용 부담이 커질 수 있기 때문이다.‘예금 확보’ 돌입한 인터넷은행…4%대 정기예금 출시도17일 금융권에 따르면 케이뱅크는 지난 14일부터 정기예금 상품인 ‘코드K 정기예금’ 1년 이상 만기 최고금리를 기존 3.8%에서 4%로 인상했다. 6개월~12개월 미만 만기의 경우 3.4%에서 3.9%로 0.5%포인트의 큰 폭 인상이 결정됐다. 카카오뱅크도 이달 초 정기예금 금리를 연 3.6%에서 3.7%로 올렸다. 토스뱅크는 지난달 조건 없이 연 5% 금리 혜택을 받을 수 있는 적금 상품을 출시하기도 했다.이는 최근 고금리 예금 선호 현상이 나타난 데 이어, 은행채 금리가 상승하며 은행들 간 자금 확보 경쟁이 치열해진 영향이다. 실제 시중은행들은 2분기 중 3% 초중반까지 내려갔던 정기예금 금리를 끌어올리고 있다. 15일 기준 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 주요 정기예금(1년 만기) 금리는 3.7~3.85%로 집계됐다.이와 함께 예금 수요도 늘어나고 있다. 5대 시중은행의 지난달 말 기준 정기예금 잔액은 844조9671억원으로 전월 말과 비교해 12조원가량 증가했다. 지난해 하반기 ‘역(逆)머니무브’로 몰렸던 예금의 만기가 도래하며, 재투자처를 찾는 예금 수요는 더욱 늘어날 전망이다. 한국은행에 따르면 지난해 말 예금은행의 정기예금 잔액은 976조원으로 1년 만에 200조원가량이 급증했다.시중은행 ‘절반’인 예대율…수익성 확보 가능할까서울 한 저축은행의 정기예금 안내문 앞을 시민이 지나가고 있다.[연합]문제는 예대율(예금 대비 대출 비율)이다. 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 상반기말 기준 평균 예대율은 67%로 4대 시중은행(96%)과 비교해 현저히 적은 수준이다. 예대율이 지나치게 높으면 안정성이 훼손되지만, 낮은 경우에도 수익성에 악영향을 미친다. 예금 대비 대출 비율이 적다는 것은, 그만큼 지출한 비용(예금) 대비 수익(대출)이 부족하다는 것이기 때문이다.인터넷은행들은 출범 이후 예대율 수준을 점차 높여왔지만, 최근 들어서는 다시금 뒷걸음질 치고 있다. 수신 확보 경쟁에 동참한 인터넷은행들의 수익성에 악영향이 우려된다는 목소리가 나오는 이유다. 금융권 관계자는 “특히 정기예금의 경우 대출을 위한 안전한 기반이 될 수 있지만, 예대율이 낮은 인터넷은행들에는 비용 부담으로 작용할 수 있다”고 말했다.최근 4%대 정기예금 상품을 내놓은 케이뱅크의 상반기 말 기준 예대율은 72.9%로 지난해 말(73.7%)과 비교해 0.8%포인트가량 줄어든 상태다. 같은 기간 카카오뱅크의 예대율도 84.3%에서 77.8%로 줄었다. 토스뱅크의 예대율은 47.6%에서 50.4%로 소폭 상승했지만, 시중은행 절반 수준에 불과한 것으로 나타났다.서울 중구 하나은행 본점에서 직원이 5만원권을 정리하고 있다.[연합]물론 여신 규모를 늘려, 안정적으로 예대율을 관리할 수도 있다. 하지만 최근 인터넷은행들의 대출 확대 수단이었던 주택담보대출의 문턱이 높아지며, 이 또한 쉽지 않아 보인다. 가계대출 확대를 경계하는 금융당국의 압박이 계속되면서다. 실제 한때 3% 중반대까지 내려갔던 인터넷은행 고정형 주담대 금리는 현재 일괄 4%대로 올라, 시중은행 최저금리를 웃돌고 있다.다만 인터넷은행들은 안정적인 자산 확보를 위한 조치이며, 예대율 관리를 위한 여신 확대에 큰 무리가 없다는 입장이다. 카카오뱅크 관계자는 “연초 급격히 증가한 수신으로 예대율이 소폭 하락했으나, 여·수신 규모 확대에 맞춰 예대율을 관리해 나갈 것”이라며 “연내 중고차 구입자금 대출 출시 등 여신 포트폴리오도 다각화할 예정”이라고 말했다. 케이뱅크 관계자는 “예금금리의 인상 폭이 다소 크지만 비대면 영업의 특성상 아직 비용 경쟁력이 있는 상황이고, 이를 금리 혜택으로 제공하는 것일 뿐”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.09.28.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>소상공인 옥죄는 간편결제 수수료…규제 여부 '촉각' [금융권 국감 전운②]</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002753820?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>카드사 대비 세 배 웃돌기도"커진 영향력만큼 규제 필요"간편결제 이미지. ⓒ연합뉴스[데일리안 = 김효숙 기자] 빅테크사 등이 운영하는 간편결제 서비스의 수수료가 소상공인을 옥죄고 있다. 신용카드사보다 최고 세 배까지 높은 수수료에 부담이 클 수밖에 없는 실정이다. 국회 국정감사를 앞두고 빅테크의 영향력이 확대된 만큼 새로운 규제도 필요하다는 지적이 나온다.28일 금융권에 따르면 지난 2~7월 네이버페이·카카오페이·비바리퍼블리카(토스)의 카드결제 수수료 평균은 0.84%(영세)에서 1.94%(일반)로 집계됐다. 그나마 지난 3월 공시 당시인 0.94~1.84%보다는 영세가맹점 수수료가 0.1%포인트 낮아졌다.이들의 수수료는 카드사의 세 배를 웃돌기도 했다. 빅테크 3사인 이른바 네·카·토를 제외한 간편결제 서비스 제공업체 중 가장 높은 수수료율을 나타낸 곳은 배민페이를 운영하는 우아한형제들로, 영세 기준 1.52%에 달했다. 카드사의 수수료율인 0.5% 대비 3배 이상이다.이처럼 간편결제 수수료가 고공행진을 벌일 수 있는 건 느슨한 규제 때문이다. 이 때문에 카드업계에서는 공정한 경쟁이 아니라는 불만이 끊이지 않아 왔다.신용카드 수수료는 영세·소상공인 수수료 지원을 위해 전체 가맹점의 96%가 원가 이하의 우대수수료율을 적용받는다. 반면 간편결제 수수료는 각 사 자율로 결정되는 구조다.높은 간편결제 수수료는 영세·소상공인들에게 부담일 수밖에 없다. 특히 온라인 결제의 중요성이 커지면서 상대적으로 높은 간편결제 수수료 부담이 가중되는 양상이다.이를 제어하기 위한 취지로 도입된 간편결제 수수료 공시도 실효성이 없다는 비판이 나온다. 소수의 업체가 높은 시장점유율을 보이는 현실인 만큼 새로운 관점의 규제가 필요하다는 의견이다.김영국 국회 입법조사처 금융공정거래팀 조사관은 "간편결제 시장에서의 새로운 핀테크 업체의 진입 및 시장 점유율 확대가 용이하지 않은 점을 고려하면, 전체 결제시장의 관점에서는 불공정 경쟁 요인이 있다"고 설명했다.이어 "신생 간편결제 업체의 성장은 어려움이 예상되는 점을 고려해 공시제도 이외의 적절한 규제 방안을 선제적으로 마련해야 한다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>코인 안 오르는데...대부는 2000억 추가 매수 [코인브리핑]</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005078665?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>마이클 세일러 마이크로스트래티지 설립자. 뉴스1 제공 [파이낸셜뉴스] 비트코인 가격이 3500만원대에서 횡보하고 있다. 미국 연방정부의 셧다운(일시 업무 중단) 우려와 미 국채 수익률 상승에도 큰 변화를 보이고 있진 않다.   글로벌 코인 시황 사이트 코인마켓캡에 따르면 이날 오전 10시30분 비트코인의 가격은 전일 대비 0.12% 하락한 3518만3825.39원을 기록 중이다. 국내 가상자산 거래소 빗썸에서는 0.27% 상승한 3542만6000원에 거래된다.   시가총액 2위 이더리움은 같은 시간 코인마켓캡에서 212만6672.88원, 빗썸에서 214만1000원을 기록 중이다.     대부는 비트코인 2000억 추가 매수  '비트코인의 대부'로 알려진 마이클 세일러 마이크로스트래티지 설립자는 X(옛 트위터)를 통해 "마이크로스트래티지가 5445비트코인(1억4730만달러·약 1946억원)를 추가 매수했다고 밝혔다. 평균 매수가는 2만7053달러다.   마이크로스트래티지는 글로벌 상장사 중 비트코인을 가장 많이 갖고 있는 기업이다. 이번 비트코인 추가 매수로 인해 마이크로스트래티지는 15만8245개의 비트코인을 보유 중인 것으로 알려졌다. 이는 약 6조원 수준이다.   세일러는 최근 인터뷰를 통해 "비트코인 현물 상장지수펀드(ETF)가 승인되면 기관 자금 수십 억 달러가 시장에 유입될 것으로 예상한다"라며 "ETF가 상장되더라도 투자자들은 마이크로스트래티지를 비트코인 프록시(대리인)로 인정할 것이다. 우리는 암호화폐 업계의 스포츠카이고, BTC 현물 ETF는 대형 유조선(super tanker)"이라고 강조했다.     HTX(후오비) 해킹..."끄덕없다"  중국계 가상자산 거래소 HTX(후오비)의 고문인 저스틴 선이 중국 베이징에서 열린 금융포럼에서 연설을 하고 있다. 뉴스1 제공 이날 중국계 가상자산 거래소 HTX(옛 후오비)가 해킹을 당한 것으로 파악됐으나, 시장에는 큰 영향을 주지 않았다.   블록체인 분석 플랫폼 사이버스(Cyvers) 보고서에 따르면 HTX 거래소는 지난 24일 해킹을 당해 790만달러(약 106억원) 규모 가상자산을 탈취 당한 것으로 알려졌다.   저스틴 선(Justin Sun) 트론 창업자 겸 HTX(후오비) 고문이 HTX의 사용자 자산은 해킹과 관계없이 안전하다는 입장을 밝혔다.   저스틴 선은 "HTX가 해커의 공격으로 500만 이더리움(약 800만달러 규모)의 손실을 봤다"고 시인하며 "손해액 전액을 커버했고 관련 이슈는 전부 다 해결했다"고 밝혔다. 모든 사용자 자산도 100% 안전하다고 강조했다.   저스틴 선은 해커의 지갑 주소를 공개하며 "800만달러는 HTX 사용자 자산 규모인 30억달러에 비하면 적은 액수"라며 "HTX가 2주면 벌어 들일 수 있는 금액"이라고 밝혔다.     룸네트워크 고공행진 중  업비트 마켓 인덱스(UBMI) 지수는 이날 오전 9시 기준 5,779.86포인트로 전날보다 0.11% 상승했다. 비트코인을 제외한 알트코인들의 지수인 UBAI도 0.5% 상승했다. 총 거래대금 중 비트코인의 거래대금 비중은 7.37%이다.   테마별로 보면 대부분의 테마 디지털 자산이 소폭 상승한 가운데 오라클 관련 디지털 자산들의 상승 폭이 7.1%로 가장 컸다. 그러나 SNS 컨텐츠 관련 디지털 자산들은 상승장 속에서도 소폭 하락했다.   개별 종목별로 보면 거래대금이 1681억원으로 가장 많았던 룸네트워크(LOOM) 종목의 경우 이날 오전 9시 기준 145원으로 전날보다 18.85% 상승했다.   앱토스(APT) 종목은 거래대금 증가율(이전 30일 평균 거래대금 대비 전일 거래대금)이 1229.0%로 가장 높았으며, 가격 또한 4.23% 상승한 7510원에 거래됐다.   업비트 공포지수는 전날에 비해 1포인트 상승한 47포인트를 기록했다. 이 수치는 현재 시장이 중립 상태에 있음을 의미한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>'국내 최대' 네이버 종토방, 주주 구분 가능해진다...마이데이터 연동</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003138101?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크국내 최대 규모 주식 커뮤니티 네이버페이 증권 종목토론방에서 주주 구분이 가능해진다. 네이버파이낸셜이 '네이버페이' 브랜드 키우기에 나선 가운데 증권이 선봉에 섰다.20일 네이버와 관련 업계에 따르면 네이버파이낸셜은 마이데이터 연동을 골자로 한 증권 커뮤니티 서비스 개편을 준비 중이다. 해당 종목서 실제로 주식을 보유한 주주 이용자를 지원하는 것이 큰 틀이다.개편 핵심은 네이버페이 증권 종목토론방(종토방) 게시물에서 주주와 비주주를 구분하는 것이다. 이용자가 네이버페이 증권 서비스에 금융 마이데이터를 연계하면 보유한 종목 종토방에서 주주 자격으로 게시물을 올릴 수 있다.증권 커뮤니티 주주 인증은 네이버파이낸셜에 앞서 카카오페이증권과 토스증권이 유사한 기능을 도입해 운영 중이다. 네이버파이낸셜은 이들 핀테크 증권사와 달리 직접 증권 거래 서비스를 하지 않지만,마이데이터 연동을 통해 거래 증권사와 상관없이 더 폭넓은 범위에 적용 가능한 주주인증 서비스를 내놓을 계획이다.네이버페이 증권 종토방은 국내 최대 규모 주식 커뮤니티다. 네이버파이낸셜에 따르면 네이버페이 증권 종토방에 올라오는 일 게시물은 15만건으로 월간활성이용자수(MAU)는 1000만명이 넘는다.해당 종목 투자자는 물론 금융감독원, 한국거래소 시장조사부 등도 이 곳에서 실시간으로 동향을 체크한다. 금융당국이 모니터링 할만큼 올라오는 콘텐츠와 게시물 민감도가 높다. 때문에 종종 게시물 작성자에 주주 인증을 요구하는 경우도 심심치 않게 벌어진다.네이버파이낸셜은 작전·시세조작·홍보성 게시물을 막기 위해 인공지능(AI) 스크리닝, 클린봇 등 자체 기술을 동원해 종토방 게시물을 관리해왔다. 여기에 더해 이번 개편으로 주주 인증과 구분이 가능해지는 만큼 커뮤니티 순도가 올라 갈 것으로 기대 중이다.네이버파이낸셜은 종토방 개편과 함께 '주주 오픈톡' 서비스도 준비하고 있다. 해당 종목 주주로 인증 후 입장하는 오픈 채팅방이다. 종토방 마이데이터 연동과 마찬가지로 주주를 지원해 커뮤니티 기능을 키우는 장치다.네이버파이낸셜 관계자는 “증권 커뮤니티 경쟁력을 높이는 업데이트를 준비 중”이라면서 “마이데이터 연동 등을 통해 차별화 한 서비스를 선 보일 것”이라고 말했다.네이버파이낸셜은 올해 6월 네이버페이를 간편결제를 넘어 금융·증권·부동산을 아우르는 종합 금융 플랫폼으로 발전시키겠다고 선언했다. 마이데이터를 기반으로 자산관리 서비스부터 금융상품 검색·비교와 증권, 부동산까지 모두 네이버페이 하위 서비스로 묶겠다는 플랫폼 전략이다. 이에 맞춰 네이버 증권, 네이버 부동산 서비스 명칭도 네이버페이 증권, 네이버페이 부동산으로 변경하는 등 네이버페이 독자 브랜드 키우기에 나섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스뱅크, '외국인등록증 진위확인 서비스' 도입… 고객 신원 확인 강화</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000949405?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크   토스뱅크의 외국인 고객의 신원 확인이 강화된다.토스뱅크는 금융결제원의 '외국인등록증 진위확인 서비스'를 도입했다고 15일 밝혔다.토스뱅크는 외국인 고객이 토스뱅크 계좌를 개설할 시 금융결제원과 법무부가 구축한 전용라인을 통해 실시간으로 외국인등록증 진위 확인을 할 수 있게 됐다.진위확인 서비스는 외국인등록증(신분증)의 사진 특징점까지 추출해 법무부 데이터베이스(DB) 사진과 유사도까지 검증한다. 기존 공공마이데이터를 활용하는 방식에 금융결제원의 진위확인 서비스까지 더해져 외국인 고객의 신원에 대해 보다 안정적으로 빠르고 정확하게 확인할 수 있게 됐다.토스뱅크는 지난해 5월 인터넷전문은행 최초로 국내 거주 외국인 고객 대상으로 비대면 뱅킹서비스를 제공하기 시작했다.법무부 통계에 따르면 국내 체류 외국인 수는 지난해 말 기준 약 225만명에 달한다. 하지만 그동안 외국인 고객의 경우 은행 영업점을 방문해야만 첫 계좌 개설이 가능해 불편함을 겪어야 했다. 토스뱅크는 인터넷전문은행 처음으로 이를 가장 먼저 해결했다.계좌를 개설한 외국인 고객들은 토스뱅크의 내국인 고객과 차별없이 비대면 뱅킹서비스를 이용할 수 있다. 조건 없이 2%(세전)의 금리를 제공하는 '토스뱅크 통장'은 물론 '지금 이자받기'를 통해 매일 남은 원금에 이자를 더한 잔액을 기준으로 또 다시 이자가 쌓이는 일 복리 혜택도 받을 수 있다.  이 외에도 대출 서비스를 제외한 예적금 상품은 물론 모임통장과 언제 어디서나 사용해도 캐시백 혜택을 받을 수 있는 체크카드 사용에도 제약이 없으며 송금과 ATM 입출금 등 각종 수수료 무료 정책도 동일하게 적용된다.토스뱅크 관계자는 "지난해 5월 외국인 계좌개설 서비스를 선보인 이후부터 외국인 고객 위해 지속적인 서비스 고도화 진행해왔다"며 "앞으로도 은행에 대한 고객경험을 바꿔나가도록 지속 최선을 다할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[창간 41주년 특집] 혁신기업 CEO, 디지털 전환을 말하다</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003138171?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>출처 : 게티이미지뱅크우리 사회와 산업 곳곳에서 디지털 전환의 속도가 빨라지고 있다. 디지털 전환은 개인의 편의성을 높일 뿐만 아니라 기업의 수익성을 증대시키고 나아가 국가 발전을 이끄는 원동력이 되고 있다. 반면 지역 간 또는 기업 규모에 따라 디지털 격차가 발생하거나 디지털 혜택을 누리지 못하는 소외 계층이 존재하는 등 부작용도 있다.이에 혁신 기업 최고경영자(CEO)들이 실효성 있고 올바른 디지털 전환 방안을 도출하기 위해 의견을 모았다. 인공지능(AI), 의료, 데이터, 유통 등 다양한 분야에서 디지털 전환을 선도하고 있는 이들은 끊임없는 기술의 발전과 정부의 적절한 규제 완화와 지원, 인재 양성 등의 필요성을 강조했다.[참석자(가나다 순)]△강성지 웰트 대표△김성훈(성킴) 업스테이지 대표△모영일 지앤지커머스 대표△박외진 아크릴 대표△이세영 뤼튼테크놀로지 대표△정지은 코딧 대표강성지 웰트 대표◇질문=디지털 전환, 디지털 혁신이 화두다. 우리나라 디지털 전환 수준은 어느 단계에 왔다고 보는가.◇김성훈(업스테이지 대표)=우리나라의 디지털 전환 수준은 해외와 견줘도 절대 뒤처지지 않는다고 생각한다. AI 스피커가 처음 등장했을 국내 기업 5곳에서 개발에 착수해 빠르게 보편화시킨 사례가 있다. 또 최근 챗GPT로 촉발된 생성 AI 열풍으로 급부상한 거대언어모델(LLM)의 경우 자체 개발에 나선 기업이 10개가 넘는다. 디지털 전환은 그 자체로 상당한 자본과 시간이 수반된다. 이처럼 다양한 경험 자산과 노하우, 끊임없는 혁신에 대한 시도들이 응집돼 빠르게 실생활에 AI를 활용하고 있는 것이 대표적인 사례다.◇강성지(웰트 대표)=디지털라이제이션과 디지털트랜스포메이션(DT) 간 용어 차이가 중요하다. 디지털라이제이션은 종이를 태블릿으로 옮기는 느낌이고, DT는 단순히 옮기는 것을 넘어 디지털로 변화한 환경에서 새롭게 만들어지는 부가가치를 보는 것이다. 의료 분야는 아직 여기까지는 도달하지 못했다고 생각한다.중국은 국가가 주도해서 의료 DT를 하고 있고 미국은 민간이 주도해서 활발하게 의료 DT를 끌고 가는 상황이다. 그래도 한국은 다섯 손가락 안에는 드는 국가라고 할 수 있다.의료 분야는 넓다. 그중 디지털치료제(DTx) 영역은 시작부터 디지털이다. 의료계 전반으로 보면 한국은 글로벌 선두 그룹 안에 들어있다. 의료 전산화도 잘 돼 있고, 종이 차트를 쓰는 병원은 이제 거의 없다.그러나 의료 전산화로 모인 데이터에 대한 연결성이나 그다음 단계로의 진화에 대한 챌린지가 있다.◇모영일(지앤지커머스 대표)=우리나라 디지털 전환 수준은 굉장히 높다고 생각한다. 특히 전자정보 시스템 쪽으로 많이 발달했다. 민간은 물론 정부 시스템도 세계적인 수준이다.e커머스 시장의 경우 코로나 팬데믹을 계기로 큰 디지털 전환 시기를 맞이했다. 소상공인 거래 방식이 디지털로 전환됐고 개개인의 온라인 소비 생활도 일상화됐다.다만 지역 간 격차를 지적하고 싶다. 수도권에 비해 지역의 디지털 전환 수준과 인식, 환경 등이 따라오지 못하고 있다. 지역 제조업체나 농축산물 생산자들이 디지털 환경에 제대로 적응하지 못하고 있다.◇박외진(아크릴 대표)=분야별로 차이가 있다. 제조업은 디지털 전환에 있어 빈부격차가 있다. 중소·중견 기업은 디지털 혁신에 어려움을 겪고 있다. 제조 분야에 AI를 공급하기 위해 협의해보면 당면 문제 해결이 AI로 가능함에도 이를 위해 필요한 데이터나 인프라가 축적이 안 된 경우가 많아 아쉽다. 요즘 디지털화는 데이터 및 AI 도입과 직결된다.반면 의료 분야는 잘 되고 있다고 생각한다. 디지털 전환은 가치를 얼마나 줄 수 있냐가 중요한데, 의료 분야의 가치는 수혜자가 명확하다. 일차적으로는 환자고, 이차적으로는 의료진, 그다음은 경영진 이 모두의 가치를 충족시켜 줄 수 있기 때문이다.금융 분야도 디지털 혁신이 나름 잘되고 있다고 생각한다. 보수적 산업군이다 보니 조심스럽게 진행하고 있긴 하다.디지털플랫폼을 표방하는 공공도 혁신 사업이 대거 진행되고 있다. 내년부터 초거대 AI 등 다양한 서비스가 대국민 서비스로 공공기관에서 제공될 것이라고 전망한다.◇이세영(뤼튼 테크놀로지스 대표)=전반적 디지털 전환 수준은 매우 우수한 편이라고 생각한다. 우리 인터넷과 모바일 혁명은 모두 빠른 속도로 전환이 이뤄졌다. 그리고 그 당시 전환을 이끌었던 혁신 스타트업이 큰 사업적 기회를 영위했던 승리의 경험들이 있다. 혁신 스타트업들은 후배 스타트업들에게도 귀감이 되고 있다.◇정지은(코딧 대표)=정부의 DX측면을 보자면 정부는 주로 내부에서 시스템을 자체 개발한다. 또 아직까지는 서비스형소프트웨어(SaaS)가 많이 쓰이지는 않다. 그래서 정부 플랫폼 관련 DX는 새로운 시도다. 특히 클라우드 기반 민간 기업 상품을 구독해서 쓰는 것은 생소한 문화다.김성훈 업스테이지 대표◇질문=디지털 전환과 디지털 혁신을 통해 개인, 기업, 국가가 얻을 수 있는 혜택은 무엇인가.◇정지은(코딧 대표)=디지털 전환이 되면서 정보가 투명하게 개방되면 개인으로서는 선택권이 넓어져 일상생활 편의가 제고될 수 있다. 예를 들어 아이를 유치원에 보낼 때도 과거에 발생한 일이나 사고 등을 파악할 수 있다. 지역 정보의 경우, 내 주변에 소득이 어느 정도인 사람들이 사는지 등을 알 수 있다. 다양한 데이터가 열릴수록 개인은 선택할 수 있는 지표가 생기고, 선택지를 마련할 수 있다.기업은 이용자가 늘어나는 동시에 트래픽이 많이 발생하면 새로운 서비스를 만들게 된다. 글로벌 시장에서 경쟁할 때 데이터가 없으면 전략을 수립하기 힘들다. 하지만 더 많은 데이터와 디지털 정보가 있으면 경쟁력을 확보할 수 있다.낭비도 줄일 수 있다. 기업 입장에서는 모르고 있었던 규제도 많다. 제품을 개발했는데 규제를 미처 몰라 해외로 보냈던 제품을 한국으로 다시 가져와서 수정하는 등 문제가 발생하는 경우도 많다. 데이터가 공개되면 미리 대비해 전략을 세울 수 있다.국가로서는 비용 효율화 및 최적화가 DX의 핵심 혜택이다. 과거 정책 자료가 축적되면 같은 실패를 줄일 수 있다. 이전 정책에 있어서 실패했던 이유가 무엇이었는지를 데이터 기반으로 분석하고, 미래 전략을 세울 수 있다.◇이세영(뤼튼 테크놀로지스 대표)=크게 보면 업무 생산성과 일상의 편리함 두 영역에서 지속적인 개선이 이루어진다는 점이 가장 큰 혜택일 것이다. 개인의 경쟁력이 곧 기업과 국가의 경쟁력으로 이어질 수 있다. 그래서 B2C 디지털 전환, B2C 디지털 혁신이 먼저 중요하다고 생각한다.◇김성훈(업스테이지 대표)= 디지털 전환의 핵심은 업무 효율성의 증대라고 생각한다. AI 분야에 있어서는 최신 AI 기술을 접목해 기존 작업 처리방식에서 불가능했던 부분을 가능하게 만들어주는 혁신이다.예를 들어, 업스테이지의 AI 광학문자판독(OCR) 솔루션 '다큐먼트 AI'는 이미지 내 문자를 텍스트 데이터로 읽고 원하는 항목의 데이터를 추출하는 기술로, 수작업 대비 최대 82%까지 비용 및 시간을 감축할 수 있다. 이에 삼성생명, 한화생명 등 주요 금융권에서 앞다투어 도입하고 있다. 업무에서의 효율성 증대로 개인은 시간을 얻을 수 있고, 기업은 수익을, 국가는 경쟁력을 높일 수 있다.◇모영일(지앤지커머스 대표)=빠른 정보 획득과 소통, 편의성 제고라고 생각한다. 개인의 경우 외부에 나가지 않아도 업무 처리할 수 있게 됐다. 또 상품을 온라인으로 주문하면 내일 아침이면 받아볼 수 있는 세상이 됐다.기업은 글로벌 시장에서 다양한 기업과 실시간으로 소통하고, 다양한 정보도 얻을 수 있게 됐다. 즉, 새로운 시장과 고객을 찾는 것이 보다 쉬워진 것이 큰 장점이다.국가의 경우 부조리, 비리 등 여러 비효율적인 행정 문제가 줄어든 것이 장점이다. 디지털이 보급되면서 적은 예산으로도 보다 수월하게 업무를 진행할 수 있게 됐다.◇강성지(웰트 대표)=의료 디지털 혁신이 되면 마치 내비게이션처럼 개인이 예측가능성을 바탕으로 질병 발생 가능성을 정량적으로 보는 것이 가능해진다.내비게이션이 전방 몇 미터 내 과속 카메라 알림 등을 주는 것과 마찬가지로 30분 후에 심근경색이 발생할 수 있다는 알람 기능 등이 가능해진다. 물론 이런 고유의 기능이 가능해지려면 시간은 좀 더 필요하다.모영일 지앤지커머스 대표◇질문=디지털 전환, 디지털 혁신의 걸림돌은 무엇이라고 보는가.◇박외진(아크릴 대표)=제일 큰 걸림돌은 비용이다. DT를 하기 위해서는 기반 조성에 더 큰 비용이 필요할 수 있다. 그리고 또 거기에 얹어 DT자체를 실행하기 위해서도 투자가 더 발생한다.기업은 비용 문제가 닥치면 얻을 수 있는 가치를 확실히 알고 싶어 한다. 문제는 이익을 돈으로 환산해 정확히 파악하기는 어렵다는 점이다. 경영자는 망설일 수밖에 없다.AI만 놓고 보겠다. AI인덱스에 따르면 지난해가 2년 전보다 AI 도입을 이한 투자가 축소됐다는 조사 결과가 있다. 그런데 이미 도입한 곳에서는 추가 도입하고, 계속해 고도화한다는 게 드러났다. 즉 고민의 시간을 지나면 투자가 가속화된다는 점이다.화장품 용기 제조 기업의 DT를 지원한 적이 있다. 처음 도입 당시에는 어려웠으나 지금은 몇 년째 투자를 지속하고 있다. 처음이 힘들지만 도입하면 관성을 갖고 계속 진행한다.다음은 디지털 리터러시의 부족을 꼽을 수 있다. 아무리 서비스를 쉽게 만들어도 사용 못 하는 이용자도 많다. 공공에서 먼저 혁신해야 한다고 생각한다. 전 국민이 반드시 이용해야 하는 공공서비스를 중심으로 DT가 이뤄지면서 DT의 개념적 팽창이 필요하다. 그러면 민간에서도 공공이 저 정도 하면 우리도 해야 한다는 위기감이 조성되고 선순환이 이뤄질 수 있다.예를 들어 대표 공공서비스가 의료인데 이 분야에 있어 DT에 익숙해지도록 대국민 서비스가 진화해야 한다. 디지털 리터러시가 부족한 이유가 이용자가 자신한테 필요 없다고 느끼는 경우가 많기 때문인데 의료는 모두가 필수로 여기는 서비스다. 그래서 DT 받아들이는 적극성이 큰 분야라는 점을 고려해야 한다.◇정지은(코딧 대표)=첫 번째로는 정부의 소극적인 데이터 개방이다. 질 좋은 데이터가 정부에서 많이 제공되어야 한다. 하지만 정보를 잘못 공개했을 때의 파장이나 너무 많은 정보가 공개되는 것을 우려하는 것 같다.예컨대 판례 데이터의 경우 대법원 이외에는 제공하지 않는다. 또 정부에서 법안이나 시행령이나 시행 규칙을 낼 때 그것이 어떤 논의를 거쳐서 나왔는지에 대한 회의록이 공유되지 않는다. 왜 바뀐 것인지, 규제 때문에 사업이 불가한지 등 문의를 해도 쉽게 연락이 닿지 않는다. 회의록이 간단히 올라오기만 해도 알 수 있는 부분이다. 공개되면 사업 예측성이 생긴다.정부가 플랫폼을 구축해서 데이터 및 정보를 공유하는 방향으로 가면 민간 협력이 가속화될 수 있다. 가장 중요한 데이터 분석 경쟁력이 확보될 수 있을 것이다.◇김성훈(업스테이지 대표)=실패해도 괜찮다는 사회적 분위기가 조성되어야 한다. 기업들이 더 많은 시도와 실험을 해보고 더 많이, 빠르게 실패해보고 배울 수 있어야 한다. 혁신은 끊임없는 시행착오가 축적된 결과물이다. 실패를 해봐야 그게 축적돼 혁신적인 기술이 나올 수 있고, 이를 통해 디지털 혁신이 태동할 수 있다.디지털 격차도 혁신을 가로막는 걸림돌이다. 모든 사람과 기업이 동등하게 디지털 혜택을 누리지 못하고 있어 사회적 불평등이 확대될 수 있다. 예컨대, 국내 대기업과 중견·중소기업 간 디지털 전환 격차에는 상당한 간극이 있다. 이는 기업 경쟁력 하락으로 이어질 수 있다.이세영 뤼튼테크놀로지스 대표◇질문=향후 디지털 전환 가속을 위해 필요한 정부 정책은 무엇이라고 생각하는가◇모영일(지앤지커머스 대표)=규제 방식을 포지티브 방식이 아닌 네거티브 방식으로 바꾸는 패러다임 전환이 필요하다. 간섭보다 디지털 전환이 가능한 환경을 조성해주고 민간 기업에 맡기는 것이 속도를 낼 수 있는 가장 좋은 방법이라고 생각한다. 정부가 일률적으로 제도를 만드는 것은 좋지 않다. 예를 들어 공인인증서 제도가 도입되면서 우리 보안 기술은 최소 10~15년 이상 뒤처지게 됐다고 생각한다. 원격 의료, 타다법도 마찬가지다.◇이세영(뤼튼 테크놀로지스 대표)=초기에 시장 검증을 마치고, 이용자 성장을 이루고 있어 이제는 해외로 진출해야 하는 스타트업들에게도 초기 스타트업 못지않은 관심과 지원이 필요하다.초기 시장 검증 단계에는 다양한 지원이 존재한다. 뤼튼테크놀로지스도 이런 도움을 받아 지금까지 올 수 있었다. 앞으로 중요한 것은 초기 시장 검증을 충분히 해낸 기업들이 실제 산업과 일상에 영향력을 미칠 수 있는 유니콘 기업이 될 수 있도록 지원해주는 것이다.초기 스타트업 지원만큼이나 다양하고 실효성 있는 중기 및 후기 AI 스타트업 지원책이 보완돼야 한다. 글로벌 경쟁력을 갖춘 유니콘으로 성장하느냐의 갈림길에 서 있기 때문이다.◇정지은(코딧 대표)=디지털 플랫폼 정부에 있어 글로벌 선두 주자가 되기 위해서는 전반적인 변화가 일어나야 한다. 디지털 정부가 꿈꾸는 미래가 실체적으로 구체화 돼야 한다. 어떤 데이터를 어디에 줄 것인지 데이터를 받기 위해 어떤 인증을 받아야 하는지 등 구체적인 내용이 있어야 한다.개발 연속성이 있어야 한다. 정부가 시스템을 구축해 놓는 데만 투자하면 다음 단계에서 해야 하는 개선 및 업그레이드 과정이 부족할 수 있다. 소프트웨어는 베타버전을 만들고 나서 이용자 경험을 개선해 점점 좋아져야 한다는 점을 반영해야 한다. 기업에는 그것만 고민하는 인력들도 있다.기획 일관성도 필요하다. 정부 사이트의 경우 각각 사이트가 다르고 복잡한 측면도 있다. 공급자가 만들어 놓아도 수요자는 사용하지 않는 상황이 발생하는 이유다. 영국의 경우 정부에서 만든 사이트는 같은 UI와 UX로 구성돼 있다. 일관된 자리에 탭이 있고, 버튼이 있다.◇강성지(웰트 대표)=디지털치료제는 소프트웨어 형태여서 업데이트와 변화가 핵심이다. 이에 계속적인 변화에 대한 유연한 관리 감독이 필요하다. 디지털치료제 개발사들이 발전하는 동기부여가 될 수 있도록 유연한 가격 정책도 필요하다.식약처를 통과하면 글로벌 기준이 될 수 있어야 한다. 아젠다를 선점하는 것이 국가 리더십으로 이어진다고 생각한다.◇김성훈(업스테이지 대표)=기술 개발 지원 측면에서는 국가 단위에서 AI 기술 고도화를 위한 다양한 연구·개발(R&amp;D) 프로젝트를 지원하고, 유능한 스타트업 육성에 집중적으로 투자GO 산업 전 단계에서의 혁신을 촉진해야 한다.또 디지털 기술에 대한 교육 및 인력 양성 프로그램을 강화해 노동 시장을 대비해야 함다. 더불어 적절한 데이터 관리와 개인정보 보호 정책을 마련해 신뢰성과 보안을 강화해야 한다.◇박외진(아크릴 대표)= 규제 해소가 필요하다. 의료 분야만 해도 원격진료가 화두가 된 지 오래지만 코로나19 팬데믹이 닥치고서 필요성을 인식하게 됐다. 현재는 재진 환자의 경우에 한해서 규제가 풀리긴 했지만 더 확대해야 한다.규제가 해소되면 산업계에 활력이 생기고 제품 출시에 긍정적인 영향을 줄 수밖에 없다. 데이터 취급에서도 규제가 여러가지라 경계심이나 두려움이 커지고 있다.정지은 코딧 대표◇질문=본인이 알고 있는 대표적 디지털 전환, 혁신 사례가 있다면 소개해달라◇모영일(지앤지커머스 대표)=많은 e커머스 셀러의 해외 진출 사례를 언급하고 싶다. 과거 우리나라는 반도체, 철강, 조선, 화학 등 대기업 위주의 수출이 활발히 이뤄진 것에 비해 중소기업 제품이나 소비재 수출은 제한적이었다.하지만 최근 알리바바, 쇼피, 라쿠텐 등 글로벌 플랫폼이 국내 셀러들을 영입하기 시작하면서 이런 상품의 수출이 늘고 있다. 디지털 혁신 덕분에 강원도 산골짜기, 전라남도 섬에 들어가도 글로벌 셀링이 가능한 시대가 된 것이다. K-문화 확산과 함께 이런 수요는 더욱 늘어날 것이고 앞으로도 성장 가치가 높아질 것이다.◇이세영(뤼튼 테크놀로지스 대표)=지금 디지털 전환의 모습이 웹 1.0 이라고 불리는 웹 초기 시대와 상당히 닮아있다고 생각한다. 업무나 일상이 송두리째 바뀌는 모습 등이 그때와 유사하다.그리고 그 과정에서 당시 인터넷망처럼 기반이 되는 인프라 영역들이 현재는 AI 모델들로 막 구축되고 있다. 그리고 구축된 인프라 위에서 다양한 서비스와 비즈니스들이 시도 중이다.인터넷 혁명 초기에는 공과대 연구실이나 IT 기관들에서나 이메일을 사용했었다. 그랬던 이메일이 불과 몇 년도 되지 않아 전 국민이 알고 사용하는 서비스가 됐다. 바로 '한메일'이 이메일 서비스의 국민적 보급을 이끌었다.모바일-핀테크 혁명 시대에는 '토스'가 그 역할을 했다고 생각한다. 모두가 어렵게 여기던 금융을 모바일 서비스와 접목해 쉽게 풀어냈고 낯설었던 핀테크를 대중들에게 널리 알리고 생활 속으로 보급했다. 주목할 것은 한메일과 토스 모두 당시 스타트업이었다는 점이다.◇박외진(아크릴 대표)=의료 사례에 있어서는 아크릴과 삼성의료원이 함께 욕창 환자 환부를 촬영했을 때 얼마나 심각한지, 드레싱을 어떻게 하면 좋을지 등을 판단할 수 있도록 개발했다.도입 전에는 하나하나 사진 찍어서 전문의에게 확인을 받아야 해 의료 서비스 제공까지 시간이 오래 걸렸고, 전문의가 살펴야 할 시간당 환자도 더 많았다.또 코로나 팬데믹 당시에는 과학기술정보통신부 지원으로 삼성의료원 등과 코로나 임상 데이터를 갖고 중증 발전 예측 AI를 개발해 중요하게 활용하기도 했다.◇김성훈(업스테이지 대표)=업스테이지의 '다큐먼트 AI'는 OCR 기술을 통해 이미지나 PDF 형식의 문서를 텍스트로 변환하고, 자연어 처리(NLP) 기술을 통해 반복된 수작업을 제거하고 문서를 효율적으로 처리하도록 돕고 있다.올해 초 출시 직후부터 삼성생명, 한화생명 등에 납품해 금융권 디지털 전환의 신호탄을 쏘아올렸다. 이외에도 포스코홀딩스, 삼성SDS 등 다양한 고객사들과 계약을 통해 산업계 전반의 AI 혁신을 견인하고 있다.최근에는 KT와 손잡고 OCR 기술을 통한 페이퍼리스 사업에도 협력해 전자문서 전환으로 불필요한 문서 배출을 최소화하려는 기업을 위해 지속 가능한 ESG 솔루션을 제공하고 있다.◇질문=각 기업은 어떤 방식으로 우리 사회 디지털 전환에 기여하고 있는가◇모영일(지앤지커머스 대표)=운영 중인 도매꾹 도매의 경우 소상공인 또는 예비 창업자의 디지털 전환을 돕기 위한 교육프로그램을 진행 중이다. 사회공헌의 일환으로 교육센터를 설립해 스타 셀러 강사 강의를 제공한다. 지난 2017년부터 약 3만 명 이상의 수료생을 배출해 이중 70%는 온라인 사업에 진출했다. 대학생, 대기업 은퇴 직장인, 경단녀, 노점상 등 다양한 분들의 디지털 창업을 도왔다. 특히 서울 외에도 부산, 강원, 대전, 부산 등 지역 교육기관 또는 지자체 제휴를 통해 전문 셀러를 양성해 지역 간 디지털 격차를 줄이는 데 노력하고 있다.◇정지은(코딧 대표)=코딧의 경우 규제 및 정책 분야 DX에 기여하고 있다. 코딧은 기업과 정부에 모두 접점이 있다. 정부 정책을 모니터링하고 기업의 고민을 듣기 때문에 이 둘을 연결해 양측의 성장을 지원할 수 있다.코딧은 숨겨져 있는 정보가 DX를 통해 수면 위로 드러날 수 있도록 한다. 코딧은 기업이 규제에 대응하고 관련 내용을 트래킹할 수 있도록 지원한다. 기업 성숙도와는 상관없이 더 많은 정보를 손쉽게 볼 수 있도록 돕고, 이를 통해 기업이 최적의 전략을 구상해 경쟁력을 갖출 수 있게 한다.정부에서 발의하는 정책 관련, 기업과 사회에 미칠 영향을 분석하기도 한다. 법안 전체 내용의 유사도도 판단한다. 이를 통해 유사한 규제를 탐색하는 시간과 비용을 줄일 수 있다. 과잉 입법을 줄이고 과도한 규제를 완화할 수도 있다.또, 숨은 규제 찾기 기능으로 장기간 개정되지 않았던 조항을 찾아 시장 진입을 저해하는 규제를 검토할 수 있도록 지원한다.◇김성훈(업스테이지 대표)=업스테이지는 '프라이빗(Private) AI' 시장 개척에 앞장서고 있다. 프라이빗AI는 기업 내부 데이터만 학습해 정보 유출을 막고 잘못된 정보를 생성하는 환각 현상을 방지, 보안 이슈 등으로 생성 AI 도입을 주저하는 기업들을 도울 수 있다.최근 업스테이지가 개발한 생성 AI 모델은 글로벌 오픈소스 생성 AI 모델의 바로미터로 꼽히는 '허깅페이스 오픈 LLM 리더보드' 평가에서 챗GPT, 라마2를 제치고 세계 최고 LLM 타이틀을 획득하는 쾌거를 달성했다.나아가 업스테이지는 최근 '1T 클럽'을 발족을 통해 글로벌 빅테크에 종속되지 않는 국산 LLM의 독립을 선언했다. 한국어 데이터 부족 문제를 해결하는 한편, 데이터 제공자와 모델 제작 기업이 상생하는 생태계를 확립한다는 새로운 도전에 나섰다.◇강성지(웰트 대표)='디지털 제약산업'을 만드는 데 기여하고 있다. 앞으로 제대로 자리매김 하는 것이 목표다. 디지털 치료제가 바이오시밀러처럼 큰 가능성이 있다고 생각한다.◇박외진(아크릴 대표)=데이터, AI를 활용해 고령자, 취약계층, 도서·산간 지역 거주자의 의료 서비스를 증진하기 위한 다양한 서비스를 고민하고 있다.예를 들어 도서·산간 지역 전문 의료진이 부족하니 응급환자 발생 시 지역거점 병원에 가야 하는데 골든타임을 맞추기 어려운 때도 있다. 이때 AI를 기반으로 응급 서비스 등을 제공할 수 있다.◇이세영(뤼튼 테크놀로지스 대표)=생성형AI 중에서도 뤼튼이 현재 집중하는 LLM은 사람 뇌의 증기기관이자 인류가 함께 만들어낸 범용 추론 AI 모델이다.뤼튼은 기술 대전환기에 아직 다소 낯선 생성형 AI를 사람들의 일상으로 가져가고 보급하고자 한다. 생성형 AI 기반의 올바르고 영향력 있는 모델을 지속 제시함으로써 누구나 AI 기술을 누릴 수 있도록 만들 것이다.모든 사람이 범용 인공지능을 자유롭게 누릴 수 있도록 지금 사업들을 고도화해 실질적 가치를 창출하고자 한다. 이런 노력이 우리 사회의 디지털 전환에도 이바지할 수 있게 하겠다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>‘블루 아카이브’ 최종편 괄목할 성과 기록…IP 전방위적 확장 ‘전망’</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005188016?sid=105</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>넥슨은 ‘블루 아카이브’ 메인 스토리 1부 최종편 업데이트 기간 중 괄목할 만한 성과를 기록했다고 18일 밝혔다.‘블루 아카이브’ 메인 스토리 1부 최종편이 지난 5일 4장 ‘프레나파테스 결전’ 업데이트와 함께 막을 내렸다.메인 스토리 1부 최종편은 뛰어난 연출을 자랑하는 PV(Promotion Video), 몰입감 넘치는 이야기, 세심한 기획으로 도입된 특별 콘텐츠 ‘연합 작전’ 등 여러 요소가 종합적으로 어우러지며 높은 완성도를 지녔다고 평가받는다.특히 최종편 업데이트 기간 중 게임 내외적으로 괄목할 만한 성과를 기록했다.‘블루 아카이브’ 4차 PV는 압도적인 연출에 힘입어 최종편 열기를 끌어올리는데 일조했다.영상에서는 ‘키보토스’의 모든 학생들이 공통의 적을 상대하고자 연합하는 모습, 그간 공개된 네 장의 메인 스토리에서 찾아볼 수 있었던 각종 대사의 오마주가 공개됐다.또한 지난 2021년에 공개된 공식 PV 후반부에서 ‘시로코’가 하늘을 바라보는 장면이 재현되는 수미상관 연출까지 다방면에서 호평을 받았다.한국, 일본, 대만 등 다양한 채널에서 글로벌 합산 조회수 1000만 회를 돌파했다.최종편 업데이트에 대한 이용자들의 몰입감은 특별 콘텐츠 ‘연합 작전’으로 한층 더 고취됐다. ‘연합 작전’에서는 ‘예로니무스’, ‘헤세드’ 등 모든 ‘총력전’ 보스들이 연이어 등장하며 전 서버의 이용자들이 힘을 합쳐 높은 체력을 지닌 보스를 공략하는 형태로 설계돼 도전 의식을 자극했다.넥슨 관계자에 따르면 ‘연합 작전’ ‘거짓된 성소 공략전’에 63만 명 이상의 이용자가 최소 1회 이상 참여했다.최종편 업데이트에 대한 이용자들의 관심은 게임 내외 다양한 방면으로 입증됐다.매력적인 외형과 뛰어난 성능을 자랑하는 신규 학생 ‘미카’ 및 ‘나기사’와, 완성도 높은 스토리 업데이트에 대한 좋은 반응이 흥행으로 이어졌다.지난 7월 26일과 8월 23일 두 차례 국내 애플 앱스토어 실시간 매출 순위 1위라는 기록을 달성했다.이는 국내 애플 앱스토어에서 올해 들어 4번째 기록한 성과다.넥슨은 이용자들에게 신선한 재미를 제공하고자 최종편 업데이트 기간 중 다양한 마케팅 시책을 전개하며 IP 확장에 나섰다.건대 커먼그라운드 및 홍대 인근 카페와 협업해 구축한 최종편 테마존은 단기간에 2만 명 이상의 이용자들이 몰린 바 있다.‘애니메이트 서울 홍대점’에서 판매한 특별 굿즈는 개시 2일만에 전량 품절되기도 했다.한편 ‘블루 아카이브’ IP는 출시 2주년을 앞두고 더욱 전방위적으로 확장될 전망이다.넥슨은 10월 2일부터 15일까지 현대백화점 및 스트리트 패션 편집샵 PEER와 협업으로 팝업스토어를 개최할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.09.30.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>“이자 싼 곳 없을까”... 잘 찾으면 3% 주담대, 2% 전세대출 가능</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000936148?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>주담대 7%지만 우대금리 적용 연 3%대 가능하나은행, 다자녀 가구 금리 최대 0.4%p 인하대구은행, 주금공 보증 전세대출 연 2.63% “요건 맞으면 특례보금자리론·버팀목대출 유리”일러스트=이은현        세 자녀를 둔 40대 김모씨는 최근 서울의 한 아파트를 매수했다. 계약 후 잔금을 치르기 위해 주택담보대출을 알아보던 김씨는 주거래은행으로부터 연 4.3% 금리로 3억원까지 대출이 가능하다는 얘기를 들었다. 몇달 전만해도 연 3%대에 대출을 받을 수 있었는데 금리가 오르며 4%를 넘어선 것이다. 예상보다 높은 금리 수준에 당혹스럽던 중, 김씨는 다자녀 가구의 경우 0.4%포인트 금리 혜택을 받을 수 있다는 소식을 접했다. 3억원을 30년 만기, 연 3.9% 고정금리로 대출을 받은 김씨는 총 이자를 2500만원가량 줄일 수 있게 됐다.은행권 주담대 금리 상단이 연 7%를 돌파한 가운데 이자를 줄일 수 있는 우대금리 혜택에 관심이 쏠린다. 은행별로 혜택은 천차만별이나, 다자녀 가구·청년에 우대금리를 적용하는 곳이 많았다. 하나은행은 다자녀 가구 차주(돈 빌리는 사람)에게 최대 0.4%포인트 금리를 감면해 주고 있다. 신용점수가 1000점 만점에 832점 이상인, 옛 신용등급 기준 3등급 이상에 해당하는 고신용자의 경우 주담대 금리를 연 3%대까지 낮출 수 있다.전세대출 중 연 2%대 상품도 찾아볼 수 있었다. 9월 둘째주 기준 대구은행의 주택금융공사 보증 전세대출 금리는 연 2.63%다. 주요 시중은행 전세대출 평균 금리는 연 4% 수준이다. 정책금융상품인 버팀목대출의 경우 요건이 맞을 경우 연 1%대로 대출을 받을 수 있다. 금융권 관계자들은 고금리 기조가 내년까지 이어질 것으로 예상되는 만큼 상대적으로 금리 변동성이 작은 정책금융상품을 우선 노리고, 요건이 맞지 않을 경우 우대금리를 꼼꼼히 살펴 받을 수 있는 혜택을 모두 적용, 대출금리를 낮춰야 한다고 조언한다.지난 13일 서울 시내 한 은행에 주담대 관련 현수막이 붙어있다. /연합뉴스  우대금리 적용하면 ‘연 3%대 주담대’        30일 금융권에 따르면 하나은행은 지난 4월부터 자녀가 2인 이상인 가구의 차주가 주담대와 전세대출을 신규 또는 기한 연장할 경우 최대 0.4%포인트 금리 인하 혜택을 제공한다. 주택 면적이 85㎡ 이하이고 만 19세 미만 미성년자 자녀가 2명인 경우 0.2%포인트, 미성년 자녀가 3명 이상일 경우 0.4%포인트 금리 감면이 가능하다. 지난 22일 기준 하나은행의 주담대 고정금리(혼합형)는 연 4.029~5.029%다. 여기에 0.4%포인트 우대 금리가 적용되면 고신용자는 연 3% 후반대에 대출을 받을 수 있다.대구은행도 3자녀 이상인 다자녀 가구에 한해 주담대 금리를 0.2%포인트 인하해 준다. 대구은행은 또 만 65세 이상 노인을 부양하는 가구의 차주에게도 0.2%포인트 우대 금리를 적용한다. 우리은행은 기초생활 수급자, 국가 유공자, 장애인 등 사회적 배려 대상자에게 0.2%포인트 금리를 감면해 준다.정책금융상품 중 특례보금자리론도 눈여겨볼 만하다. 최근 대출 요건이 대폭 강화됐으나, 부부 소득 1억원 이하면서 6억원 이하인 집을 사려는 경우 시중은행보다 낮은 금리로 대출을 받을 수 있다. 대출 금리는 연 4.25%(만기 10년)∼4.55%(50년)다. 저소득청년, 신혼가구, 사회적 배려층은 0.8%포인트 추가 우대금리를 적용받는다. 이 경우 연 3.45%(10년)∼3.75%(50년) 금리가 적용된다.서울시내 은행 대출창구에서 시민들이 업무를 보고 있다. /뉴스1  대구은행 전세대출 금리 2%대… ’다자녀·청년’ 혜택 다수        우대 요건을 충족시킬 필요 없이 연 2%대 금리를 적용받을 수 있는 전세대출 상품도 있다. 지난 11~17일 기준 주택금융공사가 보증하는 대구은행 전세대출 상품의 금리는 연 2.63%다. 카카오뱅크 연 3.76%, 경남은행 연 3.8%, 토스뱅크 연 3.85% 순이다. KB국민·신한·우리·NH농협은행의 경우 모두 전세대출 금리가 연 4%를 넘어섰다.다자녀 가구, 청년에 적용되는 금리 혜택도 있다. KB국민은행은 ‘KB 신혼부부·다둥이 전세자금대출’을 통해 미성년 자녀가 2명 이상인 경우 0.15%포인트 우대금리 혜택을 준다. 지난 27일 기준 우대 금리를 적용할 경우 대출 금리가 연 3.89%까지 떨어진다. 인터넷전문은행인 토스뱅크도 미성년 자녀가 2명 이상일 경우 대출 한도와 보증료를 우대해 준다. 보증금의 88% 한도로 최대 2억2200만원까지 대출이 가능하다.대표적인 청년 전세대출 상품으로는 버팀목 전세대출이 있다. 만 34세 이하면서 연 소득 5000만원 이하의 경우 보증금 1억원 이하 주택에 대해 최고 7000만원까지 대출을 받을 수 있다. 대출 금리는 연 1.5~2.1%다. 대학생, 사회초년생 등 만 25세 미만은 보증금 7000만원 이하 주택에 대해 최대 5000만원까지 대출받을 수 있으며 금리는 연 1.2~1.8%다.시중은행 관계자는 “요건만 맞으면 정책금융상품을 이용하는 것이 좋다”며 “시장금리가 오르고 있어 대출금리도 상승할 수밖에 없는 상황인데 정부는 가급적 금리 변동성을 낮추려고 하기 때문이다”라고 했다. 그는 “요건이 맞지 않아 시중은행에서 대출을 받아야 할 땐 우대 혜택을 꼼꼼히 살펴야 한다”며 “금리가 높을 때는 0.1%포인트 차이도 크고 이자 절감에 큰 도움이 된다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.09.22.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>‘12명 합쳐 66억5800만원’ 고연봉 남자배구 대표팀, 12강 토너먼트에서 파키스탄에 0-3 셧아웃 패배당하며 항저우 아시안게임 메달 도전 끝</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003858391?sid=104</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>12명 합쳐서 66억5800만원. 2022 항저우 아시안게임에 출전한 남자배구 대표팀의 연봉 합계 총액이다. 12로 나누면 5억5000만원쯤 된다. 5억 넘는 선수 12명이 모여서 대표팀을 일궜지만, 아시안게임 12강 탈락이라는 충격적인, 그야말로 참사라고 불러야 될만한 성적표를 가지고 한국으로 돌아와야 한다. 게다가 2022 항저우 아시안게임은 아직 개막식도 안했다. 개막식도 하기 전에 한국행 비행기를 타야 하는 처지가 됐다.     임도헌 감독이 이끄는 남자배구 대표팀은 22일 정국 저장성 사오싱시 중국 섬유도시 스포츠센터 체육관에서 열린 2022 항저우 아시안게임 남자 배구 12강 토너먼트에서 파키스탄에 0-3(19-25 22-25 21-25) 셧아웃 패배를 당했다.     22일 중국 항저우 사오싱 차이나 텍스타일 시티 스포츠센터에서 열린 19회 항저우 아시안게임 남자배구 12강 토너먼트 한국과 파키스탄의 경기. 세트스코어 0-3으로 패한 한국 선수들이 아쉬워하며 경기장을 나서고 있다. 연합뉴스    아시안게임에서 남자배구가 노메달 치욕을 안은 것은 1962년 자카르타 대회 이후 61년 만이다. 그간 남자배구는 1966년 방콕 대회 은메달 이후 2018 자카르타·팔렘방까지 아시안게임 14개 대회 연속 메달을 따냈다. 금메달은 3개에 그쳤지만, 은메달 7개와 동메달 4개를 따냈다. 출전하기만 하면 최소 3위에는 들었던 셈인데, 이번 항저우에서는 4강은커녕 12강에서도 떨어졌다.     이틀 전 인도전 패배부터 불길했다. 세계랭킹 73위인 인도에 풀세트 접전 끝에 2-3으로 패했다. 예방주사라고 위안해보려 했지만, 이날 랭킹 51위인 파키스탄에 0-3으로 패했다는 것은 한국 배구의 세계랭킹이 현재는 27위지만, 60위권 언저리라는 것을 적나라하게 보여준 결과인 셈이다.     그간 아시아 무대에서 라이벌으로 여겼던 일본(5위)을 비롯해 이란(11위), 카타르(17위), 중국(29위)은 이제 우리의 라이벌이 아니다. 우리는 그들을 이길 수 없다는 것이 이번 항저우에서 드러났다.     앞선 2023 아시아배구연맹 챌린지컵이나 아시아선수권대회에서 예상 외의 저조한 성적을 거뒀던 남자배구 대표팀은 ‘흑기사’로 현역 최고의 세터이자 V리그 연봉킹(10억8000만원)의 한선수를 불러들였다. 한선수의 농익은 경기운영과 토스워크라면 V리그 내로라 하는 공격수들의 공격력을 한층 배가시켜줄 것이란 믿음이었다.     22일 중국 항저우 사오싱 차이나 텍스타일 시티 스포츠센터에서 열린 19회 항저우 아시안게임 남자배구 12강 토너먼트 한국과 파키스탄의 경기. 세트스코어 0-3으로 패한 한국 선수들이 아쉬워하고 있다. 연합뉴스    그러나 이날 한국은 경기 내내 파키스탄에 내준 주도권을 한 번도 뺏지 못하고 끌려가다가 백기를 들었다. 1세트에서 파키스탄의 고공 블로킹에 5점을 헌납했고, 키 189㎝의 파야드 알리 우스만(9점), 205㎝의 무라드 칸(5점) 두 날개 공격수에게 14점, 205㎝의 미들 블로커 압둘 자히르(3점)에게 거푸 실점했다.     2세트에서도 파키스탄의 연속 범실을 틈타 14-14 동점을 만들었으나 한국은 좀처럼 반전 기회를 잡지 못한 채 20점 넘어 연속 실점하며 벼랑 끝에 몰렸다. 서브로 활로를 모색했지만, 범실이 너무 많았다. 게다가 1∼2세트에서 파키스탄의 공격을 블로킹으로 한 번도 차단하지 못해 스스로 늪에 빠져들었다.     한국은 3세트 2-4에서 이 경기 20번째 도전 만에 첫 블로킹 득점을 수확했지만,파키스탄의 타점 높은 강타에 연거푸 뚫리며 12-17로 벌어진 끝에 결국 백기를 들었다. 한국은 블로킹에서 5-9, 공격 득점에서 34-45로 크게 밀렸다.     이제 한국은 더 이상 아시아배구를 호령하던 강호가 아니다. 연봉은 높은데 실력은 아시아 중위권 수준인, 거품이 되어버렸다. 연봉 합계가 66억5800만원인 것은 신인급인 김민재와 김준우가 각각 1억, 김민재가 9500만원이기에 그나마 평균이 내려간 것이다. 리베로 박경민(3억800만원)까지 네 명을 제외하면 8명이 모조리다 5억원 이상의 고연봉자다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>파킹통장도 '연 4%대'…다시 불붙는 금리경쟁</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004241371?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>시중銀 4%대 정기예금 등장에저축銀, 수시입출금 금리 인상일각 "연 5% 시대 다시 올수도"[서울경제] 저축은행 업계를 중심으로 수시 입출금이 가능한 ‘파킹통장’의 금리를 3~4%대로 인상하는 사례가 잇따르고 있다. 시중은행이 제공하는 정기예금 금리가 저축은행과 비슷한 수준인 연 4%대까지 뛰면서 수신 잔액이 대거 이탈하는 것을 막기 위한 조치로 보인다.21일 금융권에 따르면 DB저축은행은 모바일 전용 상품인 ‘M-드림 빅 파킹통장 보통예금’의 최고 금리를 기존 연 3.5%에서 연 4.0%로 0.5%포인트 올렸다. BNK저축은행도 ‘삼삼한 파킹통장’의 최고 금리를 기존 연 2.2%에서 3.6%로 인상했다. 최고 금리 적용 한도도 기존 500만 원 이하에서 5000만 원 이하로 대폭 늘렸다. 이를 두고 상반기 인하 추세였던 파킹통장 금리가 다시 연 4~5%까지 오르는 상황이 재연될 수 있다는 관측이 나온다.이는 저축은행 업계가 주요 자금 조달 창구였던 정기예금에서 금리 경쟁력을 잃고 있기 때문으로 풀이된다. 이날 은행연합회 소비자포털에 따르면 시중은행 정기예금(12개월) 상품의 평균금리는 3.77%로 저축은행 정기예금 평균(4.17%)과 0.40%포인트 차에 불과하다. 이 중 SC제일은행의 ‘e-그린세이브예금(4.2%)’, 전북은행의 ‘JB 123 정기예금 (4.2%)’ 등은 저축은행보다 높은 수준의 금리를 제공하고 있다.파킹통장의 금리 인상 기조가 시중은행까지 확대될 조짐도 보인다. 지난해 은행들이 고금리에 유치한 예적금 만기가 도래하면서 시중은행 역시 자금 재유치를 위한 수신 경쟁에 뛰어들 수밖에 없기 때문이다. SC제일은행은 첫 거래 고객에게 최고 연 3.6% 금리를 제공하는 ‘제일EZ통장’을 통해 신규 자금 유치에 나섰다. 이외에도 SC제일은행의 ‘내월급통장(3.5%)’, Sh수협은행의 ‘Sh매일받는통장(3.0%)’ 등이 3%대의 높은 금리를 제공하고 있다.한편 파킹통장의 금리를 낮춰온 인터넷전문은행들의 고심은 커질 것으로 전망된다. 카카오뱅크·케이뱅크·토스뱅크 등 3사는 기존 4%대 금리를 제공해오던 파킹통장의 금리를 최근 2%대로 낮추는 대신 정기예금의 금리를 4%대까지 높였다. 연체율 상승 등이 우려되는 상황에서 자금 조달의 안정성을 위해 한 번에 큰돈을 거치하는 정기예금의 비중을 높여왔지만 수신 경쟁력 저하를 우려하게 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>9월 청년도약계좌 4만4천명 개설…10월엔 4일부터 신청</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000352835?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[10월 청년도약계좌 신규가입 처리일정 (자료=서민금융진흥원)]이번달 총 4만4천명의 청년이 청년도약계좌를 개설한 것으로 나타났습니다.오늘(27일) 서민금융진흥원에 따르면 8월 중 청년도약계좌 가입신청자 15만8천명 중 가입이 가능하다고 안내받아 지난 4~15일 계좌(1인 1계좌)를 개설한 청년은 총 4만4천명이었습니다.가입 가능 안내를 받고도 계좌개설 기간 내 계좌를 개설하지 않은 청년들은 추후 재신청을 통해 가입요건 확인절차 등을 거쳐 재가입할 수 있습니다.이번달에는 4~15일 가입신청 기간을 운영했으며, 이 기간 중 총 9만2천명이 11개 은행을 통해 청년도약계좌 가입을 신청했습니다. 이들 중 가입이 가능하다고 안내받게 되면 앞서 가입신청한 은행 중 1개 은행을 선택해 다음달 10~20일 중에 계좌를 개설할 수 있습니다.10월 가입 신청은 다음달 4~17일 중 가능하며, 계좌개설은 가입요건 확인 후 오는 11월1~17일 가능합니다.서금원은 "10월에는 연휴 등으로 가입신청을 하지 못하는 점을 고려해 가입신청 기간(9영업일, 10월4~17일)을 운영하고, 가입요건 확인기간을 1주 단축해 계좌개설이 좀 더 빠르게 이뤄질 수 있도록 하겠다"고 설명했습니다.이어 가구원 동의를 위한 본인인증 방법도 기존의 휴대폰 본인인증과 공동인증서 본인인증 외 네이버·카카오·토스 등 간편인증서비스도 추가로 도입해 가입요건 확인의 편의성을 제고했다고 밝혔습니다.청년도약계좌 홈페이지나 서금원 홈페이지를 참고하거나, 서민금융콜센터(1397→바로 '3'번), 취급은행 콜센터로 문의하면 자세한 안내를 받을 수 있습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>케이뱅크 중·저신용대출 연체율 4.13% '최고'… 건전성 '빨간불'</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000949450?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>그래픽=머니S DB 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷전문은행 3곳의 연체율이 크게 오르고 있다.고금리 기조가 이어지는 상황에서 중·저신용자 대출 공급을 늘려야 하는 인터넷은행 특성 상 건전성 지표를 관리하는데 녹록지 않다는 우려가 나온다.17일 국회 기획재정위원회 소속 양경숙(더불어민주당·비례대표) 의원에게 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)가 제출한 자료에 따르면 올 8월 말 기준 인터넷은행 3사의 신용대출 연체율은 평균 1.31%로 집계됐다.지난해 말까지만 해도 해당 연체율은 0.81%에 그쳤지만 8개월 만에 0.50%포인트 오른 셈이다.은행별로는 토스뱅크가 1.58%로 가장 높았다. 이어 케이뱅크 1.57%, 카카오뱅크 0.77% 순으로 집계됐다.신용대출 가운데 중·저신용자 대출만 놓고 보면 연체율은 더 높게 나온다.8월 말 기준 3사의 중·저신용대출 연체율은 평균 2.79%로 집계됐다. 지난해 하반기엔 0.82%에 그쳤지만 같은 해 12월 1.71%로 두 배 이상 급등했다. 이어 지난 6월엔 2.46%까지 치솟았다.인터넷은행 별로 보면 케이뱅크가 4.13%로 가장 높았고 토스뱅크 3.40%, 카카오뱅크 1.68% 순으로 집계됐다.이처럼 인터넷은행 연체율이 상승세를 보이는 건 고금리 기조 속 중·저신용자 대출을 늘려왔기 때문이다.금융당국은 인터넷은행에 '중·저신용자 대출 공급'이라는 설립 취지에 맞게 매년 중·저신용자 대출 비중 목표치를 달성하라고 요구하고 있다.올해 말까지 인터넷은행 3사의 중·저신용자 대출 비중 목표치는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44%다.올 8월 말 기준 이들의 중·저신용자 신용대출 비중(잔액 기준)은 카카오뱅크 28.4%, 케이뱅크 25.4%, 토스뱅크 35.6%로 남은 4개월 동안 중·저신용자 대출을 더 끌어올려야 한다.하지만 인터넷은행들은 연체율 상승 등 건전성 관리 우려에 중·저신용 자 대출 공급을 오히려 줄이는 추세다.케이뱅크의 중·저신용자 대출 잔액은 올 8월 말 기준 2조원으로 지난해 말(2조1000억원) 대비 1000억원 줄었다. 다만 비중은 같은 기간 25.10%에서 25.30%로 0.20%포인트 올랐다.토스뱅크의 중·저신용자 대출 잔액은 지난해 말 2조9000억원에서 올 8월 말 3조1000억원으로 2000억원 늘었지만 중·저신용자 비중은 같은 기간 40.40%에서 35.60%로 4.80%포인트 하락했다.같은 기간 카카오뱅크만 유일하게 3조2000억원에서 4조원으로 늘어남에 따라 비중 역시 25.40%에서 28.40%로 3%포인트 상승했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>새희망홀씨 대출 1.4조 공급…소득기준 완화</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005316514?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>은행권의 서민 대출상품인 '새희망홀씨'가 올해 상반기 1조4000억원이 넘게 공급됐다.19일 금융감독원과 은행연합회에 따르면 올해 산업·수출입·씨티·케이뱅크·카카오뱅크·토스뱅크 등을 제외한 14개 은행의 새희망홀씨 공급 실적은 1조4233억원으로 작년 동기 대비 16.5%(2014억원) 증가했다.금감원은 상반기 중 지속적인 공급 확대 노력으로 1분기 6457억원에서 2분기 7766억원으로 공급이 20.3% 증가했다고 밝혔다. 은행별 공급 규모는 농협(2430억원), 국민(2304억원), 하나(2105억원), 신한(2012억원), 기업(1500억원), 우리(1142억원) 순이었다.상반기 평균 금리는 7.8%로 전년 동기 대비 0.8%포인트 상승했으나, 같은 기간 기준금리 인상 폭(1.75%포인트)의 50%를 하회하는 수준이다. 연체율은 1.6%로 작년 동기(1.4%)보다 소폭 올랐다. 각 은행은 새희망홀씨 공급 활성화를 위해 올해 6월 소득요건을 완화하고, 청년 우대금리 적용을 만 29세 이하에서 만 34세 이하로 확대하는 내용의 운용규약을 개정했다. 새희망홀씨 대출은 연 소득 5000만원 이하이면서 개인신용 평점 하위 20%(종전 신용등급 6등급)와 연 소득 4000만원 이하(신용도 무관)인 자에게 연 10.5% 상한, 최대 3500만원 이내에서 은행별 자율로 결정해 대출을 제공한다.금감원은 "하반기에도 신규고객 발굴을 통해 공급을 확대하고 금리 인하, 특화상품 출시 등을 지속 추진하는 한편, 어려움을 겪고 있는 저소득·저신용 차주 지원을 강화하겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>페이사들, 해외시장 확대 잰걸음…아시안게임 앞두고 잇따라 중국 진출</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012104873?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>카카오페이, 중국 진출 5개월 만에 MAU 108배 증가네이버페이·토스페이, 아시안게임 앞두고 중국 진출[서울=뉴시스] 남정현 기자 = '네·카·토'로 대표되는 온라인 기반 간편결제사들의 중국 등 해외시장 진출 경쟁이 치열해지고 있다. 국내 제조사 기반의 오프라인 간편결제사(삼성페이 등)와의 제휴에서 보다 나아가 해외 오프라인 결제로 수익처를 확대하고 나선 것이다. 21일 금융업계에 따르면 카카오페이는 중국 내 결제 서비스 시작 5개월 만에 지난달 기준 중국 내 월간활성사용자(MAU)가 108배, 결제 건수가 193배, 결제액이 1263배 성장했다. 카카오페이는 3월부터 알리페이플러스(Alipay+)의 중국 전 지역 가맹점에서의 카카오페이 결제 서비스를 시작했다. 알리페이플러스는 알리페이 운영사인 앤트그룹의 글로벌 결제망이다. 카카오페이는 알리페이플러스와 제휴해 해외 가맹점을 늘리고 있다. 국내 간편결제사들은 통상 해외 간편결제사 등 금융기관과 제휴를 맺고 현지시장에 진출하고 있는데 이는 현지에서 직접 가맹점을 모집하고 인프라를 구축하는 것보다 비용적 측면에서 훨씬 비용적 부담을 절감할 수 있기 때문이다.2019년 일본을 시작으로 해외 결제 시장에 진출, 현재 카카오페이로 결제가 가능하거나 초기 테스트를 진행 중인 국가는 약 20개국에 육박한다. 특히 카카오페이는 2분기 해외 매출이 전년동기 대비 90.2% 성장하며 결제 내 비중이 분기 처음으로 두 자릿수를 기록했다. 카카오페이는 "알리페이플러스 및 해외 파트너사들과의 협력을 강화해 국내 사용자들의 해외결제 편의성 제고와 국내 가맹점들의 해외 관광객 유치, 매출 증대에 기여한다는 방침"이라고 말했다.토스는 전날 "간편결제 서비스 토스페이가 제19회 항저우 아시안게임을 앞두고 중국 알리페이플러스 가맹점에서 결제를 지원한다"고 밝혔다. 토스는 현재 2600만 명의 MAU를 보유하고 있는데 중국을 시작으로 현장 결제 가능 국가를 점차 늘려간다는 계획이다.  네이버페이 역시 19일부터 중국 전역 내 모든 알리페이 가맹점에서 네이버페이 머니·포인트 QR 현장결제 서비스를 시작했다. 네이버페이는 이르면 연내 일본의 모든 알리페이플러스 가맹점에서도 결제가 가능하도록 준비 중이다. 금융권 관계자는 "그동안 국내 온라인으로만 한정됐던 IT 기반 페이사들의 수익 모델이 해외로 본격 확대되기 시작했다"며 "'케이(K)'로 일컬어지는 신 한류와 해외 여행 흐름을 타고 유럽, 미국에서까지 수익을 창출할 수 있을 것"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>토스뱅크, 외국인등록증 진위확인 도입</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012095660?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 금융결제원의 외국인등록증 진위확인 서비스를 도입했다고 18일 밝혔다.사측에 따르면 외국인 고객이 토스뱅크 계좌를 개설할 시 금융결제원과 법무부가 구축한 전용라인을 통해 실시간으로 외국인등록증 진위 확인을 할 수 있게 됐다. 진위확인 서비스는 외국인등록증(신분증)의 사진 특징을 추출해 법무부 데이터베이스(DB) 사진과 유사도를 검증한다. 토스뱅크는 지난해 5월 국내 거주 외국인 고객 대상으로 비대면 뱅킹서비스를 제공하기 시작했다. 법무부 통계에 따르면 국내 체류 외국인 수는 지난해 말 기준 약 225만명에 달한다.그동안 외국인 고객의 경우 은행 영업점을 방문해야만 첫 계좌 개설이 가능했다. 토스뱅크 계좌를 개설한 외국인 고객은 내국인 고객과 차이 없이 비대면 뱅킹서비스를 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>업비트, '가짜 코인' 오입금 사고 금액 87% 회수</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000951504?sid=105</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>업비트에서 가짜 코인이 진짜 코인으로 인식돼 입금되는 일이 발생해 오입금 금액 회수에 나섰다. /사진=뉴스1 가상자산 거래소 업비트에서 '가짜 코인'이 진짜 코인으로 잘못 판매되는 가상자산 오입금 사고가 발생했다. 업비트는 현재까지 사고 금액의 87%를 회수한 것으로 알려졌다.26일 가상자산 업계에 따르면 지난 24일 불특정 계좌로부터 가상자산 앱토스(APT)를 가장한 가짜 코인이 다수의 업비트 계좌로 입금돼 진짜 코인으로 인식되는 일이 발생했다. 가짜 코인이 시스템에서 걸러지지 못하고 진짜 코인으로 인식돼 일부 사용자는 가짜 코인을 진짜 코인으로 매도한 것으로 나타났다.오입금 금액은 2000만원 규모로, 전날 기준 이상 입금의 2/3 정도를 회수한 상황으로 알려졌다. 업비트는 사용자에게 유선 등 연락을 통해 남은 금액 회수에 나섰다. 이날 업비트는 전날보다 회수가 더 진행돼 현재까지 오입금 금액의 약 87%가 회수됐다고 밝혔다.앞서 지난 25일 문제를 인지한 업비트는 곧바로 앱토스에 대한 입출금을 일시 중지했다. 같은 날 밤 11시에는 점검을 완료했다며 입출금 서비스를 재개했다. 아울러 프로그램 수정 이후 이번 건과 같은 재발은 없을 것이라고 설명했다.업비트 관계자는 "나머지 금액도 회수 진행 과정에 있다"며 "이용자에게 불편을 드려 사과의 말씀 드린다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>서울 중구, 추석맞이 푸드 페스티벌·전통시장 행사</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014203215?sid=102</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 김준태 기자 = 서울 중구(구청장 김길성)는 추석을 맞아 구민과 상인에게 힘이 되는 먹거리·전통시장 행사를 연다고 19일 밝혔다.장충단길 푸드페스티벌[서울 중구 제공. 재판매 및 DB 금지]    22∼23일 장충단길 일대에서는 '장충단길 푸드페스티벌'이 열린다.     상권 대표 음식의 전시와 시식회, 상인들이 참여하는 장충주막 등 먹거리를 주제로 한 프로그램이 펼쳐진다. 매운 음식 빨리 먹기, 음식 먹고 휘파람 불기 등 색다른 행사가 준비돼 재미를 더한다.    구는 이 행사와 연계해 23일 장충단 공원에서 'Feeling Concert'(필링 콘서트)를 열어 공원 일대를 재즈 선율로 물들인다. 행사장을 찾아 토스 애플리케이션을 켜면 최대 480원의 현금성 포인트를 주는 이벤트도 함께 열린다.    21일 신당5동 백학시장에서는 추석맞이 행운대축제가 열린다. 지역 주민이 준비한 공연과 플리마켓 등이 진행되며 인생네컷, 캐리커처 그리기, 고추장 만들기 등 체험행사도 개최된다.백학시장 추석맞이 행운 대축제[서울 중구 제공. 재판매 및 DB 금지]    구는 전통시장 판촉 행사도 추진한다. 전통 상가를 방문해 물건을 산 고객을 대상으로 온누리상품권 환급 이벤트가 진행되며 방문객에게 떡 등 사은품을 증정한다. 자세한 내용은 중구 홈페이지(junggu.seoul.kr)에서 확인할 수 있다.    김길성 중구청장도 추석을 앞두고 지역 내 전통시장을 찾아 상인을 격려하고 현장의 목소리를 듣는다. 이달 15일 약수시장을 시작으로 동화동 골목형 상점가를 방문했으며 신중부시장, 백학시장, 신중앙시장, 장충남소영길 골목형 상점가를 찾아갈 계획이다.    김 구청장은 "물가가 올라 상차림 준비가 고민이라면 품질 좋은 물건을 저렴하게 구입할 수 있는 전통시장이 좋다"며 "온 가족이 함께 참여할 수 있는 축제도 마련했으니 명절 기분 한껏 내며 행복한 추석 보내시길 바란다"고 말했다.    readiness@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>인터넷銀 경고음… 중저신용자 연체율 1년새 3배, 사상 최대</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003521362?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>3社 신용대출 연체율 1.2%로 급등케이뱅크 중저신용 연체율 4% 넘어인가 취지따라 중저신용 더 늘려야금감원, 위기 대비 충당금 확대 유도카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행 3사의 신용대출과 중저신용자 대출 연체율이 사상 최대 수준까지 치솟았다. 당분간 고금리가 지속될 것으로 보여 취약 대출자를 중심으로 부실이 커질 수 있다는 우려가 나온다. 17일 국회 기획재정위원회 소속 더불어민주당 양경숙 의원이 인터넷은행 3사에서 받은 자료에 따르면 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%였다. 작년 6월 말(0.42%)과 비교하면 0.78%포인트 급등했는데 인터넷은행이 출범한 이후 가장 높은 수준이다. 은행별로는 토스뱅크(1.58%)와 케이뱅크(1.57%)가 비슷했고, 카카오뱅크가 0.77%로 가장 낮았다. 인터넷뱅크 전체 신용대출 중에서 중저신용자만 떼어놓고 보면 연체율 상승세는 더욱 두드러진다. 지난달 말 3사의 중저신용대출 연체율은 2.79%로 작년 6월 말(0.84%)의 약 3.3배 수준으로 치솟았다. 특히 케이뱅크의 중저신용대출 연체율은 사상 처음으로 4%를 넘어섰다. 토스뱅크와 카카오뱅크의 연체율은 각각 3.40%, 1.68%였다. 우려스러운 건 중저신용자 연체율이 더 오를 가능성이 높다는 점이다. 한국은행은 올해 2월 이후 기준금리를 동결했지만 대내외 복합위기 속에 당분간 고금리 기조가 이어질 것으로 전망된다.  금융감독원 관계자는 “인터넷은행의 경우 중저신용대출 비중이 시중은행 대비 높아 연체율이 더 많이 상승하는 경향을 보인다”며 “통상 금리 인상 이후 1년 정도의 시차를 두고 연체율이 오르는 만큼 추이를 면밀히 살펴보는 중”이라고 말했다. 인터넷은행은 금융당국의 인가 취지에 따라 중저신용대출 비중을 높여야 하기 때문에 고금리 시기에 연체율 관리가 쉽지 않다. 지난달 말 기준 중저신용자 대출 비중은 카카오뱅크 28.4%, 케이뱅크 25.4%, 토스뱅크 35.6%였다. 3사 모두 연말 목표치(30%, 32%, 44%)를 크게 밑돌아 중저신용대출 비중을 끌어올려야 한다. 한편 금감원은 위기 상황에 대비해 인터넷은행이 대손충당금을 충분히 쌓도록 유도하고 있다. 인터넷은행 3사는 올해 상반기(1∼6월)에 대손충당금을 1년 전 대비 2배로 늘렸다. 6월 말 기준 인터넷은행 3사의 대손충당금 적립액은 3810억 원으로 1년 전(1928억 원) 대비 약 97.6% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>STO 연합군 꾸리는 증권사들...합종연횡 본격화</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002750865?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>NH·KB·신한證 컨소시엄 구성...이달말 MOU 체결업권간 경계도 허물어져...“규제 불확실성 완화돼야”ⓒ픽사베이[데일리안 = 백서원 기자] 증권업계가 토큰증권(STO·Security Token Offerings)의 제도화를 앞두고 연합군 형성에 속도를 내고 있다. 증권사들은 STO 시장 선점이라는 공통된 목표를 위해 업권 내 경쟁사들과 손을 잡는 ‘적과의 동침’도 불사하는 모습이다.20일 금융투자업계에 따르면 최근 금융권에서 STO 시장 조성에 집중하면서 합종연횡 협의체가 늘어나고 있는 추세인 가운데 금융지주 계열 증권사들이 STO 역량을 결집하기로 뜻을 모으면서 업계의 이목이 쏠리고 있다.NH투자증권과 KB증권, 신한투자증권 등 3개사는 이달 말 토큰증권 컨소시엄 발족을 위한 업무협약(MOU)을 체결할 예정이다. 대형 증권사들이 토큰증권 협의체를 구성하는 것은 이번이 처음으로 이들은 토큰증권 사업을 위한 공동 인프라도 구축하기로 했다.블록체인 기술을 활용하는 토큰증권은 부동산과 미술품, 음악 저작권 등 다양한 자산을 디지털화한 새로운 형태의 증권이다. 금융위원회는 연내 토큰증권 제도화를 위한 법률 개정안을 제출한 상태로 이르면 내년 말 시행하겠다는 목표다.그간 STO 시장은 주로 유통 플랫폼을 담당하는 증권사와 발행사인 조각투자 기업, 블록체인 업체들을 중심으로 협의체가 구축됐다. 증권업계가 은행과 손을 잡는 사례도 있었지만 같은 업권인 증권사들과의 협업 움직임은 미미했다. 각 증권사가 사업을 주도하는 구심점 역할을 해왔기 때문이다.그러나 토큰증권 시장에서 승기를 잡으려는 경쟁이 치열해지고 비용 부담 역시 커지면서 주요 증권사들이 힘을 모은 것으로 분석된다. 시장이 본격 개화하기 전에 유리한 구도를 차지할 수 있고 함께 공동망을 구축할 경우 비용도 절감할 수 있어서다.앞서 은행권에서 은행들로 구성된 협의체가 등장한 것도 증권업계의 협업에 영향을 미친 것으로 보인다. 지난 4월 NH농협은행을 주축으로 결성된 은행권 STO 컨소시엄에는 수협·전북은행에 이어 IBK기업·신한·우리은행·KB국민은행이 추가로 참여를 결정한 상태다.KEB하나은행의 경우 금융지주 차원에서 미래에셋증권과 동맹을 맺은 관계로 은행권 STO 컨소시엄에 합류하지 않았다. 미래에셋증권은 지난 6월 하나금융그룹·SK텔레콤과 토큰증권 컨소시엄을 구성해 다양한 기술 협력을 추진하고 있다.이외에도 삼성증권이 지난달 말 SK증권·우리은행과 토큰증권 인프라 구축을 위한 업무 협약을 체결하는 등 이미 업권 간 경계는 허물어진 양상이다. 은행과 복수의 증권사가 뭉친 것으로는 최초 사례였다.증권사와 금융기관 중심으로 STO 관련 조직이 만들어진 것은 한국투자증권이 지난 1분기 말 카카오뱅크·토스뱅크와 결성한 협의체가 최초다. NH투자증권도 토큰증권 관련 협의체에 NH농협은행과 케이뱅크를 포함하고 있다.업계에선 금융당국이 STO 발행과 유통을 맡는 사업자의 분리를 강조하고 있어 향후 유통시장에선 증권사가 주축이 될 것으로 보고 있다. 다만 발행과 유통에 대한 방향성이 명확하게 제시돼야 협의체 구성이 더욱 활발해질 것이라는 진단이다.심수빈 KB증권 연구원은 “발행과 유통의 분리 원칙이 적용되는 만큼 각각의 주체들은 시장 초기 단계에서 사업의 중점을 어디에 둘 지 선택해야 한다”면서 “규제의 불확실성이 더 완화돼야 추가적인 협의체 구성을 기대할 수 있을 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>“토스뱅크 ‘성장·혁신성’ 배우러왔다”…태국 중앙은행서 견학</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001234607?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>태국 중앙은행 관계자와 토스뱅크 관계자가 기념 촬영을 하고 있다. 아래 왼쪽에서 4번째는 로나돌 눔논다 태국 중앙은행 부총재, 5번째는 홍민택 토스뱅크 대표. 토스뱅크 제공태국 중앙은행이 인터넷전문은행 토스뱅크의 성장성과 혁신성을 주목하고 있다.토스뱅크(대표이사 홍민택)는 지난 25일 태국 중앙은행 로나돌 놈논다 부총재 등 관계자 6명이 서울 강남구 사옥을 방문해 혁신성과 성장성에 대해 논의했다고 27일 밝혔다.토스뱅크에서는 홍 대표와 김지웅 최고전략책임자, 박준하 최고기술책임자 등이 참석했다.토스뱅크는 이날 출범 이후의 경영 성과와 전략, 비전에 대해 설명했다. 특히 만 2년도 되기 전에 ‘흑자 전환’을 가능케 했던 규모의 성장과, 은행으로서 시장의 여러 변화를 이끌어낸 혁신 성과를 강조했다.태국 중앙은행 측도 토스뱅크의 제품 전략에 깊은 관심을 보였다. 특히 머신러닝 및 딥러닝을 도입한 자체 신용평가모형 TSS(Toss Scoring System)에 주목했다.또 빠른 신상품 개발과 장애 없는 안정적인 서비스를 가능하게 한 비대면 인터넷은행의 강점 극대화에 기여한 IT 인프라의 전면 내재화 등도 눈여겨봤다.토스뱅크 관계자는 “토스뱅크의 발빠른 성장과 혁신성을 주제로 태국 중앙은행과 깊이 있는 논의를 이어갈 수 있었다”며 “디지털 뱅킹과 관련한 다양한 전략을 주고 받는 한편 향후 파트너십에 대한 교감의 시간을 가졌다”고 말했다.토스뱅크는 태국 중앙은행과의 이번 논의를 토대로 향후 파트너십을 강화해 나갈 방침이다.한편 토스뱅크는 출범 이후 지속적인 성장과 혁신을 이어오고 있다. 올해 7월 말 토스뱅크는 최초로 흑자전환에 성공했으며 3분기 첫 분기 흑자를 전망하고 있다. 그 사이 고객 수는 780만 명, 기업가치는 2조 4000억 원에 달한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>딜레마 빠진 인터넷은행···연체율 높은 중·저신용대출 늘려야 하는 속사정</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003249934?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>인터넷은행들의 중·저신용대출 연체율이 높아지면서 건전성 관리에 비상이 걸렸다. 하지만 이들 은행은 연말까지 중·저신용 대출 비중 목표치를 달성해야 한다. 중·저신용 대출을 확대하면서도 연체율을 낮춰야 하는 딜레마를 인터넷은행들이 어떻게 극복할 지 주목된다.18일 국회 기획재정위원회 소속 더불어민주당 양경숙 의원실이 금융감독원으로부터 제출 받은 자료에 따르면 지난달 말 기준 인터넷은행 3사의 중·저신용대출 연체율은 2.79%로 집계됐다. 같은 기간 이들 은행이 취급한 전체 신용대출 연체율(1.20%)의 2배를 웃도는 수준이다.2021년 말부터 지난해 상반기까지 0.8%대를 유지하던 중·저신용대출 연체율은 지난해부터 상승하기 시작해 지난 2분기 말 기준 2.46%까지 뛰었다.시중은행은 돈을 빌리기 어려운 고객 상대로 대출 공급을 확대한다는 설립 취지에 따라  중·저신용대출 비중 목표치 달성을 요구 받고 있다. 금융당국은 2021년부터 인터넷은행에 중저신용대출 비율 목표치를 공시하도록 하고 있다.금융당국은 올해 말까지 인터넷은행들의 중저신용자대출 비중이 30%를 상회하는 것을 목표로 하고, 내년 이후부턴 그간의 실적 등을 바탕으로 추가 계획 수립을 검토하기로 했다.금유위원회 제공인터넷은행들 입장에선 올해 연말 목표치 달성 여부가 추후 정책에 반영되는 상황이다. 올해 8월 말 기준 중·저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크 28.4%, 케이뱅크 25.4%, 토스뱅크 35.6%지만 3사 모두 연말 목표치(30%, 32%, 44%)에는 미치지 못하고 있다.올 하반기 중·저신용대출 비중을 더 끌어올려야 하는 상황에서 목표치까지 괴리가 큰 케이뱅크와 토스뱅크는 재정 건전성 관리에 적신호가 켜졌다. 특히 이들 은행의 연체율은 각각 4.15%, 3.40%로 목표치 달성까지 1.6%포인트 남은 카카오뱅크(1.68%) 대비 높은 수준을 유지하고 있어 부담이 더 큰 상황이다.한국은행은 지난 6월 말 발간한 ‘인터넷전문은행의 경영 현황 평가 및 시사점’을 통해 “중·저신용자 대출 확대는 인터넷전문은행의 도입 취지에 따른 본연의 역할로 이해할 필요가 있다”면서도 “향후 부실 확대에 대비하는 차원에서 인터넷전문은행은 연체채권 대손상각 및 대손충당금 적립을 강화하는 동시에 신용평가시스템(CSS) 고도화 노력을 통해 차주의 상환능력 평가 역량을 제고해야 할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>아파트 주담대·전세대출도 '온라인 갈아타기'…대출전쟁 본격화</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001126828?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;이슈플러스입니다. 경제부 서형교 기자 나와 있습니다. 서 기자, 오늘 이슈플러스 주제는 무엇입니까?&lt;기자&gt;네, 최근 빚을 내서 집 사는 분들 많이 늘고 있죠.고정금리형 주택담보대출을 받는 분들의 가장 큰 고민이 ‘금리가 하락하면 어떻게 하나’인데요.금리가 떨어지면 대출을 갈아타면 되지만, 이 과정이 워낙 복잡하다 보니 그동안 한계가 있었던 게 사실입니다.그런데 정부에서 아파트 주담대와 전세대출도 온라인 갈아타기가 가능하도록 인프라를 구축하겠다고 발표하면서 관심이 쏠리고 있습니다.그래서 오늘은 그 내용을 자세히 설명드리고, 또 금융회사들엔 어떤 영향이 있을지 한번 짚어보겠습니다.&lt;앵커&gt;네, 하나씩 살펴보죠.먼저 온라인 대환대출 서비스가 시작된다는 소식을 5월 말에 전해드렸던 것 같은데요.이번에 정부가 발표한 대환대출 서비스는 무엇이 다른 겁니까?&lt;기자&gt;네, 앵커가 말한 대로 5월 말부터 전 금융권에 걸쳐 ‘온라인·원스톱 대환대출 서비스’가 시작됐습니다.스마트폰 앱으로 기존에 받은 대출 정보를 조회하고 더 유리한 상품이 있다면 손쉽게 갈아탈 수 있도록 한 건데요.당시 서비스를 시작할 땐 신용대출만 대상으로 했습니다.그러니까 이번에 금융당국이 발표한 방안은, 온라인 대환대출 대상을 아파트 주담대와 전세대출로 확대한다는 건데요. 일단 아파트 주담대 갈아타기는 연말 혹은 내년 초부터 가능할 것으로 보입니다.또 전세대출 갈아타기는 전산 작업에 시간이 좀 더 걸려서 내년 1분기 중으로 서비스를 시작할 예정입니다.&lt;앵커&gt;대환대출 대상을 넓힌다는 거군요. 그런데 주담대 대상이 아파트로 한정된 이유는 무엇입니까.&lt;기자&gt;온라인으로 대환대출이 가능하려면 시세 정보를 실시간으로 확인할 수 있어야 하는데요.현재 아파트는 실시간 시세 조회가 가능하지만, 다른 주택 유형은 불가능한 경우가 대부분입니다.그래서 이번 온라인 대환대출 대상에서도 다세대·연립주택이나 오피스텔, 단독주택은 제외됐습니다.이밖에 중도금 대출이나 잔금 대출, 정책금융상품인 보금자리론도 대환대출 취지에 맞지 않는다는 이유로 대상에서 빠졌습니다.다시 말해 아파트 주담대 중에서도 주택구입자금 목적이나 생활안정자금만 대상에 포함된 건데요.이 정도만 하더라도 전체 주담대의 70~80%가 해당된다는 게 금융당국 설명입니다.그리고 전세대출의 경우 주담대와 다르게 오피스텔이나 빌라 등 모든 주택 유형이 대환 대상에 포함됐습니다.&lt;앵커&gt;지금도 은행 영업점 방문하면 주담대나 전세대출 갈아탈 수 있는데, 앞으로는 이 절차가 좀 더 간편해진다는 건가요?&lt;기자&gt;네, 먼저 금융소비자들이 여러 금융사의 대출 상품을 한눈에 비교할 수 있게 된다는 점이 가장 큰 차이입니다.지금은 본인에게 가장 유리한 대출을 찾으려면 각 금융사의 영업점을 방문하고 상담을 받아야 하는데요.이제 카카오페이나 토스 같은 플랫폼에서 시중은행과 보험사 수십 곳의 주담대 상품들을 바로 비교할 수 있는 거죠.이때 중도상환수수료까지 감안해서 대출을 갈아탔을 때 소비자가 얼마를 절약할 수 있는지 안내받을 수 있습니다.또 지금까지는 대출을 갈아타려면 영업점에 직접 방문해서 소득이나 자산과 관련된 서류들을 제출해야 했는데요.앞으론 비대면으로 서류를 제출할 수 있고, 근저당권의 설정과 말소 같은 업무처리도 온라인으로 가능해집니다.&lt;앵커&gt;은행에 가서 대기표를 뽑지 않아도 되고 법무사 비용도 아끼고 여러 가지로 편해지는군요. 당연히 이자도 줄이고요.&lt;기자&gt;네, 맞습니다.일단 제도의 주된 취지가 ‘더 낮은 금리의 대출로 손쉽게 이동하도록 하는 것’이거든요.금융회사들이 기존 고객을 지키고, 신규 고객을 따내기 위해 금리 인하 경쟁을 벌일 것이란 게 당국 설명입니다.앞서 신용대출 갈아타기의 경우 이달 15일까지 4개월 동안 1조5800억원 정도의 대출이 이동했는데요.대환 과정에서 평균적으로 금리가 1.5%포인트 하락한 것으로 나타났습니다.그런데 사실 가계대출의 대부분을 차지하는 건 주담대거든요.아파트 주담대와 전세대출을 합하면 대략 700~750조원 규모로 파악됩니다.신용대출과 비교하면 3배 이상 많은 수준입니다.그러다 보니 금융권에서도 “주담대 갈아타기가 진짜 대출전쟁의 시작”이라는 평가가 많습니다.&lt;앵커&gt;특정 금융사가 파격적인 조건을 걸면 한쪽으로 대출이 몰릴 가능성도 있을 것 같은데요. 이렇게 대규모로 대출이 이동할 경우 우리 금융시스템에 조금 문제가 되거나 하진 않겠습니까?&lt;기자&gt;물론 그럴 가능성도 있습니다. 다만 전문가들은 “연말에 주담대 대환대출이 가능해지더라도 대규모 머니무브는 없을 것”이라고 보고 있는데요.주담대는 통상 3년이 지나야만 중도상환수수료를 면제받을 수 있는데, 이게 올해 말을 기준으로 계산해보면 2020년 말에서 2021년 초에 대출을 받은 분들이 해당됩니다.그런데 그땐 저금리 시기였기 때문에 굳이 지금 같은 고금리에 대출을 갈아탈 유인이 없는 겁니다.그래서 대출금리가 하락하기 시작하는 1~2년 뒤부터 본격적인 움직임이 나타날 것이란 분석도 나오고 있습니다.그때가 되면 앵커가 지적한 문제들이 나타날 가능성도 있는데요.이와 관련된 전문가 분석 직접 들어보시겠습니다.[김혜미 / 하나금융경영연구소 연구위원 : 특정 은행에 (대출이) 몰리는 경우 그 은행은 예대율이나 이런 규제를 당장 맞추기 되게 어려울 것 같거든요. 특정 은행에 너무 많이 몰리고, 특정 은행에서 너무 많이 빠질 경우에는 가계대출의 시장점유율 경쟁 구도 자체가 완전히 바뀔 수도 있을 것 같습니다.]&lt;앵커&gt;마지막으로 가계부채 문제도 짚어보겠습니다. 대출 갈아타기로 이자를 갚을 여력이 더 생기면 그만큼 대출을 더 받아보자 하는 움직임도 있지 않겠습니까? 여기에 대한 대책은 뭡니까.&lt;기자&gt;일단 금융당국은 가계부채에 큰 영향이 없을 것이란 입장입니다.새로 대출을 받는 게 아니고 기존 대출을 갈아타는 것이기 때문에 가계부채 총량 차원에서 변함이 없다는 건데요.오히려 낮은 금리로 대출을 갈아타게 되면 금융소비자 부담이 줄어드니 가계부채 건전성은 개선되지 않겠냐는 분석도 나옵니다.다만 낮은 금리로 갈아타게 될 경우 총부채원리금상환비율(DSR) 한도에 여유가 생겨서 차주들이 대출을 추가로 받을 가능성도 있는데요.이 경우 가계부채 증가세를 더욱 부추기는 꼴이 될 수 있다는 지적도 나오고 있습니다.그래서 금융당국도 “필요 시엔 대출금을 증액하기 위한 갈아타기를 제한하는 방안도 검토하겠다”고 밝혔습니다.대환대출 인프라라는 게 전 세계적으로 우리나라가 처음 시행하는 것인 만큼 예상치 못한 부작용은 없을지 당국의 면밀한 모니터링이 필요해보입니다.&lt;앵커&gt;잘 들었습니다. 이슈플러스 서형교 기자였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.09.24.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>추석 해외여행 전 챙겨야 할 필수 금융앱.zip [김보미의 머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001126612?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>10월 2일 임시공휴일 지정으로 추석 연휴가 6일로 길어지면서, 해외여행을 계획하는 사람들이 늘고 있다. 눈에 띄는 점은 현금 환전보다는 간편결제서비스나 선불카드를 이용하려는 이들이 과거에 비해 크게 증가했다는 점이다. 편의성이 높고 수수료가 저렴하기 때문이다. 현재 각 금융사·핀테크사에서는 이번 추석연휴를 앞두고 할인 및 캐시백 이벤트를 제공하며 금융소비자들을 끌어오기 위한 경쟁에 적극 나서는 모습이다.Chapter1. 무시할 수 없는 ‘수수료’…가장 저렴한 곳은?은행권 환전수수료는 화폐에 따라 차이가 있지만 매매기준금액의 약 1.5~1.9% 선에서 책정된다. 예를 들어 미 달러화 매매기준율이 1,330원이고, 환전수수료율이 ‘사실 때 1.75%’인 경우로 가정하면 사실 때 환율은 1,330 + (1,330 x 1.75%)=1,353.275원을 적용받게 된다. 신용카드 수수료는 어떨까? 해외에서 카드를 사용할 때 결제수수료는 VISA, MASTER 등과 같은 국제브랜드 수수료에 각 카드사 해외이용 수수료를 더한 값으로 계산이 된다. 국제브랜드 수수료율은 약 0~1.4%, 카드사 해외이용 수수료율은 약 0.1~0.3% 선이므로 총 결제수수료율은 결제금액(원화로 환산한 금액)의 약 0~1.7%이다. 반면 간편결제서비스나 선불카드는 결제수수료율이 낮거나 아예 없다. 환전수수료와 결제수수료를 모두 고려했을 때 가장 비용이 적게 드는 결제수단은 다름 아닌 '해외선불카드'이다. 환전수수료도 없고 심지어 결제수수료도 없기 때문인데, 보다 자세한 내용은 아래 챕터에서 살펴보도록 하자.Chapter2. 환전 없이 해외간편결제서비스로!해외간편결제서비스의 대표주자 3인방으로는 카카오페이, 네이버페이, 토스가 있다. 카카오페이의 경우 “국가별 결제대행사가 달라 구체적으로 결제수수료를 알려줄 수 없지만, 신용카드보다 저렴한 수준”이라고 설명한다. 토스의 경우에는 미화 환산금액의 0.3%로 제시하고 있다.카카오페이는 알리페이플러스와 손잡고 세계 47개 지역에서 해외 간편결제서비스를 제공하고 있다. 3인방 가운데 가장 서비스 지역이 많다. 매장에 알리페이플러스 로고가 있다면 카카오페이로 결제할 수 있다. 카카오페이앱에 자신의 계좌을 미리 연결한 뒤 카카오페이머니로 원화를 충전해서 사용하는 방식이며, 매장에서 바코드나 QR코드 스캔하면 결제가 완료된다. 별도 환전이 필요없는 것이다. (이는 네이버페이, 토스도 마찬가지다.) 현재 일본, 프랑스, 이탈리아 내 지정된 매장에서 카카오페이로 결제 시에는 추가 할인 이벤트를 제공하고 있다. 일본의 경우 삿포로 드럭스토어, 돈키호테, 코스모스, 로손 등에서 결제 시 최대 500엔을 할인받을 수 있다.네이버페이는 유니온페이, 알리페이와 손잡으면서 일본, 중국 내 결제서비스를 제공하고 있다. 유니온페이, 알리페이 결제가 가능한 곳이라면 네이버페이로 결제가 가능하며, 연말까지 해외 유니온페이 가맹점에서 2천원 이상 QR현장결제시 네이버페이 포인트 2천원을 페이백 해주는 이벤트를 진행하고 있다.마지막으로 토스는 하나은행 해외간편결제서비스 자회사인 GLN과 제휴해, 현재 태국과 싱가포르, 대만, 괌, 사이판, 라오스, 캄보디아에서 결제가 가능하다. 자신의 은행계좌를 연결한 뒤 띳머니를 충전해 현지 QR코드나 바코드로 현장에서 결제하는 방식이다. 토스 역시 대만, 관, 사이판, 태국 내에서 결제 시 10% 금액할인 이벤트를 제공하고 있다.chapter3. 결제수수료 조차 없다…해외여행 선불카드해외여행 선불카드의 최대 장점은 3無(연회비 X, 환전수수료X, 결제수수료X)이다. 트래블월렛, 트래블로그 등이 대표적인데, 필요한 금액을 모바일 앱에서 그때그때 충전해서 쓰는 방식이다. 앱에서 충전하고자 하는 통화와 금액을 선택/입력하면 실시간 환율을 반영해서 본인이 연동해놓은 은행 계좌에서 돈이 바로 빠져나가 충전이 되는 것이다. 이때 실물카드를 따로 발급받아 현지에서 체크카드처럼 이용하면 된다. 현지에서도 충전이 가능한 만큼, 갑자기 돈이 모자랄 걱정도 없다.우선 트래블월렛은 환전 가능한 외화 종류가 가장 많으며, 계좌 연동 가능한 금융사가 모든 은행/증권사로 제한이 없다는 점이 특징이다. 또 환전해 둔 외화를 원화로 재환전 시 별도 수수료도 발생하지 않는다. 현재 △트래블월렛카드로 방콕 137필러스 호텔 예약시 최대 35% 할인에 무료 룸업그레이드, △사이판 코럴오션리조트, PIC사이판, 켄싱턴 호텔 예약시 할인 예택 등을 제공하고 있다.트래블로그는 하나머니 앱 내에서 이용할 수 있는데, 환율 우대 100%를 적용받을 수 있는 점이 특징이다. 미국 달러화, 엔화, 유로화, 파운드화는 상시 무료 환전할 수 있으며, 뉴질랜드달러, 베트남 동, 스웨덴 크로나, 스위스 프랑, 싱가포르달러, 인도네시아 루피아, 중국 위안화, 체코 코루나, 캐나다달러, 태국 밧, 필리핀 페소, 헝가리 포린트, 호주달러, 홍콩달러 등 총 14종에 대해서는 연말까지 무료환전 서비스를 제공한다. 또 선불카드의 경우 충전할 때마다 실시간 환율이 적용되는 만큼 적절한 타이밍을 찾아 미리 환전해두는 것이 유리한데, 이때 목표환율에 도달하면 자동으로 충전해 주는 기능을 제공하는 점도 금융소비자들에게는 유용한 기능이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>'20대가 위험하다'…'빚더미' 앉는 청년층</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019592?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>20대이하 연체 1년새 0.7%P 급등…연체액도 ↑개인회생 신청도 증가…소액대출 요인 지목20대의 부채 문제가 점점 악화되고 있다는 지표가 곳곳에서 나오고 있다. 은행에서 대출을 받았으나 이자조차 제때 갚지 못하는 20대 청년층이 늘어나면서 연체율이 급증하고 있기 때문이다. 쉽게 대출이 가능한 300만원 이하의 소액 대출 상품이 청년층의 빚 문제를 키운 것으로 풀이된다.소액 대출도 갚지 못하는 청년들이 늘어나자 채무 조정을 요청도 함께 증가하고 있는 것으로 나타났다. 이에 직업이 없거나 고용 소득 기반이 불안한 청년층의 과도한 빚이 금융 불안으로 이어질 수 있다는 우려가 나온다.20대 연체율 급등…1년새 2배 ↑2030세대 신용대출 연체율 추이 / 그래픽=비즈워치18일 금융감독원이 홍성국 더불어민주당 의원에게 제출한 '19개 국내은행 연령대별 신용대출 현황'에 따르면 올해 6월말 기준 20대 청년층의 신용대출 연체율은 1.4%로, 작년 6월의 0.7%에서 2배 급등했다. 30대의 경우도 0.6%로 전년동기(0.3%) 대비 2배 뛰었다. 40대와 50대가 모두 0.5%로 1년 전보다 0.2%포인트 상승하고, 60대 이상이 0.8%로 0.3%포인트 오른 것과 비교해 상승폭이 매우 크다.전체 신용대출 차주는 줄었지만 20대는 오히려 61만474명에서 69만1948명으로 13.3% 늘었다. 20대 대출 잔액 비중은4.6%로 다른 연령 대비 낮지만 점점 더 많은 사람이 돈을 빌리고 있는 셈이다. 이는 고용 소득 기반이 탄탄한 30대부터 50대까지 신용대출 차주수가 545만9669명에서 532만1537명으로 2.5% 감소한 것과 대비되는 모습이다.20대의 경우 타 연령 대비 상대적으로 소득이 적고 고용이 불안정하다. 따라서 기존 은행권 신용대출 문턱이 높을 수밖에 없다. 하지만 이러한 청년들 사이에서도 인기를 끄는 대출 상품이 있다. '비상금대출'이라 불리는 소액 대출 상품이다. 소액 대출은 최소 50만원에서 최대 300만원까지 간편하게 대출할 수 있는 상품이다. 하지만 이런 소액 대출이 20대 빚증가의 주범으로 꼽힌다. SGI서울보증의 보증을 담보로 대출 요건이 까다롭지 않고 비대면 대출이 가능해 소득과 직업이 없어도 돈을 빌릴 수 있어 대출이 비교적 쉽기 때문이다.이런 소액 대출은 최근 연체율은 물론 연체액도 계속해서 증가하고 있다. 윤영덕 더불어민주당 의원이 인터넷전문은행 3사(케이뱅크·카카오뱅크·토스뱅크)로부터 받은 자료에 따르면 8월말 기준 소액 대출 연체액은 약 200억원을 넘어선 것으로 나타났다.특히 2020년 기준 25억원이었던 카카오뱅크의 연체액은 3년새 6.8배 가량 늘어난 175억원으로 집계됐다. 이중 20~30대가 차지한 비율은 69.9%로 연체액의 절반 이상을 청년층이 차지한다.소액 대출의 또 다른 문제점은 쉽게 대출이 가능하기 때문에 금리가 다른 대출 대비 매우 높은 편이라는 것이다. 현재 인터넷전문은행들에서 판매 중인 소액 대출의 금리는 최고 15% 수준이다. 통상 10%아래로 형성되는 일반 신용대출에 비해 높은 편이다.지난 13일 기준 인터넷전문은행 3사의 소액 대출 연이율은 △카카오뱅크 4.795~15.00% △토스뱅크 6.24~15.00% △케이뱅크 6.01~15.00%이다. 만일 연체한 경우 대출한 금리에 3%가 더 붙는다.전체 은행권으로 확대해도 금리 수준은 매우 높다. 한국은행에 따르면  7월말 예금은행의 잔액 기준(마이너스 통장 포함) 500만원 소액 대출 금리는 연 6.91%로 2013년 11월(6.93%) 이후 10년 4개월 만에 최고치를 기록했다. 일반 신용대출 금리가 6.38%인 것과 비교하면 0.5%포인트 정도 높은 셈이다. 개인회생 신청도 증가 채무상황이 악화되면서 최근 개인워크아웃을 통해 빚을 탕감받은 20대도 5년전보다 2배 이상 급증했다. 탕감액은 같은 기간 3배 넘게 늘었다. 개인워크아웃은 빚이 너무 많아 갚기 어려운 사람이 신용회복위원회의 중재를 통해 이를 최대 90%까지 줄여주고 이자 부담도 낮춰 빚을 갚을 수 있도록 돕는 제도다.국민의힘 최승재 의원이 신용회복위원회로부터 제출받은 자료에 따르면 올해 상반기 기준 개인워크아웃을 통해 원금감면이 확정된 20대는 4654명으로 집계됐다. 2018년 상반기 2273명 대비 2배 이상 늘었고,  상반기 기준 5년중 최대치를 기록했다.이 제도를 통해 빚을 탕감받은 20대는 상반기 기준 △2018년 2273명  △2019년 2325명  △2020년 3850명 △2021년 4019명으로 계속 늘어났다. 지난해 3509명으로 소폭 감소했지만 올해 다시 증가했다.20대의 원금감면 채무액도 크게 증가했다. 2018년 상반기 기준 120억원에서 올해 상반기 410억원으로 3배 넘게 뛰었다. 1인당 평균 감면 채무액 역시 20대에서 가장 빠르게 늘어났다. 20대의 1인당 평균 감면액은 올해 상반기 기준 880만원으로 집계됐다. 2018년 530만원 대비 67%가량 증가하며 전 연령대 중 가장 높은 증가율을 보였다.금융권에서 대출받지 못해 2금융권을 찾는 청년층도 크게 늘어났다. 지난 6월 한국은행이 발표한 금융안정보고서에 따르면 지난 2019년말 대비 전체 저축은행 취약 차주 대출규모가 32.5% 늘어난 가운데, 20대와 30대 증가폭은 51.6%로 다른 세대에 비해 훨씬 컸다.한 저축은행 관계자는 "햇살론 등 정책상품 중심으로 청년층의 수요가 늘어나고 있다"며 "은행권 대비 저축은행들이 총부채원리금상환비율(DSR) 한도 규제가 느슨하다 보니 은행권 대출이 꽉 차서 저축은행으로 넘어오는 청년층들이 크게 늘어났다"고 설명했다. 전문가들은 이런 청년층의 빚 문제가 방치된다면 통제 불가 수준으로 급증할 수 있다고 우려했다. 한국은행은 "30대 이하 차주의 가계대출 비중이 2013~2019년 29.6%에서 2020~2021년 38.3%로 커졌다"며 "해당 차주들의 소득 기반이 여타 연령에 비해 취약한 만큼 한동안 30대 이하를 중심으로 2020년 이후 취급된 가계대출의 연체율이 예상보다 높게 상승할 가능성을 염두에 둬야 한다"고 지적했다.이정환 한양대학교 경제금융학부 교수는 "비상금 대출 등 비대면 대출이 쉬워지면서 청년층을 중심으로 대출의 위험성 등에 대한 생각이 많이 사라졌다"며 "청년층의 경우 고용 상태 등이 불안하기 때문에 한 번 연체가 되기 시작하면 이자는 계속 늘어나지만 이자를 갚을 능력은 부족해 다른 데서 또다시 돈을 빌려서 갚으면서 대출이 눈덩이처럼 불어나게 된다"고 설명했다. 이어 "이런 소액 대출이 간단해 보이지만 연체로 인해 발생한 신용점수 회복은 매우 어려워 결국 감당 불가 수준이 될 수 있다"며 "2030세대의 경우 돈을 모아야 할 시기인데, 이런 시기에 연체율이 높다는 것은 주의가 필요한 부분"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>한국투자증권, 토큰증권 분산원장 인프라 구축 완료</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004894509?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>사진=한국투자증권한국투자증권은 업계 최초로 토큰증권 발행 인프라 구축을 완료했다고 21일 밝혔다. 토큰증권은 분산원장 기술을 활용해 발행된 디지털화된 증권으로 실물증권과 전자증권에 이은 새로운 발행 형태의 증권이다. 부동산은 물론 선박, 항공기 미술품 등 실물로 존재하는 자산의 권리를 손쉽게 유동화해 '증권형 디지털자산'로 전환, 조각 투자가 가능해진다. 한국투자증권을 중심으로 카카오뱅크, 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 '한국투자ST프렌즈'는 지난 5월 발행 인프라 구축을 최우선 과제로 천명하고 개발에 착수했다. 4개월의 노력 끝에 국내 최초로 토큰증권 발행 및 청산에 필요한 모든 과정을 구현한 인프라를 개발하고 시범 발행까지 완료했다. 특히 한국투자증권은 법제화 단계에 있는 토큰증권 사업 특성을 고려해 클라우드 시스템을 기반으로 분산원장 인프라를 구현했다. 이를 통해 향후 제도 변화를 탄력적으로 수용하고 시스템 개선에 능동적으로 대처할 수 있도록 만전을 기했다. 또한 애자일 개발 방식을 채택해 신속한 의사결정과 효율적인 협업을 통해 개발 시간을 크게 단축할 수 있었다.나아가 새로운 발행 인프라가 기존 증권거래 시스템과 충돌 없이 결합해 유기적으로 작동하도록 연동 작업도 마쳤다. 중앙집중식 계좌부에 기재하는 일반적인 금융시스템과 달리 분산원장에 기재되는 토큰증권의 특성상 이를 효과적으로 연결하기 위해서는 여러 기술적 난제를 해결해야만 했다. 한국투자증권은 두 시스템을 연동하기 위해 그간의 노하우를 바탕으로 새로운 기술을 개발ᆞ적용했다. 그 중 △스마트계약을 통한 배당 처리 △분산원장 예수금을 활용한 즉각적인 거래 완결성 보장 △개인정보 처리 및 보호 기술 등은 특허 출원까지 진행 중이다. 토큰증권 인프라의 높은 기술력과 시스템 안정성을 입증하여 업계를 선도하는 기술적 우위를 확보해 나간다는 방침이다.최서룡 플랫폼본부장은 "이번 발행 인프라가 분산원장 기술이 제도권 금융으로 편입되는 과정에서 중요한 변곡점이 될 것으로 기대한다"며 "투자자의 니즈를 반영한 우량자산 발굴에 힘쓰는 한편 안정적인 제도 정착과 투자자보호에 노력해 선도 사업자로서의 위상을 공고히 하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.09.16.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>"그냥 벌금 내자"…사내 어린이집 꺼리는 기업들</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019562?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>[주간유통]사내 어린이집 설립 논란위탁보육 등 대안 있지만 과태료 선택기업·사회의 육아에 대한 인식 바뀌어야그래픽=비즈워치[주간유통]은 한주간 유통·식음료 업계에서 있었던 주요 이슈들을 쉽고 재미있게 정리해 드리는 콘텐츠입니다. 뉴스 뒤에 숨겨져 있는 또 다른 사건들과 미처 기사로 풀어내지 못했던 다양한 이야기들을 여러분께 들려드릴 예정입니다."벌금이 훨씬 싸"이번 주 가장 '핫'했던 이야기는 아마 기업 내 어린이집 이슈일 겁니다. 무신사의 한 임원이 사내 어린이집 건립 백지화와 관련해 어린이집을 만드는 데 드는 비용보다 벌금이 더 싸다는 말을 해 논란이 된 겁니다. 이슈는 삽시간에 번져나갔고, 결국 한문일 무신사 대표가 공개적으로 입장을 표명하고 전 직원의 어린이집 비용을 지원하겠다는 약속까지 했습니다. 그야말로 '말 한 마디'에 천냥 빚이 생긴 셈입니다.한문일 무신사 대표/사진제공=무신사무신사가 대표적으로 얻어맞기는 했지만, 어린이집을 만들어야 하는 의무가 있음에도 만들지 않은 기업들은 꽤 많습니다. 보건복지부와 고용노동부 실태 조사에 따르면 지난해 말 기준 직장 내 어린이집 설치 의무를 이행하지 않아 기업명이 공개된 곳은 총 27곳이었습니다. 이 중에는 컬리, 비바리퍼블리카(토스), 탑텐을 운영하는 신성통상, 코스맥스, 쿠팡풀필먼트 6개소 등이 포함돼 있습니다. 영유아보육법 제56조, 시행령 제27조에 따르면 사내 어린이집 설치 의무 대상 기업이 어린이집을 설치하지 않으면 1차 위반 시 5000만원, 2차 이상부터는 1억원의 과태료를 부과할 수 있습니다. "벌금이 싸다"는 발언의 배경입니다. 누구나 이유는 있다사내 어린이집이 없는 기업들도 할 말은 있습니다. 이번에 논란이 된 무신사는 물론, 컬리나 토스 등 이른바 '젊은 기업'은 직원들의 평균 연령이 낮습니다. 아이는커녕 결혼조차 하지 않은 직원이 상당수입니다. 직장 내 어린이집 설치 의무 대상은 상시 여성근로자 300명 이상 또는 상시근로자 500명 이상 고용 사업장입니다. 육아 중인 직원 비율을 고려하지 않기 때문에 전체 규모는 500명이 넘지만 아이를 키우는 직원 수는 평균 대비 낮은 기업들이 있을 수 있죠. 실제 무신사 역시 비슷한 해명을 내놨습니다. 전체 직원이 1500여명에 달하지만 이 중 어린이집에 다니는 아이가 있는 집은 두자릿수에 불과하며, 사내 어린이집을 필요로 하는 직원은 한자릿수라는 겁니다. '젊은 기업'들의 경우 사내 어린이집 설립이나 지원에 대한 내부 반발도 있습니다. 자녀가 있는 특정 직원만 혜택을 받는, 차등 복지 아니냐는 겁니다. 실제 논란이 됐던 무신사 임원의 발언 중에서도 "어린이집은 소수의, 운 좋은 사람들이 누리는 복지"라는 말이 있었죠. 변명은 변명일 뿐사내 어린이집 의무화 대상 기업들이 꼭 '사내 어린이집'을 만들어야만 하는 건 아닙니다. 회사가 확보한 공간이나 해당 직원의 수 등을 고려해 위탁보육 지원으로 대체할 수 있습니다. 규모가 어중간한 기업들은 대부분 위탁보육 지원을 통해 의무를 다하고 있죠. 기업들은 사내 위탁보육 대상자를 정확히 파악하기 어렵다거나, 인근 어린이집과의 연계가 쉽지 않다는 등의 해명을 내놓지만 이는 변명에 가깝다는 게 관련 업계 관계자의 지적입니다. 우아한형제들이 운영 중인 우아한2어린이집/사진제공=우아한형제들사내에서 육아 중인 직원을 선별하는 데 큰 노력이 필요하지 않고, 위탁보육 지원 역시 모든 육아 직원이 대상이 아닌, 신청자만을 대상으로 하기 때문에 절차적 어려움은 크지 않다는 겁니다. 결국 벌금이 어린이집 건립 비용보다 싸다는 말은 현실을 정확하게 관통합니다. 현행 5000만~1억원의 과태료가 너무 적다는 지적이 나오는 이유입니다.그럼 과태료를 수십억원으로 올리면 또 모든 문제가 해결될까요. 본질은 '보육'에 대한 관심입니다. 아이를 키우는 건 부모의 일만이 아닌, 회사와 사회가 함께 해야 하는 일이라는 걸 인식해야 합니다. 그래야 육아와 벌금을 한 저울에 놓고 비교하는 일이 생기지 않겠죠.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>토뱅 햇살론뱅크 출시 한달…"차주 90% 중저신용자"</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001126306?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>토스뱅크가 지난 달 인터넷뱅크 최초로 출시한 ‘햇살론뱅크’가 출시 한 달 만에 약 1만 5천명의 중저신용자 및 저소득층 고객에게 1151억원을 공급한 것으로 나타났다.정책서민금융 상품인 햇살론뱅크는 정책서민금융상품을 이용한 후 대출을 잘 갚아 신용도가 개선된 고객이 이용할 수 있고, 정책서민금융상품을 6개월 이상 이용했거나 현재 이용중인, 또는 정상 완제하고 부채 또는 신용도가 개선된 고객이 대상이다.토스뱅크는 한 달 간 약 1만 5천명, 하루 평균 600명(영업일 기준)의 신용 개선 의지가 있는 중저신용자 및 저소득층에게 햇살론뱅크를 지원했다고 밝혔다.햇살론뱅크 고객 97.8%가 중저신용자로, 토스뱅크 햇살론뱅크가 건전한 중저신용자의 은행권 안착을 돕는 징검다리 역할을 했다는 평가가 나온다.햇살론뱅크를 이용한 차주의 연간소득 분포는 2500만원 미만 45.6%, 2500만원~3500만원 37.7% 등 연소득 3500만원 이하의 서민금융층이 83.3%를 차지했다.햇살론뱅크의 주사용층은 가정 경제를 책임지고 있는 중장년층인 4050대이상으로 그 비중이 57.7%에 달해, 햇살론뱅크 공급의 목적인 서민의 금융생활 안정이라는 취지에 부합했다.연령별로는 20대 14.3%, 30대 28.0%, 40대 28.9%, 50대이상 28.8% 이다.토스뱅크는 향후 햇살론뱅크를 이용한 고객의 신용점수를 트래킹하고 신용점수 상승 효과를 측정해 신용등급 상승에 도움을 줄 예정이다.햇살론뱅크의 한도는 최소 500만원 최대 2500만원으로 서민금융진흥원 보증한도 내에서 취급 가능하다.대출 기간은 3년 또는 5년으로 거치기간 1년이 선택 가능하고, 상환방법은 원리금균등분할상환이다.토스뱅크 관계자는 “인터넷전문은행 최초의 햇살론뱅크가 좋은 출발을 할 수 있도록 긴밀히 협력해준 서민금융진흥원에 감사의 말씀을 드린다” 며, “앞으로도 건전한 중저신용자와 더불어 우리 사회 곳곳에서 제1금융권 혜택에서 소외되어온 금융취약계층을 포용하는데 앞장서겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>인터넷銀 주요 성과는 중저신용자 포용.."규제완화는 사실상 어려워"</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005076055?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>금융당국 "중저신용자대출 의무 비중 잔액 기준 등 세부조율은 검토"  [파이낸셜뉴스]  20일 서울시 영등포구 국회 의원회관에서 열린 인터넷전문은행법 제정 5주년 기념 토론회에서 서호성 케이뱅크 행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표(왼쪽부터)가 인사말을 하고 있다. 사진=뉴스1 인터넷은행 3사가 꾸준히 요청해 온 중저신용자 대출 비중 규제 완화는 사실상 어려울 전망이다. 다만 중저신용자대출 의무 비중의 기준을 잔액이 아닌 신규취급액으로 설정하는 등의 세부사항과 관련해서는 금융당국도 살펴보겠다는 입장을 밝혔다.   20일 인터넷은행 3사는 인터넷전문은행법 제정 5주년을 맞아 유의동 국민의힘 의원과 함께 서울 여의도 국회 의원회관 제1세미나실에서 '인터넷은행이 걸어온 길, 그리고 나아길 길'이라는 주제로 토론회를 개최했다.   이날 토론회에는 서호성 케이뱅크 행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표 등 인터넷은행 3사의 CEO가 모두 참석했고 금융당국에서는 신진창 금융위원회 금융산업국장, 박충현 금융감독원 부원장보가 참석했다.   최근 인터넷은행들의 연체율이 크게 오르면서 중저신용자의 대출을 의무적으로 일정 비율 이상 취급해야 하는 인터넷은들은 당국의 규제완화를 고대해 왔다. 이날 토론회에서도 중저신용자대출 비중 규제 완화와 관련된 질의가 오갔다.   이에 대해 신진창 금융위 금융산업국장은 "중저신용자 대출 비중 규제는 아주 큰 이슈는 아니라고 생각한다"고 일축했다. 다만 "중저신용자 대출 비중의 수준이나 신규취급 기준 또는 잔액 기준 등 디테일에 대해서는 열린 자세로 접근하겠"고 말했다.   신 국장은 또 "역으로 보면 인터넷은행 성과 중에 가장 자랑할만한 것이 중저신용자 대출 통해 포용금융했다는 것 아니냐"며 "그 과정에서 해외 인터넷 은행과 달리 빨리 안착했고 이익도 내고 있다. 지금까지 우리 인터넷은행들은 포용성, 수익성을 균형되게 유지해오고 있다"고 강조했다.   또 인터넷은행들이 중소기업 대출영업을 하기 위해 대면 실사를 일부 허용해줘야 한다는 주장에 대해서도 그는 "인터넷은행 대출 포트폴리오에 중소기업 대출 포트폴리오가 거의 전무한데 비대면 계좌 개설 문제 때문인지 살펴볼 필요가 있다"며 "인터넷전문은행법에 중소기업 대출을 할 수 있다고 명시해서 허용을 했는데, 인터넷은행의 중소기업 대출이 거의 없는 상황에 불편의 정도가 어느 정도인지 균형있게 생각할 필요가 있다"고 답했다.   박충현 금융감독원 부원장보는 "인터넷은행의 감독 기조는 영업행위보다 현재처럼 건전성 중심으로 수행할 생각"이라며 "다만 인터넷은행들이 최근 연체율 증가 등에 대해 민감하고 흔들리는 부분은 자본이 탄탄하지 않기 때문으로 판단되는데, 자본 여력 확충에 노력하기를 바란다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>하반기 ‘공모주 대어’ 청약 놓치기 싫다면…토스뱅크 주목</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001233272?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 ‘공모주 청약 일정’ 서비스를 고도화했다고 20일 밝혔다.‘상장일 알림’ 서비스 도입부터, 상장을 앞둔 기업들의 실제 정보까지 제공한다. ‘두산 로보틱스’ 등 이른바 ‘공모주 대어’들이 하반기 청약 일정을 앞두고 있는 가운데 청약부터 실제 매수, 매도를 원하는 고객들의 니즈까지 고려했다.‘상장일 알림’은 공모주 청약 일정을 신청한 고객을 대상으로 공모주가 상장하는 당일 알림을 제공하는 서비스다. 청약에 성공한 고객들은 당일 주가 흐름에 따라 보유한 주식을 팔거나, 추가로 살 수 있다. 또 청약에 성공하지 못한 고객들의 경우 원하는 주식을 매입할 수 있다.특히 상장을 앞둔 기업들의 정보까지 상세히 제공하는 서비스도 더했다. 해당 기업이 어떠한 제품과 서비스를 선보이고 있는지 등을 고객에게 알려준다. 토스뱅크는 공모 기업에 대한 객관적인 정보 전달을 통해 고객들의 판단을 도울 방침이다.토스뱅크는 고객들의 자산관리를 생각하며, 코스피, 코스닥 시장에 상장을 앞둔 공모주의 청약 일정 확인부터 실제 청약까지 가능한 서비스를 지난 7월 도입했다. 고객들은 자신이 원하는 공모주의 희망 가격, 실시간 청약 경쟁률 등을 한눈에 확인할 수 있으며, 자체 계좌개설은 물론 제휴 증권사를 통한 실제 청약까지 가능하다.그간 고객들은 공모주 청약을 하려고 해도 원하는 공모주의 일정을 놓치거나 주관사가 어디인지 몰라 찾는 데 어려움을 겪는 등 불편을 겪어야 했다. 하지만 토스뱅크 ‘공모주 청약 일정’ 서비스는 청약 일정부터 계좌개설, 연결된 제휴사 페이지를 통한 청약, 상장일 알림 서비스까지 원스톱으로 제공하고 있다.토스뱅크 관계자는 “고객들이 청약에 대한 모든 것을 원스톱으로 누릴 수 있도록 지속적으로 서비스를 업그레이드하고 있다”며 “고객들의 불편한 요인들을 지속적으로 제거해나감과 동시에 고객들이 안정적으로 자산관리를 할 수 있도록 도울 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.09.17.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>쏟아지는 고금리 예적금…기본금리 확인하셨나요 [김보미의 머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001125483?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>앞으로 은행, 저축은행 등 금융사는 특판 예·적금의 최고금리만 표시해 금융소비자를 유인하는 이른바 ‘낚시성 광고’를 할 수 없게 된다. 특판 예·적금 광고에 최고금리만 표시해 금융소비자의 관심을 끌어들인 뒤, 실제로는 달성하기 어려운 우대금리 조건을 내건 금융사의 영업 행태에 금융당국이 제동을 걸었기 때문이다. 이에 따라 금융사는 최고금리와 기본금리를 모두 표기해야 하며, 크기나 굵기, 색상 등에 차별을 두어서도 안 된다.여기서 말하는 기본금리는 별도의 우대금리 조건 이행 없이 해당 상품에 가입하는 누구나 받을 수 있는 금리 수준을 말한다. 최근 은행권에서는 지난해 9~11월에 몰렸던 예적금 만기가 다시 돌아오면서 자금을 재유치하기 위한 경쟁이 치열해 졌고, 여기에 은행채 금리까지 상승하면서 예적금 금리가 다시 오르고 있는 상황. 추석 연휴도 다가오면서 쌈짓돈 묶어둘 고금리 예적금 찾는 금융소비자들을 위해 상품 가입 전 챙겨봐야 할 부분들을 같이 살펴보려고 한다.Chapter1. 최고금리에 숨겨진 '기본금리'1금융권에서 현재 취급하고 있는 연 5%이상 예적금 상품들이다. 최고금리만 보면 우리은행의 데일리 워킹적금이 최고 연 11%로 가장 높은 금리를 제공하고 있다. 금융소비자들로서는 충분히 혹할 만 하다. 하지만 기본금리가 연 1%로 최저 수준이며 가입기간이 6개월이라는 점은  놓치기 쉬운 부분이다. 여기에 마케팅 동의 조건을 충족했다는 조건 아래 1만원 이하 금액을 매일 하루도 빠짐없이 불입해야 하며, 매일 1만보 걷기 인증에 성공해야 우대금리 10%를 받아갈 수 있다. 단 한 번이라도 불입을 놓쳤거나 1만보 인증에 실패할 경우 적용금리는 연1%로 급격하게 낮아진다. 반면 토스뱅크의 자유적금은 기본금리 연 3%에 우대금리 2%를 더해 최고 연 5% 금리를 제공한다. 기본금리도 높은 수준이지만 무엇보다 우대금리 조건이 자동이체 저금을 모두 성공하기만 하면 된다는 점에서 문턱이 높지 않다. 최고금리 뿐만 아니라 우대금리 조건, 가입기간, 불입한도 등의 조건을 꼼꼼하게 잘 살펴야 하는 이유다.Chapter2. 중도해지, 나랑 상관 없는 이야기일까예적금을 들다 보면 꼭 한번 쯤은 불가피하게 중도해지해야 하는 사정이 생긴다. 바로 이 때 기본금리 중요성이 뒤늦게 부각되곤 하는데, 중도 해지 시 금리는 어떻게 산정될까? 금융회사 예적금 상품에서는 우대금리가 모두 적용된 최고금리가 아닌, ‘기본금리’를 기준으로 중도해지 금리를 산출한다.(▲BNK부산은행 나는솔로적금 중도해지이율 자료)최고 연 9% BNK부산은행의 너만솔로적금의 중도해지 금리를 살펴보자. 불입기간이 6개월 미만일 경우 기본이율X40%X경과일수/계약일수이다. 만약 90일 불입 후 중도해지했다면 금리는 연 0.246%이다. 사실상 제로금리인 셈이다. 특히 만기 직전에 중도 해지해야 한다면 더 안타까운 상황이 벌어진다. 불입기간 11개월 이상~만기일 전일이라면 기본이율X90%X경과일수/계약일수로 금리가 적용되는데, 350일 불입했다고 가정하면 연 2.16%로 이자가 계산된다. 때문에 이럴 때에는 단기자금 융통 목적일 경우 예금담보대출 선택지도 동시에 고민해볼 필요가 있다.Chapter3. 우대금리 조건 대충 봤다간 낭패금융사에서 내거는 우대금리 조건은 △카드 이용 실적, △마케팅 문자수신 동의, △지로/공과금 자동이체 등 다양하다. 하지만 여기에서 ‘자동이체’가 들어가는 우대금리 조건은 꼭 주의해서 챙겨보고 제대로 인지할 필요가 있다.카카오뱅크의 26주 적금을 예를 들어보자. 26주 적금은 매주 자동이체로 금액을 늘려나가며 만기 시까지 입금했을 때 기본 금리 3.5%, 우대금리 3.5% 총 연 7% 금리를 받아갈 수 있는 금융상품이다. 하지만 자동이체로 돈이 빠져나가는 날, 통장에 잔고가 없어 출금에 실패했다면 어떻게 될까?(▲카카오뱅크 26주 적금 상품설명서 자료)부랴부랴 당일에 추가 입금하더라도 우대금리를 최대치로 받을 수 없게 된다. 7주 연속 불입시 우대금리 1%, 26주 연속 불입시 우대금리 2.5%를 제공하고 있는데 ‘연속 불입’에 실패한 것으로 간주되기 때문이다. 해당 부분은 상품설명서 유의사항에 기재되어 있는 내용이지만 의외로 금융소비자들이 잘 모르고 있었다. 때문에 자동이체가 필수적으로 병행되어야 하는 예적금 상품이라면 금리 조건 확인과 더불어 출금일 전에 통장 잔고를 꼭 확인하는 것이 좋다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>GA업계 ‘스카우트 과열 방지’ 자율협약 초읽기…흥국 동참 주목</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002199672?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>보험대리점협회 20일 오후 자율협약한화·삼성 등 대형 자회사형 GA 참여키로[게티이미지뱅크][헤럴드경제=강승연 기자] 법인보험대리점(GA) 업계가 건전한 모집질서 확립을 위한 자율협약 체결을 앞둔 가운데, 최근 시장의 대세로 떠오른 자회사형 GA들의 동참 여부가 관심을 모으고 있다.19일 보험업계에 따르면 한국보험대리점협회는 20일 오후 자율협약에 참여하는 대형 GA들을 모아 ‘보험대리점 소비자보호와 내부통제를 위한 자율협약식’을 개최할 예정이다.자율협약에는 협회가 목표 대상으로 했던 설계사 1000명 이상 대형 GA 44개사 중 많게는 40개사가 참여할 것으로 전망된다. 설계사 500명 이상, 1000명 미만 GA 중에서도 토스인슈어런스와 더탑아이앤아이, 서울법인재무설계센터가 동참하기로 했다.협회 회원사가 아닌 자회사형 GA로는 한화생명금융서비스와 삼성생명금융서비스가 자율협약 참여를 확정했다. 한화생명의 자회사형 GA인 한화생명금융서비스는 6월 기준 설계사 수가 2만1307명에 이르는 업계 1위 업체로, 다른 자회사형 GA들이 참여를 결정하는 데 영향을 미쳤다.김용태 협회장은 자율협약 성공을 위해 마지막까지 자회사형 GA들의 참여를 독려한다는 방침이다. 흥국생명의 자회사형 GA인 HK금융파트너스를 이날 오후 만나 막바지 설득에 나설 예정이다. 올 7월 출범한 HK금융파트너스는 약 1300명의 설계사를 보유하고 있다.다만, KB라이프생명의 판매 자회사인 KB라이프파트너스(설계사 수 1440명)는 이번 자율협약에 곧바로 참여하지 않고 상황을 더 지켜보기로 입장을 정한 것으로 전해졌다.자율협약은 보험소비자 보호와 GA의 책임경영 및 내부통제를 위해 건전한 모집환경을 구축하자는 취지로 마련됐다. 과도한 설계사 스카우트 예방을 위해 설계사 신규 도입시 제공하는 정착지원금에 ‘1200%룰’을 적용하고 스카우트 관련 허위·과장광고를 금지한 것이 핵심이다. 1200%룰은 설계사에게 지급되는 초년도 모집 수수료가 월납 보험료의 12배를 넘지 못하도록 제한하는 규제다.완전판매를 위해 보험업법, 금융소비자보호법 등 관련 법규를 준수하자는 내용도 담겼다. 설계사 전문성 제고 및 상품비교·설명제도 안착 노력, 준법·내부통제 시스템 컨설팅 지원 등의 내용도 있다.GA 업계에서는 최근 보험업계의 제판분리(제조·판매 분리) 활성화로 자회사형 GA의 영향력이 커지면서 자율협약의 성패를 가르는 변수가 됐다는 분석이 나온다.한 업계 관계자는 “최근 자회사형 GA들이 잇따라 신설되면서 기존 연봉의 2~3배까지 주겠다며 경력직 설계사를 끌어오려는 영입 전쟁이 벌어지고 있다”며 “위기감을 느낀 기존 GA들이 자율협약에 적극 나서고 있는데, 자율협약이 성과를 내려면 결국 자회사형 GA의 동참이 가장 중요할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>태국 중앙은행, 케이뱅크·토스뱅크 찾아 혁신성과 배워</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004943291?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>태국 중앙은행이 국내 인터넷전문은행인 케이뱅크와 토스뱅크를 연달아 찾아 혁신성과를 공유했다. 26일 금융권에 따르면 로나돌 놈논다(Ronadol Numnonda) 태국 중앙은행 부총재 등 태국 중앙은행 관계자는 이날 국내 인터넷은행인 케이뱅크를 찾아 혁신성과를 공유했다.이날 간담회에는 서호성 케이뱅크 은행장, 장민 경영기획본부장 등이 참석했다. 케이뱅크는 국내 최초 인터넷전문은행으로서 2017년 출범 이후 만들어온 혁신성과를 전달했다. 특히 비대면 금융혁신을 논의했다. 2020년 업계 최초 100% 비대면 주택담보대출인 아파트담보대출을 출시하는 과정에서 전자상환 위임장을 도입해 제출서류를 간소화하고 대출 소요시간을 단축한 성과를 공유했다. 케이뱅크 관계자는 "제1호 인터넷은행 케이뱅크가 이끈 다양한 혁신성과를 공유하고 심도 있게 논의했다"며 "태국에서 인터넷은행이 성공적으로 도입될 수 있도록 협력을 지속 강화해 나가겠다"고 말했다.아울러 태국 중앙은행 관계자들은 앞선 25일에 토스뱅크를 방문했다. 토스뱅크는 특히 만 2년도 되기 전에 '흑자전환'을 가능케 했던 규모의 성장과 은행으로서 시장의 여러 변화를 이끌어낸 혁신성과를 강조했다.토스뱅크 관계자는 "토스뱅크의 발빠른 성장과 혁신성을 주제로 태국 중앙은행과 깊이 있는 논의를 이어갈 수 있었다"며 "디지털 뱅킹과 관련한 다양한 전략을 주고 받는 한편 향후 파트너십에 관한 교감의 시간을 가졌다"라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>이익 안나도 억대 연봉 펑펑...독배가 된 투자금</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002202723?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>투자유치 어려워져 경영능력 도마위에사세 확장위한 인적·물적 조건 되레 발목눈높이 높아지고 성과없이 고정비 부담“초창기 무난하게 성장한 핀테크들이 이제서야 도전을 받고 있다.”정부의 지원에 힘입어 성장한 핀테크 기업의 경영능력이 시험대에 오르고 있다. 불과 2~3년 전만해도 이들은 디지털 전환과 유동성 장세에 힘입어 무난히 투자받고, 이를 토대로 사세를 불릴 수 있었다. 유능한 인력을 모셔오기 위해 내로라하는 글로벌 기업에 준하는 복지를 내세우는 것도 필수였다.그러나 분위기가 바뀌었다. 불확실성에 투자해야할 모험자본마저 소위 ‘실적이 나는’ 핀테크들을 선별하기 시작하면서 ‘충분한 투자→인력 확보→비즈니스 개발’이라는 선순환 구조는 깨진 상태다. 사세를 확장하기 위해 내걸었던 인적·물적 조건들은 경영환경 악화 상황에서 오히려 발목을 잡고 있다.25일 금융권 관계자들에 따르면 최근 시장에는 복수의 핀테크사들이 인수합병(M&amp;A) 시장에 매물로 나와있다. M&amp;A가 기업들이 몸집을 키우는데 성장의 발판이 될수는 있다. 하지만 많은 핀테크들이 실적 부진을 겪는 점을 고려하면 사세 확장보다는 출구전략인 경우가 많다고 한다. 추가 투자를 받지 못하거나, 다른 기업을 인수해서 회사를 키울 만큼 여력을 갖추지 못하고 있어서다.초창기만해도 핀테크 기업들은 투자를 손쉽게 받으며 커왔다. 코로나19 이후 디지털 전환이 가속화되며 정부는 물론 민간에서도 투자가 빠르게 이뤄졌기 때문이다.핀테크 관계자들은 “IT 호황기를 맞으면서 핀테크들이 초창기부터 손쉽게 대규모 투자를 받았다”며 “문제는 회사 사이즈에 비해 투자를 크게 받았다 하더라도 비즈니스의 성과가 없으면 과감하게 결단을 내려야하는데 이런 결단이 부족한 게 지금 독이 된 경우가 많다”고 했다.수익은 나지 않는데, 수십억원에 이르는 인건비 등 고정비를 계속 감당해야하는 것도 문제다. 초기 기업일수록 우수 인력을 데리고 오기 위해 전 직장 대비 높은 연봉을 주거나, 스톡옵션 등을 제공해야했다. 여기에 다른 핀테크와의 차별성을 위해 남다른 복지도 필수였다. 일반 기업에 비해 상대적으로 MZ 비중이 많은 만큼 이들의 눈높이를 채워줘야했기 때문이다.실제 핀테크나 빅테크들이 내세운 복지는 파격적인 경우가 많다. 핀다는 입사자가 자신의 보상체계를 스스로 디자인하는 ‘핀다 커스텀 패키지’ 제도를 지난해부터 도입했다. 1년 이상 근무한 직원의 주택 마련 자금을 최대 1억원까지 무이자로 빌려주는 것은 물론 주2회 리모트근무, 재택 환경 조성을 위한 개인 업무 장비 구매 비용을 120만원까지 지원한다. 토스는 지원 포지션에 따라 스톡옵션을 부여하고 주 4.5일 근무제, 겨울방학 제도 등도 운영 중이다. 카카오페이는 3년 근무시 직원들에게 한달 안식휴가, 휴가비 200만원 등을 지급 중이다.회사가 성과를 내고 사내 복지를 늘리는 것은 문제가 되지 않지만 경영 악화를 겪는 핀테크에게는 부담으로 돌아오고 있다는게 경영진들의 얘기다. 핀테크 업체 대표 A씨는 “투자유치에 기댈 수밖에 없는데, 투자금액의 70% 정도는 인건비에 쓰일 수 밖에 없다”며 “투자자로부터 방만경영을 하지 말라는 이유로 연봉 인상분까지 제한되는 상황에서 우회로로 복지만 늘려온 것이 성장 정체기에 또 다른 발목을 잡고 있다”고 말했다.이러다보니 버티고 버티다 회사를 매각하는 과정에서 갈등이 생기기도 한다. 최근 피인수된 핀테크 기업 관계자는 “월급을 못받을 뻔 하기도 하고, 조직 슬림화 과정에서 직원의 3분의 2가 잘려나갔다”며 “일부 임직원은 스톡옵션을 받기로 약속했지만 결국 받지 못했고, 그 와중에 인수합병 된 것”이라고 말했다. 그나마 스톡옵션을 받은 임직원들도 과거 유동성이 넘치던 시절 설정된 행사가가 너무 높아 행사할 수도 없다는 전언이다.핀테크 담당 연구원 B씨는 “라이선스가 있는 기업들이야 그나마 라이선스라도 있어서 팔린 것”이라며 “매출도 일어나고, 유의미한 어떤 사업의 성장 단계를 보여서 시너지를 내기위해 (동등하게) 합병하는게 아니라면 인수기업이 피인수기업이 진 스톡옵션이나 채무 등을 위임받지 않는다 해도 마냥 불리한 계약이라고 보긴 어렵다”고 말했다.핀테크 시장이 성숙 단계로 접어들기까지 당분간 성장통은 불가피해 보인다는 분석이다. 금융당국은 해외 진출을 독려하고 있지만 핀테크 업체들이 내심 부정적으로 보는 이유도 여기에 있다. 국내에서도 자본력은 물론 경영상 취약점이 드러나고 있는데 해외시장에서 무작정 통할리 만무하다는 얘기다.핀테크 관계자들은 “당국에서 요구하는대로 해외시장에서 경쟁력을 갖기 위해서는 동등한 관계의 M&amp;A를 통해 커가거나 조인트벤처(JV) 등 다양한 방식의 성장모델이 필요하다”며 “초창기 정책적 지원, 사회적 분위기 등에 힘입어 발빠르게 커온 핀테크들이 다시금 현재를 되돌아 볼 때”라고 지적했다. 서정은·홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>라이프시맨틱스 ‘토스 출신’ 김보람 CPO 영입</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005579775?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>기존 서비스 사업부문을 ISS 부문으로 개편공격적 인재 영입 통해 디지털헬스케어 서비스 사업 확장B2B, B2G 사업 중심에서 B2C 사업까지 서비스 통합[이데일리 김새미 기자] 라이프시맨틱스(347700)가 기존 서비스사업부문을 ISS(Internet Software &amp; Services) 부문으로 개편하고, 공격적 인재 영입을 통해 디지털 헬스케어 서비스 사업을 확장한다.김보람 라이프시맨틱스 최고제품책임자(CPO) (사진=라이프시맨틱스)라이프시맨틱스는 핀테크 기업 비바리퍼블리카(토스) 출신 김보람 라이프시맨틱스 최고제품책임자(CPO)를 영입했다고 21일 밝혔다.김 CPO는 모바일 식권 앱 ‘식권대장’ 운영사 벤디스의 제품개발실장, 부동산 조각 투자 플랫폼 기업 카사코리아의 CPO, 금융 앱 ‘토스’ 운영사 비바리퍼블리카의 프로덕트 리드를 역임하는 등 다양한 분야에서 모바일 서비스를 총괄한 전문가다. 서울대학교 의료정보학 박사를 수료한 김 CPO는 서울대학교병원에서 고객건강기록(PHR)을 연구하는 ‘CoPHR 프로젝트’를 이끌고, 소비자 중심의 헬스케어를 알리기 위한 헬스 2.0 서울 챕터를 창립했다. 따라서 디지털헬스케어 산업에 대한 이해도가 높다는 게 회사 측의 판단이다.앞으로 김 CPO는 라이프시맨틱스의 디지털 헬스케어 각 영역을 통합·정비해 고객 친화적 서비스를 선보일 예정이다. 또 개편된 ISS 부문을 서비스 전문 조직으로 이끌어 나갈 계획이다.김 CPO는 “디지털 헬스케어는 국민의 건강과 밀접하게 연결되어 있어 고객이 편리하게 활용할 수 있는 기반을 갖추는 것이 필요하다”며 “라이프시맨틱스의 주요 비즈니스가 소비자에게 더 가까워질 수 있도록 대국민 서비스를 구현해 나갈 것”이라고 말했다.국내 디지털 헬스케어 시장은 규제 산업에 속하기 때문에 라이프시맨틱스는 B2B, B2G 사업에 무게를 두고 서비스를 전개해 왔다. 라이프시맨틱스는 국내 첫 상용화 PHR 플랫폼 ‘라이프레코드(LifeRecord)’를 기반으로 삼성생명(032830), KB손해보험, 한화생명(088350), LH 등 다양한 기업들과 협업하고 있다. 정부가 지원하는 닥터앤서 2.0 사업, 공공기관과 업무협약 체결 등 B2G 사업에도 참여했다.라이프시맨틱스는 앞으로 B2C까지 통합할 수 있는 대중적인 헬스케어 서비스를 구축할 계획이다. 송승재 라이프시맨틱스 대표는 “김 CPO는 핀테크 분야에서 대중적 서비스를 이끌어온 기술·규제 산업 전문가”라며 “김 CPO를 필두로 라이프시맨틱스의 디지털 헬스케어 서비스 혁신을 통해 소비자에게 한 걸음 더 다가갈 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>기술혁명 현장... '대한민국 디지털미래혁신대전' 25일 개막</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004941260?sid=105</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>2023 디지털미래혁신대전 SaaS 추진협회 특별관생성형 인공지능(AI) 최신 기술과 양자컴퓨터, 클라우드, 바이오 헬스케어, 디지털플랫폼 정부 현재와 미래를 가늠할 수 있는 행사가 열린다. 지디넷코리아는 한국소프트웨어산업협회, 과학기술정보통신부, 디지털플랫폼정부위원회 등과 함께 '2023 대한민국 디지털미래혁신대전(디미혁) 2003' 행사를 오는 25일부터 사흘간 서울 코엑스 1층(A홀)에서 개최한다고 밝혔다.행사에는 국내 ICT 시장을 선도하는 300여 대·중·소 기업을 비롯해 과기정통부 산하 ICT 공공기관들도 별도 부스를 마련해 참여한다. '로봇계 다빈치'로 통하는 데니스 홍 미국 UCLA 교수를 비롯해 배경훈 LG AI연구원장 등은 연사로 나선다. 93만명 가까운 구독자를 보유한 인기 여행 유튜버 '희철리즘(윤희철)'이 취준생 맞춤형 강연을 진행한다. '디지털 청년 채용 박람회'도 열린다. 네이버를 비롯해 원티드랩, 오늘의집, 직방, 당근, 토스CX, 나만의닥터, 제네시스랩 등이 부스를 연다.국내 대표 소프트웨어(SW) 기업인 △더존ICT그룹 △한글과컴퓨터(한컴) △티맥스소프트 △안랩 등이 개별 부스를 마련했다. 서울시 산하 기관인 서울디지털재단과 서울경제진흥원(SBA)을 비롯해, 지역을 대표해 강원테크노파크(강원TP), 연세대미래캠퍼스, 천안 소재 한국기술교육대(한기대), 구미전자기술원 등이 지역 선도형 기술과 제품을 선보인다. 한림대 성심병원, 고려대 안암병원, 차병원 등 대형 병원들도 만날 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>한투, 토큰증권 발행 인프라 구축 완료</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005076137?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 한국금융지주의 자회사 한국투자증권은 업계 최초로 토큰증권 발행 인프라 구축을 완료했다고 21일 밝혔다. 토큰증권 발행 및 청산에 필요한 모든 과정을 구현한 인프라를 개발하고 시범 발행까지 완료했다.   토큰증권은 분산원장 기술(Distributed Ledger Technology)을 활용해 발행된 디지털화된 증권이다. 실물증권과 전자증권에 이은 새로운 발행 형태의 증권이다. 부동산은 물론 선박, 항공기 미술품 등 실물로 존재하는 자산의 권리를 손쉽게 유동화해 '증권형 디지털자산'로 전환, 조각 투자가 가능해진다.   한국투자증권을 중심으로 카카오뱅크, 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 '한국투자ST프렌즈'는 지난 5월 발행 인프라 구축을 최우선 과제로 천명하고 개발에 착수한 바 있다.   한국투자증권은 법제화 단계에 있는 토큰증권 사업 특성을 고려해 클라우드 시스템을 기반으로 분산원장 인프라를 구현했다. 이를 통해 향후 제도 변화를 탄력적으로 수용하고 시스템 개선에 능동적으로 대처할 수 있도록 만전을 기했다. 애자일 개발 방식을 채택해 신속한 의사결정과 효율적인 협업을 통해 개발 시간을 크게 단축할 수 있었다는 설명이다.   새로운 발행 인프라가 기존 증권거래 시스템과 충돌 없이 결합하여 유기적으로 작동하도록 연동 작업도 마쳤다고 강조했다. 중앙집중식 계좌부에 기재하는 일반적인 금융시스템과 달리 분산원장에 기재되는 토큰증권의 특성상 이를 효과적으로 연결하기 위해서는 여러 기술적 난제를 해결해야만 했다는 설명이다.   한국투자증권은 두 시스템을 연동하기 위해 그간의 노하우를 바탕으로 새로운 기술을 개발·적용했다. 스마트계약을 통한 배당 처리, 분산원장 예수금을 활용한 즉각적인 거래 완결성 보장, 개인정보 처리 및 보호 기술 등은 특허 출원까지 진행 중이다. 토큰증권 인프라의 높은 기술력과 시스템 안정성을 입증하여 업계를 선도하는 기술적 우위를 확보해 나간다는 방침이다.   최서룡 플랫폼본부장은 “이번 발행 인프라가 분산원장 기술이 제도권 금융으로 편입되는 과정에서 중요한 변곡점이 될 것으로 기대한다"며 “투자자의 니즈를 반영한 우량자산 발굴에 힘쓰는 한편, 안정적인 제도 정착과 투자자보호에 노력해 선도 사업자로서의 위상을 공고히 하겠다”고 말했다.   한편, 한국투자ST프렌즈는 토큰증권 상품의 발행 및 청산 전 과정에서 다양한 필드 테스트를 진행하며 안정성과 기능을 더욱 강화해 나갈 예정이다. 토큰증권 생태계 구축을 위해 펀더풀, 밸류맵을 비롯한 다양한 카테고리의 콘텐츠 기업들과 협업하여 토큰증권 상품화에도 집중할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>한국투자증권, 토큰증권 분산원장 인프라 구축 완료</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000352125?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>'한국투자ST프렌즈' 인프라 구축 및 시범 발행 완료한국금융지주 자회사 한국투자증권이 업계 최초로 토큰증권 발행 인프라 구축을 완료했다고 21일 밝혔습니다. 토큰증권은 분산원장 기술(Distributed Ledger Technology)을 활용해 발행된 디지털화된 증권으로 실물증권과 전자증권에 이은 새로운 발행 형태의 증권입니다. 부동산은 물론 선박, 항공기 미술품 등 실물로 존재하는 자산의 권리를 손쉽게 유동화해 '증권형 디지털자산'로 전환, 조각 투자가 가능하다는 게 특징입니다. 한국투자증권, 카카오뱅크, 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 '한국투자ST프렌즈'는 지난 5월 토큰증권 발행 인프라 구축을 위한 개발에 착수한 이후 4개월 만에 국내 최초로 토큰증권 발행 및 청산에 필요한 모든 과정을 구현한 인프라를 개발하고 시범 발행을 완료했습니다. 또 법제화 단계에 있는 토큰증권 사업 특성을 고려해 클라우드 시스템을 기반으로 분산원장 인프라를 구현함으로써 향후 제도 변화를 탄력적으로 수용하고 시스템 개선에 능동적으로 대처할 수 있도록 했습니다.  한국투자증권 관계자는 "중앙집중식 계좌부에 기재하는 일반적인 금융 시스템과 달리 분산원장에 기재되는 토큰증권의 특성상 기존 증권거래 시스템과 충돌 없이 연동하기 위해 새로운 기술을 개발해 적용했다"며 "그 중 스마트계약을 통한 배당 처리, 분산원장 예수금을 활용한 즉각적인 거래 완결성 보장, 개인정보 처리 및 보호 기술 등은 특허 출원까지 진행 중"이라고 강조했습니다. 최서룡 한국투자증권 플랫폼본부장은 "이번 발행 인프라가 분산원장 기술이 제도권 금융으로 편입되는 과정에서 중요한 변곡점이 될 것으로 기대한다"면서 "투자자의 니즈를 반영한 우량자산 발굴에 힘쓰는 한편, 안정적인 제도 정착과 투자자 보호를 위해 선도 사업자로서의 위상을 공고히 하겠다"고 말했습니다.한편, 한국투자ST프렌즈는 토큰증권 상품의 발행 및 청산 전 과정에서 다양한 필드 테스트를 진행하며 안정성과 기능을 더욱 강화해 나갈 예정입니다. 또한, 토큰증권 생태계 구축을 위해 펀더풀, 밸류맵을 비롯한 다양한 카테고리의 콘텐츠 기업들과 협업하여 토큰증권 상품화에도 집중할 방침입이다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.09.29.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>상품 가짓수 못 갖춘 인터넷전문은행의 게으른 혁신 [분석+]</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/665/0000001716?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>더스쿠프 마켓분석 국내 은행 뱅킹앱 보고서첫번째 지표➊ 금융상품 다양성  서경대 MFS 연구팀 뱅킹앱 분석슈퍼앱 표방하며 다양성 강조해 전통 은행 상품 갯수 다양했지만구색 못 맞춘 뱅킹앱도 적지 않아인터넷전문은행 리테일 상품 적어앱서 누릴 만한 서비스 더 많아야# 국내 금융회사는 매년 100여종에 이르는 신용카드를 경쟁적으로 론칭한다. 치열하게 경쟁 중인 모바일 뱅킹앱에도 다양한 금융상품을 넣기 위해 힘을 쏟는다. 이는 전통의 시중은행이든 지방은행이든 인터넷전문은행이든 똑같다.# 그럼 어떤 은행이 가장 많은 상품군을 선보이고 있을까. 더스쿠프가 서경대 MFS 연구팀과 함께 국내 뱅킹앱의 다양성을 분석했다. 대형 시중은행의 뱅킹앱은 금융 상품의 다양성을 제대로 확보했다.[사진=뉴시스]국내 뱅킹앱의 대세는 '슈퍼앱'이다. 하나의 앱에서 예ㆍ적금, 대출, 보험, 증권 등 다양한 금융서비스를 다룰 수 있어야 시장에 명함이라도 내밀 수 있다. 각 금융회사도 자신들의 앱이 여러 서비스와 상품을 일괄처리할 수 있는 '원스톱 플랫폼'이란 점을 어필하고 있다. 뱅킹앱에서 '다양성'이 핵심 가치로 떠올랐다는 거다. 서경대 MFS(Mobile Financial Service) 연구팀이 국내 뱅킹앱에 담긴 금융 상품의 가짓수를 정량적으로 분석했다. 다양성 측면에서 어떤 뱅킹앱의 경쟁력이 가장 뛰어난지를 파악하기 위해서였다. 조사 상품 종류는 9개로 선정했다. ▲카드 상품, ▲개인 정기예금, ▲개인 적금, ▲개인 입출금 자유식 예금, ▲개인 보험ㆍ공제, ▲개인 수익성 금융 상품(펀드ㆍ외환 등), ▲개인 신용대출, ▲개인 담보대출, ▲신규 금융상품 등이었다.서기수 서경대(금융정보공학) 교수는 "일반 국민이 뱅킹앱을 주로 쓰는 만큼, 리테일금융 상품에 초점을 맞춰 정량적으로 평가 기준을 만들었다"면서 "은행마다 상품을 분류하는 기준이 달라 쉽지 않았는데, 연구팀 나름의 기준으로 최대한 유사한 성격을 지닌 상품을 묶어 객관성을 확보했다"고 설명했다. 채점 방식은 '순위별 가산시스템'으로 정했다. 12개 은행 뱅킹앱 중 가장 많은 상품을 보유한 순서대로 줄을 세웠고, 이중 상위 20%에 속한 은행에 5점을 줬다. 그다음 20% 단위로 1점씩 깎았다. 상위 20~40% 그룹은 4점, 하위 20%에 속하면 1점을 주는 식이다.[※참고 : 평가는 해당 항목의 여러 연구원이 개인 금융소비자 입장에서 앱을 직접 다루면서 진행했다. 8월 21일까지 업데이트한 내역을 기준으로 삼았고, 모바일 앱 인터페이스(UI)와 사용자 경험(UX)을 중심으로 평가했다.]비교군은 둘로 나눴다. 시중ㆍ지방은행(12개)과 인터넷전문은행(3개)이다. 서기수 교수는 "인터넷전문은행은 영업점을 보유하고 있지 않고, 시중은행 대비 인력이 적다는 특수성이 있다"면서 "금융 상품의 종류도 인터넷전문은행이 현저히 적기 때문에 불가피하게 따로 비교했다"고 설명했다. 먼저 12개 시중ㆍ지방은행의 평가 결과부터 보자. ■ 분석➊ 시중ㆍ지방은행 = 12개 시중ㆍ지방은행이 다양성 평가에서 얻은 평균 점수는 3.12점이었다. 이중 가장 높은 점수를 얻은 앱은 우리은행이었다. 평균 3.89점을 기록하면서 대부분의 상품에서 우수한 점수를 획득했다. 그만큼 상품 종류를 종합적으로 잘 갖췄다는 얘기다. 2위는 3.67점을 얻은 NH농협은행이었다. 하나은행, 신한은행, IBK기업은행 등은 3.44점을 얻으면서 공동 3위에 위치했다. 6위 광주은행(3.33)과 7위 국민은행(3.22)도 평균 점수보다 높았다.평균 점수를 밑돈 은행 대부분은 지방은행이었다. 8위 DGB대구은행은 3.00점, BNK부산은행ㆍJB전북은행은 2.89점, BNK경남은행은 2.56점을 얻는 데 그쳤다. 다양성 평가에선 전체 금융 상품의 개수가 상당히 큰 영향을 미치는 만큼 업력이 긴 시중은행의 평가가 지방은행보다 상대적으로 우수할 수밖에 없었다. 고객이 많아야 상품 개수도 늘릴 수 있는데, 지역거점 영업이란 태생적 한계를 극복하는 게 쉽지 않았기 때문으로 풀이된다. 수협은행이 1.67점을 받으면서 가장 뒤순위로 밀린 것도 같은 맥락이다. 2016년 12월에야 수협중앙회에서 분리해 은행으로 새 출발한 만큼, 개인 고객을 대상으로 한 리테일금융 시장에선 존재감이 옅기 때문이다.이번엔 어떤 은행이 어떤 상품에서 다양성을 확보했는지 알아보자. 먼저 은행의 '핵심 기능'으로 꼽히는 적금 상품에선 광주은행이 26개로 가장 많은 상품을 보유하고 있었다. IBK기업은행은 22개로 2위, 우리은행이 21개로 3위를 차지하면서 적금 평가에서 나란히 5점을 얻었다.세 은행은 12개 은행의 평균 적금 상품 개수(17.4개)를 크게 웃돌았다. 반면 BNK부산은행이 9개로 가장 적었고, NH농협은행과 BNK경남은행, 수협은행 등도 14개로 가짓수가 많지 않았다. 가장 대중적이면서 친숙한 금융 상품인 입출금식 자유예금은 우리은행과 JB전북은행이 다양성을 뽐냈다. 12개 시중ㆍ지방은행의 앱에 등록된 입출금식 자유예금 상품의 평균 개수는 7.3개였는데, 우리은행과 JB전북은행은 11개에 달했다. 9개의 상품을 진열해 놓은 KB국민은행 앱의 구색도 좋았다. 금융업계가 가장 불꽃 튀는 모객 경쟁을 벌였던 분야인 담보대출 상품도 살펴보자. 시간ㆍ장소에 구애받지 않고 스마트폰으로 '뚝딱' 현금을 빌릴 수 있는 모바일 대출 상품은 각 뱅킹앱의 가입자 수를 늘리는 데 커다란 공을 세웠다. 먼저 신용대출 항목에서 가장 많은 상품을 확보한 건 KB국민은행이었다. 앱에서 무려 27개의 신용대출 상품을 볼 수 있었다. 12개 시중ㆍ지방은행의 평균 신용대출 상품은 10.5개였는데, 이를 훌쩍 뛰어넘었다. KB국민은행은 담보대출 상품에서도 우수한 다양성을 확보했다. 25개의 담보대출 상품을 모바일에서 진행할 수 있었는데, 12개 은행 중 가장 많은 숫자였다. KB국민은행을 포함해 대출 항목에선 전반적으로 전통은행들이 강세를 보였다. 신용대출 분야에선 하나은행(20개), 우리은행(20개) 등이 우수한 평가를 받았다. 신한은행(22개)은 담보대출 상품이 두번째로 많았고 우리은행(11개)이 뒤를 이었다. 반면 지방은행은 상대적으로 열세였다. 신용대출 상품 개수가 JB전북은행은 5개, BNK경남은행ㆍDGB대구은행은 6개에 그쳤고, 수협은행(2개)이 가장 적었다. 담보대출 상품의 숫자도 적었다. BNK경남은행(4개), 광주은행(5개), BNK부산은행(6개), JB전북은행(8개) 등이 한자릿수에 그쳤다. 서경대 MFS 연구팀은 각 은행의 신규 금융 상품의 개수도 따져봤다. 각 은행이 올해 6월 이후 출시한 금융 상품을 기준으로 카운트했다. 고객의 금융 소비 트렌드가 빠르게 변화하고 있는데, 이에 맞춰 얼마나 기민하게 움직이는지를 확인하기 위해서다. 신규 금융 상품의 개수가 가장 많았던 곳은 광주은행(6개)이었다. 12개 은행은 평균 3.1개의 새 금융상품을 출시했는데, 광주은행이 가장 빠르게 상품 개발에 나섰다는 얘기다. NH농협은행과 BNK부산은행도 각각 5개를 내놓으면서 최신 금융 트렌드에 발맞추려 애썼다. 반면 전통의 시중은행들은 신규 상품을 발굴하는 데 미온적이었다. 신한은행은 3개, 하나은행은 2개를 출시했고, 국민은행은 1개를 내놓는 데 그쳤다. ■ 분석➋ 인터넷전문은행 = 케이뱅크ㆍ카카오뱅크ㆍ토스뱅크 등 세곳의 인터넷전문은행 중에선 토스뱅크(4.44점)가 다양성 측면에서 가장 우수했다. 나머지 두 은행과 견줘 대부분의 항목에서 상품의 가짓수가 많았다. 토스뱅크는 다른 카드사와의 제휴를 통해 100여개가 넘는 카드 상품을 제공하고 있었다. 개인투자자를 대상으로 삼은 수익성 금융 상품도 3개로 가장 많았다(케이뱅크 2개ㆍ카카오뱅크 1개). 토스뱅크에 이어 다양성이 뛰어난 은행은 4.33점을 받은 카카오뱅크였다. 케이뱅크는 4.22점으로 세 은행 중 가장 낮은 평가를 받았다. 다만, 인터넷전문은행의 다양성은 전반적으로 기대치를 밑돌았다. 토스뱅크와 카카오뱅크는 보험ㆍ공제 상품이 아예 없었다. 개인 담보대출 상품도 취급하지 않았다. 정기예금 서비스는 3사 모두 1개에 그쳤다. 그렇다고 새 상품을 개발하는 데 힘을 쏟은 것도 아니다. 인터넷전문은행 3사 중 카카오뱅크(4개)만 시중ㆍ지방은행의 신규상품 평균치(3.1개)를 넘었을 뿐, 토스뱅크는 1개, 케이뱅크는 제로에 그쳤다. 다양성이 부족한 인터넷전문은행의 상품군은 시중ㆍ지방은행과 비교하면 훨씬 더 잘 드러난다. 서경대 MFS 연구팀이 분석한 9개 상품군을 기준으로 따져보면, 시중ㆍ지방은행은 평균 113개의 제품을 앱에 등록한 반면, 인터넷전문은행은 평균 64개에 불과했다. 토스뱅크를 비롯한 인터넷전문은행은 금융 상품의 구색을 맞추진 못했다.[사진=뉴시스]이 숫자도 다른 카드사와의 제휴상품을 포함한 카드상품이 118개였던 토스뱅크 덕에 끌어올릴 수 있었다. 카드상품을 제외하면 인터넷전문은행이 직접 앱에서 구현한 리테일 금융 상품은 20~30개 안팎에 그쳤다. 이는 출범 초기 여러 상품을 백화점에 진열하듯 늘어놓는 대신 몇개의 상품을 확실하게 서비스하는 데 집중한 인터넷전문은행의 '선택과 집중' 전략이 반영됐기 때문이다. 하지만 이를 십분 반영하더라도 인터넷전문은행이 출범한 지 6년차라는 걸 고려하면 아쉬운 성적표다. 은행업의 경쟁 촉진이란 도입 취지를 실현하려면 어느 정도 상품 경쟁력을 확보한 뒤, 대형은행 중심의 과점 체제를 위협할 수 있어야 하기 때문이다.최근 들어 인터넷전문은행은 성장성이 답보상태에 머물러 있다는 지적이 많다. 시중은행의 모바일 서비스와 차별성이 없다는 목소리도 점점 커지고 있다.MFS 보고서의 다양성 조사를 진행한 박재현 파트장은 "인터넷전문은행은 비대면 플랫폼을 통해 금융 소비자가 선택할 수 있는 폭을 넓히는 데 기여하긴 했지만, 정작 플랫폼 내부를 채우는 작업엔 더 많은 시간이 필요한 것 같다"면서 "새로운 금융서비스와 시장을 개척하려면 상품 다양성을 갖추려는 노력도 지속해야 한다"고 지적했다.  김다린 더스쿠프 기자quill@thescoop.co.k</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.09.22.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>라이프시맨틱스, 토스 출신 김보람 CPO 영입</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000914533?sid=105</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>라이프시맨틱스가 기존 서비스사업부문을 ISS (Internet Software &amp; Services) 부문으로 개편하고, 핀테크 기업 비바리퍼블리카(토스) 출신 인사를 임원으로 영입해 서비스 경쟁력을 강화한다. 라이프시맨틱스는 공격적 인재 영입을 통해 디지털 헬스케어 서비스 사업을 확장한다는 계획이다.김보람 라이프시맨틱스 최고제품책임자(CPO)는 21일 “디지털 헬스케어는 국민의 건강과 밀접하게 연결되어 있어 고객이 편리하게 활용할 수 있는 기반을 갖추는 것이 필요하다”며 “라이프시맨틱스의 주요 비즈니스가 소비자에게 더 가까워질 수 있도록 대국민 서비스를 구현해 나갈 것”이라고 포부를 밝혔다.김 CPO는 모바일 식권 앱 ‘식권대장’ 운영사 벤디스의 제품개발실장, 부동산 조각 투자 플랫폼 기업 카사코리아의 CPO, 금융 앱 ‘토스’ 운영사 비바리퍼블리카의 프로덕트 리드를 역임하는 등 다양한 분야에서 모바일 서비스를 총괄한 전문가다. 서울대학교 의료정보학 박사를 수료한 김 CPO는 서울대학교병원에서 고객건강기록(PHR, Personal Health Record)을 연구하는 ‘CoPHR 프로젝트’를 이끌고, 소비자 중심의 헬스케어를 알리기 위한 헬스 2.0 서울 챕터를 창립하는 등 디지털 헬스케어 산업에 대한 이해도 높다.앞으로 김 CPO는 라이프시맨틱스의 디지털 헬스케어 각 영역을 통합∙정비해 고객 친화적 서비스를 선보이며, 개편된 ISS 부문을 서비스 전문 조직으로 이끌어 나갈 계획이다.라이프시맨틱스는 국내 첫 상용화 PHR 플랫폼 ‘라이프레코드(LifeRecord)’를 기반으로 삼성생명, KB손해보험, 한화생명보험, LH 등 다양한 기업들과의 협업을 통해 매출 영역을 확대하고 있다. 이 밖에 정부가 지원하는 닥터앤서 2.0 사업 및 공공기관과의 업무협약 체결 등 B2G 사업에도 지속 참여하며 국내 의료 산업의 첨단화에 앞장서고 있다.국내 디지털 헬스케어 시장은 규제 산업에 속함에 따라 라이프시맨틱스는 B2B, B2G 사업에 무게를 두고 서비스를 전개해 왔다. 그러나 최근 헬스케어 산업의 기술적 성장과 정부의 규제 개선 의지가 강화된 만큼 앞으로 B2C까지 통합할 수 있는 대중적인 헬스케어 서비스를 구축해 나갈 전망이다.라이프시맨틱스 송승재 대표는 ”김보람 CPO는 핀테크 분야에서 대중적 서비스를 이끌어온 기술 및 규제 산업 전문가“라며 ”김 CPO를 필두로 라이프시맨틱스의 디지털 헬스케어 서비스 혁신을 통해 소비자에게 한 걸음 더 다가갈 것“이라고 말했다.손봉석 기자 paulsohn@kyunghyang.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>가계 예대금리차 두 달 연속 확대…5대 은행 NH농협·우리銀 순</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000352856?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>지난달 5대 시중은행 평균 가계 예대금리차가 두 달 연속 확대됐습니다.은행연합회가 오늘(27일) 소비자포털에 공시한 자료에 따르면 KB국민·신한·우리·하나·NH농협은행의 지난달 신규 취급액 기준 정책서민금융 제외 가계 예대금리차는 0.936%p로 집계됐습니다.지난 7월에 기록했던 수치인 0.934%p 보다 소폭 커졌습니다.예대금리차는 저축성 수신금리에서 대출금리를 뺀 수치로, 은행의 수익성을 나타내는 지표입니다.예대금리차가 클수록 은행이 취하는 예대 마진이 높습니다.다만 석 달 연속 1%포인트를 밑도는 상황입니다.시중 5대 은행 중 가계 예대금리차 1위 NH농협은행…우리은행도 확대 시중 5대 은행의 지난달 가계 예대금리차(정책서민금융 상품 제외)를 살펴보면 NH농협은행이 1.15%p로 가장 컸습니다.이어 우리은행이 0.99%p, KB국민은행 0.92%p, 신한은행 0.90%p, 하나은행 0.72%p 순 이었습니다.한 달 전과 비교하면 농협은행과 우리은행의 가계 예대금리차는 각각 0.04%p, 0.09%p 확대됐습니다.국민은행은 전달과 같은 수치를 보였고, 하나은행과 신한은행은 각각 0.11%p, 0.01%p 축소됐습니다.농협은행 관계자는 예대금리차 확대 이유에 대해 "정부 정책자금이 많이 차지해 수신비율이 높고, 해당 자금은 1~3개월 초단기 정기예금으로 예치되며 지역별 점포와 금고가 많은 특수성 때문에 타행에 비해 불리한 부분이 있다"고 설명했습니다.가계 예대금리차 전체 1위 '전북은행'…토스뱅크 2위은행연합회가 공시한 19개 전체 은행 가운데 가장 가계 예대금리차가 가장 큰 곳은 이번에도 전북은행이었습니다.전북은행의 지난달 가계 예대금리차는 4.91%p로 집계됐습니다.전북은행은 지난해 은행연합회가 예대금리차 공시를 시작한 이후 줄곧 전체 1위를 기록하고 있습니다.이어 인터넷전문은행인 토스뱅크가 3.62%p로 뒤를 이었습니다.토스뱅크는 인터넷은행 중 가계 예대금리차가 가장 컸습니다. 한 달 전(3.39%p)보다 0.23%p 확대됐습니다.이어 케이뱅크와 카카오뱅크가 각각 1.76%p, 1.34%p를 기록했습니다.향후 예대금리차 축소 가능성… 수신 경쟁 '치열'다만 향후 각 은행의 예대금리차가 축소될 것이라는 전망이 나오고 있습니다.현재 금리가 오르는 추세를 감안하면 예대금리차가 축소될 수 있다는 겁니다.김상봉 한성대 경제학과 교수는 "금리가 올라가는 상황에서는 대출금리도 빨리 오르지만 예금금리도 빨리 오를 수 있는 상황이다. 예대금리차가 줄어들 수 있는 구간이 생길 수 있다"고 말했습니다.또 최근 미국 국채를 중심으로 국내외 채권 금리가 오르고 있어 이에 대한 영향을 받을 수 있다는 얘기가 나옵니다.조달금리가 오르기 때문에 대출금리도 올려야 하는 상황이며 순차적으로 예금금리도 올라 예금과 대출금리의 갭이 줄어줄 수 있다는 겁니다.여기에 더해 지난해 가입된 고금리 적금의 만기 일자가 다가옴에 따라 각 은행에서는 예·적금 고객 유치를 위해 수신 금리를 높여 경쟁을 벌일 것이라는 분석도 나옵니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>“외식업 예비 창업자 다 모여라”…10월 대규모 박람회 잇따라</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005584637?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>10월 5~7일 프랜차이즈 창업 박람회 열려…200곳 참가CJ프레시웨이, 식음산업 박람회 첫 개최…푸드테크도 참여창업 노하우, 상담부터 IT솔루션까지 다양한 경험 제공"외식업 분위기 점차 살아나…3만명 이상 인파 몰릴 듯"[이데일리 이후섭 기자] 외식업 창업을 준비하는 예비 사장들이 솔깃한 정보를 얻거나 실용적인 솔루션을 받을 수 있는 대규모 박람회가 오는 10월 연달아 개최된다. 외식 프랜차이즈 브랜드 뿐만 아니라 식품 제조업체, 공공기관, 푸드테크 기업 등도 참여해 창업 노하우부터 정보기술(IT) 솔루션까지 다양한 조언을 얻을 수 있을 것으로 기대된다.지난 3월 열린 ‘제54회 IFS 프랜차이즈 창업 박람회’에서 관람객들이 부스를 둘러보고 있다.(사진=한국프랜차이즈산업협회 제공)26일 업계에 따르면 다음달 5~7일 한국프랜차이즈산업협회가 주최하는 ‘제55회 IFS 프랜차이즈 창업 박람회’가 열리는데 이어 같은 달 18~19일에는 CJ프레시웨이(051500)가 식음산업 박람회 ‘푸드 솔루션 페어 2023’을 개최한다.IFS 프랜차이즈 창업 박람회에는 200개 업체가 참가해 500여개 부스가 차려질 예정이다. 외식업에서는 본죽, 원할머니보쌈족발, 자담치킨, 채선당 자연한가득, 생활맥주 등이 참여해 배달·포장, 비대면결제·주문, 로봇·자동화기기 등을 접목한 하이브리드 모델을 예비 창업자들에게 선보인다.KT(종합 솔루션), 아워홈(컨설팅), 토스플레이스(결제), 제로아이즈(결제), 캐시노트(경영관리), 지엠에스티(주방설비) 등 다양한 협력업체들과 한국공정거래조정원, 한국지식재산보호원, 우체국, 한국식품안전관리인증원, 코트라 등 공공기관들도 부스를 차려 창업의 디테일과 안정성을 높일 수 있는 상담을 제공한다.또 국내에서 인기가 높은 대만 프랜차이즈들을 소개하는 대만 국가관도 마련되며, 대만·캐나다·브라질·중국 등 해외진출 설명회도 열린다. 그간 외식업계는 코로나19 및 후속 여파로 가맹점 확대보다 내실 다지기에 집중해 왔으나, 지난해부터 외식 수요가 회복되면서 창업 수요도 늘어나고 있는 추세다. 실제 지난 3월 열린 제54회 박람회에는 역대 최대 규모인 3만여명이 참여해 지난해 하반기 보다 1만명이나 늘었다. 프랜차이즈협회 관계자는 “상반기 행사에 사람들이 많이 몰려 현장 분위기도 매우 좋았고, 참여자들의 만족도도 갈수록 좋아지고 있다”며 “이번 행사에도 3만명 수준의 인파가 몰릴 것으로 기대하고 있다. 고물가에 경영환경은 아직 어렵지만, 박람회 등을 통해 분위기가 살아나면서 외식업도 정상화되기를 기대하고 있다”고 내다봤다.CJ프레시웨이는 외식 프랜차이즈 브랜드, 국내외 식품 제조업체, 푸드테크 기업 등 70여개 업체가 참여하는 자리를 처음으로 마련한다. CJ프레시웨이는 이번 박람회 주제를 ‘푸드 솔루션’으로 정하고, 지난 20여년간 축적한 사업 역량을 기반으로 차별화된 솔루션을 제공해 고객의 사업 성공을 지원하겠다는 취지로 이번 행사를 준비했다.이를 위해 외식사업의 창업기부터 성숙기까지 단계별 솔루션을 제공하는 ‘사업 여정 맞춤 솔루션’과 영유아부터 시니어까지 생애주기별 급식 이용객에 맞춤형 식생활을 제안하는 ‘생애주기 맞춤 솔루션’ 등을 소개한다. 이오 더불어 외식·급식 메뉴 시식 이벤트, 푸드테크 체험 공간, 프랜차이즈 브랜드 세션 등을 별도로 마련해 상품 및 서비스 홍보를 적극 지원할 계획이다.CJ프레시웨이 관계자는 “이번 행사에 수천명 이상의 관람객들이 찾을 것으로 예상한다”며 “요즘 외식업체들은 어떻게 운영하고 있는지, 창업하면 어떤 도움을 받을 수 있는가 등을 한 눈에 살펴보실 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>인터넷은행 건전성 '빨간불'…케이뱅크 중저신용 연체 4% 넘어</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014198614?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>고금리 여파에 신용대출·중저신용 연체율 모두 사상 최고충당금 2배로 늘렸지만…부실채권 급증에 손실흡수능력 떨어져인터넷 전문은행 (PG)[구일모 제작] 일러스트    (서울=연합뉴스) 민선희 오지은 기자 = 고금리가 지속되면서 중·저신용대출 공급을 늘린 인터넷전문은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 건전성에 빨간불이 켜졌다.    인터넷은행 3사의 신용대출 연체율은 출범 이후 가장 높은 수준까지 뛰었으며, 특히 케이뱅크는 중·저신용대출 연체율이 사상 처음으로 4%를 넘어섰다.    인터넷은행들은 지난해보다 대손충당금을 2배 쌓는 등 건전성 관리에 나섰지만, 당분간 높은 금리가 지속될 것으로 보여 취약 차주를 중심으로 부실이 더 터져 나올 수 있다는 우려가 나온다.  8월 말 인터넷은행 신용대출 연체율 1.20%…중·저신용은 2.79%    17일 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)가 국회 기획재정위원회 양경숙 의원(더불어민주당)에게 제출한 자료에 따르면, 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%를 기록했다.     인터넷은행 신용대출 연체율은 3사 신용대출 연체액을 신용대출 잔액으로 나눈 수치다.    신용대출 연체율은 지난 2021년 0.3% 수준에서 유지되다가 지난해부터 점차 올라 지난해 6월 말 0.42%, 12월 말 0.77%, 올해 6월 말 1.04%, 8월 말 1.20%까지 상승했다.    인터넷은행 3사가 출범한 이후 가장 높은 수준일 뿐 아니라, 1년 만에 약 2배 넘게 뛴 셈이다.     국내은행의 지난 6월 말 기준 주택담보대출 제외 가계대출(신용대출 등) 연체율이 0.62%라는 것과 비교해도, 인터넷은행의 신용대출 연체율은 높은 편이다.     은행별로는 토스뱅크가 1.58%로 가장 높았고, 케이뱅크가 1.57%, 카카오뱅크가 0.77%로 집계됐다.    인터넷은행 3사의 중·저신용대출만 떼어 보면 연체율 증가세는 더 가파르다.    지난달 말 기준 3사의 중·저신용대출 연체율은 2.79%로 집계됐다. 2021년 말부터 지난해 상반기까지 0.8%대를 유지했지만, 지난해부터 상승해 올해 6월 말 기준 2.46%를 기록했다. 1년 전(0.84%)과 비교하면 연체율이 2.9배로 뛰었다.    은행별로는 케이뱅크가 4.13%로 가장 높았다. 뒤이어 토스뱅크 3.40%, 카카오뱅크 1.68% 순이었다.     중·저신용 연체율 역시 각 사 개별로도, 3개 사 합산 기준으로도 역대 최고 수준이다.  기준금리 인상 여파…"중·저신용 대출 많은 인터넷은행 취약"    인터넷은행 연체율이 빠르게 오르는 이유는 기본적으로 한국은행의 기준금리 인상 여파가 계속 이어지고 있기 때문이다.    한은이 지난 2021년 8월부터 올해 1월까지 기준금리를 10차례에 걸쳐 인상하면서, 연 0.50%였던 기준금리는 현재 3.50%까지 3.00%p(포인트) 높아졌다.     한은이 2월부터 기준금리를 동결하기는 했지만, 미국 등 주요국 긴축 장기화 가능성 등을 고려하면 당분간 금리는 높은 수준에서 지속될 전망이다.     한은은 지난 14일 국회에 제출한 통화신용정책 보고서에서 "국내 경제 성장세가 점차 개선되는 가운데 물가 상승률이 상당 기간 목표 수준(2%)을 상회할 것으로 전망된다"며 "긴축 기조를 상당 기간 지속할 것"이라고 밝혔다.    특히 인터넷은행은 중·저신용대출 비중을 높여야 해 고금리 시기 건전성 관리가 더욱 쉽지 않다.     인터넷은행은 '중·저신용 대출 공급'이라는 인가 취지에 따라, 중·저신용대출 비중 목표치 달성을 요구받기 때문이다.     인터넷은행의 올해 8월 말 기준 중·저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크 28.4%, 케이뱅크 25.4%, 토스뱅크 35.6%로 집계됐다.     3사 모두 연말 목표치(30%, 32%, 44%)에 미달해 하반기 중·저신용대출 비중을 더 끌어올려야 하는 상황이다.    금융감독원 관계자는 "금리가 오르면 취약 차주부터 부실이 발생하는데, 통상 금리 인상 뒤 1년 정도의 시차를 두고 연체율이 오른다"고 말했다.    이어 "특히 인터넷은행은 중·저신용대출 비중이 상대적으로 커 연체율이 더 오르는 면이 있다"며 "고금리 상황이 지속되면 연체율이 더 상승할 수 있기 때문에 추이를 모니터링하고 있다"고 밝혔다.   올해 인터넷은행 신용대출 중 26%만 중·저신용…손실흡수능력 떨어져    인터넷은행들은 연체율이 오르자 건전성 관리를 위해 중·저신용대출 공급을 줄이고, 대손충당금 적립액을 늘리는 추세다.     인터넷은행 3사의 중·저신용 신규공급액은 올해 1∼8월 4조748억원으로 집계됐다.    지난해 상반기에 4조2천617억원, 하반기에 4조6천274억원 공급한 것과 비교하면 중·저신용대출 신규 공급액이 줄었다.    전체 신용대출 신규공급액에서 중·저신용 신규공급액이 차지하는 비중 역시 지난해 상반기 44.1%에서 하반기 34.7%, 올해 1∼8월 26.7%로 축소되는 추세다.    인터넷은행 3사가 올해 1∼8월 새로 내준 신용대출 중 27%만 중·저신용대출이었다는 뜻이다.     인터넷은행은 올해 상반기 대손충당금 적립액도 1년 전의 2배로 늘렸다.    올해 상반기 인터넷은행 3사의 대손충당금 적립액은 3천810억원으로 1년 전(1천928억원)보다 97.6% 늘었다.    대손충당금 잔액 역시 지난해 상반기 3천812억원에서 올해 상반기 8천432억원으로 늘었다.    인터넷은행들이 충당금 적립액을 늘렸지만, 역부족이라는 지적도 있다.    실제로 대손충당금 적립률은 3사 모두 지난해보다 하락했다. 대손충당금 적립률은 대손충당금 잔액을 고정이하여신으로 나눈 비율로, 위기 시 손실흡수능력을 보여주는 지표다.     금감원에 따르면 케이뱅크의 지난 6월 말 대손충당금 적립률은 182.4%로 인터넷은행 중 가장 낮았으며, 지난해 6월 말 221.4%보다 37%p 떨어졌다.    카카오뱅크(276.4%→229.3%)와 토스뱅크(1,263.7%→227.6%)도 지난해보다 낮아졌다.    금감원은 올해 인터넷은행을 포함해 은행권이 충분한 손실흡수능력을 갖출 수 있도록 대손충당금을 더 보수적으로 적립하도록 유도하고 있다.    금감원 관계자는 "인터넷은행은 최근 중·저신용대출 연체율 오름세와 불확실성 등을 고려해 충당금을 산정해야 할 것"이라고 말했다.    ssun@yna.co.kr, built@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>상반기 사기이용계좌 지급정지 1만 8000건, 보이스피싱 예방하려면?</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003396109?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>보이스피싱 이미지. 서울신문DB올해 상반기에만 사기 이용 계좌 지급정지 건수가 1만 8000건에 달하는 것으로 나타났다. 지급정지는 사기이용계좌로 의심할 만한 사정이 있다고 인정되면 즉시 해당 계좌 동결을 요청하는 제도다.25일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 올해 상반기 사기 이용 계좌로 인한 지급정지 건수는 1만 7683건으로 집계됐다.사기 이용 계좌로 인한 지급정지 건수는 2020년 2만 191건에서 2021년 2만 6321건, 2022년 3만 3897건으로 지속해서 급증하는 추세다.올해 상반기를 기준으로 지급정지 건수는 은행 중 국민은행이 3667건으로 가장 많다. 이어 카카오뱅크(3558건), 우리은행(2664건), 케이뱅크(2137건), 신한은행(2096건), 하나은행(1883건), 토스뱅크(1466건), SC제일은행(212건) 등 순이다.한편 금감원은 지난 4일부터 금융권과 ‘보이스피싱 피해예방 집중 홍보기간’을 운영하며 예방책을 안내 중이다.먼저 금융사의 ‘지연이체’ 서비스를 이용하면 계좌 이체 시 본인이 지정한 시간(최소 3시간)이 지난 후에 송금이 이루어진다. 보이스피싱 일당의 피해금 인출을 지연시키기 위한 목적이다. 또 하루 100만원 한도로 송금을 할 수 있게 계좌에 제한을 걸어 혹시 모를 피해 규모도 줄일 수 있다.본인이 미리 지정해 놓은 스마트폰이나 컴퓨터 등에서만 금융 거래가 가능하도록 등록하고, 미지정 기기에서는 추가 본인 인증을 거치도록 하거나 해외에서 접속한 IP로 확인될 경우 송금을 제한하는 서비스도 있다.보이스피싱의 주 대상이 되는 65세 이상 소비자들의 경우 대출 이용 내역을 가족 등 미리 지정한 사람에게 문자로 제공하는 방식으로 비정상 거래를 방지할 수 있다.황석진 동국대학교 국제정보보호대학원 교수는 “(계좌가) 외관상으로는 정상적으로 운영되는 것으로 보여도 보이스피싱에 이용되고 있을 수 있다”며 “예방책을 활용해 한도 설정, 이용 기기 지정 등 철저한 관리가 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>토스뱅크, '외국인등록증 진위확인 서비스' 도입</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003137229?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>토스뱅크는 금융결제원의 '외국인등록증 진위확인 서비스'를 도입했다고 18일 밝혔다.토스뱅크(대표 홍민택)는 금융결제원의 '외국인등록증 진위확인 서비스'를 도입했다고 18일 밝혔다.서비스를 통해 토스뱅크에서 외국인 고객이 토스뱅크 계좌를 개설할 때 금결원과 법무부가 구축한 전용라인을 통해 실시간 외국인등록증 진위 확인이 가능하게 됐다. 진위확인 서비스는 외국인등록증(신분증)의 사진 특징점까지 추출해 법무부 데이터베이스(DB) 사진과 유사도까지 검증한다. 기존 공공마이데이터를 활용하는 방식에 금융결제원의 진위확인 서비스까지 더해져 외국인 고객의 신원에 대해 보다 안정적으로 빠르고 정확하게 확인할 수 있게 됐다.토스뱅크는 지난해 5월 인터넷전문은행 최초로 국내 거주 외국인 고객 대상으로 비대면 뱅킹서비스를 제공하기 시작했다. 계좌를 개설한 외국인 고객들은 토스뱅크 내국인 고객과 차별없이 비대면 뱅킹서비스를 이용할 수 있다.토스뱅크 관계자는 “지난해 5월 외국인 계좌개설 서비스를 선보인 이후부터 외국인 고객 위해 지속적인 서비스 고도화 진행해왔다”라고 전하며, “앞으로도 은행에 대한 고객경험을 바꿔나가도록 지속 최선을 다할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>내년 제4인뱅 나온다는데...매력은 물음표</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002203253?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>한국신용데이터, 소상공인 전문“실효성 적다” 신규 업체도 포기금융당국이 인터넷전문은행 추가 인가의 문을 열어둔 가운데 내년에야 제4의 인터넷전문은행이 새로 출범할 것으로 보인다. 현재로서는 한국신용데이터가 소상공인 전문 인터넷은행 설립 준비에 본격적으로 나선 상태다. 다만 수익성 없는 성장에 대한 회의감, 인터넷은행에 대한 각종 규제 등으로 인터넷은행 진출 수요는 떨어지고 있는 중이다.26일 금융권에 따르면 한국신용데이터(KCD)는 소상공인전문 인터넷은행 설립을 위한 KCD 뱅크 태스크포스팀(TFT)을 꾸리고 관련 인력을 충원 중이다. KCD 뱅크 TFT는 인터넷은행 인가를 위한 사업모델 개발부터 전략 수립, 금융 당국과의 커뮤니케이션 등을 담당한다. 한국신용데이터는 애초 인터넷은행이 아닌 특화전문은행으로 시장 진출을 검토했으나, 연초 실리콘밸리은행(SVB) 파산을 겪으며 노선을 틀었다.한국신용데이터 관계자는 “구체적인 인가 시점을 얘기할 수는 없지만, 올해는 넘겨야할 것으로 보인다”며 “당국이 상시인가 체제로 바꾼 만큼 관련 업무가 진행되는대로 서류를 낼 계획”이라고 말했다.앞서 당국은 지난 7월 5대 시중은행 중심의 과점체제를 깨기 위해 인터넷은행 인가 진입문을 낮추겠다는 뜻을 밝혔다. 과거에는 당국이 인가방침을 발표한 이후 신규인가가 가능했지만, 수요가 있다면 보다 적극적으로 검토하겠다는 게 골자였다. 인터넷은행의 자본금 요건은 250억원 이상으로 시중은행 대비 4분의 1 수준밖에 되지 않아 더 많은 플레이어가 진입할 것으로 봤다.하지만, 한국신용데이터 외에 아직까지 추가로 인터넷전문은행 전환의사를 적극적으로 밝힌 곳은 없는 상태다. 금융권 안팎에서 제4의 인터넷은행의 실효성에 물음표가 달리고 있어서다. 당국에도 관련 인가서류를 접수한 곳은 없는 것으로 파악됐다.현재 인터넷은행 3사가 있지만 은행권에서 차지하는 비중이 약 2% 안팎으로 미미ㅁ해 시중은행 위주의 구조를 깨는 메기 역할에는 한계가 있다. 영업 형태 또한 기존 은행과 차별점을 보이지 않는다는 점에서 회의적인 목소리가 나오는 중이다.한 금융지주 고위 관계자는 “인터넷은행 설립 취지 중 하나가 중저신용자 대출 활성화였는데 50년 만기 주택담보대출을 취급하는 등 기존 은행과 비즈니스 차별점이 없어 당국에서도 비판적인 시각이 있는 것 같다”며 “은행업 특성상 자금투여가 지속적으로 이뤄져야되는데 이런 부분에 한계가 있는데다, 수익이 수반되지 않는 성장에 대한 거품 우려도 크다”고 언급했다.다른 시중은행 고위 관계자도 “불과 2~3년전만해도 금융지주들은 인터넷은행 진입을 고민했으나, 지금은 그렇지 않다”며 “사업의 실효성이 크지 않기 때문”이라고 말했다.인터넷은행 또한 현 상황에서는 신규 플레이어 진입의 실효성이 크지 않을 것이라는 입장이다. 기존 은행과 차별화는 어려운데, 각종 규제에 발목 잡혀있다는 얘기다. 중저신용자 목표치를 채우느라 부실 지표 악화까지 감수하고 있는데도 ‘주담대 블랙홀’로 지목받는 등 지나친 비판이 쏟아지고 있다는 하소연도 나온다.카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행 3사가 국회 기획재정위원회 양경숙 더불어민주당 의원에게 제출한 자료에 따르면 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.2%에 달했다. 2021년 말엔 0.3%이었으나, 작년 말 0.8%로 오르더니 올 들어 1%를 넘겼다. 이 가운데 신용도가 낮은 3사의 중·저신용대출 연체율은 지난달 말 기준 약 2.8%를 기록했다. 이런 상황에서 금융 당국으로부터 올해 말까지 각 사별로 신용대출의 30~44%까지 중·저신용 대출로 채울 것을 요구받고 있는 실정이다.서정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>한국투자증권, 업계 최초 토큰증권 발행 인프라 구축 완료</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000982731?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>사진|한국투자증권[스포츠서울 | 홍성효기자] 한국투자증권이 업계 최초로 토큰증권 발행 인프라 구축을 완료했다고 21일 밝혔다.토큰증권은 분산원장 기술(Distributed Ledger Technology)을 활용해 발행된 디지털화된 증권으로,실물증권과 전자증권에 이은 새로운 발행 형태의 증권이다. 부동산, 선박, 항공기 미술품 등 실물로 존재하는 자산의 권리를 손쉽게 유동화해 ‘증권형 디지털자산’로 전환, 조각 투자가 가능해진다.한국투자증권을 중심으로 카카오뱅크, 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 ‘한국투자ST프렌즈’는 지난 5월 발행 인프라 구축을 최우선 과제로 천명하고 개발에 착수했다. 4개월 만에 국내 최초로 토큰증권 발행 및 청산에 필요한 모든 과정을 구현한 인프라를 개발하고 시범 발행까지 완료했다.특히 한국투자증권은 법제화 단계에 있는 토큰증권 사업 특성을 고려하여 클라우드 시스템을 기반으로 분산원장 인프라를 구현했다. 또한 애자일 개발 방식을 채택해 신속한 의사결정과 효율적인 협업을 통해 개발 시간을 크게 단축할 수 있었다.나아가 새로운 발행 인프라가 기존 증권거래 시스템과 충돌 없이 결합해 유기적으로 작동하도록 연동 작업도 마쳤다. 중앙집중식 계좌부에 기재하는 일반적인 금융시스템과 달리 분산원장에 기재되는 토큰증권의 특성상 이를 효과적으로 연결하기 위해서는 여러 기술적 난제를 해결해야만 했다.한국투자증권은 두 시스템을 연동하기 위해 새로운 기술을 개발·적용했다. 그 중 △스마트계약을 통한 배당 처리 △분산원장 예수금을 활용한 즉각적인 거래 완결성 보장 △개인정보 처리 및 보호 기술 등은 특허 출원까지 진행 중이다. 토큰증권 인프라의 높은 기술력과 시스템 안정성을 입증해 업계를 선도하는 기술적 우위를 확보해 나간다는 방침이다.최서룡 플랫폼본부장은 “이번 발행 인프라가 분산원장 기술이 제도권 금융으로 편입되는 과정에서 중요한 변곡점이 될 것으로 기대한다”며 “투자자의 니즈를 반영한 우량자산 발굴에 힘쓰는 한편, 안정적인 제도 정착과 투자자보호에 노력하여 선도 사업자로서의 위상을 공고히 하겠다”고 말했다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>김대건 액트노바 대표, 동물실험에 AI 접목한 KAIST연구팀…"의료계의 토스가 목표죠"</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004895988?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>동물 대상 신약물질 전임상단계AI 기술로 이상행동 정확한 분석실험으로 희생되는 동물 수 줄여“실험 동물의 일생은 보고서의 ‘점’ 하나로 치환됩니다. 그 희생에 조금이라도 많은 정보가 담기도록 노력해야 하죠.”김대건 액트노바 대표는 ‘최고의 분석, 최소의 희생’이라는 회사의 슬로건으로 내세웠다. 이 회사는 신약 후보물질의 전임상시험 단계에서 분석 과정을 인공지능(AI) 기술로 자동화·효율화하는 소프트웨어를 개발했다. 전임상시험은 신약 후보물질을 사람에게 사용하기 전에 실험용 쥐 같은 동물에게 먼저 사용해 부작용과 효과를 알아보는 단계다.2018년 설립된 액트노바는 뇌과학 분야 권위자인 김대수 KAIST 교수팀이 주축으로 구성됐다. 지난해 시드(초기) 단계에서 카카오벤처스의 투자를 받았고, 최근 프리 시리즈A 라운드를 열었다. ○CES 혁신상 받은 기술김대수 KAIST 교수(왼쪽)와 김대건 대표.액트노바가 주목한 건 비효율적이고 비윤리적이던 전임상시험 시장이다. 그간 전임상시험을 한 뒤 결과를 분석하는 작업은 ‘아날로그’적으로 이뤄져 왔다. 특히 알츠하이머와 파킨슨병 같은 뇌질환은 약효를 분석하기가 더 어려웠다. 예를 들어 발작 같은 증상은 간헐적으로 발생하는 탓에 수의사 등 연구 인력이 하루 종일 쥐의 영상을 찍으며 지켜봐야 했다. 또 쥐가 고통을 느끼는 정도를 쥐의 표정을 보고 육안으로 분석하는 등 정확도도 떨어졌다.액트노바가 개발한 건 동물 행동 실험을 AI 기술을 통해 분석하는 소프트웨어다. AI가 촬영된 쥐의 영상을 골격 단위로 분석한다. 영상 속 쥐의 뼈마디 마디와 코끝, 머리 중심 등에 점을 찍어 좌표 데이터를 검출하는 식이다. 이를 통해 컴퓨터단층촬영(CT)으로는 분석하기 힘든 이상 행동을 찾아낼 수 있다. 김 대표는 “예를 들어 파킨슨병에 걸린 쥐는 한쪽 뇌가 마비되면 한 방향으로 계속 빙글빙글 도는 증상이 나타나는데, 기존 방식은 단순히 몇 바퀴를 도는지 정도를 분석하는 게 전부였다”며 “딥러닝을 통해 골격 데이터를 추출하면 조금 더 정밀한 고차원 분석이 가능하다”고 설명했다.이를 통해 실험에 희생되는 동물 수를 줄일 수 있다는 것이 회사 측 설명이다. 적은 실험체만으로도 정확한 분석이 가능해진 덕분이다. 또 관련 인력을 줄여 비용 효율화도 가능하다. 김 대표는 “분석 비용과 시간 모두 80% 이상 줄였다”며 “향후 10마리의 쥐가 필요했던 실험이 3마리만으로 가능한 수준이 될 것”이라고 말했다.액트노바는 관련 소프트웨어를 서비스형 소프트웨어(SaaS) 형태로 만들어 기업·기관 등에 납품한다. 이 기술로 2022년 CES에서 혁신상을 받았다. 한미약품, 녹십자, 식약처 같은 국내 기업과 기관에 더해 미국 매사추세츠공대(MIT), 샌디에이고대(UCSD) 같은 해외 고객사도 확보했다. ○의료 AI계 토스 꿈꾼다액트노바는 향후 CRO(임상시험기관) 사업도 강화할 계획이다. 단순히 솔루션을 공급하는 것을 넘어 직접 임상시험을 대행해 주는 영역으로 사업을 확장하는 것이 목표다. 김 대표는 “고령화 시대로 접어들면서 뇌질환 발병률이 높아지고 뇌질환 치료제(CNS) 분야 시장 규모는 2028년엔 260조원까지 커질 것”이라며 “전체 관련 수요에 비해 CRO 시장에서 동물 실험 분석 분야가 차지하는 비중이 4% 남짓에 그치고 있어 앞으로 성장 가능성이 무궁무진하다”고 설명했다.액트노바는 앞으로 의료 AI업계의 ‘토스’가 되는 게 목표다. 누구나 직관적이고 쉽게 쓸 수 있는 서비스를 구축하겠다는 뜻이다. 언뜻 무거운 의료 분야와 모순되는 것처럼 보인다. 김 대표는 “오랜 기간 한 분야를 파고들고 있는 우리 팀원들의 ‘장인정신’과 스타트업 특유의 ‘애자일’ 정신을 합해 토스처럼 가벼우면서도 혁신을 이뤄낸 서비스를 만들 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>인터넷은행 건전성 괜찮나…신용대출 연체율 급등</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012097477?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>신용대출·중저신용 연체율 사상 최고목표 달성 위해 중저신용 비중 늘려야[서울=뉴시스]이주혜 기자 = 중저신용 대출을 공급한 인터넷전문은행 3사의 신용대출 연체율이 출범 이후 가장 높은 수준으로 오르면서 건전성에 경고등이 켜졌다. 고금리와 경기침체에 취약 차주의 부실 우려가 커지고 있다.19일 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사가 양경숙 더불어민주당 의원실에 제출한 자료에 따르면 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%를 기록했다. 이는 3사 신용대출 연체액을 신용대출 잔액으로 나눈 수치다.인터넷은행 3사의 신용대출 연체율은 지난해 6월 말 0.42%, 12월 말 0.77%, 올해 6월 말 1.04%로 상승해 지난달 말 1.20%로 뛰었다. 이는 인터넷은행 3사 출범 이후 가장 높은 수준이다. 은행별로는 토스뱅크가 1.58%로 가장 높았으며 케이뱅크가 1.57%로 뒤를 쫓았다. 카카오뱅크는 0.77%다.중저신용 대출의 상황은 더 심각하다. 지난달 말 기준 인터넷은행 3사의 중저신용 대출 연체율은 2.79%로 나타났다. 2021년 말 0.82%였으나 지난해 하반기 1.71%로 뛰었으며 올해 6월 말에는 2.46%를 기록했다. 중저신용 연체율 또한 출범 후 가장 높은 수치다.특히 케이뱅크가 4.13%로 가장 높았다. 이어 토스뱅크 3.40%, 카카오뱅크 1.68%다. 인터넷은행들은 중저신용자 대출 공급이라는 인가 취지에 따라 매년 중저신용자 대출 비중 목표치를 충족해야 한다. 게다가 고금리 시기가 이어지면서 건전성 관리가 쉽지 않은 상황이다. 한국은행이 2021년 8월부터 올해 1월까지 기준금리를 인상하면서 기준금리는 0.50%에서 3.50%까지 높아졌다. 대출금리에 영향을 주는 시장금리도 오름세다.하반기에도 중저신용 대출 비중을 더 높여야 해 인터넷은행들의 부담은 더 커질 것으로 보인다. 올해 연말 중저신용자 대상 신용대출 비중(잔액기준) 목표치는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44%다. 8월 말 기준 카카오뱅크 28.4%, 케이뱅크 25.4%, 토스뱅크 35.6%로 이에 미치지 못하고 있다. 케이뱅크의 경우 중저신용자 대출 확대를 위해 7월부터 일반 신용대출 신규 신청을 중단하고 마이너스통장은 중저신용자로 대상을 제한했다.인터넷은행들은 충당금을 쌓는 한편 여신 포트폴리오를 다각화해 건전성을 관리하고 있다. 주택담보대출, 전월세보증금 대출 등 담보대출 상품을 내놓고 있다. 토스뱅크는 이달 초 전월세보증금 대출을 선보였다. 카카오뱅크는 13일 비대면 방식으로 전월세보증금 대출을 대환할 수 있는 '전월세보증금 대출 갈아타기'를 출시했다. 다만 최근 금융당국으로부터 인터넷은행이 가계대출 급증 '주범'으로 몰리면서 이같은 전략을 취하기 요원해졌다.인터넷은행 관계자는 "신용평가모형(CSS)을 고도화하고 연체율, 건전성을 지속적으로 관리하면서 연말까지 중저신용 대출 비중 목표치를 달성하겠다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>이 가을, 예술의 도시 강릉으로…'영감과 힐링' 제2회 GIAF 개막</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007074789?sid=103</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>1910년대 초, 52세 한 여성이 37일간 서울 도보여행 기록한 '서유록' 주제프란시스 알리스·티노 세갈 등 작품 여러 곳서 선봬…여행·예술 일석이조제2회 강릉국제아트페스티벌이 열리는 곳 중 한 곳인 국립대관령치유의숲을 한 관람객이 걸어가고 있다. 이곳에서는 티노 세갈의 작품을 만날 수 있다. 2023.9.22/뉴스1 ⓒ 뉴스1 김일창 기자(강릉=뉴스1) 김일창 기자 = 이 가을, 예술로 물든 강릉이 손짓한다. 대관령숲길에선 이름 모를 낯선 여성이 치유의 노래를 불러주고, 시내에 있는 조그만 독립예술극장에선 프란시스 알리스의 영화를 틀어준다. 일제강점기 수탈의 기찻길과 터널은 인도로 변해 우리의 발걸음을 살포시 받들고, 수명을 다한 동부시장의 낯선 분위기는 걸린 작품과 오묘하게 조화롭다. 아담한 시립미술관에 오르면 강릉 시내와 멀리 바다가 한눈에 들어온다.재단법인 파마리서치문화재단은 오는 10월29일까지 강릉 일대에서 제2회 강릉국제아트페스티벌(GIAF)을 진행한다.이번 페스티벌의 주제는 '서유록'(Tale of a City II)이다. 1913년, 강릉에 살던 강릉 김씨라는 여성은 52세를 맞아 서울로 여행을 떠난다. 여성으로서 여행하기 힘든 당시 그는 가족과 함께 도보로 굽이굽이 산길을 따라 열흘 동안 550리(약 216km)를 걸어 서울에 도달한다. 변화한 서울 풍경을 보며 신기해하고, 어느 여학도를 만나서는 여성 교육의 필요성을 절실하게 깨우친다. 한편으론 일본의 위력이 닿아있는 조선의 현실에 원통함을 느낀다. 서울 구경을 마친 후 대관령을 넘어 다시 강릉에 돌아오는 37일간의 여정을 그는 한글로 기록한다. 이번 GIAF는 '서유록'이 담아낸 도전정신과 신체활동을 매개로, 도시라는 물리적 환경에서 여러 갈래로 얽혀 상호 작용해 시간의 흐름에 따라 우리 안에서 새롭게 형성되는 정서와 시각에 주목한다. 특히 김씨를 페스티벌 안내자이자 주제를 전달하는 상징적 존재로서 설정해, 관람객에게 강릉 혹은 더 나아가 자신이 위치한 곳을 바라보는 새로운 시각을 제안한다.제2회 강릉국제아트페스티벌이 열리는 강릉시립미술관에서 바라본 풍경. 강릉 시내와 멀리 바다가 한눈에 들어온다. 2023.9.22/뉴스1 ⓒ 뉴스1 김일창 기자올해 페스티벌에는 작가 고등어와 로사 바바(Rosa Barba), 박선민, 아라야 라스잠리안숙(Araya Rasdjarmrearnsook), 양자주, 이우성, 카밀라 알베르티(Camilla Alberti), 티노 세갈(Tino Sehgal), 프란시스 알리스(Francis Alys), 홍순명 등이 참여했다.국립대관령치유의숲에서는 티노 세갈의 작품을 만날 수 있다. 청명한 가을하늘 아래 끝없이 펼쳐진 숲속을 거닐다 만나는 한 여성이 그가 연출한 작품이다. 나무 데크가 깔린 숲길을 오르다 만나는 이 여성은 등산객(또는 관람객)에게 무작위 라이브 곡 하나를 약 30초간 들려준다. 누군가에게는 '나는 문제없어'를, 또다른 누군가에는 동요를 맑은 목소리로 선사한다. 작가의 엄격한 요구 때문에 사진과 동영상 촬영은 일절 금지다. 덕분에 작품을 감상하는 것보다 제대로 힐링하는 느낌이 든다.'강릉에도 독립예술극장이 있다고?'라는 호기심에 찾은 신영극장. 이제는 수명을 다한 영사기가 관람객을 맞이하고, 극장 로비에는 과거 손으로 쓴 영화관에서의 주의사항이 정겨움을 더한다. 이곳에서는 프란시스 알리스가 영화감독 줄리앙 데보(Juilien Devaux)와 공동 작업해 2020년 선댄스영화제에서 첫선을 보인 '모래 위 선'(Sandlines, the Story of History)를 한국 최초로 선보인다.약 1시간 분량의 영상은 이라크 모술 지역의 작은 산간 마을에 사는 어린이들이 이 지역의 역사 속 다양한 국적과 종족의 인물을 역할극으로 재현하면서 과거와 현재를 연결하고 역사를 재해석한다. 1916년 영국과 프랑스가 비밀리에 체결한 불공정 협정인 사이크스-피코 조약, 2016년 이슬람 국가 테러 문제에 이르기까지 이라크 역사의 한 세기를 망라한다. 페스티벌 기간 매주 금-토-일 오후 4시에 작품을 볼 수 있다.강릉시립미술관에서 작품을 설명하는 임호경 작가. 2023.9.22/뉴스1 ⓒ 뉴스1 김일창 기자강릉시립미술관에서 작업을 소개하는 송신규 작가. 2023.9.22/뉴스1 ⓒ 뉴스1 김일창 기자언덕 위 작은 미술관 '강릉시립미술관'에서는 홍순명, 송신규, 로사 바바, 임호경, 아라야 라스잠리안숙, 카밀라 알베르티의 작품을 전시한다.홍순명은 자연 풍경과 유적지를 겹쳐 여러 장소와 시간이 혼재하는 장면을 선사하는 신작 '서유록-홍씨 여행기'를 미술관 1층 벽면에 채웠다. 그는 강릉 김씨의 여정을 따라 '대관령 옛길'을 직접 걸으며 110여년 전 김씨가 마주한 풍경을 작품 속에 집적했다.송신규는 시간이 흘러 흔적만 남은 낡은 장소나 변화한 풍경 등에서 숨은 이야기를 발굴하는 작가로, 이번 페스티벌에서는 강릉의 오래된 상설시장 중 하나이자 최초의 주상복합 건축물로 이제는 수명을 다한 옥천동 동부시장에 주목했다. 시간이 응축된 사물을 종이 죽으로 본뜬 오브제로 재현하는 과정을 통해 본래의 성질, 의미, 기억을 상쇄한다.로사 바바는 영화 매체의 특성과 구성 방식에 질문을 던지는 'Inside the Outset: Evoking a Space of Passage' 영상을 선보인다. 사이프러스 해안가에서 발견한 마조토스 난파선을 촬영해 실험적 다큐멘터리와 허구적 내러티브 사이 간극을 다룬다.임호경은 양가적인 생과 소멸의 세계가 사실은 연결되는지 질문을 던지는 작품 '탄소 나무'를 선보인다.아울러 강릉시립미술관과 동부시장 레인보우 두 공간에 걸려 있는 그림을 관람객이 자유롭게 옮길 수 있도록 권유하는 참여형 작품 '길 떠나는 그림'을 소개한다.강릉 옥천동 웨어하우스에서 선보이는 박선민 작가의 작품. 2023.9.22/뉴스1 ⓒ 뉴스1 김일창 기자아라야 라스잠리안숙은 신작 '개들의 궁전'을 국내 최초로 선보인다. 그동안 삶과 죽음, 인간과 동물, 실재와 허구, 정상과 비정상, 제약과 본능 등 다양한 영역과 경계를 탐구하며 우리 주변을 재고한 그는 사회에서 소외된 동물, 망자, 장애인 등에 관심을 두고 다양한 존재와 인간 사이 관계를 주목하며 객체와 자아, 삶과 죽음, 인간과 동물의 경계를 극복하고자 한다.카밀라 알베르티는 강릉에 머물며 이곳에서 수집한 다양한 재료를 바탕으로 제작한 작품 '좌초된 신들의 이야기'를 전한다. 버려진 물건과 산업 폐자재, 유기물 파편 등 현시대의 폐허를 상징하는 재료를 수집해 알루미늄 와이어와 석고 밴드로 연결한 이 작품은 폐허의 잔재가 가공되고 소비되며 혼종의 상징으로 거듭나는 과정에 주목한다.1950년대 양곡 창고로 만들어졌다가 공간 업사이클링을 통해 열린 공간으로 변신한 옥천동 웨어하우스에서는 박선민 작가의 '귀와 눈: 노암'을 선보인다. 이곳을 방문하기 전에 먼저 들려야 할 곳이 있으니, 바로 '노암터널'이다. 노암터널은 1900년대초 일본의 수탈을 위해 생겨나 6·25 전쟁 때는 민간인 학살이 자행된 비극적 역사를 지닌 곳이다. 지금은 기찻길과 터널 내부가 모두 사람이 다닐 수 있는 길이 됐다. 노암터널에 수 차례 방문한 작가는 터널의 구조적 특성과 이곳을 오가는 사람들의 모습을 영상에 담아 웨어하우스에서 상영한다. 그의 작품을 보고 있노라면 비극의 역사는 사라지고, 고즈넉한 평화만이 다가온다. '세월'은 그렇게 우리를 바꿔 놓는다.동부시장에서는 고등어 작가가 영상, 드로잉 등 다양한 매체로 강릉의 옛이야기와 이곳에 사는 이주 노동자를 주목하는 작품을 선보인다. 이우성 작가는 '생활과 미술'을 주제로 드로잉과 회화, 애니메이션 등으로 영역을 확장하며 일상과 삶의 주변에 자리한 대상을 작품으로 승화한다. 양자주 작가는 한국전쟁 당시 피난민들이 거주하며 주거지를 형성한 불당골에서 우연히 만난 김동성 할아버지에게 들은 이야기를 '대화'라는 작품으로 표현했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>1위 거래소에서 이런 일이?…가짜코인 진짜로 착각해 입출금</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005191649?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>가상화폐 [로이터 = 연합뉴스]국내 최대 가상자산 거래소 업비트에서 가짜 가상자산이 진짜 가상자산으로 잘못 인식된 사건이 발생했다. 업비트는 해당 가상자산에 대한 입출금을 일시 중단하고 자금 회수에 나섰다.25일 가상자산업계에 따르면 지난 24일 불특정 계좌로부터 가상자산 앱토스(APT)를 가장한 가짜 코인이 다수의 업비트 계좌로 입금돼 진짜 코인으로 인식되는 일이 발생했다.업계에 따르면 특정 사용자가 앱토스 네트워크를 기반으로 가상자산을 발행해 다수에게 뿌렸다. 그중 업비트 가상자산지갑으로도 이 가상자산이 송금됐다.통상 가상자산거래소는 고객 명의의 가상자산지갑으로 들어온 코인을 전산상의 고객 잔고에 기입한다. 업비트는 이 과정에서 가짜 코인과 앱토스를 구분 못하고 모두 앱토스로 기입한 것이다.가상자산거래소에서 이뤄지는 거래는 장부상 거래다. 블록체인을 활용하지 않는다. 업비트 내부에서의 거래과정도 잔고 데이터 기반으로 이뤄지기 때문에 투자자들은 앱토스가 본인 지갑에 들어온 걸로 인식하고 거래를 할 수 있었다.업비트는 무작위 계좌에 가짜 앱토스가 2000만원 규모로 입금된 것으로 파악하고 이중 66% 가량을 회수 조치했다고 밝혔다. 일부 사용자는 가짜 코인을 진짜 코인으로 매도한 것으로 나타났다. 업비트는 해당 사용자에게 유선 등 연락을 통해 회수에 나선 것으로 전해졌다.업비트는 “앱토스(APT) 입출금 모니터링 과정에서 비정상적인 입금 시도가 확인돼 입출금 중단 및 월렛 시스템 점검을 진행했다”고 말했다.이 사건은 해외 외신과 SNS, 블로그 등에 공유되며 전 세계 사용자들의 비판을 받았다. 한 가상자산 업계 관계자는 “이번 사건이 해프닝으로 그쳤지만, 가짜 코인과 진짜 코인을 구분하는 기본적인 것조차 제대로 안 된다면 누가 업비트를 믿고 거래할 수 있을지 의문이 든다“고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>연체율 증가에도 중·저신용자 대출 늘려야…인뱅의 ‘딜레마’</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003250038?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>목표치와 괴리 큰 케이·토스 비상인터넷은행들의 중·저신용대출 연체율이 높아지면서 건전성 관리에 비상이 걸렸다. 하지만 이들 은행은 연말까지 중·저신용대출 비중 목표치를 달성해야 한다. 중·저신용대출을 확대하면서도 연체율을 낮춰야 하는 딜레마를 인터넷은행들이 어떻게 극복할지 주목된다.18일 기획재정위원회 소속 더불어민주당 양경숙 의원실이 금융감독원에서 제출받은 자료에 따르면 지난달 말 기준 인터넷은행 3사의 중·저신용대출 연체율은 2.79%로 집계됐다. 같은 기간 이들 은행이 취급한 전체 신용대출 연체율(1.20%)의 2배를 웃도는 수준이다. 2021년 말부터 지난해 상반기까지 0.8%대를 유지하던 중·저신용대출 연체율은 지난해부터 상승하기 시작해 지난 2분기 말 기준 2.46%까지 뛰었다.이들 은행은 돈을 빌리기 어려운 고객에게 대출 공급을 확대한다는 설립 취지에 따라 중·저신용대출 비중 목표치 달성을 요구받고 있다. 금융당국은 2021년부터 인터넷은행에 중·저신용대출 비율 목표치를 공시하도록 하고 있다.금융당국은 올해 말까지 인터넷은행들의 중·저신용자 대출 비중이 30%를 상회하는 것을 목표로 하고, 내년 이후부터는 그간의 실적 등을 바탕으로 추가 계획 수립을 검토하기로 했다.인터넷은행들 입장에선 올해 연말 목표치 달성 여부가 추후 정책에 반영되는 상황이다. 올해 8월 말 기준 중·저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크 28.4%, 케이뱅크 25.4%, 토스뱅크 35.6%지만 3사 모두 연말 목표치(30%, 32%, 44%)에는 미치지 못하고 있다.올 하반기 중·저신용대출 비중을 더 끌어올려야 하는 상황에서 목표치까지 괴리가 큰 케이뱅크와 토스뱅크는 재정건전성 관리에 적신호가 켜졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>‘토·카·핀’도 결손금만 1조원…잘나가던 핀테크 4년 만에 생존 시험대 [생사기로의 핀테크 ①]</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002200967?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>카·토·핀 적자…나머지 핀테크는 생존위협뱅샐·핀크 등도 결손금 ‘여전’고금리 등 거시적 원인·수익 힘든 구조지난 30일 서울 중구 동대문디자인플라자(DDP)에서 열린 코리아 핀테크 위크 2023에서 관람객들이 부스를 둘러보고 있다. [연합][헤럴드경제=홍승희·서정은 기자] “청년들이 핀테크 기업을 창업하고 기업공개(IPO), 인수·합병(M&amp;A) 등을 통해 성공 신화를 만들 수 있는 시장 환경을 조성하겠다”(2019년 10월, 은성수 전 금융위원장)“핀테크의 다양성과 혁신이 정체되는 모습이 나타나고 있어 기존과는 다른 성장 방식과 새로운 시도가 필요하다. 핀테크 산업의 재도약을 뒷받침할 시스템을 구축하겠다”(2023년 8월, 김소영 금융위원회 부위원장)금융에 디지털 기술을 융합해 소비자의 편익을 제고한다는 대의명분에 힘입어 한 때 ‘성공신화’를 약속했던 국내 혁신 핀테크사들이 생사기로에 섰다. 가계대출 시장에 큰 파장을 일으켰던 대출비교 서비스는 물론이고, 마이데이터를 활용한 투자·자산관리 서비스를 제공하는 기업들까지 만성적자를 벗어나지 못하고 있다. 금융규제 샌드박스가 시작된 지 불과 4년여밖에 지나지 않았지만 벌써부터 핀테크 산업을 둘러싼 회의론이 나오고 있는 것이다.자본잠식 카·토·핀 결손금 1조 넘어…전년 比 37% ↑ 20일 금융권에 따르면 핀테크 계의 ‘빅4’로 불리는 ‘네·카·토·핀(네이버페이·카카오페이·토스·핀다)’ 중에서 네이버페이를 제외하곤 모두 적자를 기록 중이다. 대출비교 서비스 핀다의 경우 지난 2021년 연간 흑자를 기록했지만 지난해 다시 적자전환했다. 카카오페이도 지난해 말 첫 연간 턴어라운드(흑자전환)에 성공했지만, 본업보단 유보현금 운용을 통한 금융수익 증가의 영향이 컸으며 상반기 기준으론 적자를 이어가는 중이다.금융감독원에 따르면 ‘카·토·핀’ 3사의 지난해 말 기준 결손금 총합은 1조580억원 수준으로 전년 동기(769억원) 대비 37.51% 넘게 확대됐다. 결손금은 경비가 총 수입금액을 초과하는 경우 초과금을 의미하는 것으로, 결손금이 확대됐다는 건 자본잠식 상태가 더욱 심화하고 있다는 걸 뜻한다.그나마 카카오페이와 토스, 그리고 핀다는 최근 대환대출 플랫폼까지 성공적으로 출시한 성공사례에 속한다. ‘빅4’에도 들지 못하는 핀테크의 경우 상황이 심각하다. 카드·비교추천 서비스로 시작해 가계부 앱으로 사용자수가 급증했던 뱅크샐러드는 서비스를 출시한 2019년부터 지난해까지 4년 연속 적자를 기록했다. 지난해 말 기준 여전히 455억원의 순손실을 기록했으며 결손금 역시 전년 대비 47%나 늘어난 1410억원을 기록 중이다.하나금융지주가 MZ(밀레니얼+Z)세대를 겨냥해 출자한 핀테크 업체 핀크 역시 순탄치 못한 상황이다. 지난해 말 기준 핀크의 순손실 규모는 124억원. 결손금은 지난해 자본잉여금으로 보전한 결과 832억원에서 56억원으로 축소시켰지만 여전히 기업 규모에 비하면 높은 수준이다.군소 핀테크 중에서는 폐업을 하거나 다른 금융사에 인수·합병되는 사례까지 나오고 있다. 마이데이터·대출비교 라이선스를 보유하고 있는 핀테크 깃플은 최근 로보어드바이저 기업 쿼터백에 인수됐으며 ‘알다’를 운영하는 팀윙크 역시 KB캐피탈에 흡수합병을 앞두고 있다. 이들은 처음 대출비교 서비스로 혁신금융을 지정받은 ‘1세대 핀테크’인데, 이때 함께 지정된 팀윙크, 마이뱅크, 핀마트, 핀다 중 살아남은 곳은 핀다가 유일할 정도다.중소핀테크 관계자들은 미래 성장 가능성을 의미하는 월간활성이용자수(MAU) 마저 정체돼 답답한 실정이라고 토로한다. 플랫폼 사업의 경우 애초 이용자가 많은 곳에 더 많은 이들이 유입되는 ‘빈익빈 부익부’ 현상이 짙은데, 토스·카카오페이의 경우 ‘국민앱’이라고 불릴 정도로 MAU가 꾸준히 증가하는 반면 다른 핀테크의 경우 홍보조차 쉽지 않다는 것이다.빅데이터 분석 플랫폼 모바일인덱스에 따르면 토스의 경우 8월 기준 MAU가 1588만6590명(토스뱅크 합산), 카카오페이는 426만7972명(지난 2분기 카카오톡 유입 포함시 2425만명)에 달하는 반면, 뱅샐(60만6716명)·핀다(54만819명)·핀크(22만447명)는 그에 비해 저조한 수준이다.금융당국 ‘핀테크 혁신’ 외쳤지만…현실은 정반대금융당국은 지난 2019년 금융 규제 샌드박스(규제 유예 제도)를 시작으로 시장 자율적인 ‘핀테크 혁신’을 표방해왔다. 마이데이터 등 라이선스 제도를 도입한 것도 소규모 핀테크 기업들이 금융업에 빠르게 진입해 성장할 수 있도록 하기 위해서였다.하지만 시장은 정반대 상황으로 흘러가고 있다는 분석이다. 은성수 전 금융위원장의 선언대로 혁신금융으로 인정받은 핀테크의 IPO, M&amp;A 사례가 나타나기 보단 경영상황이 걷잡을 수 없이 악화하고 청년들이 일자리를 잃는 사례가 속출하는 것이다.이복현 금융감독원장이 지난 2월 27일 판교 카카오뱅크 본사를 방문, 인터넷 전문은행 및 핀테크 기업 최고경영자(CEO)들과 만나 대화하고 있다. [연합]정유신 서강대 경영학 교수는 그 원인에 대해 “미국의 기준금리가 6% 가까이 올랐으면, 시장금리는 10% 이상이 올랐다고 볼 수 있다”며 “핀테크의 수익모델이 망가졌다기 보다는 금리환경 영향이 클 것”이라고 분석했다. 핀테크의 경영능력을 차치하고, 거시적으로 금리가 여전히 높아 존속 자체가 힘들다는 것이다.아무리 혁신금융 서비스 지정을 받더라도 핀테크 산업 자체가 수익을 내기 힘든 구조라는 지적도 나온다. 핀테크 업계에 몸담았던 한 관계자는 “유동성의 문제라기 보단 애초에 핀테크 산업이 수익성이 별로 나기 힘든 구조인 것 같다”며 “벤처캐피탈(VC)도 이를 인지한 채 더 이상 지갑을 열지 않는 분위기”라고 설명했다.금융당국 관계자는 이에 대해 “혁신금융 서비스는 핀테크뿐 아니라 전통 금융회사라도 혁신적인 걸 시도하고 싶을 때 규제 때문에 못하면 안 되니 일시적으로 실험할 수 있게 해주겠다는 취지”라며 “하지만 (혁신금융을 받은) 핀테크뿐만 아니라 전반적으로 모든 기업이 자금 조달이 잘 안돼 어려운 상황인 건 사실”이라고 진단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>인터넷은행 건전성 '적신호'…케이뱅크 중저신용 연체율 4%대</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000351498?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사의 신용대출 연체율이 출범 이후 가장 높은 수준까지 상승하는 등 건전성이 악화되는 모습을 보였습니다.오늘(17일) 인터넷은행 3사가 국회 기획재정위원회 양경숙 의원(더불어민주당)에게 제출한 자료에 따르면, 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%를 기록했습니다. 연체율은 대출 잔액에서 대출 연체액이 차지하는 비중입니다.지난 2021년 0.3% 수준이었던 인터넷은행 3사의 신용대출 연체율은 지난해 6월 말 0.42%, 12월 말 0.77%, 올해 6월 말 1.04%을 기록한 데 이어, 8월 말에는 1.20%까지 상승했습니다.이는 1년 만에 2배 수준으로 뛴 것인 데다, 인터넷은행 3사 출범 이후 가장 높은 수준입니다.국내은행의 지난 6월 말 기준 주택담보대출 제외 가계대출(신용대출 등) 연체율이 0.62%라는 것과 비교해도, 인터넷은행의 신용대출 연체율은 높은 수준입니다.은행별로는 토스뱅크가 1.58%로 가장 높았고, 케이뱅크가 1.57%, 카카오뱅크가 0.77%을 기록했습니다.이 중에서 신용점수 하위 50%를 대상으로 취급하는 중저신용자 대출만 보면 연체율 증가속도는 더 빠릅니다.지난달 말 3사의 중·저신용대출 연체율은 2.79%였습니다.2021년 말부터 지난해 상반기까지 0.8%대를 유지했지만, 지난해부터 상승해 올해 6월 말 기준 2.46%를 기록했고, 8월 말에는 더 오른 것입니다.은행별로는 케이뱅크가 4.13%로 4%를 넘겼으며, 토스뱅크가 3.40%, 카카오뱅크가 1.68%로 뒤를 이었습니다.이처럼 인터넷은행의 연체율이 빠르게 오르는 것은 기준금리 인상 등 한국은행의 긴축기조가 계속되고 있기 때문입니다.지난 2021년 8월부터 금리를 올리기 시작한 한은은 지금까지 총 10차례에 걸쳐 기준금리를 높여, 당시 0.50%였던 기준금리를 3.50%까지 올려놨습니다.이처럼 기준금리가 높은 상황에서는 특히 취약차주의 상환부담이 커지면서 연체가 높아지는 경향이 있습니다.특히 인터넷은행은 중저신용자 대출 비중 목표치가 있어, 이를 달성하려면 올해 남은 기간에도 중저신용자 대출을 늘려야 해 연체율이 더 높아질 우려가 있습니다.인터넷은행의 2분기 말 기준 중저신용자 대출 비중(잔액 기준)은 카카오뱅크 27.7%, 케이뱅크 24.0%, 토스뱅크 38.5%를 기록했습니다.3사의 목표치(각각 30%, 32%, 44%)에 여전히 미달하고 있어, 남은 하반기 중저신용자 대출 비중을 더 끌어올려야 하는 상황입니다.인터넷은행들이 지난해보다 대손충당금을 2배 쌓는 등 건전성 관리에 나서고 있지만, 당분간 고금리가 지속될 것으로 전망되는 상황에서 중저신용자 대출을 확대하면 취약 차주를 중심으로 부실이 더 번질 수 있다는 우려로 이어지고 있습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>토스페이, 中 알리페이플러스 가맹점 결제 지원</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003137959?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>토스페이 로고토스는 간편결제 서비스 '토스페이'를 통한 중국 '알리페이플러스' 가맹점 결제를 지원한다고 20일 밝혔다.토스페이 이용자는 중국 내 '알리페이플러스' 로고 또는 '토스페이' 로고가 있는 오프라인 매장에서 토스 애플리케이션으로 간편결제가 가능하다.결제는 토스 앱에 있는 바코드 또는 QR코드를 활용한다. 결제를 진행하면 토스페이에 연결한 계좌에서 결제 금액만큼 원화로 출금된다.결제 방법은 총 세 가지로 △토스 앱 하단 세 번째에 위치한 토스페이 탭의 오른쪽 위 바코드 아이콘을 클릭해 '해외' 탭 클릭 △전체 메뉴에서 '현장결제' 메뉴를 검색해 '해외' 탭 클릭 △해외에서 토스 앱 홈 화면 오른쪽 상단에 나타나는 QR 아이콘을 클릭하면 가능하다.토스 관계자는 “2600만명 이상의 토스 유저가 해외에서도 토스페이를 사용할 수 있게 되었다는 점이 매우 고무적”이라며 “중국을 시작으로 '토스페이' 해외 현장 결제 가능 국가를 점차 늘려갈 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.09.30.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>긴 황금연휴, 급한 택배 보내려면 '이곳'에서</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000952087?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>편의점 GS25가 추석 연휴 기간 반값택배를 정상 운영한다. 모델이 추석 연휴에도 운영되는 반값택배 안내 포스터를 들고 포즈를 취하고 있다. /사진=GS리테일 올해는 평년보다 긴 추석 연휴로 인해 9월25일부터 10월3일까지 일반 택배 서비스가 장시간 휴무 기간을 갖는다. 대부분의 유통·물류업체들은 추석 연휴 직전일까지 택배 접수를 마감했다.30일 GS리테일에 따르면 편의점 GS25는 추석 연휴 기간 업계에서 유일하게 택배 접수·배송을 운영한다.GS25 반값택배는 고객이 GS25 점포에서 택배를 접수하고 수령자가 GS25 점포에서 찾아가는 택배 서비스다. 접수, 배송, 수령까지 모든 서비스가 GS25의 물류배송망 및 자체 인프라를 통해 이뤄진다. 업계에선 유일하게 일요일을 포함한 명절, 휴일에도 접수부터 배송까지 365일 24시간, 연중무휴로 운영된다.연중무휴로 운영되고 있는 GS25의 반값택배 서비스는 명절 연휴 기간 택배 수요가 있는 고객의 편의성을 높이며 명절 내 반값택배 이용빈도가 매년 성장하고 있다. 실제로 GS25가 추석 연휴 간 반값택배의 접수 건수를 살펴본 결과 전년 대비 2021년 257.2%, 2022년 88.6% 꾸준히 신장했다. GS25는 뒤늦은 선물을 보내거나 중고거래 등 연휴기간 택배 이용이 가능한 반값택배가 올해 더 크게 증가할 것으로 예상하고 있다.GS25는 추석 연휴 반값택배 이용 고객들을 위해 10월9일까지 토스 앱(애플리케이션)에서 반값택배 접수 시 300원 할인되는 이벤트를 진행한다. 할인 적용 시 고객들은 최대 1500원에서 2300원으로 택배 서비스를 이용할 수 있다.윤지호 GS25 서비스기획팀 MD는 "반값택배는 휴일과 명절에도 상시 운영되는 서비스로 매년 고객들의 택배 수요 충족 및 편의성을 증대시키고 있다"라며 "올해는 유독 긴 추석 연휴로 인해 반값택배 수요가 몰릴 것으로 예상되는 만큼 원활한 택배 서비스가 이뤄지도록 만전을 기할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>인터넷은행 연체율 역대 최고…자본적정성도 악화</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002657165?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>대손충당금 적립 늘면 하반기 실적에 부담으로 작용인터넷전문은행 3사 상호. 각 사 제공인터넷전문은행 3사의 연체율이 역대 최고 수준까지 치솟았다. 중·저신용대출 비중이 커 연체율이 빠르게 오르고 있다. 손실 흡수 능력은 아직 양호한 상황이나 대출 부실에 대비해 ‘대손충당금’을 더 넉넉히 쌓아야 한다는 부담은 커질 전망이다. 18일 양경숙 더불어민주당 의원실이 카카오뱅크·케이뱅크·토스뱅크에서 받은 자료를 보면, 지난달 말 기준 이들 은행의 신용대출 연체율은 1.20%로 출범 이후 가장 높은 수준을 기록했다. 이 연체율은 3사의 신용대출 연체액을 신용대출 잔액으로 나눈 값이다. 3사의 신용대출 연체율은 지난 2021년 말까지만 해도 0.32%였으나 이후 꾸준히 상승해 지난해 말엔 0.77%까지 올랐고, 올해 들어 지난 4월 말부터 줄곧 1%를 웃돌았다. 중·저신용자 신용대출 연체율은 지난달 말 기준 2.79%로 지난 2021년 말 0.82%에서 크게 뛰었다. 기준금리가 오른 영향이 시차를 두고 중·저신용자대출 비중이 높은 인터넷은행 연체율에 반영되고 있는 것으로 풀이된다.연체율이 상승하고 있으나 손실 흡수 능력은 양호한 것으로 나타났다. 위험가중자산 대비 자기자본 비율(BIS 비율)은 지난 6월 말 기준 카카오뱅크가 32.06%, 케이뱅크가 13.54%로 금융당국 권고 수준인 13%를 넘겼다. 출범 3년이 채 안 돼 바젤1을 적용받는 토스뱅크도 11.69%로 규제 기준인 8%를 상회했다. 자기자본 비율은 지난해 하반기부터 하락하는 추세이나 위험한 수준은 아닌 셈이다. 다만, 3사는 대손충당금을 더 쌓아야 할 것으로 보인다. 부실채권이 발생할 경우를 대비해 은행이 선제적으로 쌓아두는 대손충당금이 늘어나면 그만큼 비용 부담이 커져 실적 악화는 불가피하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>개발자, 커피챗 제안 거절 이유 2위 "여럿에게 돌리는 메시지 같아서”</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002305401?sid=105</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>1위는 "연락한 회사가 매력적이지 않아서”경력직 개발자가 기업으로부터 채용 목적의 커피챗을 제안 받았을 때 거절하는 이유 1위는 “연락한 회사가 매력적이지 않기 때문”이었다. 2위는 “여러 사람에게 돌리는 메시지 중 하나인 것 같아서”였는데 이 때문에 후보자가 관심을 가질만한 개인화 된 메시지가 중요하다는 게 전문가 조언이다.커피챗은 업계·회사·직무·학교의 사람과 실제 만남을 통해 커피 한 잔 마시며 부담 없이 정보를 묻고 답하는 문화를 뜻한다.커리어테크 스타트업 퍼블리(대표 박소령)는 자사의 개발자 커뮤니티 '커리어리' 이용자 165명을 대상으로 한 관련 설문조사 결과를 18일 공개했다.(제공=이미지투데이)현재 재직 중이거나 잠시 휴식기를 갖고 있는 경력직 개발자를 대상으로 기업의 커피챗 제안을 거절한 이유를 묻는 문항에서 35%의 응답자가 ▲연락한 회사가 매력적이지 않아서를 선택했다. 거절하는 이유 2위는 ▲여러 사람에게 돌리는 메시지 중 하나인 것 같아서로 응답자의 30%가 선택했다. 이어 ▲이직할 생각이 별로 없어서 12% ▲궁금은 하지만 시간적/체력적 여유가 없어서 10% 순으로 뒤를 이었다.반대로 커피챗 제안을 수락한 이유를 묻는 문항에서는 응답자 35%가 ▲왜 나한테 연락했는지 궁금해서를 선택했다. 이어 ▲연락한 회사가 매력적인 곳이라서 19% ▲네트워킹 차원에서 도움이 될 것 같아서 15% ▲마침 이직 생각이 있어서 11% ▲거절하기는 미안해서 4% 순으로 뒤를 이었다.채용 목적 커피챗 제안을 받은 경로를 묻는 문항에서는 응답자의 33%가 링크드인 등 커리어 플랫폼을 통해 직접 메시지를 받았다고 응답했다. 지인을 통해 제안을 받았다는 응답자가 15%, 헤드헌터를 통한 제안은 6%, 오프라인 네트워킹 이벤트 등을 통한 제안은 5% 수준으로 조사됐다.박소령 퍼블리 대표는 "최근 역량과 경험을 두루 갖춘 경력직 개발자를 모시려는 기업이 많아지면서, 기업이 직접 후보자를 찾고 연락하는 '아웃바운드 채용'이 많아지는 추세'라고 분석했다. 이어 "채용 목적의 커피챗을 제안하는 메시지를 보낼 때 기업이 후보자에게 줄 수 있는 가치를 명확히 설명하고 후보자 개인에게 관심을 표현할 수 있는 내용으로 메시지를 개인화하여 보내는 것이 중요하다"고 밝혔다.잡테크 커넥팅 데이즈 이미지지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌을 연다. 대중들에게 사랑받는 다수의 테크 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲나만의 닥터 ▲네이버 ▲당근(구 당근마켓) ▲라인 ▲무신사 ▲오늘의집 ▲직방 ▲토스CX ▲힐링페이퍼(강남언니) 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 보다 자세한 참여 안내는 네이버 검색창에서 '잡테크 커넥팅 데이즈'를 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>[창간 41주년 특집]디지털플랫폼정부, 법·제도·거버넌스 개편해 연속성 확보해야</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003137808?sid=105</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>고진 디지털플랫폼정부위원회 위원장이 지난 4일 기자 간담회에서 위원회 출범 이후 1년 간 성과를 발표하고 있다. [사진= 이동근기자 foto@etnews.com]'디지털 시대 선도 국가 도약'을 천명한 정부가 핵심 국정 과제인 디지털플랫폼정부(디플정) 실현을 가속하고 있다. 행정안전부, 과학기술정보통신부 등 전 부처가 △클라우드 컴퓨팅 △빅데이터 △초거대 인공지능(AI) 등 민간 첨단기술 도입을 확대해 맞춤형 공공서비스를 제공한다는 게 목표다. 국민 편익 증대는 물론 산업 간 융합에 따른 국익 향상이 기대된다. 다만 이를 위한 법·제도 개선과 거버넌스 개편이 수반돼야 한다는 목소리가 나온다.◇디플정 1년, 의미있는 성과 늘어나디지털플랫폼정부 구현은 민간 첨단기술을 적극 도입해 국민 기대에 부응하는 맞춤 공공서비스를 제공하는데 초점을 맞춰 추진되고 있다.△데이터 개방과 활용을 가로막는 규제·제도 폐지 △부가가치 높은 데이터 활용 촉진 △부처 간 유기적 업무 프로세스를 위한 민관·부처·중앙정부 협력 강화 △블록체인, AI, 양자암호통신 등 보안기술 도입 등이 병행된다.대통령 직속 디지털플랫폼정부위원회는 민관협력 플랫폼으로서 디플정 역할을 주문한다. 이를 위해 오픈 응용프로그램 인터페이스(API)를 활용, 민간기업 서비스와 융합된 공공서비스 제공을 지원한다. 운영 환경을 클라우드로 전환해 서비스 최적화를 추진한다.의미있는 성과도 나왔다. 민간 앱을 통한 공공서비스 개방을 통해 토스 등 민간 플랫폼에서 여러 기관에 분산된 주택청약 정보를 한 번에 안내받을 수 있게 됐다. SRT 기차 승차권과 자동차 검사 등도 민간 앱이나 웹을 통해 예매, 예약할 수 있다.고진 디플정위원회 위원장은 “디플정 파급 효과가 가치 증가와 비용 감소로 더욱 확장할 것”이라면서 “(민관·국민 모두) 더 많은 혜택을 경험할 수 있을 것”이라고 말했다.◇'디지털플랫폼정부 특별법' 제정 시급디플정의 성과를 전 부처로 확산하고 연속성을 확보하기 위해서는 특별법 제정을 제정해야 한다는 목소리가 높다. 디플정은 고품질 공공데이터에 기반하는 만큼, 법률을 통해 데이터 칸막이를 근원적으로 해소하고 활용·공유토록 하는 것이 필수이기 때문이다.현재 국세기본법, 학원법 등 주요 개별법령은 데이터의 목적 외 이용을 금지한다. 법률상 비밀·비공개 대상이 아닌데도 기관이 소극적으로 해석하거나 데이터 제공을 거부하는 행태도 여전하다. 데이터 활용·공유를 저해하는 낡은 법과 제도를 정비해야 한다는 목소리가 크다.이승현 디플정위원회 플랫폼데이터혁신국장은 “그동안 공공데이터법, 정보공개법 등에서 데이터 공유·개방을 추진했지만 실질적·효율적으로 작동됐다고 보기는 어렵다”면서 “데이터 활용·공유를 고려하지 않은 법·제도는 인공지능(AI)·데이터 시대에 맞게 근본적으로 정비할 필요가 있다”고 짚었다.디플정위원회는 가칭 '디지털플랫폼정부 특별법' 제정에 착수했다. 특별법은 정부기관 모든 데이터의 공유·개방을 원칙으로 예외 사항은 개인정보·영업비밀·국가안보 등으로만 한정토록 정의할 방침이다.또 모든 법령이 이에 부합하는 방향으로 제·개정되도록 의무화한다. 과정에서 새로운 데이터 칸막이 법령이 생성되지 않도록 법령 제·개정시 '데이터 공유·활용 영향평가'를 받도록 할 예정이다.특히 적극적으로 데이터를 개방하고 공유한 공무원에게는 문제가 생기더라도 고의·중과실이 없는 경우 면책하는 규정을 담기로 했다. 적극 행정을 유도하려는 취지다.권헌영 고려대 정보보호대학원 교수(디플정위원회 정보보호분과위원회장)는 “디플정 특별법 제정 논의가 진행 중”이라며 “다만 대통령 보고 등 절차가 남아 있기 때문에 (법안에 담길) 구체 내용을 공개할 수는 없다”고 말했다.차경진 한양대학교 교수는 “디지털플랫폼정부가 원스톱 공공서비스를 제공하기 위해서는 기반이 되는 가명 데이터가 민간 플랫폼과 연결돼야 하지만, 현재는 부처 간 데이터 연결마저 쉽지 않다”면서 “디플정을 조기에 성공적으로 구현하기 위해서는 데이터가 잘 연결되고 활용되도록 하는 내용이 (특별법에) 담겨야할 것”이라고 말했다.◇거버넌스 개편해 연속성 확보 필수업계 안팎에서는 디플정이 단기에 끝날 수 있는 과제가 아닌 만큼, 중장기적으로 연속성을 확보하는 것이 성공 열쇠라는 분석을 내놓는다. 정부가 바뀌더라도 디플정을 우리나라 고유 브랜드로 육성해야 국민 편익을 높이고 수출에 따른 국익 증대를 기대할 수 있다는 것이다.이를 위해서는 거버넌스 개편이 필수적이라는 조언이 나온다. 데이터 공유·활용만 해도 분야별, 부처별로 제각각인 탓에 효율성이 떨어진다는 지적이 제기돼 왔다. 특히 현행 체제에서는 정부 시스템 담당자가 중간에 바뀔 가능성도 크다. 디플정 사업을 수주한 기업은 새 담당자 입맛에 따라 개발이나 운영을 원점에서 재검토할 수 있다는 우려를 떠안는다.송호철 더존비즈온 플랫폼사업부문 대표(디지털플랫폼정부위원회 민간위원)은 “부처 간 컨트롤타워 역할을 할 기술전담 조직과 최고기술경영자(CTO)가 절실하다”면서 “위원회에서 이를 적극 추진하고 있다”고 말했다.고진 디플정위원회 위원장은 “전체적으로 (디플정 성공을 위해) 어떤 거버넌스가 바람직할 지 고민할 시점이 왔다”면서 “(디플정 근간인) 데이터 거버넌스 문제가 해결되기를 기대한다”고 말했다.데이터 칸막이 근원 해소 방안 - [자료= 디지털플랫폼정부위원회 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>서호성 케이뱅크 행장 "중기 대출 규제 완화해야"</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000774458?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>"기업 대출은 기업 방문·현장 실사 등 불가피"인터넷전문은행 출범 5년 기념 국회 토론회 개최서호성 케이뱅크 은행장이 인터넷전문은행의 중소기업 대출과 관련한 규제 완화가 필요하다고 피력했다.서 행장은 20일 국회 의원회관에서 열린 인터넷전문은행법 제정 5주년 기념 토론회에 참석해 "비대면 채널 수단이 강조되면서 금융소비자의 편의 증진, 금융 거래의 안정성과 신뢰도 확보를 위해 개선이 필요한 부분도 일부 있다"며 "인터넷전문은행은 중소기업 대출을 할 수 있지만, 현실적으로는 비대면으로는 (대출을) 할 수 없는 부분들이 있다"고 말했다.이어 "중소기업 계좌 개설이나 금융 편의를 위한 규제를 완화하는 방안도 논의해 미래를 준비할 필요가 있다"고 덧붙였다. 기업 대출을 위해선 기업 방문 등 현장 실사도 필요한 데 비대면만으로는 이를 해결할 수는 없기 때문이다.유의동 의원이 20일 국회 의원회관에서 인터넷전문은행법 제정 5주년 기념 토론회' 인터넷은행이 걸어온 길 그리고 나아갈 길'을 개최했다. 이날 토론회에는 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷전문은행 관계자들이 참석했다. [사진=이효정 기자 ]홍민택 토스뱅크 대표이사는 "자산 총액 규모로는 인터넷은행 3사는 100조원 수준으로 4대 시중은행 자산의 5%에 불과하다"면서도 "이자 받기 같은 서비스는 금융 소비자들의 일상이 바뀌고 은행의 새로운 표준화를 끌어내고 있다"고 말했다.그러면서 "압도적인 중저신용자 대출로 금융 약자들이 고금리에 내몰리지 않도록 사회적 역할을 다하고 있다"며 "새로운 서비스를 준비 중이고, 혁신의 크기가 시간에 비례하지 않음을 증명하겠다"고 밝혔다.이날 토론회는 국회 정무위원회 소속 유의동 국민의 힘 의원이 개최했다.유 의원은 개회사를 통해 "인터넷전문은행이 대주주의 사금고화를 일으킬 것이란 걱정이 있었지만, 지금 인터넷전문은행은 비대면 서비스 제공, 중저신용자 대출 확대, 개성 있는 금융 상품 출시 등으로 빠르고 안정적으로 시장에 안착 중"이라고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>“가짜 코인을 진짜로...”업비트서 2000만원 규모 오입금 소동</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005584576?sid=105</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>앱토스와 앱토스 기반 코인 구별 못 해24일 중단 후 정상화...“현재 90%이상 회수”[이데일리 전선형 기자] 국내 가상자산 거래소 업비트에서 2000만원 규모의 가상자산 오입금 사고가 발생했다. 앱토스와 앱토스 기반으로 만들어진 코인을 구분하지 못해 생긴 사고다. 업비트는 시스템을 점검해 정상화했으며, 현재 90%정도 회수한 상태다.26일 가상자산 업계에 따르면 지난 24일 가상자산 앱토스(APT)를 가장한 코인이 앱토스로 인식돼 업비트 계좌로 입금되는 사고가 발생했다. 오입금 규모는 2000만원 정도다.사고는 특정 사용자가 앱토스 네트워크를 기반으로 코인을 만들어 다수에게 뿌린 데서 시작했다. 그중 일부는 업비트 가상자산 지갑으로 송금됐는데 업비트가 이를 진짜 앱토스로 인식하면서 문제가 발생했다. 업비트는 24일 오후 3시 상황을 파악하고 앱토스에 대한 입출금을 일시 중지하는 조치에 나섰다. 그리고 오후 11시쯤 시스템 점검을 마치고 앱토스 입출금 시스템을 정상화했다. 이후에는 오입금된 사용자에게 연락을 취해 회수 조치에 들어갔다. 현재(26일)기준으로 약 90%가량 회수된 것으로 알려진다. 업비트 측은 “모니터링 과정에서 비정상적 입출금이 발견돼 곧바로 시스템 점검에 들어갔으며 현재는 정성화된 상태”라며 “회수도 거의 마무리된 상태”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.09.17.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>간편결제, 해외서도 통한다…환전 수수료 '0원'</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004892764?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크카카오, 알리페이 손잡고47개국서 QR코드로 결제네이버-유니온페이 제휴中·日서 포인트 사용 가능다음달 2일이 임시공휴일로 지정되면서 추석 연휴(9월 28일~10월 3일)가 6일로 늘어났다. 해외여행을 계획하는 사람도 많아지고 있다. 환전한 외화의 분실 및 도난이 염려된다면 카카오페이·네이버페이·토스 등 국내 핀테크 기업이 서비스하는 스마트폰 간편결제를 이용하는 것도 방법이다. 환전 수수료가 없다는 것도 장점이다.카카오페이는 알리페이플러스와 손잡고 현재 세계 47개 지역에서 해외 간편결제 서비스를 하고 있다. 매장에 알리페이플러스 로고가 있다면 카카오페이로 결제가 가능하다. 카카오톡의 ‘더보기’ 서비스에서 결제가 가능하지만, 중국 등 일부 국가에서는 카카오톡 이용이 어려워 카카오페이 앱을 따로 내려받는 게 좋다.카카오페이 앱에 자신의 계좌를 미리 연결하고 카카오페이머니를 충전하면 된다. 현재 환율을 적용해 결제되기 때문에 환전 수수료가 따로 없다. 매장에서 바코드 또는 QR코드를 스캔하면 결제가 된다.카카오페이는 코로나19 엔데믹과 엔저 효과로 일본 여행이 늘어나자 일본 내에서의 결제 혜택을 강화했다. 예컨대 이달에 알리페이플러스 가맹점에서 100엔 이상 결제 시 1인당 한 번에 한해 최대 1000엔을 즉시 할인해준다. 다음달 15일까지 삿포로 드러그스토어, 뷰티 편집숍 로프트 등에서 1만엔 이상 결제하면 500엔 할인(1인 1회) 혜택을 제공한다. 일본 내 자세한 결제 혜택은 카카오페이 앱에서 확인할 수 있다.유럽 일부 국가에서도 혜택이 있다. 이달 말까지 프랑스 프랭탕백화점에서 100유로 이상 결제하면 10유로를 즉시 할인해준다. 올해 말까지 이탈리아 두오모 광장을 방문했을 때 카카오페이로 결제하면 할인 혜택이 있다. 두오모 기념품점 10% 할인, 두오모 밀라노 대성당 매표소에서 판매하는 컬처 패스 50% 할인 등이다.네이버페이도 최근 글로벌 결제 서비스 유니온페이와 손잡으면서 일본은 물론 중국에서도 결제가 가능해졌다. 네이버페이는 기존 라인페이와의 제휴로 일본에서만 결제 서비스를 제공했다. 유니온페이에 이어 알리페이플러스와의 제휴도 예정돼 있어 결제 혜택도 추가로 마련할 계획이라는 게 네이버페이 측 설명이다.선불로 네이버페이머니를 충전하거나 기존 포인트로 결제가 가능하다. 일본과 중국에서 ‘유니온페이’ 로고가 붙은 매장에서 사용할 수 있다. 네이버페이 앱에서 유니온페이 중국 본토 또는 중국 본토 외로 설정을 변경하면 된다. 해외 결제 사용처도 확인할 수 있다. 일본에서는 도쿄돔시티, 로프트, 토이저러스, 재팬택시 등에서 네이버페이 결제가 가능하다.토스 역시 해외에서 간편결제 서비스를 제공하고 있다. 토스는 하나은행 해외간편결제서비스 자회사인 GLN과 제휴했다. 이에 따라 태국, 싱가포르, 대만, 라오스, 캄보디아 등 동남아시아와 괌, 사이판에서 토스페이로 결제가 가능하다. 토스에 계좌를 연결하고 GLN 결제 매장에서 QR코드나 바코드로 결제할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>中 앤트그룹, 토스페이먼츠 지분 투자</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004239788?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>대주주 SPC 지분 72% 인수토스, 알리페이와 협업 전망지난달 30일 서울 중구 동대문디자인플라자(DDP)에서 열린 코리아 핀테크 위크 2023에서 관람객들이 토스 부스를 둘러보고 있다. 성형주 기자[서울경제] 중국 최대 전자상거래 업체 알리바바 계열사인 앤트그룹이 토스(비바리퍼블리카)의 결제 서비스 자회사 토스페이먼츠 경영에 참여한다.18일 업계에 따르면 앤트그룹은 최근 토스페이먼츠의 대주주인 특수목적회사(SPC) 블리츠패스트의 지분 72%를 인수했다. 토스와 재무적투자자(FI) 컨소시엄이 지분을 보유한 블리츠패스트는 토스페이먼츠의 지분 36%를 갖고 있으며 앤트그룹은 이 FI의 지분을 모두 인수한 것으로 알려졌다. 앤트그룹은 이에 따라 토스페이먼츠 이사회의 기존 FI의 몫이었던 2명의 이사를 앤트그룹 인사로 교체했다.중국 최대 전자상거래 업체 알리바바 계열사인 앤트그룹은 현재 간편결제 서비스인 알리페이를 운영하고 있다. 업계에서는 토스페이먼츠의 경우 앤트그룹이 운영하는 알리페이와의 협업을 통해 해외 전자상거래 시장 진출이 쉬워질 것으로 전망하고 있다. 또 중국 등 해외 소비자가 한국 쇼핑몰을 이용하는 역직구가 늘어나는 상황에서 앤트그룹 역시 기반이 약한 국내 시장에서의 영향력을 확대하는 기회가 될 것으로 보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>인터넷은행, 더 쉽고 다양한 공모주 서비스 제공</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003394871?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사 로고. 서울신문DB인터넷은행들이 공모주 관련 플랫폼 서비스를 확대하는 가운데 토스뱅크도 공모주 서비스 기능을 늘렸다.토스뱅크는 공모주 청약 일정 서비스에 ‘상장일 알림’ 기능을 도입하고 상장을 앞둔 기업들의 실제 정보까지 제공한다고 20일 밝혔다.토스뱅크는 지난 7월부터 고객들이 자신이 원하는 공모주의 희망 가격, 실시간 청약 경쟁률 등을 한눈에 확인하고 자체 계좌 개설, 실제 청약을 할 수 있도록 공모주 서비스를 시행한 바 있다. 오늘부터 고객들은 공모주가 상장하는 당일 알림을 받을 수 있고 내일부터는 공모 기업의 서비스 양상과 판매 제품군 등을 확인해 기업의 성장 전망을 판단할 수 있다.한편 카카오뱅크는 지난 8월 실적발표회에서 4분기 출시를 목표로 공모주 투자 서비스를 준비 중임을 밝힌 바 있다. ‘공모주 투자 서비스’를 통해 청약 일정, 실시간 경쟁률 확인, 예정 배당 수량 등 적시성 있는 정보를 제공하고 공모주 투자를 위한 주식계좌 연결 서비스도 지원할 예정이다.케이뱅크도 지난 5월부터 ‘공모주 메이트’ 통해 주식계좌 개설, 공모주 청약 일정 확인, 정보 안내, 예상 배정 주 계산 서비스 등을 제공하고 있다. 특히 ‘공모주 청약 계산기 기능’에 입금액과 공모가, 증거금 비율 등을 입력하면 비례 배정 방식으로 자동 계산해 예상 배정 주를 알 수 있다.공모주 기능 확대는 기존 플랫폼에서 이용할 수 있는 금융 서비스를 늘려 고객 기반을 확보하려는 것으로 풀이된다. 한 업계 관계자는 “투자·자산관리 등의 기능을 추가해 고객들이 손쉽게 이용할 수 있도록 노력 중이다”며 “고객에게 편의성을 보장하면서 은행도 수수료 등 비이자 수익을 기대할 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사 건전성 '빨간불'‥대출 연체율, 출범 이래 최고치</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001300544?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>인터넷 은행 3사 CI고금리가 지속되면서 중·저신용대출 공급을 늘린 인터넷전문은행 3사의 신용대출 연체율이 출범 이후 가장 높은 수준까지 뛰었습니다.카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행 3사가 국회 기획재정위원회 양경숙 의원에게 제출한 자료에 따르면, 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%를 기록했습니다.이는 인터넷은행 3사가 출범한 이후 가장 높은 수준일 뿐 아니라, 지난해 말 0.77% 였던 것과 비교해 2배 가까이 상승한 수치입니다.인터넷은행 3사의 중·저신용대출만 떼어 보면 연체율 증가세는 더 가팔라 지난달 말 기준 중저신용대출 연체율은 2.79%로 집계됐습니다.인터넷은행들은 지난해보다 대손충당금을 2배 쌓는 등 건전성 관리에 나섰지만, 당분간 높은 금리가 지속될 것으로 보여 취약 차주를 중심으로 부실이 더 터져 나올 수 있다는 우려가 나옵니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>고금리 기조에 제때 못 갚아… 곳곳 연체율 상승세</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003857069?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>7월 은행 0.39%… 한 달 새 0.04%P↑기업·가계 대출 연체율 모두 올라8월 인뱅 1.2%… 출범후 최고치부동산 악화에 온투업 12% 육박금융당국 “취약 부문들 관리 강화”신종 코로나바이러스 감염증(코로나19) 사태로 인한 양적 완화의 후폭풍이 계속되고 있다. 물가 상승을 막기 위해 지난해부터 이어지는 고금리 기조가 금융시장에서 연체율 상승으로 이어지고 있다. 중·저신용자들의 사용빈도가 많은 인터넷은행에서의 연체율은 1%를 넘어섰고, 전체 가계대출에서의 신용대출도 상승 추세다.  19일 금융감독원이 발표한 7월 말 기준 국내은행 원화 대출 연체율(1개월 이상 원리금 연체 기준)은 0.39%로 집계됐다. 6월 말과 비교하면 0.04%포인트 상승했다. 기업대출 연체율은 7월에 0.41%로 전월 대비 0.04%포인트, 가계대출 연체율은 전월 말(0.33%)보다 0.03%포인트 상승한 0.36%로 집계됐다.     사진=뉴시스    최근 금융감독 당국에서 관심을 보였던 주택담보대출(주담대) 연체율은 전월 대비 0.01%포인트 오른 0.23%로 나타났다. 대신 주담대를 제외한 신용대출 등 가계대출은 0.09%포인트 오른 0.71%를 기록했다. 금감원은 “7월 말 연체율은 6월 말 대비 상승했지만, 신규 연체율은 상반기와 유사한 수준으로 (상승 원인은) 분기 말에 은행의 연체·부실채권 상·매각이 집중되는 데 주로 기인했다”며 “다만 글로벌 경제 여건 등을 고려했을 때 연체율 상승 가능성이 있어 취약 부문 관리를 강화할 예정”이라고 밝혔다.  인터넷은행에서도 신용대출 연체율이 상승세다. 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사가 양경숙 더불어민주당 의원실에 제출한 자료에 따르면 8월 말 기준 인터넷은행의 신용대출 연체율은 1.20%였다. 인터넷은행 3사의 신용대출 연체율은 지난해 6월 말 0.42%, 12월 말 0.77%, 올해 6월 말 1.04%에 이어 지난달 말 1.20%까지 뛰었다. 이는 인터넷은행 3사 출범 이후 가장 높은 수준이다.  부동산 경기 악화 여파로 ‘P2P(개인 간 거래) 금융’으로 불렸던 온라인투자연계금융업(온투업) 연체율도 고공행진을 하고 있다. 온투업은 온라인 플랫폼을 통해 모집한 투자자의 자금을 투자자가 지정한 차입자에게 대출하고, 그에 따른 원리금을 투자자에게 제공하는 금융업 형태다. 대출잔액 기준 온투업 상위 4개사(피플펀드·8퍼센트·투게더앱스·어니스트펀드)의 공시를 취합한 결과 4개사의 8월 합산 연체율은 11.9%로 나타났다. 온투업계의 연체율이 높은 것은 부동산 경기 침체로 온투업계의 약 70%를 차지하는 부동산 대출이 타격받은 영향이라는 분석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.09.23.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>카뱅, 오늘부터 예금 최고금리 3.8%로 인상… 낮은 예대율은 어쩌나</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000950785?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>사진=카카오뱅크 인터넷은행들이 잇따라 수신 금리를 올리며 예금 유치 경쟁이 치열해지고 있다. 다만 예금금리 경쟁이 지나칠 경우 수익성이 낮아질 수 있다는 우려가 나온다.23일 금융권에 따르면 카카오뱅크는 이날부터 정기예금의 최고 금리를 기존 연 3.60%에서 연 3.80%로 0.20%포인트 올린다.변경된 금리는 이날 이후 신규, 재예치되는 계좌부터 적용되며 기존 가입계좌는 변경 금리가 아닌 가입 시점에 약정한 금리가 적용된다.만기별로 3개월 이상 6개월 미만은 연 3.20%에서 연 3.40%로 0.2%포인트 오른다. 6개월 이상 12개월 미만은 연 3.30%에서 연 3.60%로 0.3%포인트 상향된다. 1년 이상은 3.60%에서 3.80%로 오른다. 다만 만기 1개월 이상 3개월 미만은 연 3.00%를 유지한다.카카오뱅크는 지난 1일에도 정기예금 금리를 0.1%포인트 올린 바 있다. 카카오뱅크 관계자는 "시장금리 상승분을 반영해 정기예금 금리를 일부 조정했다"고 말했다.최근 금융권에선 지난해 11월 레고랜드 사태 이후 나타난 고금리 특판 경쟁 때 내놓은 고금리 정기예금의 만기가 잇따라 도래하자 시중 부동자금 유치를 위해 예금 금리를 잇따라 올리는 추세다.앞서 케이뱅크도 지난 14일부터 정기예금 상품인 '코드K 정기예금' 1년 이상 만기 최고금리를 기존 3.8%에서 4%로 올렸다. 6개월~12개월 미만 만기의 경우 3.4%에서 3.9%로 0.5%포인트 인상이 결정됐다. 토스뱅크는 지난달 조건 없이 연 5% 금리를 받을 수 있는 적금 상품을 출시하기도 했다.다만 인터넷은행의 낮은 예대율에 대해 우려의 목소리가 나온다.카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행 3사의 평균 예대율은 올 6월 말 기준 65.8%로 전년 동기 대비 10.0%포인트 올랐지만 4대 은행(96%)과 비교해 현저히 적은 수준이다.예대율은 보유한 예금 대비 대출 규모가 얼마나 되는지를 보여주는 수치다. 금융당국은 은행들의 과도한 대출을 막기 위해 예대율을 도입했다. 예대율이 지나치게 높으면 건전성이 악화하지만 반대로 낮은 경우에도 수익성에 부정적으로 작용한다. 지출(예금 이자) 대비 수익(대출 이자)이 부족해서다.인터넷은행 별 예대율 추이를 보면 토스뱅크의 경우 지난해 말 47.6%에서 50.4%로 상승했지만 카카오뱅크 예대율은 같은 기간 84.3%에서 77.8%로 줄었다. 케이뱅크의 경우 73.7%에서 72.9%로 축소됐다.인터넷은행들은 여신 규모를 보다 확대해 예대율을 높일 수 있지만 금융당국이 인터넷은행의 주택담보대출 확대에 제동을 걸면서 이마저 쉽지 않다는 분석이다.한 인터넷은행 관계자는 "전월세 대출과 자동차 대출 등 여신 포트폴리오 다각화가 필요한 시점"이라며 "신용대출보다 규모가 더 큰 담보 대출을 취급하는 게 건전성 지표 등에서 유리할 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>중국 여행, 알리페이 필수는 옛말…한국 간편결제앱도 사용 가능</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002658193?sid=105</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>네이버페이·카카오페이·토스페이, 중국 내 알리페이플러스 QR결제 지원신원근 카카오페이 대표가 카카오페이를 이용해 중국 내 알리페이플러스 가맹점에서 현장 결제를 하고 있다. 앤트파이낸셜 누리집 갈무리2010년 중국 유학 경험이 있는 기자는 10여년 만에 중국을 다시 찾았다가 깜짝 놀랐다. 신용카드를 믿고 최소한의 현금만 환전해 갔는데, 대부분의 가게가 카드와 현금을 안 받았다. 중국 현지 은행 계좌가 없는 단기 체류 여행객은 가상계좌를 개설하고 별도 앱을 내려받아야 하는 등 알리페이(즈푸바오), 위챗페이(웨이신즈푸) 이용 문턱이 높았지만, 이런 현지 간편결제 수단 없이는 식사는 커녕 생수조차 사 마실 수 없었다. 유학생 시절엔 신용카드를 받는 곳이 거의 없어 달마다 번화가에 있는 글로벌 은행 자동입출금기(ATM)에서 한 달치 생활비를 뽑아 기숙사 서랍에 보관해야 했던 걸 생각하면 그야말로 ‘상전벽해’였다.그로부터 다시 3년 가량 지난 지금은 중국 여행 때 대량의 현금을 환전하거나 현지 간편결제 서비스에 어렵게 가입하지 않아도 된다. 카카오페이·네이버페이·토스페이 등 국내 간편결제 앱들을 중국 내 ‘알리페이플러스’(Alipay+) 가맹점들에서 쓸 수 있게 된 덕분이다. 중국 최대 간편결제 서비스 알리페이를 운영하는 앤트파이낸셜은 ‘2023 항저우 아시안게임’ 개막일(23일)부터 중국 내 알리페이플러스 가맹점에서 네이버페이와 토스페이를 이용한 오프라인 큐알(정보무늬) 결제가 가능해졌다고 밝혔다.알리페이플러스는 앤트파이낸셜이 운영하는 글로벌 간편결제 네트워크다. 카카오페이는 2018년 알리페이플러스 초기 때 협력사로 합류해, 네이버페이·토스페이보다 이른 지난 3월부터 중국 전역 알리페이플러스 가맹점에서 현장결제 수단으로 사용 가능했다. 한국뿐 아니라 몽골(하이페이), 싱가포르(창이페이, 화교은행), 타이(트루머니) 등 아시아 지역 10개 서비스가 알리페이플러스의 간편결제 네트워크를 이용해 중국 내 현장결제를 지원한다.이용 방법도 간단하다. 카카오페이는 중국 현지에서 앱을 열면 결제 바코드가 해당 국가의 ‘해외 결제’용으로 자동 전환된다. 네이버페이는 네이버페이 또는 네이버 앱에서 ‘현장결제→큐알결제→엔(N)페이’ 메뉴를 차례로 선택하면 나타나는 화면 하단에서 알리페이 및 유니온페이 결제 옵션을 선택하면 된다. 토스페이는 토스 전체 메뉴에서 ‘현장결제→해외’ 차례로 메뉴를 선택하거나, 중국 현지에서 앱을 열었을 때 화면 오른쪽 상단에 뜨는 큐알 아이콘을 클릭하면 된다.세 서비스 모두 이용자가 미리 연결해 둔 은행 계좌에서 결제 금액이 원화로 출금된다.세 서비스 모두 신용카드 연동 간편결제는 아직 지원하지 않는다. 환율은 결제 시점에 알리페이플러스가 정한 것을 따르며, 해외 서비스 사용 수수료가 일부 부과된다. 세 서비스 모두 항저우 아시안게임 기간을 맞아, 결제 금액의 일부를 되돌려주는 페이백 등 다양한 프로모션 행사도 벌이고 있다.이들 간편결제 서비스 사업자들은 “국내 여행객들이 많이 찾는 다른 아시아 국가들로도 현장결제 지원 범위를 점차 넓혀 가겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>인뱅 대출 손실처리 1700억…몸집 불리는 중·저신용 리스크</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002752793?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>대손상각비 1년 만에 네 배 넘게 증가고금리에 연체 늘어나며 비용 부담↑케이뱅크(왼쪽부터)와 카카오뱅크, 토스뱅크 본사 전경. ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행이 고객에 내준 대출에서 앞으로 돌려받지 못할 돈으로 보고 손실로 떠안은 비용이 한 해 동안에만 네 배 넘게 불어나며, 올해 들어 반년 동안만 1700억원에 육박한 것으로 나타났다. 고금리 충격파에 대출을 갚지 못하는 서민들이 많아지면서 손실 비용도 몸집을 불리는 모양새다.그럼에도 인터넷은행들로서는 정부가 요구한 중·저신용자 대출 목표를 채워야 하는 숙제 탓에 앞으로 비용 부담이 더 커질 것으로 보인다.25일 금융권에 따르면 카카오·케이·토스뱅크에서 올해 상반기 발생한 대손상각비는 총 1689억원으로 전년 동기 대비 345.6% 증가했다. 지난해 연간 기록과 비교해도 103.0% 늘며 두 배 넘게 불어났다.대손상각비는 금융사가 대출을 내줬지만 이를 돌려받지 못하고 손실 처리한 비용이다. 대손상각비가 확대됐다는 것은 금융사가 회수를 포기해야할 만큼 차주의 경제적 사정이 나빠진 대출이 늘고 있다는 뜻이다. 아울러 금융사 입장에서 대출 리스크 관리에 실패한 케이스가 많아지고 있다는 의미로도 볼 수 있다.은행별로 보면 케이뱅크의 올해 상반기 대손상각비가 797억원으로 전년 동기 대비 469.3% 증가했다. 카카오뱅크 역시 439억원으로 같은 기간 대비 84.7% 늘었다. 지난해 초부터 본격 대출 영업을 시작한 토스뱅크도 453억원으로 급증했다.인터넷전문은행 대손상각비 추이. ⓒ데일리안 김효숙 기자부실 대출 정리를 위한 인터넷은행들의 출혈이 커지고 있는 배경에는 고금리 여파가 자리하고 있다. 인터넷은행들은 금융당국과 약속한 목표치를 달성하기 위해 중·저신용 대출 공급을 늘리고 있는데 높아진 금리로 대출 상환에 차질을 빚는 차주가 많아지면서 은행의 여신 건전성에도 악영향을 주는 모습이다.한국은행은 지난해 4월부터 올해 1월까지 사상 처음으로 일곱 차례 연속 기준금리를 인상했다. 이중 7월과 10월은 기준금리를 한 번에 0.5%포인트(p) 올리는 빅스텝을 단행했다. 이에 따른 현재 한은 기준금리는 3.50%로, 2008년 11월의 4.00% 이후 최고치다.토스뱅크의 올해 6월 말 고정이하여신(NPL)비율은 1.26%로 지난해 같은 달보다 1.13%p 급등했다. 케이뱅크 역시 0.98%로 같은 기간 대비 0.38%p 상승했다. 카카오뱅크의 NPL비율도 0.42%로 0.15%p 올랐다. NPL비율은은 연체가 3개월 넘은 부실채권 비율을 뜻한다.연체율로 보면 토스뱅크가 1.56%로 1.41%p 치솟았다. 케이뱅크는 0.86%로, 카카오뱅크는 0.52%로 각각 0.34%p와 0.19%p씩 연체율이 높아졌다.건전성 지표가 나날이 악화하다보니 은행들이 부실에 대비해 쌓는 충당금 몸집도 커지고 있다. 인터넷은행 3사가 올해 상반기 적립한 충당금전입액은 3924억원으로 전년 동기 대비 92.3% 증가했다.문제는 인터넷은행들의 비용 부담이 더 커질 수 있다는 점이다. 올해 지난해보다 더 높은 중·저신용자 대출 비중을 달성해야하기 위해 대출 공급을 늘려야해서다. 올해 카카오·케이·토스뱅크가 각각 달성해야 하는 중저신용 목표치는 각각 30%, 32%, 44%다. 6월 말 기준으로 보면 카카오뱅크 27.7%, 케이뱅크 24.0%, 토스뱅크 38.5%로 모두 미달하고 있다.이 때문에 일각에서는 인터넷은행의 중·저신용 대출 공시 기준을 일부 완화해야 한다는 목소리도 나온다.강경훈 동국대학교 경영학과 교수는 지난 20일 서울 여의도 국회에서 열린 '인터넷전문은행법 제정 5주년 기념 토론회'에서 "현재 인터넷은행의 중·저신용 대출 비중 목표치는 잔액을 기준으로 하는데 대출을 내줘도 중도상환하면 수치가 바뀌는 등 비중 관리에 어려움이 있다"며 "경기 여건을 반영한 탄력적인 신규 취급액 기준으로 변경할 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 인터넷은행법 제정 5주년 기념 국회 토론회 개최</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007062401?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>유의동 의원실과 '인터넷은행이 걸어온 길, 그리고 나아길 길' 토론(유의동 의원실 제공) /뉴스1(서울=뉴스1) 김정현 기자 = 인터넷전문은행법 제정 5주년을 기념해 카카오뱅크·케이뱅크·토스뱅크 인터넷전문은행(인터넷은행) 3사가 유의동 국민의힘 의원과 그간의 성과와 향후 발전방향을 논의했다.20일 인터넷은행 3사는 유 의원과 함께 서울 여의도 국회 의원회관 제1세미나실에서 '인터넷은행이 걸어온 길, 그리고 나아길 길'이라는 주제로 토론회를 개최했다.이날 토론회에는 윤한홍 정무위원회 간사, 성일종 국민의힘 의원, 김용재 금융위원회 상임위원, 박충현 금융감독원 부원장보 등을 비롯해 서호성 케이뱅크 행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표 등 인터넷전문은행 3사 대표가 참석해 축사와 인사말을 전했다. 유의동 의원은 개회사를 통해 "오늘 이 자리가 인터넷전문은행을 어떻게 더 편리하고, 유용하게 발전시킬 수 있을지 많은 논의를 하는 자리가 되기를 바란다”고 말했다.좌장을 맡은 안수현 한국외대 법학전문대학원 교수는 "인터넷전문은행은 도입 후 기술혁신, 경쟁촉진, 소비자 편익증진에 기여하는 등 대체로 5년의 성과는 긍정적이지만 인터넷전문은행 발전을 위한 종합적인 정책방향 등이 구체적으로 보이지 않는다"며 "갈수록 국내에서 비즈니스모델이 특화된 전문은행의 설립에 대한 관심이 높아지는 상황임을 고려할 때 인터넷전문은행의 지속가능한 경쟁력 제고 방안과 효과적 지원을 위한 제도 정비가 필요하다"고 제안했다.기조발제를 맡은 강경훈 교수는 "인터넷전문은행 도입의 긍정적 효과를 이어가기 위해서는 금산결합 플랫폼 성장 등 변화하는 금융환경에 맞춰 금융규제 체계의 정비, 원칙중심의 감독체계 도입과 함께 사업 다각화를 위한 비대면 겸영업무 완화 등이 필요하다"고 말했다.이어 "인터넷전문은행의 역할 중에 하나인 포용금융이 중저신용자 대출 확대라는 협의의 개념을 넘어 확장돼야 한다"며 "현재의 중저신용자 대출 확대 기조를 이어가기 위한 기준 변경 또는 담보여신 확대를 통한 건전성 관리 노력도 수반돼야 한다"고 말했다.이어진 토론에서 김은경 KCB 연구소장은 "최근 2년간 인터넷전문은행의 대출실적에 따르면 취약계층의 금융포용, 그리고 이후 금융생활의 소비자 후생 증대 등의 성과를 거둔 것으로 확인된다"며 "건전성에 기반한 포용의 지속가능성을 확보하기 위해서는 정보비대칭성 해소를 위한 제도적 지원과 혁신적인 평가모형에 대한 지속적인 발전노력이 요구된다"고 말했다.김시목 법무법인 율촌 변호사도 "법인 및 대주주에 대한 신용공여 금지, 비대면 거래방식 등에 있어서 지나치게 엄격한 규제를 일부 완화해 인터넷전문은행이 좀 더 제 역할을 할 수 있도록 할 필요가 있다"고 덧붙였다. 인터넷전문은행의 혁신 방향에 대해 박영호 BCG 파트너는 "뱅킹 테크 솔루션 기반의 BaaS(Banking as a Service)형 인터넷전문은행, 중소기업특화 인터넷전문은행, 글로벌로 진출하는 인터넷전문은행 등 새로운 모델로 혁신해야 하며 이를 위해 핀테크, 금융·비금융사, 정책당국은 새로운 경쟁의 장을 만들어야 한다"고 제안했다.정부 측 토론자로 참석한 신진창 금융위원회 금융산업국장은 "인터넷전문은행은 모바일 앱 등을 통해 간편하고 신속한 금융서비스를 제공해 금융 이용 편의성 제고에 기여하고 있다"며 "시중은행과 차별화되거나 금융소비자의 비용 절감이 가능한 혁신적 서비스를 지속적으로 모색할 필요가 있다"고 말했다.박충현 금융감독원 부원장보도 "인터넷전문은행의 설립 취지가 적절히 구현되고 자율 경영이 제고될 수 있도록 리스크 중심 감독·검사를 지속적으로 추진하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>"송편 디자인하고 기부하세요"…토스, 추석맞이 이벤트</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001126214?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 토스를 운영하는 비바리퍼블리카(이하 토스)가 한가위를 맞아 한국취약노인지원재단과 함께 ‘소원 송편 만들기' 기부 이벤트를 실시한다.‘소원 송편 만들기'는 직접 송편을 디자인해 보고 토스페이로 기부에 참여할 수 있는 이벤트로, 10월 6일(금) 23시 59분까지 진행된다.회당 기부할 수 있는 금액은 최소 천 원부터 최대 200만 원이며 기부금 영수증 발급도 가능하다. 토스를 통해 모인 기부금은 전액 한국취약노인지원재단에 전달된다.한국취약노인지원재단은 산하기관인 독거노인종합지원센터와 함께 전국 50만 명 취약 노인을 대상으로 다양한 보호 사업과 돌봄 서비스를 지원하고 있다.‘소원 송편 만들기’ 기부금은 계절 재난지원, 긴급 위기 및 기후재해 지원, 일상생활 및 자립지원 등 돌봄이 필요한 노인들의 건강과 안전을 위해 쓰일 예정이다.토스 관계자는 “지난해 ‘나만의 눈사람 만들기' 기부 이벤트 이후 토스를 통해 기부에 참여하고 싶다는 의견이 꾸준히 접수됐다”라며 “사용자분들의 의견에 따라 ‘소원 송편 만들기’는 명절에 혼자 계신 독거노인분들께 마음을 전달하고자 기획했으며, 지속적으로 기부 관련 이벤트를 진행할 계획”이라고 전했다.9월 28일(목) 자정부터 9월 30일(토) 23시 59분까지 사흘간은 SNS 인증 이벤트도 실시한다.‘소원 송편 만들기' 기부 이벤트에 참여한 이미지를 개인 인스타그램 계정에 업로드하고 토스 공식 인스타그램 계정을 태그하면 응모가 완료된다.토스는 추첨을 통해 총 30명을 뽑아 토스의 모바일 교환권인 ‘브랜드콘'을 증정한다.‘소원 송편 만들기’ 메뉴는 토스 앱 ‘홈’ 화면의 가장 위 달 아이콘을 누르거나, ‘전체’ 탭 클릭 후 ‘진행 중인 이벤트’ 메뉴를 눌러 접속해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>가짜 코인을 진짜 코인으로 인식한 업비트…긴급 회수조치 나서</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003858749?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>국내 최대 가상자산 거래소 업비트에서 가짜 가상자산이 진짜 가상자산으로 잘못 인식돼 판매되는 사건이 발생했다. 업비트는 해당 가상자산에 대한 입출금을 일시 중단하고 자금 회수에 나섰다.        서울 강남구 업비트 본사의 모습. 뉴시스    24일 업비트에 따르면 이날 불특정 계좌로부터 가상자산 앱토스(APT)를 가장한 가짜 코인이 다수의 업비트 계좌로 입금돼 진짜 코인으로 인식되는 일이 발생했다. 업비트는 무작위 계좌에 가짜 앱토스가 2000만원 규모로 입금된 것으로 파악하고 이중 절반을 회수 조치했다고 밝혔다. 일부 사용자는 가짜 코인을 진짜 코인으로 매도한 것으로 나타났다. 업비트는 해당 사용자에게 유선 등 연락을 통해 회수에 나선 것으로 전해졌다.     업비트는 이날 오후 상황을 파악하고 오후 3시47분쯤부터 앱토스에 대한 입금을 일시 중단하고 오후 11시 입출금을 재개했다. 업비트는 “앱토스 입출금 모니터링 과정에서 비정상적인 입금 시도가 확인돼 입출금 중단 및 월렛 시스템 점검을 진행했다”고 설명했다.       업비트는 앱토스 코인을 기반으로 제작된 토큰이 진짜 코인으로 인식되는 오류가 발생했다고 파악했다. 일부 가상자산은 같은 블록체인 네트워크를 공유하는 토큰을 만들 수 있는데, 앱토스 블록체인을 활용해 만들어진 토큰이 앱토스 코인으로 인식됐다는 것이다.     업비트 발(發) 가짜 코인 사태에 앱토스의 글로벌 가격은 이날 오후 8시40분쯤부터 급등하기 시작했다. 오후 8시 기준 6800원대를 기록한 앱토스는 오후 10시45분 7200원대까지 6% 급등했다.     이 사건은 해외 외신과 SNS, 블로그 등에 공유되며 전 세계 사용자들의 비판을 받았다. 한 가상자산 분석 블로그는 “신뢰할 수 있는 가상자산 거래소가 어떻게 가짜 돈을 진짜 돈으로 인식할 수 있도록 허용할 수 있나”며 “정확한 사실관계가 확인돼야 한다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>보이스피싱 기승에 상반기 사기이용계좌 지급정지 1만8천건</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000352404?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>고금리 시대에 저금리 대환대출을 미끼로 하는 등 신종 보이스피싱 사기가 기승을 부리면서 올해 상반기에만 사기이용계좌 지급정지 건수가 1만8천건에 달하는 것으로 집계됐습니다.오늘(25일) 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 올해 상반기 사기이용계좌로 인한 지급정지 건수는 1만7천683건을 기록했습니다.사기이용계좌로 인한 지급정지 건수는 ▲2020년 2만191건 ▲2021년 2만6천321건 ▲2022년 3만3천897건 등 지속적으로 증가하고 있으며, 올해 상반기 건수도 지난해 연간 건수의 절반을 넘어 증가세가 이어지고 있다는 것을 알 수 있습니다.은행별로는 KB국민은행이 3천667건으로 가장 많았고 카카오뱅크가 3천558건으로 뒤를 이었습니다.이어 우리은행(2천664건), 케이뱅크(2천137건), 신한은행(2천96건), 하나은행(1천883건), 토스뱅크(1천466건), SC제일은행(212건) 등 순이었습니다.경찰 등에 따르면 최근에는 저금리 대환대출을 미끼로 한 보이스피싱이 극성입니다. 은행 직원 등을 사칭하며 저금리 대출을 해주는 대신 먼저 기존 대출금을 상환하라고 하며 현금을 받아 챙기는 식입니다.통장 협박이나 간편송금을 악용한 사기 사례도 주된 보이스피싱 사기 수법으로 꼽힙니다. 통장 협박은 최근 자영업자들이 계좌이체를 이유로 매장이나 가게에 계좌번호를 공개하고 있다는 점을 악용해 사기범이 보이스피싱 피해자 계좌에서 자영업자에게 소액을 이체한 뒤 피해자의 피해구제 신청으로 자영업자의 계좌가 지급정지 되면 지급정지 해제를 조건으로 자영업자에게 합의금을 요구하는 방식입니다.윤창현 의원은 "'리딩뱅크'인 국민은행 계좌가 범죄에 가장 빈번하게 활용되고 있는 것으로 확인됐다"며 "범죄에 활용되고 난 뒤에 뒤늦게 지급정지에 나서기보다는 계좌관리에 더 큰 노력을 기울여 범죄 활용도를 낮추는 데 역량을 집중시켜야 할 것"이라고 강조했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사 신용대출 연체율 역대 최대</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000619941?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 3사인 카카오뱅크·케이뱅크·토스뱅크의 신용대출 연체율이 출범 이후 가장 높은 수준을 기록했습니다.인터넷은행 3사가 국회 기획재정위원회 양경숙 의원에게 제출한 자료에 따르면, 전체 인터넷은행 신용대출 연체율은 지난달 말 1.2%로 집계돼 1년여 만에 세 배 가까이 늘어난 것으로 나타났습니다.은행별로는 토스뱅크가 1.58%로 가장 높았고, 케이뱅크가 1.57%, 카카오뱅크가 0.77%였습니다.신용대출 가운데 중·저신용대출 연체율은 2.79%로 집계됐는데, 케이뱅크 4.13%, 토스뱅크 3.4%, 카카오뱅크 1.68% 순이었습니다.박지운 기자 (zwoonie@yna.co.kr)#인터넷은행 #신용대출 #연체율연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>“동아재테크쇼 방문만 해도 ‘토스 짠테크’ 참여”</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003522476?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>26, 27일 열려… 전문가 재테크 강연고(高)물가 시대에 모바일 애플리케이션(앱)으로 10∼20원씩 모으고 아끼는 ‘짠테크’(짠돌이+재테크) 열풍이 거센 가운데 ‘2023 동아재테크쇼’ 관람객들은 26, 27일 서울 강남구 코엑스 행사장을 찾는 것만으로 짠테크에 참여할 수 있다. 동아재테크쇼 행사장이 모바일 금융 플랫폼 ‘토스’가 앱에서 운영 중인 만보기의 ‘방문 미션’으로 지정돼 토스 포인트를 받을 수 있기 때문이다. 2019년 7월 시작된 토스 만보기는 스마트폰에서 측정한 걸음 수, 위치 정보를 활용한 걷기 서비스로 토스 앱의 ‘혜택’ 탭에 접속하면 이용 가능하다. 사용자는 ‘걷기 미션’과 ‘방문 미션’으로 하루 최대 140원의 토스 포인트를 받을 수 있어 앱테크(앱+재테크) 트렌드와 함께 큰 주목을 받았다. 특히 토스 포인트를 등록된 계좌를 통해 현금화할 수 있어 실용성이 높다는 평가를 받고 있다. 이번 ‘2023 동아재테크쇼’에서는 부동산, 세금, 자산관리, 은퇴 설계 등 분야별 최고 전문가들의 특별 강연도 진행된다. MZ세대에게 친숙한 인기 유튜버들의 재테크 강연도 처음으로 선보인다. 행사장 입장은 무료이며 동아인사이트 홈페이지에서 사전 등록할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>토큰증권 발행 인프라…한국투자證, 업계 첫 구축</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004894783?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>한국투자증권은 업계에서 처음으로 토큰증권 발행 인프라를 구축했다고 21일 밝혔다. 토큰증권은 분산원장 기술을 통해 디지털화된 증권을 말한다. 부동산, 선박, 항공기, 미술품 등 실물 자산의 권리를 유동화해 조각 투자하는 데 활용된다.한국투자증권은 지난 5월 카카오뱅크와 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등과 ‘한국투자ST프렌즈’라는 협의체를 구성해 개발 작업에 나선 지 4개월여 만에 인프라 구축을 완료했다. 한국투자증권의 분산원장 인프라는 향후 관련 제도 변화에 손쉽게 대응할 수 있도록 클라우드 시스템을 기반으로 구현됐다.최서룡 한국투자증권 플랫폼본부장은 “이번 발행 인프라가 분산원장 기술이 제도권 금융으로 편입되는 과정에서 중요한 변곡점이 될 것”이라며 “안정적인 제도 정착과 투자자 보호에 힘쓰겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.09.16~2023.09.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.09.16~2023.09.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>GA업계 ‘스카우트 과열 방지’ 자율 협약 초읽기</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002199843?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>흥국 막바지 설득...동참 주목법인보험대리점(GA) 업계가 건전한 모집질서 확립을 위한 자율협약 체결을 앞둔 가운데, 최근 시장의 대세로 떠오른 자회사형 GA들의 동참 여부가 관심을 모으고 있다.19일 보험업계에 따르면 한국보험대리점협회는 20일 오후 자율협약에 참여하는 대형 GA들을 모아 ‘보험대리점 소비자보호와 내부통제를 위한 자율협약식’을 개최할 예정이다.자율협약에는 협회가 목표 대상으로 했던 설계사 1000명 이상 대형 GA 44개사 중 많게는 40개사가 참여할 것으로 전망된다. 설계사 500명 이상, 1000명 미만 GA 중에서도 토스인슈어런스와 더탑아이앤아이, 서울법인재무설계센터가 동참하기로 했다.협회 회원사가 아닌 자회사형 GA로는 한화생명금융서비스와 삼성생명금융서비스가 자율협약 참여를 확정했다.한화생명의 자회사형 GA인 한화생명금융서비스는 6월 기준 설계사 수가 2만1307명에 이르는 업계 1위 업체로, 다른 자회사형 GA들이 참여를 결정하는 데 영향을 미쳤다.김용태 협회장은 자율협약 성공을 위해 마지막까지 자회사형 GA들의 참여를 독려한다는 방침이다. 흥국생명의 자회사형 GA인 HK금융파트너스를 이날 오후 만나 막바지 설득에 나설 예정이다. 올 7월 출범한 HK금융파트너스는 약 1300명의 설계사를 보유하고 있다. 다만, KB라이프생명의 판매 자회사인 KB라이프파트너스(설계사 수 1440명)는 이번 자율협약에 곧바로 참여하지 않고 상황을 더 지켜보기로 입장을 정한 것으로 전해졌다.자율협약은 보험소비자 보호와 GA의 책임경영 및 내부통제를 위해 건전한 모집환경을 구축하자는 취지로 마련됐다. 과도한 설계사 스카우트 예방을 위해 설계사 신규 도입시 제공하는 정착지원금에 ‘1200%룰’을 적용하고 스카우트 관련 허위·과장광고를 금지한 것이 핵심이다. 1200%룰은 설계사에게 지급되는 초년도 모집 수수료가 월납 보험료의 12배를 넘지 못하도록 제한하는 규제다.완전판매를 위해 보험업법, 금융소비자보호법 등 관련 법규를 준수하자는 내용도 담겼다. 설계사 전문성 제고 및 상품비교·설명제도 안착 노력, 준법·내부통제 시스템 컨설팅 지원 등의 내용도 있다.GA 업계에서는 최근 보험업계의 제판분리(제조·판매 분리) 활성화로 자회사형 GA의 영향력이 커지면서 자율협약의 성패를 가르는 변수가 됐다는 분석이 나온다.한 업계 관계자는 “최근 자회사형 GA들이 잇따라 신설되면서 기존 연봉의 2~3배까지 주겠다며 경력직 설계사를 끌어오려는 영입 전쟁이 벌어지고 있다”며 “위기감을 느낀 기존 GA들이 자율협약에 적극 나서고 있는데, 자율협약이 성과를 내려면 결국 자회사형 GA의 동참이 가장 중요할 것”이라고 말했다. 강승연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>[기업대출 전쟁]②고금리에 경기악화…출혈경쟁·건전성 우려도</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005318973?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>"거래하던 한 중소기업 사장에게 모 은행이 제시했다는 금리 수준을 들었을 때는 '블러핑(bluffing·허풍)'인 줄 알았죠. 말도 안 되게 낮은 금리를 제시했단 겁니다. 하지만 여러 기업 대표들로부터 같은 문의 전화가 걸려 오니 경쟁이 본격화됐단 실감이 납니다."시중은행들이 잇따라 기업대출 확대에 나서면서 은행 간 '출혈경쟁'을 우려하는 목소리도 커지고 있다. 급격한 대출 확대는 시차를 두고 연체율이나 수익성에도 악영향을 줄 수 있단 지적이다.25일 금융감독원에 따르면 지난 7월 말 국내 은행의 기업대출 연체율은 전년 동월 대비 0.17%포인트 상승한 0.41%로 집계됐다. 이는 코로나19 팬데믹(세계적 대유행)이 본격화되기 이전인 2020년 1월 말(0.51%) 대비론 낮은 수준이지만, 역대 최저치를 기록한 지난해 6월 말(0.20%) 대비론 큰 폭의 상승세를 보였다.항목별로 보면 대기업 연체율은 0.02%포인트 축소된 0.12%였으나, 중소기업 연체율은 0.22%포인트 확대된 0.49%에 달했다. 특히 중소법인은 0.17%포인트 늘어난 0.51%, 개인사업자는 0.28%포인트 확대된 0.45%에 달했다.서울 중구 명동 폐업 상점에 사금융 대출 관련 전단이 놓여 있다. 사진=강진형 기자aymsdream@이런 기업대출 연체율은 과거 대비 높은 수준은 아니나, 지난해 6월 역대 최저치(0.20%)를 기록한 이래 빠르게 상승하고 있다는 점은 우려스러운 지점이다. 코로나19 팬데믹이 마무리되고, 세계 각국이 고금리 기조를 유지하면서 눌렸던 연체율이 원상복귀하고 있는 것이다.업계선 이런 와중에 각 은행이 기업대출 전쟁에 속속 참전하면서 잠재 부실 확대를 우려하는 목소리가 나온다. 금융권 한 관계자는 "가계대출 성장 부진으로 기업대출 확대 흐름이 나타나는 것은 늘상 있었던 일"이라며 "하지만 이는 아랫돌을 빼 윗돌을 막는 격으로, 급격한 대출자산 확대는 2~3년의 시차를 두고 연체율 상승으로 이어져 부담될 수 있다"고 했다.특히 은행 간 출혈경쟁 가능성도 제기된다. 은행연합회 공시에 따르면 지난 5~7월 취급된 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 중소기업 신용대출 금리는 신규취급액 기준 5.49%~6.57%로 지난해 12월~올해 2월(5.58%~6.83%) 대비 하락했다.시중은행 한 관계자는 "자금 조달비용이 고만고만한 상황에서 가격경쟁이 벌어진다면 마진을 축소하는 수밖에 방법이 더 있겠느냐"면서 "이를 수신 유치나 부수 사업으로 벌충한다지만 결국엔 윗돌을 빼 아랫돌을 막는 격"이라고 지적했다.일선 은행 한 관계자도 "주거래 은행과 끈끈한 관계와 인연을 중시했던 이전과 달리 최근 중소기업 경영자들은 단 0.01%포인트의 금리에도 민감하게 반응한다"면서 "최근과 같이 고금리, 경기침체로 한 푼의 이자비용이라도 아껴야 하는 기업으로선 현재의 흐름이 나쁘지 않을 것"이라고 했다.특히 각 은행에 있어 기업대출 축소는 곧 해당 기업에서의 예금·퇴직연금 등 수신이탈로 이어진다는 점이 더욱 뼈아픈 대목이다. 또 다른 관계자는 "기존 대출이 이탈하면서 연간 목표 달성도 힘들어지고 있는데, 수신까지 빠져나가면서 핵심성과지표(KPI) 달성에 어려움이 적지 않다"면서 "기존 고객을 붙잡아 두면서 새 차주를 발굴해야 하는 이중고로 현장에서 뛰는 기업금융전담역(RM)들의 고민이 크다"고 전했다.업계선 당장 이같은 경쟁이 은행 건전성에 심각한 위협을 주진 않겠으나, 수익성 악화로 이어질 수 있다고 우려한다. 시중은행 한 고위관계자는 "가격경쟁으로 순이자마진(NIM) 하락과 수익성 악화가 나타나겠으나, 각기 부수 업무 등을 통해 이를 보완하고 있는 만큼 (산업 전반적으로) 역마진이 나거나 건전성에 문제가 생기진 않을 것으로 본다"면서 "장기·우량고객을 유지하는 데 집중할 계획"이라고 밝혔다.인뱅도 기업대출 문 두드려…아직은 한계한편 시중은행 대비 상대적으로 덩치가 작은 인터넷전문은행들의 경우 개인사업자 대출을 통해 기업대출 시장의 문을 두드리고 있다. 특히 지난해부터 개인사업자 대출 상품을 활발히 출시하면서 기업 여신 잔액도 증가하는 추세다.카카오뱅크·케이뱅크·토스뱅크의 올해 2분기 말 기준 기업대출 잔액은 2조8912억원 규모로 전년 동기(5651억원) 대비 412%(2조3261억원)가 증가했다. 선제적으로 '사장님 대출'을 선보인 토스뱅크의 경우 기업대출 여신 잔액이 지난해 6월 5509억원에서 올해 6월 1조8196억원으로 성장해 3사 중에 가장 규모가 컸다.후발주자인 카카오뱅크는 낮은 금리로 승부수를 띄웠다. 은행연합회에 따르면 카카오뱅크의 개인사업자 신용대출 평균 금리(5월~7월 신규취급액 기준)는 5.99%로 케이뱅크(6.44%)·토스뱅크(7.81%)와 비교하면 가장 낮다. 케이뱅크도 최근 대출 중개 플랫폼인 '핀다'에 입점하는 등 개인사업자 대출 확대에 나섰다.다만 인터넷전문은행의 경우 시중은행처럼 기업대출을 키우기가 쉽지만은 않은 상황이다. 한 인터넷전문은행 관계자는 "당국이 가계대출을 관리하고 나서면서 개인사업자 대출에 더 힘을 쏟겠지만, 개인사업자 대출의 경우 중저신용대출처럼 리스크가 있는 분야다 보니 적극적으로 확대하기도 쉽지 않다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>밀리의서재 18~19일 청약…공모가 2만3천원 [이슈투데이]</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001125590?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>&lt;기자&gt;오늘 이슈를 뉴스로 미리 짚어보는 '이슈투데이'입니다.첫 소식입니다.밀리의서재 등 기업 두 곳이 오늘 코스닥 시장 상장을 위한 일반투자자 대상 청약에 나섭니다.18일 한국거래소에 따르면 국내 최대 독서 플랫폼 밀리의서재는 오늘부터 이틀 동안 청약을 진행합니다.앞서 이뤄진 기관투자자 대상 수요예측에선 619.24대 1의 경쟁률을 보이며, 공모가가 희망 공모가 범위 최상단인 2만3천 원으로 정해졌습니다.청약은 상장 주관사인 미래에셋증권을 통해 할 수 있으며 오는 27일 코스닥 시장에 상장할 예정입니다.다만 상장 이후 잠재적 대량 매도물량(오버행)이 나올 수 있는 점은 시장의 불안 요인으로 꼽힙니다.상장 한달 후 보호예수 해제물량이 상장주식 수의 15% 이상으로 유통가능물량이 전체의 40%를 넘고, 석달 뒤에는 전체의 60%가 시장에 풀리기 때문입니다.같은 날 반도체 장비 기업 아이엠티도 청약을 받습니다.아이엠티는 반도체 공정장비 전문 기업으로 레이저와 이산화탄소를 활용한 건식 세정 장비 등을 주력 제품으로 판매하고 있습니다.수요예측 경쟁률은 753대 1을 기록했고 공모가는 희망 범위 상단을 초과한 1만4천 원으로 확정했습니다.대표 주관사인 유안타증권과 인수회사인 유진투자증권을 통해 청약할 수 있습니다.아이엠티는 다음 달 10일 코스닥 시장에 상장할 예정입니다.다음 소식입니다.고유가와 강달러로 유가증권시장 공매도 비중이 연중 최고를 기록했습니다.18일 한국거래소 등에 따르면 9월 평균 유가증권시장 공매도 거래대금 비중은 5.73%로 올해 가장 높은 수준으로 집계됐습니다.이는 올해 연평균 공매도 비중 4.96%보다 약 1%포인트 높은 수치로 지난 12∼14일에는 공매도 비중이 6%대까지 치솟았습니다.이달 들어 공매도 비중이 증가세를 보이는 것은 그만큼 주가 하락에 베팅하는 투자자들이 많았다는 걸 뜻합니다.실제 사우디아라비아와 러시아의 원유 감산 연장으로 국제유가가 배럴당 90달러를 돌파하는 등 물가를 자극하고 있습니다.고물가가 지속되면 각국 중앙은행이 긴축 정책을 오래 가져갈 수 있기 때문에 증시에는 부정적입니다.다음 소식입니다.고금리가 지속되면서 중·저신용대출 공급을 늘린 인터넷은행 3사의 신용대출 연체율이 출범 이후 가장 높은 수준까지 뛴 것으로 나타났습니다.18일 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사가 국회 기획재정위원회 양경숙 의원에게 제출한 자료를 보면 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%를 기록했습니다.인터넷은행 신용대출 연체율은 3사 신용대출 연체액을 신용대출 잔액으로 나눈 수치로, 신용대출 연체율은 지난 2021년 0.3% 수준에서 유지되다가 지난해 말 0.77%를 기록한 뒤 8월 말 1.20%까지 상승했습니다.은행별로는 토스뱅크가 1.58%로 가장 높았고, 케이뱅크가 1.57%, 카카오뱅크가 0.77%로 집계됐습니다.국내은행의 지난 6월 말 기준 가계대출 연체율이 0.62%인 것과 비교하면 인터넷은행의 신용대출 연체율은 2배 가까이 높습니다.한국은행의 기준금리 인상이 신용대출 연체율 증가로 이어지면서 고금리 시기 인터넷은행들의 건전성 관리에 비상이 걸렸다는 지적이 나옵니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>[은행 vs 보험]③'빅테크'를 견제하라</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019639?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>은행 방카 수수료 비중 10%도 안돼규제 완화 통해 빅테크와 주도권 싸움은행들이 약 20년만에 방카슈랑스 규제 완화를 외친 표면적인 이유는 금융소비자 편익 확대와 이자에 기대지 않는 은행 수익원 다각화다. 하지만 속내는 따로 있다는 게 금융권의 분석이다.조만간 빅테크 기업들이 제공하는 서비스에서 보험 비교 가입 서비스가 예정된 만큼 금융 서비스 접점을 빼앗기지 않겠다는 의미가 더 크다는 분석이다. 결국 빅테크와의 경쟁에서 살아남기 위한 은행들의 전략이라는 얘기다. 미래먹거리라고 하기에는KB국민, 신한, 하나, 우리, 농협 등 5대 시중은행이 방카슈랑스 판매를 통해 거둔 수수료 수익은 올해 상반기 기준으로 약 1459억원 가량이다. 이 기간동안 이들 은행의 수수료 수익 규모가 2조1000억원 수준이라는 점을 고려하면 약 10%도 되지 않는 수준이다. 매년 꾸준한 판매량을 기록하고 있다고는 하지만 방카슈랑스 규제를 일부 완화한다 하더라도 은행의 수수료 수익을 대폭 끌어올려 줄 것이란 의미로는 보기 힘들다는 분석이 많다. 은행 관계자는 "방카슈랑스를 통해 많이 판매되는 저축성 보험의 경우 만기가 짧아야 5년, 길게는 10년이기 때문에 비슷한 성격을 가진 예금 및 적금에 비해 고객을 유치하는 숫자가 적을 수 밖에 없다"라고 설명했다. 이어 "최근 은행 내부에서 주 수수료 수익원으로 꼽고 있는 부분은 최근 규제가 개선된 퇴직연금"이라며 "방카슈랑스에 비해 취급액이 더 많고 더 많은 수수료를 기대할 수 있다"고 말했다. 방카슈랑스는 제도가 개선되더라도 수익성이 급격하게 증가하지는 않을 것이란 예상이다. '돈' 보다는 '주도권 싸움'은행들이 방카슈랑스 규제 완화를 외치는 이유는 무엇보다 빅테크에 대한 견제의 기능이 더 크다는 게 업계 관계자들의 설명이다.현재 금융당국은 내년 1월을 목표로 네이버페이, 카카오페이, 토스 등 빅테크 기업의 금융 앱 내에 보험 비교 및 추천 서비스 도입을 추진하고 있다. 이렇게 되면 빅테크 앱에서는 예금, 적금, 대출, 보험 등 주식매매를 제외한 핵심 금융상품을 판매할 수 있게 되는 셈이다.현재 금융상품의 비대면 판매 비중이 점점 높아지고 있는 상황을 고려하면 빅테크들이 금융상품 판매의 핵심 채널이 되는데 속도가 붙게 될 것이란 관측이 나온다. 이에 은행 입장에서는 빅테크와의 경쟁에서 살아남기 위해서는 빅테크에 준하는 금융상품 판매 라인업을 갖춰야 할 필요성을 느낀 것이다. 은행 관계자는 "전통적인 금융회사가 빅테크의 영향력에 밀려 점점 철저한 상품 공급자로 전락할 것이란 우려가 있다"라며 "장기적으로 은행이 생존하기 위해서는 다양한 규제 해소를 위해 은행들도 빅테크 기업들과 같은 선상에서 경쟁할 수 있도록 해줘야 한다"라고 말했다. 보험, 이미 빅테크와 '기싸움'…은행까지 난입 '불편'은행들이 "방카슈랑스 이용 고객이 영업점 뿐만 아니라 거래은행 앱에서 보험 비교·추천 서비스를 받을 수 있어야 한다"는 은행권 주장에 대해서 보험업계가 반발하는 것도 결국 '생존'의 문제다. 보험 비교·추천 서비스 도입에 더해 방카슈랑스 규제까지 완화한다면 보험사-은행-빅테크의 삼자 경쟁구도가 형성된다.금융권 '맏형' 격인 은행까지 가세하면 보험업계 입장에서는 협상력이 떨어질 수 밖에 없다는 게 보험업계의 관측이다. ▷관련기사 : [인사이드 스토리]①'빅테크'와 '빅보험' API 샅바싸움(8월 22일)[인사이드 스토리]②API 합의되면 끝일까…그 이후는?(8월 23일)보험업계 한 관계자는 "(은행들이)방카슈랑스 채널의 주력인 저축성보험 판매가 빅테크 보험 비교·추천 서비스에 포함되는 것을 의식해 규제 개선을 통한 사업 다각화를 모색하고 있는 것으로 보인다"고 했다. 일부에선 판매 규제가 대거 풀리면 은행은 수수료만 챙기고, 책임은 보험사가 뒤집어 쓰게될 것이란 우려도 나온다. 불완전판매 등 피해 구제와 보험계약자 사후 관리는 보험사들에게 고스란히 돌아오기 때문이다. 종신·자동차보험 등 상품 판매군이 복잡해지고 25%룰도 허물어지면 상대적으로 낮은 방카슈랑스의 불완전판매율도 안심할 수 없다. 보험사들 입장에서 방카슈랑스 규제 완화는 리스크 확대, 경쟁 심화 등 생존을 위협하게 될 수 있다는 인식으로 받아들이고 있는 이유다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>토스페이, 중국 알리페이플러스 가맹점서 결제 지원</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012101704?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 남정현 기자 = 토스의 간편결제 서비스 토스페이가 제19회 항저우 아시안게임을 앞두고 중국 알리페이플러스(Alipay+) 가맹점에서 결제를 지원한다고 20일 밝혔다. 토스페이 이용자들은 중국 내 알리페이플러스로고 또는 토스페이 로고가 있는 오프라인 매장에서 토스 앱으로 간편결제를 할 수 있다.결제는 토스 앱에 있는 바코드 또는 QR코드를 활용한다. 토스 앱 하단 세 번째에 위치한 토스페이 탭의 오른쪽 위 바코드 아이콘을 클릭해 '해외' 탭을 누르거나 전체 메뉴에서 '현장결제' 메뉴를 검색해 '해외' 탭을 클릭해 이용할 수 있다. 또 해외에 나갈 시 토스 앱 홈 화면 오른쪽 상단에 나타나는 QR 아이콘을 클릭해 사용할 수 있다. 결제를 진행하면 토스페이에 연결해 둔 계좌에서 결제 금액만큼 원화로 출금된다.토스 관계자는 "2600만 명 이상의 토스 이용자가 해외에서도 토스페이를 사용할 수 있게 됐다는 점이 매우 고무적"이라며 "중국을 시작으로 '토스페이' 해외 현장 결제 가능 국가를 점차 늘려갈 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.09.17.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>깐깐해진 은행 대출… 900점대 '고신용자'에도 겨우 내준다 [문턱 높아지는 대출]</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005073702?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>금리 7%대까지 오르며 심사 강화1금융권 개인대출 점점 어려워져7월 시중銀 주담대 신용점수 920지방銀도 평균 918점까지 뛰어  신용점수 900점대 고신용자 차주도 1금융권에서 대출받기가 어려워졌다. 금리가 오르면서 상대적으로 신용점수가 낮던 금융소비자를 중심으로 대출을 받으러 가던 발걸음을 돌리고 있다. 여기에 건전성 관리를 위해 은행들이 신용대출 심사에 보다 신중을 기하는 상황이다. 이에 주요 시중은행뿐 아니라 인터넷은행, 지방은행 할 것 없이 모두 대출을 내주는 평균 신용점수가 900점 이상으로 상승하고 있다.   ■지방은행도 평균 신용점수 900점 상회   17일 은행연합회에 따르면 지난 7월 중 5대 시중은행(KB국민·신한·하나·우리·NH농협)에서 주택담보대출을 받은 차주의 평균 신용점수는 920.0점으로 나타났다. 지난 3월 912.3점이었던 것과 비교하면 4개월간 꾸준히 올랐다. 신용대출의 경우 같은 기간 916.4점에서 925.7점까지 10점가량 올라 상승세가 더 가팔랐다.   비교적 저신용자 비중이 높은 지방은행도 마찬가지다. 지난 7월 중 5개 지방은행(BNK부산·경남·DGB대구·전북·광주)이 주담대를 내준 차주의 평균 신용점수는 917.8점으로 5대 시중은행과 맞먹는 수준까지 껑충 뛰었다. 지난 3월까지만 해도 평균 신용점수가 800점대(891.5점)에 머물렀던 것과 대비된다. 신용대출은 평균 신용점수 830.3점으로 비교적 저신용자를 포용했지만 역시 지난 3월 평균(827.6점)과 비교하면 꾸준히 오르는 추이를 보였다.   인터넷은행은 특히 신용점수가 950점 이상인 '초고신용자'에 대부분 대출이 한정됐다. 아직 담보대출을 취급하지 않는 토스뱅크를 제외한 카카오뱅크와 케이뱅크가 지난 7월 중 대출을 내준 차주의 평균 신용점수는 각각 951점, 960.9점이었다. 지난 3월(953점, 954.2점)과 비교해 오름폭은 크지 않지만 이미 평균이 상당히 높았다. 케이뱅크는 600점 이하 차주에게 대출이 나간 경우가 2개월째 전무하다. 다만 같은 기간 신용대출의 경우 3개 인터넷은행이 유일하게 평균이 내려가는 모습(895.6점→885.0점)을 보였다.   ■최고 7%대로 오른 금리   이는 기준금리가 오르는 데 따른 파급효과로 분석된다. 실제 미국 연방준비제도(연준)가 긴축 기조를 장기화할 것이라는 관측에 힘이 실리면서 채권금리가 들썩이자 이에 연동되는 대출금리 역시 4개월 넘게 꾸준히 상승하고 있다.   실제 지난 15일 기준 5대 시중은행의 변동형 주담대 금리는 연 4.05~7.044%로 상단이 6%를 넘어선 지 약 2개월 만에 7% 선까지 돌파했다. 인터넷은행의 변동형 주담대 금리도 연 4.06~7.02%로 최고금리가 7%대가 됐다. 이들 은행의 고정형 주담대 금리도 각각 3.91~6.02%, 4.26~6.80%로 지난달 초(3.77~6.12%, 3.88~5.20%)와 비교해 금리가 높아졌다.   특히 담보물의 가치가 대출금리를 주로 좌우하는 주담대와 달리 신용대출은 은행이 내부 상황에 따라 문턱 높낮이를 조정할 여지가 조금 더 많다.   은행권 관계자는 "주택담보대출은 금리 외에 차주 유입을 차단할 방법이 많지 않다. 같은 담보물을 가진 차주인데 언제는 대출이 나가고 언제는 나가지 않고 하지는 않는다"며 "다만 신용대출은 건전성 관리를 강화해야 한다고 생각하면 조금 더 까다롭게 심사하는 경우가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>빨간불 켜진 인뱅 건전성…케이뱅크 중저신용 연체 4% 넘어</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003813641?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>연합뉴스중·저신용대출 공급을 늘린 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 신용대출 연체율이 출범 이후 가장 높은 수준까지 상승하는 등 건전성이 악화되는 모습을 보였다.인터넷은행 3사가 17일 국회 기획재정위원회 양경숙 의원(더불어민주당)에게 제출한 자료에 따르면, 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%를 기록했다. 연체율은 대출 잔액에서 대출 연체액이 차지하는 비중이다.지난 2021년 0.3% 수준이었던 인터넷은행 3사의 신용대출 연체율은 지난해 6월 말 0.42%, 12월 말 0.77%, 올해 6월 말 1.04%을 기록한 데 이어, 8월 말 1.20%까지 상승했다. 이는 인터넷은행 3사 출범 이후 가장 높은 수준이다.국내은행의 지난 6월 말 기준 주택담보대출 제외 가계대출(신용대출 등) 연체율이 0.62%라는 것과 비교해도, 인터넷은행의 신용대출 연체율은 높은 수준으로 나타났다.은행별로는 토스뱅크가 1.58%로 가장 높았다. 그 뒤를 케이뱅크가 1.57%, 카카오뱅크가 0.77% 순으로 나타났다.이 중 신용점수 하위 50%를 대상으로 취급하는 중저신용자 대출만 보면 연체율 증가속도는 더 가파르다. 지난달 말 3사의 중·저신용대출 연체율은 2.79%였다.지난달 말 기준 3사의 중·저신용대출 연체율은 2.79%로 집계됐다. 2021년 말부터 지난해 상반기까지 0.8%대를 유지했지만, 지난해부터 상승해 올해 6월 말 기준 2.46%를 기록했다. 1년 전(0.84%)과 비교하면 연체율이 2.9배로 뛰었다.스마트이미지 제공은행별로는 케이뱅크가 4.13%로 가장 높았다. 뒤이어 토스뱅크 3.40%, 카카오뱅크 1.68% 순이었다.중·저신용 연체율 역시 각 사 개별로도, 3개 사 합산 기준으로도 역대 최고 수준이다.이처럼 인터넷은행의 연체율이 빠르게 오르는 것은 기준금리 인상 등 한국은행의 긴축기조가 계속되고 있기 때문이다.지난 2021년 8월부터 금리를 올리기 시작한 한은은 지금까지 총 10차례에 걸쳐 기준금리를 높여, 당시 0.50%였던 기준금리가 3.50%까지 뛰었다. 이처럼 기준금리가 높은 상황에서는 특히 취약차주의 상환부담이 커지면서 연체가 높아지는 경향이 나타난다.특히 인터넷은행은 중저신용자 대출 비중 목표치가 있는데 이를 달성하려면 올해 남은 기간에도 중저신용자 대출을 늘려야 해 연체율이 더 높아질 우려가 있다.인터넷은행의 2분기 말 기준 중저신용자 대출 비중(잔액 기준)은 카카오뱅크 27.7%, 케이뱅크 24.0%, 토스뱅크 38.5%를 기록했다.3사의 목표치(각각 30%, 32%, 44%)에 여전히 미달하고 있어, 남은 하반기 중저신용자 대출 비중을 더 끌어올려야 하는 상황이다.인터넷은행들이 지난해보다 대손충당금을 2배 쌓는 등 건전성 관리에 나서고 있지만, 당분간 고금리가 지속될 것으로 전망되는 상황에서 중저신용자 대출을 확대하면 취약 차주를 중심으로 부실이 더 번질 수 있다는 우려가 나온다.금감원은 올해 인터넷은행을 포함해 은행권이 충분한 손실흡수능력을 갖출 수 있도록 대손충당금을 더 보수적으로 적립하도록 유도하고 있다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스뱅크, 외국인등록증 진위 확인 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004892954?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공토스뱅크의 외국인 고객 신원 확인 기능이 강화된다. 토스뱅크는 금융결제원의 ‘외국인등록증 진위확인 서비스’를 도입했다고 18일 밝혔다.이번 서비스 도입으로 토스뱅크는 외국인 고객이 토스뱅크 계좌를 개설할 때 금융결제원과 법무부가 구축한 전용라인을 통해 실시간으로 외국인등록증 진위 확인을 할 수 있게 됐다.진위 확인 서비스는 외국인등록증(신분증)의 사진 특징점까지 추출해 법무부 데이터베이스(DB) 사진과 유사도를 검증한다. 기존 공공마이데이터를 활용하는 방식에 금융결제원의 진위확인 서비스까지 더해져 외국인 고객의 신원을 보다 안정적으로 빠르고 정확하게 확인할 수 있게 됐다는 게 토스뱅크의 설명이다.토스뱅크는 지난해 5월 인터넷전문은행 최초로 국내 거주 외국인 고객을 대상으로 비대면 뱅킹서비스를 제공하기 시작했다. 그동안 외국인은 은행 영업점을 방문해야만 첫 계좌를 개설할 수 있었는데, 토스뱅크가 인터넷은행 최초로 이를 해결한 것이다. 법무부 통계에 따르면 국내 체류 외국인은 작년 말 기준 약 225만명에 달한다.계좌를 개설한 외국인 고객은 토스뱅크의 내국인 고객과 차별 없이 비대면 뱅킹서비스를 이용할 수 있다. 조건 없이 연 2%(세전)의 금리를 제공하는 ‘토스뱅크 통장’은 물론, ‘지금 이자받기’를 통해 매일 남은 원금에 이자를 더한 잔액을 기준으로 또 다시 이자가 쌓이는 '일 복리' 혜택도 받을 수 있다.토스뱅크 관계자는 “지난해 5월 외국인 계좌개설 서비스를 선보인 이후 외국인 고객을 위해 지속적으로 서비스를 고도화했다”며 “앞으로도 은행에 대한 고객 경험을 바꿔나가도록 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.09.19.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>8000억 벤처펀드 등장…VC '연봉 킹'이 말하는 에이티넘의 전략 [긱스]</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004893417?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.상장 벤처캐피털(VC) 에이티넘인베스트먼트가 8000억원 규모 신규 벤처펀드를 결성했습니다. 벤처투자업계 사상 최대 규모 펀드입니다. 에이티넘인베스트먼트는 대형 펀드 하나에 집중하는 '원 펀드' 전략으로 유명합니다. 한경 긱스(Geeks)가 에이티넘인베스트먼트의 펀드 결성 총회가 있던 날, 대표펀드매니저를 맡은 김제욱 부사장을 만났습니다.'8000억원'에이티넘인베스트먼트가 벤처캐피털(VC)업계 새 이정표를 세웠다. 역대 최대 규모의 벤처펀드를 결성했다. 에이티넘인베스트먼트는 지난 18일 서울 삼성동 본사에서 ‘에이티넘성장투자조합2023' 결성 총회를 열었다. 이 펀드의 약정 총액은 8000억원이다. 2년 전 결성했던 5500억원 규모를 뛰어넘는 벤처업계 사상 가장 큰 펀드다. 회사는 2014년 업계 최초로 2000억대 펀드를 결성한 데 이어 2018년에는 3500억원 규모의 펀드를 내놓기도 했다. 국내 벤처펀드 대형화 바람을 몰고 왔다.펀드의 핵심운용인력은 대표펀드매니저를 맡은 김제욱 부사장(사진)을 필두로 황창석 사장, 맹두진 부사장, 곽상훈 전무가 맡는다.  'B2B, 글로벌, AI'... "게임 체인저에 투자"이날 한경 긱스(Geeks)와 만난 김제욱 에이티넘인베스트먼트 부사장은 "적극적인 팔로온(후속 투자)을 통해 스타트업을 초기부터 쭉 지원해 장기적인 성장을 돕는 게 목표"리고 말했다.이번 펀드에는 이전에 참여했던 기존 출자자(LP)들이 다시 한 번 대거 지갑을 열었다. 1600억원을 출자한 산업은행을 비롯해 국민연금, 교직원공제회, 사학연금, 과학기술인공제회, 우정사업본부 등이 참여했다. 신규 LP로 기업은행을 비롯한 은행권 금융기관들도 참여했다. 김 부사장은 "전체 약정액의 85~90%가 기존 출자자"라며 "어려운 시기에도 기존 LP들이 신뢰를 보내주셔서 감사할 따름"이라고 말했다.펀드의 주요 투자 분야는 서비스·플랫폼(40%), 바이오·헬스케어(20%), 딥테크(30%), 콘텐츠·지식재산권(IP)(10%) 등이다. 목표 내부수익률(IRR)은 15%다. 벤처펀드 전체 상위 20% 수준의 수익률을 목표치로 내세웠다.김 부사장은 특정 분야보다는 '키워드'를 강조했다. 그는 기업 간 거래(B2B), 글로벌, 인공지능(AI) 등을 주요 키워드로 내세웠다. 그는 "B2B 시장이 기업·소비자 간 거래(B2C) 시장보다 훨씬 크다는 것을 인지하고, 한정적인 국내 시장을 벗어나 해외로 눈을 돌리는 스타트업을 발굴할 것"이라며 "그 중에서도 AI를 활용하는 회사들이 유망하다"고 설명했다.클로버추얼패션의 소프트웨어로 제작된 디지털 의상이 언리얼 엔진에 구현된 모습 / 클로버추얼패션 제공김 부사장은 그러면서 '게임 체인저' 스타트업에 투자할 예정이라고 했다. 그는 기존 산업의 규칙과 방식을 재정의하는 회사가 게임 체인저라고 보고 있다. 이를테면 포트폴리오 회사인 클로버추얼패션은 패션업계를 재편하고 있다는 설명이다. 클로버추얼패션은 3차원(3D) 의상 제작 프로그램을 내놨다. 가상 모델에게 옷을 미리 입혀볼 수도 있다. 에이티넘은 2014년 이 회사에 투자했다. 장외 시장에서 최근 이 회사의 기업가치는 8000억원에 육박하는데, 첫 투자 때와 비교하면 30배 이상 불어났다.AI 스타트업 마크비전 역시 김 부사장이 주목한 게임 체인저다. 이 회사는 그동안 수동으로 이뤄졌던 위조 상품 모니터링을 딥러닝 기술을 활용해 자동화했다. 루이비통모에헤네시(LVMH)을 고객사로 두고 있다.   '원 펀드' 전략... 초기부터 후속투자 강조에이티넘인베스트먼트는 전통적으로 '원 펀드' 전략을 구사해 왔다. 투자 재원이 소진될 때까지 하나의 대형 펀드에 투자 역량을 집중해 효율성을 극대화하는 방식이다. 펀드의 규모가 크면 초기 기업이 성장한 후 후속 투자를 쉽게 할 수 있다는 점에서도 유리하다. 이번 펀드에서도 1600억원(20%)가량이 시리즈A 안팎의 초기 스타트업에 투자될 예정인데, 이 같은 전략을 통해 한 펀드 안에서 시리즈B, C 등으로 후속 투자를 이어갈 수 있다. 김 부사장은 "우리를 찾는 스타트업들에 '사업만 잘하면 후속 투자는 걱정없다'는 인식을 갖게 해주는 게 장점"이라고 귀띔했다.에이티넘이 지속적인 팔로온을 통해 성장시킨 대표적인 포트폴리오 회사는 전자책 플랫폼 리디가 꼽힌다. 회사는 리디에 2012년 말부터 3개 펀드를 통해 총 8차례, 620억원을 투자했다. 그 사이 리디는 유니콘기업(기업가치 1조원 이상 비상장사)이 됐다. 투자 멀티플(배수)은 530%에 달한다. 또 2006년부터 2021년까지 7차례 투자한 레고켐바이오사이언스는 2013년 코스닥시장에 입성해 시가총액 1조원대의 회사로 성장했다. 김 부사장은 "기업가치 5000억원이 넘는 포트폴리오 회사들은 대부분 평균 2~3차례 이상씩 투자했다"고 설명했다.또 운용인력이 다른 펀드에 분산되지 않아 한 펀드에 집중할 수 있다는 점도 원 펀드 전략의 경쟁력이다. 김 부사장은 "18명의 심사역들이 한 펀드에만 집중한다"며 "펀드 안에서 특정 분야가 편중되지 않는다는 것도 장점"이라고 덧붙였다.사진=게티이미지뱅크 동남아, 미국 등 해외투자 나선다이번 펀드는 해외 투자 비중이 최대 20%로 배정됐다. 에이티넘은 원래 해외 투자에 적극적인 VC는 아니었다. 과거 펀드의 해외 투자 비중은 10% 안팎에 그쳤다. 하지만 지난해 싱가포르에 지사를 설립한 것을 시작으로 점차 해외 투자 보폭을 늘려가는 모양새다.싱가포르를 필두로 한 동남아시아 지역에서는 B2C 분야, 미국에서는 바이오와 B2B 분야, 이스라엘에서는 AI 분야 스타트업을 발굴할 계획이다. 또 B2B 서비스형 소프트웨어(SaaS) 시장이 큰 일본에도 주목하고 있다. 김 부사장은 "동남아는 몇 년 전의 한국과 같은데, 버티컬 분야에서 B2C 강자가 막 나오기 시작하는 시점"이라며 "특히 인구가 많은 인도네시아 지역의 B2C 회사에 주목 중"이라고 설명했다.그는 이어 "일본 역시 팬데믹을 겪으면서 정부와 대기업 주도로 산업계의 디지털전환(DX)이 많이 이뤄졌고, SaaS 시장은 한국보다 10배 이상 크다"며 "일본 VC와 LP 네트워크를 통해 출자를 고려하고 있다"고 덧붙였다.회사는 최근 그로스파트너본부를 신설하고 이 조직에 인력을 대거 수혈했다. 수장인 네이버 출신 박상욱 전무를 중심으로 SK하이닉스 출신 미국 변호사 박선영 상무, 컬리 출신 정보영 HR 매니저, 퓨처플레이 출신 구주연 PR 매니저로 조직이 꾸려졌다. 해외 IR을 담당할 인력도 모집하고 있다. 그로스파트너본부를 키우는 건 포트폴리오 회사를 더욱 '밀착 지원'하기 위해서다. 펀드가 커지면서 기업 당 투자액이 늘어났고, 이에 따라 투자를 리드하거나 이사회에 참여하는 경우가 많아지면서 심사역들만이 포트폴리오 사후 관리를 도맡기 어려워졌다. 이 조직이 출범한 이후 회사는 '에이티넘 SaaS데이’, ‘에이티넘 콘텐츠데이’, ‘에이티넘 커머스데이’ 같은 포트폴리오 회사 간 네트워킹 행사를 지속적으로 열고 있다. 액셀러레이터가 아닌 대형 VC에서는 보기 어려웠던 행사다. 김 부사장은 "스타트업들에 투자자가 '밀착 관리' 해준다는 메세지를 던지는 한편 대형 펀드를 통해 확보한 관리 보수를 내부 조직에 투자해 선순환을 이어가겠다는 것"이라고 설명했다.사진=게티이미지뱅크  "빙하기, 눈을 낮춰라"회사는 올해 1000억원 안팎의 투자를 집행했다. 2000억원 이상 투자했던 평년에 비하면 낮은 액수다. 다만 성과는 있다. 지난해 상장한 오픈엣지테크놀로지의 투자금 회수에 성공했고, 상장에 나선 자비스앤빌런즈(삼쩜삼)의 구주도 장외에서 매각에 나섰다. 우주 스타트업 '1호' 상장에 나선 컨텍도 회수를 앞두고 있다. 새로운 펀드가 만들어진 내년엔 활발한 투자를 이어나가겠다는 목표다.김 부사장은 투자 '빙하기'가 이어지는 상황에서 당분간 투자 잣대를 조금 더 엄격하게 들이밀 예정이라고 했다. 그는 "플랫폼 회사는 수익을 낼 수 있는지 사업모델(BM)을 검증하는 데 더 공을 들이고, 당장 수익이 나지 않더라도 시장에서 독점적인 지위를 가질 잠재력이 있는 회사 위주로 투자할 예정"이라며 "이미 시장이 포화된 B2C보다는 B2B 플랫폼을 선호한다"고 말했다.투자 유치를 원하는 창업가에게는 '눈을 낮추라'고 조언했다. 기업가치 등 조건을 파격적으로 낮추더라도 현금을 확보해 생존하는 게 중요하다는 의미다. 그는 "활황기에 인력을 대폭 늘렸던 회사들은 공격적인 구조조정을 하고, 여러 사업부를 가진 회사들은 일부를 정리해 사업 분야에 '선택과 집중'을 하는 게 중요하다"고 조언했다. 그는 향후 인수합병(M&amp;A)이 보다 활발하게 일어날 것으로 내다봤다. 특히 현금을 많이 보유한 대형 스타트업이 동종업계 다른 스타트업을 인수하는 경우가 많아질 것으로 전망했다. 그는 "무신사나 토스, 직방 등 대형 선배 스타트업들이 수익을 내지 못하는 회사들의 좋은 인력을 인수(애퀴하이어)할 수 있을 것"이라며 "스타트업 문화를 잘 이해하는 스타트업일수록 빠른 의사 결정이 가능한 덕분"이라고 했다. 참, 한가지 더김제욱 부사장은 누구?김제욱 에이티넘인베스트먼트 부사장은 서울대에서 지구환경과학을 전공하고 컴퓨터공학 석사 과정을 거쳤다. 대우정보시스템 기술연구소, 삼성전자 종합기술원을 거쳐 2010년 에이티넘인베스트먼트에 합류했다. 김 부사장은 VC업계 '연봉 킹'으로 통한다. 지난해 인센티브를 포함해 연봉 283억원을 챙기며 조수용·여민수 카카오 전 공동대표에 이어 전체 산업계에서 세 번째로 많은 보수를 받았다. 올해도 상반기에만 44억원의 보수를 받았다.김 부사장이 업계 '스타'로 떠오를 수 있었던 건 그의 투자 안목 덕분이다. 그는 2016년 '떡잎' 시절의 두나무를 초기에 알아보고 투자를 단행했다. 이 때 두나무의 기업가치는 500억원가량에 불과했다. 이를 통해 100배 넘는 수익을 올렸다. 또 리디나 직방 같은 유니콘에도 일찌감치 투자금을 넣었다. 클로버추얼패션과 에코마케팅 등도 초기에 알아본 인물이다. 그는 이번 펀드를 통해 대표펀드매니저 데뷔에 나선다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>한국투자증권, 업계 최초 토큰증권 분산원장 인프라 구축</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005579850?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[이데일리 김인경 기자] 한국금융지주(071050)의 자회사 한국투자증권은 업계 최초로 토큰증권 발행 인프라 구축을 완료했다고 21일 밝혔다. 토큰증권은 분산원장 기술(Distributed Ledger Technology)을 활용해 발행된 디지털화된 증권으로,실물증권과 전자증권에 이은 새로운 발행 형태의 증권이다. 부동산은 물론 선박, 항공기 미술품 등 실물로 존재하는 자산의 권리를 손쉽게 유동화해 ‘증권형 디지털자산’로 전환, 조각 투자가 가능해진다. 한국투자증권을 중심으로 카카오뱅크, 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 ‘한국투자ST프렌즈’는 지난 5월 발행 인프라 구축을 최우선 과제로 천명하고 개발에 착수했다. 4개월의 노력 끝에 국내 최초로 토큰증권 발행 및 청산에 필요한 모든 과정을 구현한 인프라를 개발하고 시범 발행까지 완료했다. 특히 한국투자증권은 법제화 단계에 있는 토큰증권 사업 특성을 고려하여 클라우드 시스템을 기반으로 분산원장 인프라를 구현했다. 이를 통해 향후 제도 변화를 탄력적으로 수용하고 시스템 개선에 능동적으로 대처할 수 있도록 만전을 기했다. 또한, 애자일 개발 방식을 채택해 신속한 의사결정과 효율적인 협업을 통해 개발 시간을 크게 단축할 수 있었다.나아가 새로운 발행 인프라가 기존 증권거래 시스템과 충돌 없이 결합하여 유기적으로 작동하도록 연동 작업도 마쳤다. 중앙집중식 계좌부에 기재하는 일반적인 금융시스템과 달리 분산원장에 기재되는 토큰증권의 특성상 이를 효과적으로 연결하기 위해서는 여러 기술적 난제를 해결해야만 했다. 한국투자증권은 두 시스템을 연동하기 위해 그간의 노하우를 바탕으로 새로운 기술을 개발?적용했다. 특히 △스마트계약을 통한 배당 처리 △분산원장 예수금을 활용한 즉각적인 거래 완결성 보장 △개인정보 처리 및 보호 기술 등은 특허 출원까지 진행 중이다. 토큰증권 인프라의 높은 기술력과 시스템 안정성을 입증하여 업계를 선도하는 기술적 우위를 확보해 나간다는 방침이다.최서룡 한국투자증권 플랫폼본부장은 “이번 발행 인프라가 분산원장 기술이 제도권 금융으로 편입되는 과정에서 중요한 변곡점이 될 것으로 기대한다“면서 “투자자의 니즈를 반영한 우량자산 발굴에 힘쓰는 한편, 안정적인 제도 정착과 투자자보호에 노력하여 선도 사업자로서의 위상을 공고히 하겠다”고 말했다. 한편, 한국투자ST프렌즈는 토큰증권 상품의 발행 및 청산 전 과정에서 다양한 필드 테스트를 진행하며 안정성과 기능을 더욱 강화해 나갈 예정이다. 또한, 토큰증권 생태계 구축을 위해 펀더풀, 밸류맵을 비롯한 다양한 카테고리의 콘텐츠 기업들과 협업하여 토큰증권 상품화에도 집중할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>"가끔 이런일 있어요" 중고 휴대폰 사기거래 막은 메시지는?</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004239677?sid=102</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>온라인 커뮤니티 캡처[서울경제] "토스가 또 한 사람 구했다."한 중고 사이트에서 휴대전화 구매를 시도하다 사기를 당할 뻔한 사연이 알려졌다. 특히 상품 금액을 송금하기 직전 토스뱅크에서 '사기 의심 계좌예요'라는 안내창이 떠 사기의심 거래가 중단됐다.17일 한 온라인 커뮤니티에는 '토스가 또 한 사람 구했다'는 제목의 글이 게재됐다. 해당 게시글에는 판매자와 구매자 간의 카카오톡 대화 내용이 포함됐다.대화 내용을 보면 구매자 A 씨는 한 쇼핑 사이트에서 평소 구매하고 싶었던 휴대전화를 주문했다. 얼마 뒤 판매자 B 씨는 "택배 문제가 생겨 당분간 배송이 어렵다. 취소 요청해주면 환불 처리하고 같은 제품을 네이버 중고나라에서 배송해주겠다"는 내용의 메시지를 A 씨에게 알렸다.A 씨는 "똑같은 미개봉 새 제품이 맞느냐"고 확인한 후 B 씨가 안내한 개인 계좌에 송금을 진행했다.하지만 송금을 진행한 토스뱅크 앱에서 '사기 의심 계좌예요'라는 안내창이 떴다. A 씨가 이에 대해 문의하자 B 씨는 "토스가 가끔 이런 일이 있다. 그냥 송금하면 된다"고 설명했다. 찜찜했던 A 씨는 결국 송금을 중단했다.누리꾼들은 "나도 사기당할 뻔 했는데 (토스 덕분에) 안 당했다", "외부 링크 구매유도는 사기 공식이다" 등의 반응을 보였다.한편 토스뱅크는 금융사기 피해고객을 대상으로 '안심 보상제'를 운영하고 있다.토스뱅크에 따르면 2021년 10월부터 지난 6월까지 토스뱅크 고객들이 접수한 금융사기 피해 총 2148건을 대상으로 15억원 상당의 피해가 회복될 수 있도록 도운 것으로 전해진다. 고객들이 겪은 피해는 중고 거래 사기 등에 연루된 부정 송금이 2100건, 보이스피싱이 48건이다.고객들은 보이스피싱 범죄로 토스뱅크 계좌에서 다른 은행으로 송금되는 등의 피해를 보거나 국내 온라인 중고 거래 플랫폼에서 사기를 당한 경우 보상을 신청할 수 있다. 피해 발생 15일 이내에 토스뱅크 고객센터로 접수하면 이후 수사기관 신고 증빙 등의 절차를 거쳐 보상금을 받게 된다.토스뱅크는 고객들이 입은 최초 1회의 피해에 한해, 보이스피싱의 경우 최대 5000만 원을, 중고거래 사기 등 부정송금의 경우 최대 50만 원을 지급하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스뱅크, 2850억 규모 유상증자…1년來 최대</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001234130?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표이사 홍민택)가 유상증자를 통해 2850억 원 규모의 자본금을 확보하게 됐다. 이는 최근 1년 새 가장 큰 규모의 자금 유치다.토스뱅크는 22일 열린 이사회를 통해 주주사들이 유상증자를 결의했다고 밝혔다.이로써 토스뱅크의 총 납입 자본금은 1조 9350억 원으로 늘어난다. 신규 발행 주식은 보통주 약 4384만 주이며 주당 발행가는 6500원이다.토스뱅크의 이번 증자는 지난해 10월 이후 시장의 여러 기업들이 진행한 자본금 확충 가운데 가장 큰 규모다. 글로벌 경기침체, 고금리, 인플레이션 등 삼중고에 처한 시장 상황 속에서 상대적으로 높은 기업가치를 인정받았다는 것이 토스뱅크의 설명이다.780만 고객을 확보한 토스뱅크는 올 7월 흑자를 달성하며 안정적인 수익 모델을 구축해 나가고 있다. 전월세보증금 대출을 새롭게 선보이며 신용대출에서 담보대출로 여신 포트폴리오를 확장했으며 외환 및 아이서비스 등 하반기 라인업도 구축한 상황이다.토스뱅크는 이번 증자를 통해 지속적인 규모의 성장을 이어갈 계획이다. 비바리퍼블리카를 비롯해 이랜드, 하나은행, 알토스벤처스, 홈앤쇼핑, 한국투자캐피탈, 한화투자증권, SC제일은행 등 주주사들의 신뢰와 지원 속에 재무건전성도 한층 강화했다. 유상증자를 마친 토스뱅크는 자기자본비율(BIS)은 약 13%에 이른다. 토스뱅크 관계자는 “다시 한번 차별화된 기업가치를 인정받을 수 있었던 것은 고객들과 주주사의 전폭적인 신뢰가 있었기 때문”이라며 “월 흑자 달성을 기반으로 분기, 연간 흑자 달성 등 흐름을 이어갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>빚 못 갚는 사람 급증…연체율 사상 최고</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001125554?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>고금리가 지속되면서 중·저신용대출 공급을 늘린 인터넷전문은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 건전성에 빨간불이 켜졌다. 빚을 갚지 못하는 대출자가 많아졌기 때문이다.인터넷은행 3사의 신용대출 연체율은 출범 이후 가장 높은 수준까지 뛰었으며, 특히 케이뱅크는 중·저신용대출 연체율이 사상 처음으로 4%를 넘어섰다.인터넷은행들은 지난해보다 대손충당금을 2배 쌓는 등 건전성 관리에 나섰지만, 당분간 높은 금리가 지속될 것으로 보여 취약 차주를 중심으로 부실이 더 터져 나올 수 있다는 우려가 나온다.◇ 8월 말 인터넷은행 신용대출 연체율 1.20%…중·저신용은 2.79%17일 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)가 국회 기획재정위원회 양경숙 의원(더불어민주당)에게 제출한 자료에 따르면, 지난달 말 기준 인터넷은행의 신용대출 연체율은 1.20%를 기록했다.인터넷은행 신용대출 연체율은 3사 신용대출 연체액을 신용대출 잔액으로 나눈 수치다.신용대출 연체율은 지난 2021년 0.3% 수준에서 유지되다가 지난해부터 점차 올라 지난해 6월 말 0.42%, 12월 말 0.77%, 올해 6월 말 1.04%, 8월 말 1.20%까지 상승했다.인터넷은행 3사가 출범한 이후 가장 높은 수준일 뿐 아니라, 1년 만에 약 2배 넘게 뛴 셈이다.국내은행의 지난 6월 말 기준 주택담보대출 제외 가계대출(신용대출 등) 연체율이 0.62%라는 것과 비교해도, 인터넷은행의 신용대출 연체율은 높은 편이다.은행별로는 토스뱅크가 1.58%로 가장 높았고, 케이뱅크가 1.57%, 카카오뱅크가 0.77%로 집계됐다.인터넷은행 3사의 중·저신용대출만 떼어 보면 연체율 증가세는 더 가파르다.지난달 말 기준 3사의 중·저신용대출 연체율은 2.79%로 집계됐다. 2021년 말부터 지난해 상반기까지 0.8%대를 유지했지만, 지난해부터 상승해 올해 6월 말 기준 2.46%를 기록했다. 1년 전(0.84%)과 비교하면 연체율이 2.9배로 뛰었다.은행별로는 케이뱅크가 4.13%로 가장 높았다. 뒤이어 토스뱅크 3.40%, 카카오뱅크 1.68% 순이었다.중·저신용 연체율 역시 각 사 개별로도, 3개 사 합산 기준으로도 역대 최고 수준이다.◇ 기준금리 인상 여파…"중·저신용 대출 많은 인터넷은행 취약"인터넷은행 연체율이 빠르게 오르는 이유는 기본적으로 한국은행의 기준금리 인상 여파가 계속 이어지고 있기 때문이다.한은이 지난 2021년 8월부터 올해 1월까지 기준금리를 10차례에 걸쳐 인상하면서, 연 0.50%였던 기준금리는 현재 3.50%까지 3.00%p(포인트) 높아졌다.한은이 2월부터 기준금리를 동결하기는 했지만, 미국 등 주요국 긴축 장기화 가능성 등을 고려하면 당분간 금리는 높은 수준에서 지속될 전망이다.한은은 지난 14일 국회에 제출한 통화신용정책 보고서에서 "국내 경제 성장세가 점차 개선되는 가운데 물가 상승률이 상당 기간 목표 수준(2%)을 상회할 것으로 전망된다"며 "긴축 기조를 상당 기간 지속할 것"이라고 밝혔다.특히 인터넷은행은 중·저신용대출 비중을 높여야 해 고금리 시기 건전성 관리가 더욱 쉽지 않다.인터넷은행은 '중·저신용 대출 공급'이라는 인가 취지에 따라, 중·저신용대출 비중 목표치 달성을 요구받기 때문이다.인터넷은행의 올해 8월 말 기준 중·저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크 28.4%, 케이뱅크 25.4%, 토스뱅크 35.6%로 집계됐다.3사 모두 연말 목표치(30%, 32%, 44%)에 미달해 하반기 중·저신용대출 비중을 더 끌어올려야 하는 상황이다.금융감독원 관계자는 "금리가 오르면 취약 차주부터 부실이 발생하는데, 통상 금리 인상 뒤 1년 정도의 시차를 두고 연체율이 오른다"고 말했다.이어 "특히 인터넷은행은 중·저신용대출 비중이 상대적으로 커 연체율이 더 오르는 면이 있다"며 "고금리 상황이 지속되면 연체율이 더 상승할 수 있기 때문에 추이를 모니터링하고 있다"고 밝혔다.◇ 올해 인터넷은행 신용대출 중 26%만 중·저신용…손실흡수능력 떨어져인터넷은행들은 연체율이 오르자 건전성 관리를 위해 중·저신용대출 공급을 줄이고, 대손충당금 적립액을 늘리는 추세다.인터넷은행 3사의 중·저신용 신규공급액은 올해 1∼8월 4조748억원으로 집계됐다.지난해 상반기에 4조2천617억원, 하반기에 4조6천274억원 공급한 것과 비교하면 중·저신용대출 신규 공급액이 줄었다.전체 신용대출 신규공급액에서 중·저신용 신규공급액이 차지하는 비중 역시 지난해 상반기 44.1%에서 하반기 34.7%, 올해 1∼8월 26.7%로 축소되는 추세다.인터넷은행 3사가 올해 1∼8월 새로 내준 신용대출 중 27%만 중·저신용대출이었다는 뜻이다.인터넷은행은 올해 상반기 대손충당금 적립액도 1년 전의 2배로 늘렸다.올해 상반기 인터넷은행 3사의 대손충당금 적립액은 3천810억원으로 1년 전(1천928억원)보다 97.6% 늘었다.대손충당금 잔액 역시 지난해 상반기 3천812억원에서 올해 상반기 8천432억원으로 늘었다.인터넷은행들이 충당금 적립액을 늘렸지만, 역부족이라는 지적도 있다.실제로 대손충당금 적립률은 3사 모두 지난해보다 하락했다. 대손충당금 적립률은 대손충당금 잔액을 고정이하여신으로 나눈 비율로, 위기 시 손실흡수능력을 보여주는 지표다.금감원에 따르면 케이뱅크의 지난 6월 말 대손충당금 적립률은 182.4%로 인터넷은행 중 가장 낮았으며, 지난해 6월 말 221.4%보다 37%p 떨어졌다.카카오뱅크(276.4%→229.3%)와 토스뱅크(1,263.7%→227.6%)도 지난해보다 낮아졌다.금감원은 올해 인터넷은행을 포함해 은행권이 충분한 손실흡수능력을 갖출 수 있도록 대손충당금을 더 보수적으로 적립하도록 유도하고 있다.금감원 관계자는 "인터넷은행은 최근 중·저신용대출 연체율 오름세와 불확실성 등을 고려해 충당금을 산정해야 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>‘증시 한파’에 고배당 금융주 인기 外 [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003857177?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>국내 증시가 박스권에 머물면서 연말 높은 배당을 노린 금융주에 수급이 쏠리고 있다. 고금리 상황이 이어지며 올해도 은행 등 금융권의 호실적이 예상되고, 이복현 금융감독원장이 최근 배당 정책에 간섭하지 않겠다는 입장을 밝히면서 투자 열기가 더욱 뜨거워졌다는 분석이다.     세계일보는 20일자 지면에서 이와 함께 상승하는 신용대출 연체율, 지지부진한 보험업법 개정안 등의 내용을 다뤘다.        19일 코스피가 이틀 연속 하락세로 장을 마감했다. 이날 코스피는 전장보다 15.51포인트(0.60%) 하락한 2559.21, 코스닥지수도 전장보다 7.40포인트(0.83%) 내린 883.89로 거래를 종료했다. 사진은 이날 오후 서울 중구 하나은행 딜링룸. 연합뉴스    ◆高 배당 금융주, 박스권 증시서 인기     한국거래소에 따르면 지난 1일부터 19일까지 KRX 업종지수 중 가장 높은 상승률을 보인 것은 KRX보험 지수로 10.82% 상승했다. 이어 KRX300금융(4.78%), KRX은행(4.26%) 순으로 금융권 지수가 나란히 상위 1~3위를 차지했다.     개별 주식으로 봐도 금융주들은 최근 높은 상승률을 보였다. 이달 롯데손해보험은 이날까지 75.82% 상승했고 한화생명(21.07%), 미래에셋생명(14.61%), DB손해보험(13.34), 흥국화재(12.88%) 등의 주가도 급등했다. 하나금융지주(9.36%), 신한지주(5.06%), 우리금융지주(4.87%), KB금융(3.88%) 등 4대 금융지주 주가도 나란히 상승했다.     이 같은 주가 상승은 외국인과 기관이 이끌었다는 분석이다. 이달 외인은 이날까지 우리금융지주를 551억원, 하나금융지주를 459억원, 신한지주를 238억원 각각 순매수했다. 기관은 KB금융을 722억원, 신한지주를 339억원, 하나금융지주를 429억원 각각 순매수했다.     전통적으로 증시 상황이 좋지 않을 때 4분기쯤부터 배당주에 투자가 몰리는 현상이 나타났다. 올해는 다른 때보다 이른 시점에 배당주 쏠림현상이 나타났다는 분석이 나온다. 특히 올해 초 ‘은행권 돈 잔치’를 지적해 온 금융당국이 최근 배당 정책 간섭 자제를 암시한 점이 외인과 기관의 금융권 투자심리에 영향을 미친 것으로 보인다.      증권가는 올해 고금리 기조가 이어지면서 금융권은 높은 실적을 거둘 것으로 전망하고 있다. 이에 따라 배당수익도 여느 때보다 높아질 것으로 봤다. 대신증권은 올해 예상 배당수익률을 우리금융지주 9.9%, 하나금융지주 8.8%, KB금융 6.3%, 신한지주 5.8%로 각각 추정했다. 삼성화재와 DB손해보험은 각각 6.2%, 6.3% 배당수익률을 예상했고 현대해상도 수익 개선으로 7.3% 배당수익률을 기록할 것이라고 내다봤다.       ◆신용대출 연체율 상승세     금융감독원이 발표한 7월 말 기준 국내은행 원화 대출 연체율(1개월 이상 원리금 연체 기준)은 0.39%로 집계됐다. 6월 말과 비교하면 0.04%포인트 상승했다. 기업대출 연체율은 7월에 0.41%로 전월 대비 0.04%포인트, 가계대출 연체율은 전월 말(0.33%)보다 0.03%포인트 상승한 0.36%로 집계됐다.      최근 금융감독 당국에서 관심을 보였던 주택담보대출(주담대) 연체율은 전월 대비 0.01%포인트 오른 0.23%로 나타났다. 대신 주담대를 제외한 신용대출 등 가계대출은 0.09%포인트 오른 0.71%를 기록했다. 금감원은 “7월 말 연체율은 6월 말 대비 상승했지만, 신규 연체율은 상반기와 유사한 수준으로 (상승 원인은) 분기 말에 은행의 연체·부실채권 상·매각이 집중되는 데 주로 기인했다”며 “다만 글로벌 경제 여건 등을 고려했을 때 연체율 상승 가능성이 있어 취약 부문 관리를 강화할 예정”이라고 밝혔다.      인터넷은행에서도 신용대출 연체율이 상승세다. 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사가 양경숙 더불어민주당 의원실에 제출한 자료에 따르면 8월 말 기준 인터넷은행의 신용대출 연체율은 1.20%였다. 인터넷은행 3사의 신용대출 연체율은 지난해 6월 말 0.42%, 12월 말 0.77%, 올해 6월 말 1.04%에 이어 지난달 말 1.20%까지 뛰었다. 이는 인터넷은행 3사 출범 이후 가장 높은 수준이다.     ◆‘실손보험 청구 간소화법’ 또 불발     보험업계와 국회 등에 따르면 국회 법제사법위원회는 지난 18일 회의에서 ‘실손보험 청구 간소화법’으로 불리는 보험업법 일부개정법률안을 재논의하려 했으나 검찰의 이재명 더불어민주당 대표 구속영장 청구 등으로 민주당 의원들이 국회 상임위원회 회의 보이콧(거부)에 나서면서 불발됐다.      이 개정안은 실손보험의 보험금 청구를 위한 전산시스템을 구축·운영하도록 하고 가입자 요청에 따라 관련 서류를 보험사에 전자적으로 전송하도록 하는 등의 내용을 담고 있다. 그동안 실손보험 청구를 위해선 보험 가입자가 직접 병원이나 약국을 방문해 서류를 발급받고 이를 보험사에 제출하는 등의 과정이 필요했으나 이를 간소화한 것이다.     실손보험 청구 간소화 논의는 2009년 국민권익위원회의 실손보험 청구 절차 개선 권고 이후 본격화했지만, 의료계에서 환자 개인정보 유출 우려 등이 제기돼 14년째 국회 문턱을 넘어서지 못했다. 그러나 최근 입법 논의가 활발해지면서 지난 6월 개정안이 국회 정무위원회를 통과했다.     보험업계는 전날 개정안이 법사위를 통과하고 이달 내 본회의에서 처리되기를 기대했지만, 법사위 파행으로 개정안의 연내 처리가 불투명해졌다. 다음달에는 국정감사가 예정돼 있고, 이후 정치권의 내년 총선 준비가 본격화하면 개정안 처리가 뒷전으로 밀릴 수 있기 때문이다.     한편 실손보험 가입자 중에선 청구 과정이 번거로워 일부 금액을 청구하지 않는 사례가 잦은 상황이다. 국민의힘 윤창현 의원실이 건강보험공단과 보험사 통계를 활용해 분석한 자료에 따르면 2021년과 지난해 보험소비자들이 청구하지 않은 실손보험금은 각각 약 2559억원, 2512억원으로 추정된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스뱅크, 외국인등록증 진위확인 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000933038?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>토스뱅크는 금융결제원의 외국인등록증 진위확인 서비스를 도입했다고 밝혔다. /토스뱅크 제공        토스뱅크는 금융결제원의 ‘외국인등록증 진위확인 서비스’를 도입했다고 18일 밝혔다.토스뱅크는 외국인 고객이 토스뱅크 계좌를 개설할 시 금융결제원과 법무부가 구축한 전용라인을 통해 실시간으로 외국인등록증 진위확인을 할 수 있게 됐다. 진위확인 서비스는 외국인등록증(신분증)의 사진 특징점까지 추출하여 법무부 데이터베이스(DB) 사진과 유사도까지 검증한다. 기존 공공마이데이터를 활용하는 방식에 금융결제원의 진위확인 서비스까지 더해져 외국인 고객의 신원에 대하여 정확하게 확인할 수 있게 됐다.토스뱅크는 지난해 5월 인터넷전문은행 최초로 국내 거주 외국인 고객 대상으로 비대면 뱅킹서비스를 제공하기 시작했다. 법무부 통계에 따르면 국내 체류 외국인 수는 22년 말 기준 약 225만명에 달한다. 하지만 그동안 외국인 고객의 경우 은행 영업점을 방문해야만 첫 계좌 개설이 가능해 불편함을 겪어야 했다. 토스뱅크는 인터넷전문은행 최초로 이를 가장 먼저 해결했다.계좌를 개설한 외국인 고객들은 토스뱅크의 내국인 고객과 차별없이 비대면 뱅킹서비스를 이용할 수 있다. 조건 없이 2%(세전)의 금리를 제공하는 토스뱅크 통장과 지금 이자받기 서비스를 이용할 수 있다. 이외에도 대출 서비스를 제외한 예적금 상품은 물론 모임통장과 언제 어디서나 사용해도 캐시백 혜택을 받을 수 있는 체크카드 사용에도 제약이 없으며 송금과 ATM 입출금 등 각종 수수료 무료 정책도 같다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>한국투자證 "토큰증권 분산원장 인프라 구축 완료"</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001126205?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>한국투자증권 토큰증권 협의체 '한국투자ST프렌즈, 발행 인프라 구축"우량자산 발굴, 제도 정착과 투자자보호 노력하겠다"한국투자증권이 토큰증권 발행 인프라 구축을 완료했다고 21일 밝혔다.한국투자증권을 중심으로 카카오뱅크, 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 '한국투자ST프렌즈'는 지난 5월 발행 인프라 구축을 최우선 과제로 천명하고 개발에 착수했으며, 현재 인프라를 개발하고 시범 발행까지 마쳤다는 설명이다.토큰증권은 분산원장 기술(Distributed Ledger Technology)을 활용해 발행된 디지털화된 증권으로,실물증권과 전자증권에 이은 새로운 발행 형태의 증권이다.업계에 따르면 부동산, 선박, 항공기 미술품 등 실물로 존재하는 자산의 권리를 유동화해 '증권형 디지털자산'로 전환, 조각 투자가 가능해진다.특히 한국투자증권은 법제화 단계에 있는 토큰증권 사업 특성을 고려하여 클라우드 시스템을 기반으로 분산원장 인프라를 구현했다고 설명했다.이를 통해 향후 제도 변화를 탄력적으로 수용하고 시스템 개선에 능동적으로 대처할 수 있도록 했으며, 애자일 개발 방식을 채택해 신속한 의사결정과 효율적인 협업을 통해 개발 시간을 크게 단축할 수 있었다고 전했다.또한 한국투자증권은 새로운 발행 인프라가 기존 증권거래 시스템과 충돌 없이 결합하여 유기적으로 작동하도록 연동 작업도 마쳤으며, 스마트계약을 통한 배당 처리와 분산원장 예수금을 활용한 즉각적인 거래 완결성 보장, 개인정보 처리 및 보호 기술 등은 특허 출원까지 진행 중이라고 설명했다.최서룡 한국투자증권 플랫폼본부장은 "이번 발행 인프라가 분산원장 기술이 제도권 금융으로 편입되는 과정에서 중요한 변곡점이 될 것으로 기대한다"며 "투자자의 니즈를 반영한 우량자산 발굴에 힘쓰는 한편, 안정적인 제도 정착과 투자자보호에 노력하여 선도 사업자로서의 위상을 공고히 하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>[책]벌고 쓰고 나누어라…만화경 속 돈의 풍경</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005584786?sid=103</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>우리에겐 더 많은 돈이 필요하다토스 기획｜312쪽｜웨일북[이데일리 장병호 기자] “짧게나마 나 또한 상상했으리라. 내가 아닌 내 돈이 돈을 벌어 오는 삶. 다만 파티는 끝물이었고, 파트너는 사기꾼이었다.” (‘님아, 그 코인을 사지 마오’ 중)“덕질을 하지 않았더라면 두 평 정도 더 넓은 곳에서 살 수 있지 않았을까 생각하기도 했다. 길었던 ‘과몰입 오타쿠’라는 챕터가 막을 내리고, 이제는 취미 생활로 아이돌을 사랑하는, 능동적이고 독립적인 행복의 방법을 배워 가고 있다.” (‘케이팝 성공의 주역’ 중)돈을 향한 욕망을 솔직하게 담은 이야기 16편이 한 권의 책으로 엮였다. 금융 앱 토스가 ‘모든 돈 이야기는 쓰일 가치가 있다’는 슬로건 아래  공모한 ‘제1회 토스 머니스토리 드래프트’(DRAFT) 당선작들이다. 100대 1의 경쟁률을 뚫고 선정된 이야기들은 극한의 자본주의를 살아가는 사람들이 돈을 벌고, 쓰고, 불리고, 때로는 기꺼이 나누는 다채로운 풍경을 세밀화처럼 담고 있다.단편소설 같은 흥미로운 이야기가 가득하다. 돌려받지 못할 경조사비에 분노한 나머지 축의금 회수에 나선 비혼주의자, 밤마다 재벌집 카운슬러로 이중생활을 하는 금융사 과장, 비극으로 기록된 루나 코인 폭락 사태에서 살아남은 생존자 등의 이야기가 생생하게 펼쳐진다. 마지막에 실린 ‘나눔’에 관한 이야기는 일반적인 기부나 봉사를 넘어 어떻게 나누며 살아야 하는지에 대한 인생의 태도를 반추하게 한다.부동산을 사기당하는 거대한 아픔 앞에서도 ‘눈물의 짬뽕밥’을 먹으며 허기를 채우고, 2000만원이라는 큰 손해에도 다음날 기어이 출근하고야 마는 끈질긴 생존본능이 인상적이다. 냉정한 자본주의 속에서 실패하고 넘어지는 이들에게 희망과 용기를 전한다. 돈이 행복으로 이어질 수밖에 없는 자본주의의 현실 반영이기도 하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>GS25, 추석 연휴에도 '반값택배' 운영..."업계 유일"</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004941133?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>GS25 이번 추석 연휴 기간에도 '반값택배'를 운영한다. 반값택배는 고객이 GS25 점포에서 택배를 접수하고 수령자가 GS25 점포에서 찾아가는 택배 서비스다. 접수, 배송, 수령까지 모든 서비스가 GS25의 물류배송망 및 자체 인프라를 통해 이뤄진다. 업계에선 유일하게 일요일을 포함한 명절, 휴일에도 접수부터 배송까지 365일 24시간, 연중무휴로 운영된다.올해는 평년보다 긴 추석 연휴로 인해 25일부터 다음달 3일까지 일반 택배 서비스가 장시간 휴무 기간을 갖는다. 이로 인해 GS25는 뒤늦은 선물을 보내거나 중고거래 등 연휴기간 택배 이용이 가능한 반값택배가 올해 더 크게 증가할 것으로 예상하고 있다.GS25는 추석 연휴 반값택배 이용 고객들을 위해 25일부터 다음달 9일까지 토스 앱에서 반값택배 접수 시 300원 할인되는 이벤트를 진행한다. 할인 적용 시 고객들은 최대 1500원에서 2300원으로 택배 서비스를 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>'국내 1위 코인거래소' 업비트서 가짜코인 거래</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005191762?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>국내 최대 가상자산 거래소 업비트에서 가짜 가상자산이 진짜 가상자산으로 잘못 인식된 사건이 발생했다. 업비트는 해당 가상자산에 대한 입출금을 일시 중단하고 자금 회수에 나섰다. 25일 가상자산업계에 따르면 지난 24일 불특정 계좌에서 가상자산 앱토스(APT)를 가장한 가짜 코인이 다수의 업비트 계좌로 입금돼 진짜 코인으로 인식되는 일이 발생했다.업계에 따르면 특정 사용자가 앱토스 네트워크를 기반으로 가상자산을 발행해 다수에게 뿌렸다. 그중 업비트 가상자산 지갑으로도 해당 가상자산이 송금됐다.통상 가상자산 거래소는 고객 명의의 가상자산 지갑으로 들어온 코인을 전산상 고객 잔액에 기입한다. 업비트는 이 과정에서 가짜 코인과 앱토스를 구분하지 못하고 모두 앱토스로 기입했다. 가상자산 거래소에서 이뤄지는 거래는 장부상 거래다. 블록체인을 활용하지 않는다. [최근도 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>정일문 한투 사장 "DCM·IPO 이어 유상증자까지 1위할 것"</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007066957?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>한국투자증권 채용설명회 참석해 강연정일문 한국투자증권 대표이사 사장.2023.9.21/뉴스1 ⓒ News1 이기림 기자(서울=뉴스1) 이기림 기자 = 정일문 한국투자증권 대표이사 사장이 기업금융(IB) 부문에서 채권발행시장(DCM), 기업공개(IPO)에 이어 유상증자 주관 순위까지 1등을 할 것으로 전망했다.정일문 사장은 21일 오후 서울 성동구 한양대학교에서 열린 'CEO와 함께하는 한국투자증권 채용설명회'에 참석해 "DCM, IPO는 (한국투자증권이) 업계 1위이고, 얼마 전에 끝난 CJ CGV, SK이노베이션에 11월 한화오션 건까지 마치면 유상증자에서도 아마 1등을 할 것"이라며 이같이 밝혔다.정 사장은 "토큰증권발행(STO) 시장도 빨리 자리 잡아서 돈 버는 파트가 되면 좋겠는데, 그러기 위해서는 네트워크가 중요하다고 생각해 카카오뱅크, 토스뱅크와 손잡고 토큰증권협의체 '한국투자ST프렌즈'를 꾸렸다"며 "업계 최초로 토큰증권 발행 인프라 구축도 완료했는데, 이처럼 네트워크를 꾸려놓으면 백화점, 마트처럼 좋은 걸 입점시키고자 한다"고 말했다.그는 글로벌화, 디지털화, 리스크 관리의 중요성에 대해서도 강조했다. 정 사장은 "대한민국은 성장에 한계를 느끼고 있는데, 언제까지고 금융사가 내수기업에 머무를 수 없다고 본다"며 "금융도 수출기업이 돼야 하고, 디지털을 통한 우리의 도구를 활성화해야 하며, 고객의 자산을 운용하고 투자를 대행하는 우리인 만큼 리스크 관리가 중요하다"고 밝혔다.한국투자증권은 그 일환으로 지난해 미국종합금융회사 스티펄과 함께 인수금융과 사모 대출을 전문으로 하는 합작사(JV)를 설립하기도 했다. 더불어 지난해부터 위기를 겪고 있는 부동산 프로젝트파이낸싱(PF) 관련한 사업에 대해서도 계속 관심을 가지고 기회을 잡을 계획이라고 설명했다.정 사장은 "PF는 금융기관이 가장 머리 아파 하는 파트이긴 하지만 여전히 수익은 나고 있다"며 "과거처럼 높은 수익만 보는 게 아니라 그 자산과 함께 취할 수 있는 게 있다면 그 부분을 찾아가는 게 PF이고, 투자형태는 바뀌게 될 것"이라고 말했다.그러면서 "한국투자증권이 자랑할 수 있는 건 위험자산이 발생할 것 같다고 예상하면 선제적으로 충당금을 가장 먼저, 많이 쌓는 회사라는 것"이라고 강조했다.또한 정 사장은 한국투자증권 신입사원에게 필요한 능력을 '소통 능력'이라고 평가했다. 개개인의 능력도 중요하지만 여럿이 모여 시너지를 내는 게 가장 중요하다는 것이다. 그는 "돈을 못 버는 회사도 시장에서 가치를 가지고 거래가 되지 않나"라며 "가장 근본적인 건 그 회사를 통해 얼마나 많이 연결되고, 소통되는지, 시너지를 내는지로, 우리 회사에 올 때 소통할 수 있는 준비를 많이 해오면 좋겠다"고 밝혔다.특히 1988년 한국투자증권에 공채로 입사한 그가 30여년간 증권사에서 일할 수 있던 이유로 '자금의 선순환뿐만 아니라 같이 일하는 사람들에게 행복을 선사하는 일을 한다'는 경험을 겪었기 때문이라고 설명했다.정 사장은 "대리 시절 반도체 장비 업체 중 하나를 상장시켰는데, 공장라인에서 교대하는 직원들에게 찾아가 IPO가 뭔지, 우리사주가 뭔지 설명했다"며 "그런데 액면 500원짜리 회사 주식이 당시 17만원이 넘게 됐고, 직원분에게 연락이 와서 집들이에 초대해 천안까지 내려간 적이 있다"고 말했다.그는 "손오공이 구름타고 가는 기분이 이런 거겠구나, 내가 하는 일이 단순히 기업에 자금을 대서 기업만 잘하게 하는 선순환이 아니라 같이 일하는 사람들도 그 열매를 공유하게끔 하는 윤활유 역할을 했구나 생각했다"며 "행복감을 누리기 위해 더 열심히 일해야겠다는 생각이 들었다"고 밝혔다.한편 한국투자증권이 지난 12일부터 시작한 'CEO와 함께하는 채용설명회'는 이날로 마무리됐다. 이날 설명회가 열린 대회의실에는 300명의 대학생 및 취업준비생으로 가득찼다. 한국투자증권은 10월4일까지 신입사원 일반 공채 서류전형을 진행할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>토스페이, 中 알리페이플러스 가맹점 오프라인 결제 지원</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000933705?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>토스의 간편결제 서비스 토스페이는 중국 알리페이플러스(Alipay+) 가맹점 오프라인 결제를 지원한다고 20일 밝혔다. 토스페이 이용자는 중국 내 알리페이플러스 로고 또는 토스페이 로고가 있는 오프라인 매장에서 토스 앱으로 간편결제를 이용할 수 있다.결제는 토스 애플리케이션(앱)에 있는 바코드 또는 QR코드를 활용한다. 토스 앱 하단 세 번째에 위치한 ‘토스페이’ 탭의 오른쪽 위 바코드 아이콘을 클릭해 ‘해외’ 탭을 누르거나, 전체 메뉴에서 ‘현장결제’ 메뉴를 검색해 ‘해외’ 탭을 클릭하거나, 해외에서 토스 앱 홈 화면 오른쪽 상단에 나타나는 QR 아이콘을 클릭해 사용할 수 있다. 결제를 진행하면 토스페이에 연결해 둔 계좌에서 결제 금액만큼 원화로 출금된다.토스 관계자는 “중국을 시작으로 토스페이 해외 현장 결제 가능 국가를 점차 늘려갈 예정”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>토스뱅크, 햇살론뱅크 1151억 공급</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012103908?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 햇살론뱅크 출시 한 달 만에 약 1만5000명의 중저신용자와 저소득층 고객에게 1151억원을 공급하며 신용도 개선과 은행권 안착을 지원했다고 21일 밝혔다.토스뱅크에 따르면 햇살론뱅크 고객 97.8%는 중저신용자로 집계됐다. 햇살론뱅크를 이용한 차주의 연간소득 분포는 2500만원 미만 45.6%, 2500만~3500만원 37.7% 등 연소득 3500만원 이하가 83.3%를 차지했다. 연령별로는 20대 14.3%, 30대 28.0%, 40대 28.9%, 50대 이상 28.8%다. 햇살론뱅크의 한도는 최소 500만원 최대 2500만원이다. 서민금융진흥원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년이다. 거치기간 1년이 선택 가능하고, 상환방법은 원리금균등분할상환이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>라이프시맨틱스, 토스 출신 김보람 최고제품책임자 영입</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000950249?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>라이프시맨틱스가 토스 출신 김보람 최고제품책임자(CPO)를 영입해 서비스 전문조직을 강화한다. /사진=라이프시맨틱스 디지털 헬스케어 기업 라이프시맨틱스가 금융 앱 토스 운영사인 비바리퍼블리카에서 일한 김보람 전 프로덕트 리더를 영입했다.라이프시맨틱스는 김 전 리더를 최고제품책임자(CPO)로 영입했다고 21일 밝혔다. 김 CPO는 모바일 식권 앱 '식권대장' 운영사 벤디스의 제품개발실장, 부동산 조각 투자 플랫폼 기업 카사코리아의 CPO 등으로도 일했다.김 CPO는 기존 서비스사업부문이 ISS(인터넷 소프트웨어·서비스)부문으로 개편된 조직을 맡는다고 설명했다. 라이프시맨틱스의 디지털 헬스케어 각 영역을 통합·정비해 고객친화적 서비스를 선보이며 ISS부문을 서비스 전문조직으로 이끌어야 하는 과제를 안게 됐다.김 CPO는 서울대학교 의료정보학 박사를 수료한 이후 서울대학교병원에서 고객건강기록(PHR)을 연구하는 CoPHR 프로젝트를 이끌고 소비자 중심의 헬스케어를 알리기 위한 헬스2.0 서울 챕터를 창립하는 등 디지털 헬스케어산업에 대한 통찰력도 높은 것으로 알려졌다.라이프시맨틱스는 국내 첫 상용화 PHR 플랫폼 라이프레코드(LifeRecord)를 기반으로 삼성생명, KB손해보험, 한화생명보험, LH 등 다양한 기업들과 협업하고 있다. 정부가 지원하는 닥터앤서2.0 사업과 공공기관과 업무협약 체결 등을 통해 B2G(기업과 정부 사이) 사업에도 지속 참여하고 있다. 김 CPO는 "디지털 헬스케어는 국민의 건강과 밀접하게 연결되어 있어 고객이 편리하게 활용할 수 있는 기반을 갖추는 것이 필요하다"며 "라이프시맨틱스의 주요 사업이 소비자에게 더 가까워질 수 있도록 대국민 서비스를 구현할 것"이라고 말했다.송승재 라이프시맨틱스 대표는 "김 CPO는 핀테크 분야에서 대중적 서비스를 이끌어온 기술 및 규제산업 전문가"라며 "김CPO를 필두로 라이프시맨틱스의 디지털헬스케어 서비스 혁신을 이뤄 소비자에게 한 걸음 더 다가갈 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[2023 산업비전 포럼] 행사를 빛내주신 분들</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002751186?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>데일리안 창간 19주년 2023 글로벌 산업비전포럼이20일 오전 서울 여의도 CCMM빌딩 컨벤션홀에서 열리고 있다. ⓒ데일리안 방규현 기자[데일리안 = 오수진 기자] 데일리안이 20일 서울 여의도 CCMM빌딩에서 ‘인공지능(AI)을 두려워 말라’라는 주제로 개최한 '2023 산업비전포럼'이 성황리에 마무리됐다.이날 포럼에는 김진표 국회의장, 김기현 국민의힘 대표, 박성중 국민의힘 국회의원(과방위 간사), 곽수진 한국자동차연구원 부문장, 정병익 Nerdystar PD, 이활석 업스테이지 CTO, 김명신 LG AI연구원 정책수석 등 500여명이 참석했다.다음은 포럼에 참석해 축하해주신 분들. (성명 가나다 순)▲감동훈 롯데칠성음료 상무 ▲강승수 한국투자신탁운용 실장 ▲강신구 LG유플러스 실장 ▲강지선 아모레퍼시픽 부장 ▲경종욱 애경산업 팀장 ▲고동완 신한은행 팀장 ▲고인수 HD현대오일뱅크 상무 ▲곽보연 우아한형제들 매니저 ▲곽용섭 KG모빌리티 실장 ▲구자근 국민의힘 당대표비서실장 ▲구자효 매일유업 팀장 ▲권혁민 한경협 팀장 ▲김경수 Sh수협은행 팀장 ▲김경준 우리카드 실장 ▲김경환 ㈜LG 상무 ▲김광재 신한금융그룹 본부장 ▲김광택 넥슨 이사 ▲김근교 업스테이지 이사 ▲김기현 빙그레 상무 ▲김기현 국민의힘 대표 ▲김대식 롯데카드 팀장 ▲김대용 신영 이사 ▲김동욱 서울우유 팀장 ▲김동원 전자랜드 그룹장 ▲김동환 한국수출입은행 팀장 ▲김민 코리안리재보험 팀장 ▲김민석 마스턴투자운용 팀장 ▲김병도 SK이노베이션 부장 ▲김병영 상장회사협의회 팀장 ▲김상우 이지스자산운용 부장 ▲김석준 미래에셋생명 팀장 ▲김성준 우리자산운용 본부장 ▲김성홍 에코프로 전무 ▲김성훈 ibk투자증권 대리 ▲김세민 쿠팡 팀장 ▲김세훈 삼성전자 상무 ▲김소정 티몬 실장 ▲김소희 녹십자홀딩스 차장 ▲김시재 이마트24 팀장 ▲김영롱 우리자산운용 팀장 ▲김영진 동국제강 부장 ▲김예령 국민의힘 대변인 ▲김예원 카카오뱅크 매니저 ▲김용건 대한전선 대리 ▲김원 삼성생명 프로 ▲김원삼 AK홀딩스 부장 ▲김은미 엔씨소프트 팀장 ▲김용준 HY 팀장 ▲김익중 우리금융그룹 부장 ▲김인철 삼성전자 부장 ▲김일권 KT스카이라이프 팀장 ▲김종선 페퍼저축은행 이사 ▲김종술 한화투자증권 실장 ▲김준석 골든블루 과장 ▲김준영 현대백화점 상무 ▲김진영 KB금융그룹 전무 ▲김태경 IBK기업은행 부장 ▲김태영 제주항공 팀장 ▲김태현 삼성SDS 그룹장 ▲김현수 고팍스 팀장 ▲김형철 CJ그룹 상무 ▲김홍태 스마일게이트 팀장 ▲김희경 위메이드 대리 ▲남현준 빗썸 과장 ▲노승수 홈플러스 팀장 ▲노종갑 KB증권 상무 ▲두광훈 NH농협카드 과장 ▲류종석 생명보험협회 팀장 ▲류지훈 신한라이프생명 파트장 ▲문춘근 한국투자증권 상무 ▲민승기 크래프톤 실장 ▲박민순 동아쏘시오홀딩스 선임연구위원 ▲박상래 GS리테일 팀장 ▲박상우 시몬스 이사 ▲박성수 하나금융그룹 과장 ▲박성우 NH농협생명 팀장 ▲박성우 컬리 실장 ▲박성중 국회 과학기술정보방송통신위원회 간사 ▲박영빈 롯데면세점 팀장 ▲박은규 현대건설 팀장 ▲박장우 한화 상무 ▲박종문 삼성전기 상무 ▲박준수 HD현대중공업 상무 ▲박준석 신한자산운용 팀장 ▲박준호 DB금융투자 부장 ▲박지원 KT&amp;G 팀장 ▲박지환 교보생명 차장 ▲박진규 KCC 프로 ▲박진영 KB금융그룹 부장 ▲박진위 두산 상무 ▲박창옥 은행연합회 상무 ▲ 박천탁 현대제철 팀장 ▲박철환 LG유플러스 팀장 ▲박한성 상장회사협의회 과장 ▲박효상 삼성SDI 부사장 ▲박해호 르노코리아자동차 디렉터 ▲방지연 LF 팀장 ▲배성범 업스테이지 매니저 ▲백동윤 마스턴투자운용 대리 ▲백승헌 한샘 과장 ▲백창훈 하나증권 부장 ▲백현지 토스증권 매니저 ▲변웅준 대웅제약 팀장 ▲서충교 삼성디스플레이 프로 ▲설샛별 카카오뱅크 팀장 ▲설성헌 코오롱 상무 ▲성동일 NH농협손해보험 부장 ▲성혜정 키움증권 이사 ▲성환두 LG에너지솔루션 전무 ▲소재현 동아쏘시오홀딩스 책임 ▲손현진 토스뱅크 매니저 ▲송민규 야놀자 실장 ▲송수지 카카오페이 부장 ▲송지원 아시아나항공 과장 ▲송치호 한양증권 이사 ▲신민호 우미건설 부장 ▲신우현 KB국민카드 부장 ▲신은경 올리브영 부장 ▲신재선 NH농협금융 차장 ▲안민구 한화생명 파트장 ▲안영 위메이드 부실장 ▲안욱현 한화오션 수석부장 ▲안주연 신세계면세점 팀장 ▲안준식 신한금융그룹 부사장 ▲안현철 스타벅스코리아 팀장 ▲양갑열 유안타증권 팀장 ▲양성욱 SK온 부사장 ▲양승익 kb자산운용 상무 ▲양아주 코오롱FnC 팀장 ▲엄호천 미래에셋증권 실장 ▲여천환 DL이앤씨 부장 ▲엄호천 미래에셋증권 실장 ▲엄주성 키움증권 부사장 ▲염상혁 롯데케미칼 팀장 ▲오동준 SK텔레콤 부장 ▲오승용 한화 차장 ▲오승환 여신금융협회 부장 ▲우병민 LG화학 팀장 ▲유병욱 KT스카이라이프 사원 ▲유분재 KB금융그룹 팀장 ▲유상근 현대차증권 책임매니저 ▲유승윤 한국GM 팀장 ▲유억권 BGF리테일 팀장 ▲유영진 컴투스 실장 ▲유용욱 한화솔루션 프로 ▲유재승 SK E&amp;S 매니저 ▲유제우 NH농협은행 부장 ▲유한빛 올리브영 부장 ▲윤숭상 다올투자증권 이사 ▲윤성학 농심 팀장 ▲윤성호 IBK기업은행 팀장 ▲윤지윤 카카오 매니저 ▲윤태림 대신증권 이사 ▲윤현호 오리온 이사 ▲이건 NH아문디자산운용 차장 ▲이기훈 현대자동차 부장 ▲이동건 은행연합회 팀장 ▲이동훈 HDC현대산업개발 팀장 ▲이병상 삼성중공업 부장 ▲이상민 신세계그룹 부장 ▲이상윤 한경협 상무 ▲이상훈 저축은행중앙회 실장 ▲이석춘 호텔신라 차장 ▲이성욱 GS건설 팀장 ▲이성웅 코스맥스 대리 ▲이성태 SK하이닉스 팀장 ▲이소희 동양생명 책임 ▲이소희 하나투어 수석 ▲이승연 신한금융그룹 부장 ▲이연호 메리츠증권 차장 ▲이영호 현대건설 상무 ▲이용욱 현대카드 팀장 ▲이용재 푸드나무 팀장 ▲이용혁 메리츠화재 상무 ▲이운주 SBI저축은행 파트장 ▲이웅노 손해보험협회 팀장 ▲이윤근 카카오페이 부사장 ▲이은주 야놀자 매니저 ▲이응창 이베스트투자증권 팀장 ▲이재원 아시아나항공 팀장 ▲이재훈 케이뱅크 매니저 ▲이정민 DB 차장 ▲이정철 OCI 파트장 ▲이정현 한국수출입은행 실장 ▲이정호 KT 팀장 ▲이준 DB손해보험 부장 ▲이준택 SPC 상무 ▲이지환 SK매직 차장 ▲이진숙 동아오츠카 상무 ▲이현지 NH농협카드 대리 ▲이혜리 SKC 매니저 ▲이호선 크래프톤 팀장 ▲임선규 다이소 팀장 ▲임원기 카카오 전무 ▲임지현 카카오게임즈 부사장 ▲임철순 NH투자증권 이사 ▲장은령 휴셀 팀장 ▲장재경 대우건설 팀장 ▲장정남 BNK경남은행 팀장 ▲장정훈 LG전자 상무 ▲장철민 우리금융그룹 차장 ▲장한이 풀무원 팀장 ▲장혁 한화건설 팀장 ▲전동준 포스코이앤씨 부장 ▲전배찬 신한라이프생명 차장 ▲전수배 오비맥주 부장 ▲전인수 KB국민은행 부장 ▲전효순 11번가 팀장 ▲정경열 SK에코플랜트 팀장 ▲정대근 신한카드 팀장 ▲정순녕 한화자산운용 파트장 ▲정세엽 코웨이 차장 ▲정승한 롯데케미칼 언론파트장 ▲정주희 카카오페이 팀장 ▲정주희 카카오페이 팀장 ▲정진해 BHC 과장 ▲정찬호 우리금융그룹 본부장 ▲정참 이랜드그룹 팀장 ▲조계용 현대모비스 팀장 ▲조규정 금호석유화학 상무 ▲조백래 롯데바이로직스 팀장 ▲조상아 시몬스 과장 ▲조성현 하이투자증권 부장 ▲조시연 웰컴저축은행 팀장 ▲조제영 삼성증권 이사 ▲조준섭 교보증권 실장 ▲주형욱 포스코 리더 ▲진현정 금융투자협회 팀장 ▲진현정 KB라이프생명 책임매니저 ▲창승우 삼성SDI 그룹장 ▲채민수 CJ그룹 부장 ▲최두진 BBQ 전무 ▲최대성 한국거래소 팀장 ▲최원해 한화손해보험 파트장 ▲최태진 미래에셋자산운용 선임 ▲최종복 SK텔레콤 팀장 ▲최준혁 LG디스플레이 상무 ▲최혁순 IBK투자증권 팀장 ▲최훈철 한국거래소 부장 ▲하병훈 아워홈 책임 ▲하재영 삼성전자 프로 ▲하재욱 신한투자증권 실장 ▲하정진 포스코홀딩스 부장 ▲한수윤 야놀자 팀장 ▲한재근 농협중앙회 국장 ▲한재훈 우리금융그룹 차장 ▲허영진 정육각 팀장 ▲허원 대한항공 팀장 ▲허율 노랑풍선 팀장 ▲허종완 BNK부산은행 과장 ▲허준 에이피알 팀장 ▲허욱 금융투자협회 실장 ▲허헌 삼성자산운용 수석 ▲홍석우 CJ프레시웨이 팀장 ▲홍현동 유한양행 이사 ▲황상민 삼성화재 상무 ▲황성훈 농협중앙회 팀장 ▲황시내 넷마블 매니저 ▲황우일 이랜드그룹 실장 ▲황의택 현대엔지니어링 책임 ▲홍종민 SK증권 팀장 ▲황태병 하나금융그룹 팀장 ▲황태양 삼성바이로직스 프로 ▲황태호 SKC 팀장 ▲황훈 오늘의집 팀장</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>'과잉 대출 유발' 장기 주담대 규제 강화…50년 만기 취급액 증가, NH농협은행 최다</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0004058281?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>금융당국이 50년 만기 주택담보대출 관련 규제 강화에 나섰다. 과잉 대출에 영향을 줄 수 있기 때문이다. 21일 금융권에 따르면 금융위원회는 장기 주담대의 총부채원리금상환비율(DSR) 산정 만기를 최장 40년으로 제한하는 등을 골자로 하는 행정 지도를 마련, 은행권에 전달했다. 우선 모든 대출 기간 중 상환능력이 인정되는 경우에만 50년 만기 등 실제 만기를 적용할 수 있도록 했다. 저축은행과 여신전문업, 상호금융의 경우 여신심사 가이드라인 및 자체 모범규준에 따라 실제 만기가 최대 30년으로 제한되는 만큼 DSR 산정 만기는 30년을 초과할 수 없도록 했다. 지난 12일까지 주택 또는 비주택 부동산의 매매 계약을 체결하고 계약금을 납부한 사실을 증명한 차주나 금융사가 전산상 등록 등을 통해 대출 신청접수를 완료한 차주, 금융사로부터 대출만기 연장 통보를 받은 차주 등에 대해서는 종전 규정을 적용한다. 금융감독원도 은행, 보험, 저축은행, 상호금융, 여신전문업의 관련 감독업무 시행 세칙 개정에 나설 예정이다. DSR 산출 시 적용되는 만기 상한 도입, 장래 소득 관련 조문 등에 대한 정비를 위한 조치다. 개정되는 세칙은 DSR 산출 시 부채 선정에 적용되는 대출 기간 중 충분한 상환 능력이 있는 경우 실제 대출 기간으로 하는 것을 기본으로 하면서 그렇지 않은 경우 최장 40년으로 설정했다.금감원은 내달까지 은행권의 가계대출 실태 점검에 나선다. 우선 9월 22일까지 국민은행, 신한은행, 우리은행, 하나은행, 농협은행, 수협은행, 카카오뱅크, 케이뱅크를 들여다보고 있다. 10월 11~26일에는 기업은행, 대구은행, 부산은행, 경남은행, 광주은행, 전북은행, SC제일은행, 토스뱅크의 대출 규제 준수 여부 등을 점검할 예정이다. 금융권 안팎에선 금융당국이 가계대출 취급 실태를 점검에 나선 것은 정부 차원에서 가계 대출 확대에 대한 우려를 보인 데 따른 것으로 보고 있다.그도 그럴 것이 금융감독원이 최근 오기형 더불어민주당 의원실에 제출한 자료를 보면 지난 8월 말 기준 50년 만기 주담대 신규 취급액은 총 8조3000억원에 달했다. 취급액이 가장 많은 곳은 NH농협은행으로 2조8000억원(33.7%)에 달했다. 하나은행(1조7000억원), 수협은행(1조2000억원), KB국민은행(1조원), IBK기업은행(9000억원) 등이 뒤를 이었다.50년 만기 장기 주담대를 가장 많이 이용한 연령대는 40~50대였다. 4조7000억원으로 전체의 57.1%를 차지했다. 30대 이하는 2조5000억원, 60대 이상은 1조1000억원으로 집계됐다. 50년 만기 주담대는 지난해 10월 SC제일은행과 12월 광주은행이 도입했으며 올해 들어 상반기에 수협과 대구은행, 전북은행이 잇따라 취급하기 시작했다.DSR 규제를 우회해 많은 대출을 받을 수 있다는 점이 알려지며 지난 7월부터 8월 사이 NH농협은행, 국민은행, 기업은행, 부산은행, 카카오뱅크, 하나은행, 신한은행, 경남은행, 우리은행 등이 참여하며 가계 대출 급증 현상을 보였다. 현재 NH농협은행과 기업은행, 경남은행, 부산은행, 하나은행도 50년 만기 주담대 판매를 중단한 상태다. 기타 은행권에서는 연령 제한 등을 두는 형태로 50년 만기 주담대를 축소하는 분위기다. 금융권 관계자는 "50년 만기 주담대에 대한 금융당국의 실태 조사와 관리·감독이 강화되고 있는 만큼 은행권에서 선제적 관리 차원의 대출 축소 등 움직임에 동참하고 있다"며, "정부 차원에서 과잉 대출 유발에 대한 관리 의지가 강하게 표출되고 있어 기존과 비슷한 조건의 상품은 찾아보기 힘들 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"인터넷은행 발전 위해 규제 완화해야"…당국 "필요 규제는 불가피"(종합)</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007063262?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 인터넷은행법 제정 5주년 맞아 국회 토론회 개최유의동 국민의힘 의원이 20일 오후 서울 여의도 국회 의원회관에서 열린 인터넷은행법 제정 5주년 기념토론회에서 참석자들과 박수를 치고 있다. 앞줄 왼쪽 부터 홍민택 토스뱅크 대표, 윤호영 카카오뱅크 대표, 유 의원, 서호성 케이뱅크 행장. 2023.9.20/뉴스1 ⓒ News1 황기선 기자(서울=뉴스1) 김정현 기자 = 카카오뱅크와 케이뱅크, 토스뱅크 인터넷전문은행(인터넷은행) 3사 최고경영자(CEO)들이 그간 인터넷은행이 국내 금융혁신에 앞서왔다는 점을 강조하고 규제 완화의 필요성을 말했다.20일 인터넷은행 3사는 인터넷전문은행법 제정 5주년을 맞아 유의동 국민의힘 의원과 함께 서울 여의도 국회 의원회관 제1세미나실에서 '인터넷은행이 걸어온 길, 그리고 나아길 길'이라는 주제로 토론회를 개최했다. 이날 토론회에는 서호성 케이뱅크 행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표 등 인터넷은행 3사의 CEO가 모두 참석했다.(왼쪽부터) 서호성 케이뱅크 행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표 2023.9.20/뉴스1 ⓒ News1 황기선 기자◇인뱅 3사 CEO, 인터넷은행법 제정 5년 맞아 혁신 역할 강조먼저 서 행장은 "케이뱅크는 국내 최초 인터넷 은행으로 금융의 기본에 충실하면서 디지털 혁신을 통해 고객들의 편의성과 혜택 제고에 집중하고 있다"며 "다만 비대면이라는 수단이 너무 강조되다 보니 금융 소비자의 편의 증진, 금융거래의 안전성 및 신뢰도 확보를 위해 개선이 필요한 부분도 일부 있다"고 말했다.서 행장은 이에 대한 예시로 '중소기업 여신'을 언급하며 "중소기업 여신이 가능하지만 현실적으로 비대면 상황에서 중소기업 계좌 개설을 할 수 없다"며 "금융 편의나 안전한 거래를 위해 규제를 다소 완화하는 방안도 논의되며 미래를 준비했으면 한다"고 강조했다.윤호영 카카오뱅크 대표도 "카카오뱅크는 금융재해석을 통해 모임통장, 기록통장, 26주 적금 등 새로운 상품을 만들어 내고 AI 기술 기반으로 챗봇으로 고객 상담을 51% 이상 처리하는 은행이 됐다"며 "카카오뱅크를 처음 시작하며 제일 먼저 카톡 프로필을 '아들딸이 다니고 싶어하는 은행을 만들자'로 바꿨는데, 그런 생각으로 임직원들과 끊임없이 금융혁신에 앞장서 왔다"고 밝혔다.홍민택 토스뱅크 대표 역시 "인터넷은행은 핀테크 기술력을 바탕으로 UI·UX와 지금이자받기 같은 서비스로 금융 소비자들의 일상을 바꾸고 시장에 유의미한 영향력을 끼치고 있다"며 "거시경제 불확실성 속에서도 혁신과 포용, 건전성을 모두 이루고 인뱅에 대한 시장과 금융 소비자의 기대에 부응하도록 최선을 다하겠다"고 덧붙였다.유의동 국민의힘 의원이 20일 오후 서울 여의도 국회 의원회관에서 열린 인터넷은행법 제정 5주년 기념토론회에서 참석자들과 파이팅을 외치고 있다. 앞줄 왼쪽 두번째부터 홍민택 토스뱅크 대표, 윤호영 카카오뱅크 대표, 서호성 케이뱅크 행장 뒷줄 왼쪽 세번째부터 국민의힘 김성원 의원, 유 의원, 성일종 의원. 2023.9.20/뉴스1 ⓒ News1 황기선 기자◇토론자들 "인뱅 발전 위해 더 많은 규제 해소 필요"이날 토론 참석자들은 인터넷 은행의 지속적인 발전을 위해 더 많은 규제를 해소해야 한다고 목소리를 높였다.기조발제를 맡은 강경훈 교수는 "인터넷전문은행 도입의 긍정적 효과를 이어가기 위해서는 금산결합 플랫폼 성장 등 변화하는 금융환경에 맞춰 금융규제 체계의 정비, 원칙중심의 감독체계 도입과 함께 사업 다각화를 위한 비대면 겸영업무 완화 등이 필요하다"고 말했다. 이어 "인터넷전문은행의 역할 중에 하나인 포용금융이 중저신용자 대출 확대라는 협의의 개념을 넘어 확장돼야 한다"며 "현재의 중저신용자 대출 확대 기조를 이어가기 위한 기준 변경 또는 담보여신 확대를 통한 건전성 관리 노력도 수반돼야 한다"고도 덧붙였다.김시목 법무법인 율촌 변호사도 "비대면 거래방식 등에 있어서 지나치게 엄격한 규제를 일부 완화해 인터넷전문은행이 좀 더 제 역할을 할 수 있도록 할 필요가 있다"고 강조했다.(금융위원회 제공) 2021.4.14/뉴스1◇금융당국 "시장안정·소비자보호 관련 규제는 불가피…중저신용자 대출 비중도"다만 금융당국에서는 시장 안정과 소비자 보호와 관련된 사안에 있어서는 좀 더 보수적인 입장을 취할 수밖에 없다는 입장을 밝혔다.신진창 금융위원회 금융산업국장은 "기본적으로 시장 안정과 소비자 보호를 위해서 필요한 규제는 불가피하게 있을 수 밖에 없다"며 "중저신용자대출 비중 규제에 대한 제안도 생각을 해보겠지만 근본적으로는 그렇게 큰 이슈는 아니라고 기대한다"고 선을 그었다.다만 "중저신용자 대출의 자산 포트폴리오 구성에 있어서 당국의 관심은 지속될 수밖에 없지만, 디테일의 측면에서 비중의 수준이나 신규·잔액 기준 같은 부분에 대해서는 열린 자세로 검토할 것"이라고 덧붙였다.신 국장은 서 행장이 언급한 중소기업 비대면 계좌개설에 대해서도 "인터넷은행 대출 포트폴리오에 중소기업 대출 포트폴리오가 거의 전무한데 비대면 계좌 개설 문제 때문인지 살펴볼 필요가 있다"며 "인터넷전문은행법에 중소기업 대출을 할 수 있다고 명시해서 허용을 했는데, 인터넷은행의 중소기업 대출이 거의 없는 상황에 불편의 정도가 어느정도인지 균형있게 생각할 필요가 있다"고 답했다.박충현 금융감독원 부원장보는 "인터넷은행의 감독 기조는 영업행위보다 현재처럼 건전성 중심으로 수행할 생각"이라며 "다만 인터넷은행들이 최근 연체율 증가 등에 대해 민감하고 흔들리는 부분은 자본이 탄탄하지 않기 때문으로 판단되는데, 자본 여력 확충에 노력하기를 바란다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.09.28.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>해외 여행 할 땐 환전 없이 간편결제로…영토 넓히는 네·카·토</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004243987?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[서울경제] 10월 2일 임시공휴일 지정으로 올해 추석 연휴가 6일로 길어지면서 해외여행객들이 많아지고 있다. 이 가운데 여행 시 번거로운 환전 없이 바로 충전해서 결제할 수 있는 간편결제 서비스가 주목받고 있다. 네이버페이, 카카오페이, 토스 등 주요 빅테크 플랫폼들이 해외 결제 서비스를 확대하는 것은 물론, 다양한 할인 이벤트를 진행하며 고객 몰이에 나서고 있다.카카오페이의 일본 돈키호테 할인 프로모션 관련 이미지/사진 제공=카카오페이28일 금융 및 플랫폼 업계에 따르면 카카오페이가 올해 9월 말에서 10월 초까지 이어지는 황금연휴 기간을 맞아 한국 관광객들이 많이 찾는 일본 최대급의 디스카운트 스토어 ‘돈키호테(Don Quijote)’에서 카카오페이로 결제 시 할인 혜택을 제공한다. 카카오페이 사용자들은 일본 돈키호테에서 1만 엔 이상 결제하면 500엔을 즉시 할인받을 수 있다. 9월 15일부터 11월까지 진행되는 프로모션 기간 내 1인당 2번까지 혜택을 누릴 수 있어 총 1000엔까지 절감할 수 있다.이외에도 일본의 대표 편의점인 ‘로손’에서 올해 12월 말까지 카카오페이머니로 1000엔 이상 결제하면 1인당 2회까지 100엔의 할인 혜택을 받을 수 있다. 일본의 대형 백화점인 ‘킨테츠 백화점’과 가전제품 쇼핑몰인 ‘빅카메라’, 문구점 ‘로프트’, 드럭스토어 ‘츠루하’에서는 10월 말까지 1만 엔 이상 결제하면 1인당 1회 500엔을 할인받을 수 있다.카카오페이는 중국으로도 간편결제 영역을 넓혔다. 2018년부터 알리페이와 실무 논의를 진행해온 카카오페이는 올해 3월부터 알리페이플러스의 중국 전 지역 가맹점에서 카카오페이 결제를 본격적으로 가동했다. 국내 카카오페이 이용자는 별도의 앱 설치 없이 중국 내 거의 모든 알리페이플러스 가맹점에서 결제할 수 있다. 간편결제는 수수료 측면에서도 신용카드보다 경제적이다. 카카오페이 등으로 해외 결제를 할 경우 환전 수수료와 결제망 사업자에 지불하는 수수료가 부과되는데 신용카드 결제 수수료보다 더 낮기 때문이다. 또 별다른 환전 절차 없이 간편하게 금액을 모바일에서 충전해서 즉시 결제에 이용할 수 있다.이 같은 편의성에 다른 간편결제사들도 해외 시장에 문을 두드리고 있다. 네이버페이는 지난 19일 중국 전역의 모든 알리페이 가맹점에서 네이버페이머니·포인트 QR 현장 결제 서비스를 시작했다. 공항과 백화점·마트·택시 등 ‘알리페이플러스’ 로고가 있는 중국 내 모든 결제처에서 QR코드를 제시해 결제하거나 매장에 비치된 QR코드를 앱 내 카메라 렌즈로 스캔해 결제할 수 있다. 별도의 환전 절차 없이 네이버페이포인트 또는 직접 충전한 네이버페이머니를 이용해 간편하게 결제할 수 있으며 보유 금액이 결제 금액보다 부족한 경우 연결된 충전 계좌를 통해 1만 원 단위로 충전된 뒤 결제된다. 앞서 네이버페이는 이달 초 일본과 중국 전역의 유니온페이 가맹점에서도 국내 간편결제 서비스 최초로 QR 현장 결제 서비스를 시작했다.토스는 중국 알리바바그룹의 핀테크 계열사 앤트그룹과 손잡았다. 최근 앤트그룹은 토스페이먼츠에 1000억 원대를 투자하고 이 회사 2대 주주에 올랐다. 이를 바탕으로 지난 20일부터 중국 ‘알리페이플러스’ 가맹점에서 결제를 지원하고 있다. ‘토스페이’ 이용자들은 중국 내 ‘알리페이플러스‘ 로고 또는 ‘토스페이’ 로고가 있는 오프라인 매장에서 토스 앱으로 간편결제가 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>토스뱅크, 햇살론뱅크 출시 한달…"차주 10명 중 9명 중저신용자"</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005580852?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>1만5000명 고객에 1151억원 공급[이데일리 유은실 기자] 토스뱅크가 지난달 인터넷뱅크 최초로 출시한 ‘햇살론뱅크’가 출시 한 달 만에 약 1만5000명의 중저신용자 및 저소득층 고객에게 1151억원을 공급했다. 실제 차주 10명 중 9명은 중저신용자로 나타났다.(사진=토스뱅크)21일 토스뱅크는 지난 한 달 간 약 1만5000명, 하루 평균 600명(영업일 기준)의 신용 개선 의지가 있는 중저신용자 및 저소득층에게 햇살론뱅크를 지원했다고 밝혔다. 햇살론뱅크 고객 97.8%가 중저신용자이다. 토스뱅크는 햇살론뱅크가 정책서민금융 상품인 만큼, 건전한 중저신용자의 은행권 안착을 돕는 징검다리로서 서민금융 상품 취지를 충실히 이행한 결과라고 설명했다. 햇살론뱅크를 이용한 차주의 연간소득 분포는 2500만원 미만 45.6%, 2500만원~3500만원 37.7% 등 연소득 3500만원 이하의 서민금융층이 83.3%를 차지했다.햇살론뱅크의 주사용층은 가정 경제를 책임지고 있는 중장년층인 4050대이상으로 그 비중이 57.7%에 달했다. 세부 연령별로는 20대 14.3%, 30대 28.0%, 40대 28.9%, 50대이상 28.8%이다.또 토스뱅크는 향후 햇살론뱅크를 이용한 고객의 신용점수를 트래킹하고 신용점수 상승 효과를 측정해 신용등급 상승에 도움을 줄 예정이다. 이를 통해 신용개선 의지가 있는 중저신용자의 금융 지원 및 은행권 안착을 위한 징검다리 역할을 강화할 계획이다.햇살론뱅크의 한도는 최소 500만원 최대 2500만원으로 서민금융진흥원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년이 선택 가능하고, 상환방법은 원리금균등분할상환이다.한편 햇살론뱅크는 정책서민금융상품을 이용한 후 대출을 잘 갚아 신용도가 개선된 고객이 이용할 수 있고, 정책서민금융상품을 6개월 이상 이용했거나 현재 이용중인, 또는 정상 완제하고 부채 또는 신용도가 개선된 고객이 대상이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>인터넷은행 건전성 '빨간불'…신용대출 연체율 1.2% 최고</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000351548?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>[앵커]금리가 오르면 은행의 이자 장사가 잘 된다는 게 작년까지의 모습이었다면, 올해는 본격적인 부실의 시기가 다가오는 모습입니다.특히 인터넷은행들의 신용대출 연체율이 1년 새 두 배 넘게 뛰었습니다.김기호 기자, 연체율이 얼마나 올랐나요?[기자]인터넷은행 3사가 양경숙 의원실에 제출한 자료에 따르면, 지난달 말 기준 이들 은행들의 신용대출 연체율은 1.2%를 기록했습니다.인터넷은행 출범 이후 가장 높은 수준인데요.연체율은 지난 2021년 0.3% 수준에서 유지되다가 지난해부터 오르기 시작해, 6월 말에는 0.42%, 12월 말 0.77%까지 치솟았고, 1년 만에 두 배 넘게 뛰면서 이제 1%를 넘겼습니다.은행별로 보면, 토스뱅크가 1.58%로 가장 높았고, 케이뱅크가 1.57%, 카카오뱅크가 0.77%로 집계됐습니다.[앵커]신용등급이 낮은 대출자들은 상황이 더 심각하죠?[기자]그렇습니다.중저신용대출만 따로 보면 지난달 말 기준 연체율은 2.79%에 달했습니다.지난 2021년 말부터 지난해 상반기까지는 0.8%대를 유지했지만 이후 꾸준히 올라 올해 6월 말에는 2.46%까지 치솟았습니다.1년 전과 비교하면 3배 가깝게 높은 수치입니다.은행별로는 케이뱅크가 4.13%로 가장 높았고, 이어 토스뱅크 3.4%, 카카오뱅크 1.68% 순이었습니다.인터넷은행은 특성상 중저신용대출 비중을 연간 목표치에 맞춰야 하는데 현재는 3사 모두 미달 상태인데요.비중을 끌어올려야 하는데도 올해 이들 은행들은 중저신용대출 공급을 줄였고, 대손충당금 적립액은 1년 전보다 두 배나 늘렸습니다.그럼에도 불구하고 고금리 상황이 이어지면서 인터넷은행들의 건전성 관리가 더욱 어려워질 것이란 전망이 나옵니다.SBS Biz 김기호입니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.09.22.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘기업대출’·카카오뱅크 ‘가계대출’ 약진… 덩치 키우는 인터넷銀</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000934423?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>대출 시장점유율 2019년 0.96%→ 1분기 2.33%전통 강자 4대 은행 점유율 하락세…1.8%p↓카뱅, 신용대출 점유율 6위…시중銀 추격 “포용·혁신금융 성과 미미하다” 지적도그래픽=정서희        출범 5주년을 맞이한 인터넷전문은행의 시장 점유율이 빠르게 늘고 있다. 카카오·케이·토스뱅크 등 인터넷은행 3사는 개인 신용대출을 중심으로 가계대출을 공격적으로 늘리고 있고 기업대출 부문에서도 두각을 나타내고 있다. 가계대출은 카카오뱅크가, 기업대출은 토스뱅크가 각각 우위를 점하고 있다.인터넷은행이 20년 넘게 이어진 시중은행의 과점 체제에 서서히 균열을 일으키며 정부의 도입 취지인 ‘메기’ 역할을 이행하고 있다는 평가가 나온다. 다만 기존 은행권의 영업 행태와 크게 차별화를 두지 못하고 있는 점은 문제로 지목된다. 중·저신용자를 위한 ‘포용적 금융’, ‘혁신 금융’은 기대치에 미치지 못하고 있다는 지적도 나온다.22일 한국신용평가에 따르면 국내 20개 은행 중 KB국민·신한·하나·우리 등 4대 은행의 원화대출금 점유율은 2019년 말 54.7%에서 올해 1분기 말 52.9%로 1.8%포인트 낮아졌다. 반면 카카오·케이·토스뱅크 등 인터넷은행 3사는 같은 기간 원화대출금 점유율이 0.96%에서 2.33%로 1.37%포인트 늘었다. 4대 은행의 원화예수금 점유율도 2019년 말 61%에서 올해 1분기 말 57.9%로 3.1%포인트 줄었으나, 인터넷은행은 1.4%에서 3.9%로 2.5%포인트 늘었다.인터넷은행의 시장 점유율은 미미한 수준이나 추세적으로 상승세를 기록하고 있다. 가계대출 성장세가 가장 두드러졌다. 2017년 7월 가장 먼저 출범한 카카오뱅크는 신용대출을 중심으로 가계대출을 확장해 왔다. 카카오뱅크의 가계대출 점유율은 올해 1월 말 3.26%로 인터넷은행 중 가장 높다. 신용대출의 경우 12.71%로 국민, 신한, 농협, 하나, 우리은행에 이어 6위를 기록해 상위권에 올라섰다.기업대출 부문에서는 가장 늦게 시장에 진입한 토스뱅크가 두각을 드러내고 있다. 토스뱅크의 기업대출 점유율은 0.14%로, 카카오뱅크(0.02%), 케이뱅크(0.03%)를 앞서고 있다. 토스뱅크의 기업대출 점유율이 높은 이유는 개인사업자 대출이 흥행한 영향이다. 토스뱅크는 금융 데이터뿐 아니라 고객의 소비와 생활 패턴을 고려한 비금융 데이터를 통해 자체 신용평가 모형 ‘TSS’ 개발했다. 이를 통해 이를 통해 무보증·무담보 개인사업자 비대면 대출을 출시하며 소상공인의 은행 접근성을 높였다.그래픽=정서희        다만 인터넷은행의 성장 이면에는 빠르게 치솟는 연체율과 가계대출 부실화 등의 문제가 있다. 인터넷은행은 시중은행보다 낮은 대출금리를 앞세워 공격적으로 덩치를 키워왔으나, 고금리 여파로 연체율이 사상 최고 수준으로 뛰는 등 건전성에 빨간불이 켜진 상황이다. 지난달 말 기준 인터넷은행의 신용대출 평균 연체율은 1.20%로, 지난해 6월 말(0.42%)과 비교하면 0.78%포인트 급등했다. 은행별로는 토스뱅크 1.58%, 케이뱅크 1.57%, 카카오뱅크 0.77%다. 은행권 평균 연체율보다 높은 수준이다. 국내 은행의 지난 6월 말 기준 주택담보대출 제외 가계대출 연체율은 0.62%다.은행권 경쟁 촉진에는 기여했으나 인터넷은행에 기대했던 혁신은 갈수록 줄어들고 있다는 지적도 나온다. 또 은행권의 미래 신성장동력이 될 수 있는 신(新)시장 개척은 다소 미진하다는 평가다. 이효섭 자본시장연구원 연구위원은 “인터넷은행이 고신용자 위주의 담보 대출 중심 영업으로 빠른 시간 내 양적으로 성장하긴 했으나 포용적 금융, 혁신 금융 측면에 있어서 질적 성과는 만족스럽지 못한 수준이다”라며 “시장 영향력이 커졌으나 전반적 내부 통제 시스템이 열악한 것도 문제다”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>GS25 반값택배, 추석연휴도 운영…접수·배송 모두 가능</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002305918?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>토스 앱 300원 추가 할인 등 추가 이벤트 진행GS25는 추석 연휴에도 반값택배를 운영한다고 21일 밝혔다. 반값택배는 휴일과 명절에도 상시 운영된다.이용 방법은 간단하다. 고객이 GS25 점포에서 택배를 접수하고 수령자가 GS25 점포에서 찾아가면 된다. 접수, 배송, 수령까지 모든 서비스가 GS25의 물류배송망 및 자체 인프라를 통해 이뤄진다. 업계에선 유일하게 일요일을 포함한 명절, 휴일에도 접수부터 배송까지 365일 24시간, 연중무휴로 운영된다.이렇듯 연중무휴로 운영되고 있는 GS25의 반값택배 서비스가 명절 연휴 기간 택배 수요가 있는 고객의 편의성을 높이며, 명절 내 반값택배 이용빈도가 매년 크게 성장하고 있다.GS25 반값택배 추석 연휴에도 운영실제로 GS25가 추석 연휴 간 반값택배의 접수 건수를 살펴본 결과 전년 대비 21년 257.2%, 22년 88.6% 꾸준히 신장했다.올해는 평년보다 긴 추석 연휴로 인해 9월 25일부터 10월 3일까지 일반 택배 서비스가 장시간 휴무 기간을 갖는다. 이로 인해 GS25는 뒤늦은 선물을 보내거나 중고거래 등 연휴기간 택배 이용이 가능한 반값택배가 올해 더 크게 증가할 것으로 예상하고 있다.GS25는 추석 연휴 반값택배 이용 고객들을 위해 9월 25일부터 10월 9일까지 토스 앱에서 반값택배 접수 시 300원 할인되는 이벤트를 진행한다. 할인 적용 시 고객들은 최대 1,500원에서 2,300원으로 택배 서비스를 이용할 수 있다.또한, 9월 한 달간 ‘우리동네GS’ 앱에서 반값택배 예약 접수 시 1천 명 추첨하여 GS&amp;POINT 1,800점 증정하는 이벤트가 진행되고 있으며, 9월 4일(월)부터 10월 4일(수)까지 국가대표 응원이벤트로 국내택배와 반값택배를 보내고 ‘GS포스트박스’ 홈페이지 이벤트 페이지 내 응원 댓글 작성 시 ▲LG스탠바이미GO ▲GS25모바일상품권1만원권 ▲택배 할인쿠폰을 지급하는 경품 이벤트가 함께 진행되고 있다.GS25는 연중무휴로 운영되고 있는 반값택배 서비스가 고객들의 택배 수요를 충족시키는 한편, 명절 연휴 직후 집중되는 택배 접수량의 분산 효과에도 도움이 될 것으로 기대하고 있다.윤지호 GS25 서비스기획팀 MD는 “반값택배는 휴일과 명절에도 상시 운영되는 서비스로 매년 고객들의 택배 수요 충족 및 편의성을 증대시키고 있다”라며, “올해는 유독 긴 추석 연휴로 인해 반값택배 수요가 몰릴 것으로 예상되는 만큼 원활한 택배 서비스가 이뤄지도록 만전을 기할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>200억원을 2030이 갚아야 한다고?…인터넷은행 비상금 대출의 속사정 [재계 TALK TALK]</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000084649?sid=102</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>인터넷전문은행이 2030세대 비상금 대출 상품을 내놨다가 연체 때문에 골머리를 썩이고 있다. 각 은행은 50만원에서 300만원까지 비상금 대출 상품을 취급하고 있다. 대상은 신용등급(CB) 1~6등급. 게다가 서울보증보험을 통한 일종의 보증보험 방식이라 자격을 갖춘 개인이 주로 이 상품을 이용했다.인터넷은행 입장에서는 여러 안전장치가 있어 대출 상품 마케팅도 적극적으로 했다. 그런데 웬걸. 국회 정무위원회 소속 윤영덕 더불어민주당 국회의원실에 따르면 8월 말 기준 비상금 대출 잔액과 연체 잔액은 카카오뱅크만 2조3069억원, 175억원에 달했다. 토스뱅크는 대출 1908억원, 미회수 12억원, 케이뱅크는 대출 1625억원, 미회수 13억원으로 집계됐다.3대 인터넷은행 누적 연체 금액 합은 200억원이 넘었다. 참고로 9월 13일 기준 연이율은 카카오뱅크 4.795~15%, 토스뱅크 6.24~15%, 케이뱅크 6.01~15% 수준이다. 연체하면 대출한 금리에 3%포인트가 더 붙는다.윤 의원은 “손쉬운 대출에 사회 초년생들의 연체가 증가하고 있어 대출에 대한 경각심이 필요하다”며 “고금리, 고물가에 경기 침체까지 우려되는 만큼 정부 차원에서 정교하고 선별적인 금융 지원 정책이 필요하다”고 지적했다.[본 기사는 매경이코노미 제2227호 (2023.09.20~2023.09.26일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>"휴대폰 놓고 와도 결제 가능"…CU, 충전식 간편결제 내놨다 [송영찬의 신통유통]</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004896456?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>한 소비자가 편의점 CU에서 충전식 선불 간편결제 서비스 CU머니를 통해 결제하고 있다. BGF리테일 제공편의점 CU가 선불 충전식 간편결제 서비스를 출시했다. 자체 모바일 앱에서 별도의 신용카드 등록절차 없이 현금을 충전해 결제할 수 있는 서비스다. 미리 충전만 해놓으면 휴대전화를 두고 와도 휴대전화 번호만으로도 결제가 가능하도록 했다. CU는 이번 서비스를 통해 소비자 편의성을 제고하는 동시에 결제 데이터 분석 활용 등에 나선다는 계획이다.  현금 충전해놓으면 휴대폰 두고 와도 결제 가능CU머니 포스터. BGF리테일 제공BGF리테일은 26일 CU에서 사용할 수 있는 간편결제 서비스 ‘CU머니’를 출시한다고 발표했다. 모바일 앱 ‘포켓CU’ 내 모바일 카드에 현금을 충전해놓은 뒤 사용할 수 있는 서비스다. 일반 충전식 선불카드와 방식은 동일하다. CU머니에 일정 금액을 충전해놓으면 앱의 QR코드나 휴대전화 번호만으로도 결제 및 포인트 적립이 가능하다. CU는 신용카드가 없는 미성년자 고객이나 휴대폰을 들고 오지 않아 결제를 못하는 경우를 타깃으로 했다. 기존에도 포켓CU 앱으로 결제는 가능했지만 앱에 신용카드를 등록해야 했다. 하지만 CU머니의 경우 신용카드가 없어도 휴대전화 번호 인증 등으로 간편하게 충전할 수 있다. 또한 미리 CU머니에 현금을 충전해놓은 경우 휴대전화 번호와 미리 설정한 비밀번호만으로도 결제가 가능하도록 했다.특히 여러 사람들이 하나의 그룹을 만들어 CU머니를 전달할 수 있는 ‘CU머니 패밀리’ 기능도 탑재했다. 그룹 대표자가 멤버를 초대해 CU에서 사용 가능한 충전금을 전달하거나 회수할 수 있도록 했다. 부모가 미성년 자녀에게 편의점에서 사용 가능한 용돈을 CU머니로 줄 수 있도록 한 것이다. 최대 충전 금액은 30만원이다. 고객 결제데이터 활용하고 현금도 확보한 소비자가 편의점 CU에서 충전식 선불 간편결제 서비스 CU머니를 통해 결제하고 있다. BGF리테일 제공CU가 자체 충전식 선불 결제 서비스를 내놓은 건 이번이 처음이다. 현재 전자금융거래법상 편의점과 같은 비(非)금융사도 자체 지급결제 서비스에서 1인당 최대 200만원 한도의 선불전자지급 수단을 운용할 수 있다. 선불전자지급 수단은 계좌 연동 등을 통해 미리 충전한 선불금으로 상거래 대금 등을 지급·송금할 수 있도록 하는 서비스를 말한다. 네이버페이·카카오페이·토스 등의 '페이머니'를 비롯해 대형 프랜차이즈의 선불식 카드 등이 여기에 해당된다.편의점 업계에선 CU를 제외하곤 GS25가 지난 2015년부터 충전식 결제서비스 ‘모바일팝’을 운영 중이다. CU와 마찬가지로 자사 모바일 앱에서 선불 충전한 뒤 QR코드를 통해 결제하는 방식이다. GS25에 따르면 현재까지 100만명의 회원이 이 충전식 결제서비스를 이용중이다. 모바일팝의 경우 비회원(무기명)인 경우 최대 50만원, 휴대폰 본인인증을 거친 회원은 200만원까지 가능하다.편의점 업체들의 충전식 결제 서비스 도입 배경엔 치열해진 고객 데이터 확보 경쟁이 있다. 자사 모바일 앱에 카드를 등록해 결제할 경우 회원번호가 함께 입력돼 일반 신용카드 결제보단 데이터 확보에 용이하지만 카드사가 중간에 껴서 더 상세한 데이터 분석엔 어려움이 있었다. 하지만 충전식 선불결제의 경우 결제부터 분석까지 모두 CU 자체 데이터로만 가능하다. 연령별, 성별, 시간대별 등 세밀한 소비자 맞춤형 빅데이터 활용 등에 더 유리한 것이다. 현금 확보 차원도 있을 것이란 분석도 있다. 강민국 국민의힘 의원실이 지난해 공정거래위원회에서 받은 자료에 따르면 스타벅스의 경우 지난 2021년 선불 충전금 액수가 3402억원에 달했다. CU는 서비스 출기 초기인 만큼 충전 한도를 30만원으로 설정했지만 향후 이를 최대 한도인 200만원까지 늘리는 것도 검토하고 있다. 김석환 BGF리테일 DX실 실장은 “이번 CU머니 출시를 통해 기존 고객의 결제 편의성 증대와 더불어 편의점을 주 이용하는 초등학교 저학년 아동까지 그 이용 범위를 크게 확장했다”며 “앞으로도 모든 연령층이 쉽고 재미있게 사용할 수 있는 플랫폼 서비스를 개발하는데 최선을 다할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>진화하는 보이스피싱…대응책 현주소는</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000352861?sid=102</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[앵커]날로 교묘해지는 보이스피싱은 명절 연휴에 더욱 기승을 부립니다.추석을 앞두고 혹여나 선물을 확인하라며 문자 메시지가 오면 일단 의심하고, 수상한 앱을 설치하라고 한다면 더더욱 주의가 필요합니다.오서영 기자의 보도입니다.[기자]심 모 씨는 지난해 자녀를 사칭한 연락을 받고 앱을 깔았다가 수억 원을 잃고, 아직 돌려받지 못하고 있습니다.[심 모 씨 / 보이스피싱 피해자 : (원격조정) 앱을 깔아서 저한테 오는 ARS 번호나 인증 번호를 확인해서 (은행 앱을) 새롭게 깔고 새롭게 세팅해서 진행합니다. 비밀번호 같은 거 다 바꾸고요. 한국에 있는 모든 은행이 (비대면) 시스템에 있어서 부족한 부분을 갖고 있고 개선되지 않았습니다.]지난해 보이스피싱 피해 금액은 이전보다 더 늘었지만, 피해자들은 절반 정도만 피해액을 되찾는 실정입니다.정부와 금융권은 날로 교묘해지는 비대면 금융사기에 대한 대응을 강화하고 있습니다.농협은행은 24시간 대포통장 의심 모니터링 체제를 갖췄습니다.신한은행과 토스뱅크는 대출을 낼 경우 영상통화로 본인확인을 하고 있습니다.저축은행업계도 이상거래탐지시스템을 고도화해 금융사기에 대응하고 있습니다.정부는 보이스피싱 대응 창구를 통합해 신고부터 피해구제까지 원스톱 시스템을 구축했습니다.금융당국도 급증하는 보이스피싱에 추석 연휴에 각별한 주의를 촉구했습니다.[김수호 / 금융위 전자금융과 과장 : 선물이라든지 가족 모임을 빙자해서 다양한 문자메시지가 가고 있거든요. 클릭하게 되면 원격조정 앱이 깔려서 개인정보가 노출되는…설치하라는 앱 같은 건 절대 설치하지 않는 게 좋다.]하지만 보이스피싱이 나날이 더 교묘해지고 있어, 이 같은 민관 대응책으로도 안심할 수 없는 만큼 본인 스스로 더욱 각별한 주의를 잊어서는 안 된다는 지적입니다.SBS Biz 오서영입니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>가계대출 옥죄는 당국...서민한테 불똥튈라</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019816?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>저축은행 신규대출 축소 …1년새 4곳 중단1금융권 보수적…2금융 눈돌리는 고신용자미국 긴축 장기화 전망에 국내 시장금리와 함께 은행 대출금리와 예금금리도 연일 상승세를 보이고 있다. 이에 조달 금리가 급등하자 서민들의 급전 창구인 저축은행과 대부업체가 대출 문을 더욱 꽉 걸어 잠그고 있다.이런 가운데 정부까지 나서서 대출 옥죄기에 들어가는 모습이다. 대출 절벽이 가속화되면 결국 피해는 서민들에게 돌아갈 수 있다는 우려가 나온다. 저축은행 중저신용자 줄이기? 27일 저축은행중앙회에 따르면 지난달 3억원 이상 신용대출 취급한 저축은행 31개사중 16곳은 600점 이하인 저신용자를 대상으로 대출을 내주지 않은 것으로 나타났다.지난해 8월에는 3억원 이상 신용대출 취급한 저축은행은 35곳이였고 600점 이하인 저신용자 대출을 취급하지 않은 곳은 10곳에 불과했다. 1년새 저신용자를 취급하지 않는 비중이 28.57%에서 51.61%로 급증한 것이다.실제 나가는 금액도 계속해서 줄어들고 있다. 서민금융진흥원이 김희곤 국민의힘 의원실에 제출한 자료에 따르면 올 상반기 저축은행이 신규로 내준 가계신용대출은 총 5조8000억원으로, 지난해 공급액인 17조2000억원의 3분의 1 수준이었다.저축은행은 이런 대출 절벽의 원인으로 조달 금리 상승을 꼽는다. 은행채 등으로 자금조달이 가능한 시중은행과 달리 저축은행들은 조달 창구가 수신으로 한정돼 있다. 따라서 수신 금리가 올라가면 조달 금리도 따라 오른다.실제 지난 20일 미국 연방공개시장위원회(FOMC)에서 '매파적(긴축 선호)' 기조가 뚜렷해지자 은행들의 수신 금리의 기준이 되는 은행채 금리가 급격한 상승세를 보였다. 금융투자협회에 따르면  예금금리의 준거 금리가 되는 은행채(AAA·무보증) 1년물 금리는 지난 19일 4.032%에서 FOMC 직후인 지난 21일 4.060%까지 0.028%포인트 급등했다. 대출 자제령에 대출 줄이는 1금융권 대출 중단은 저축은행들만의 문제는 아니다. 1금융권도 최근 금융당국의 대출 자제령에 신규대출을 줄이고 있다. IBK기업은행이 이달 20일부터 대출 비교 서비스를 제공하는 네이버페이·카카오페이·토스 등 주요 플랫폼에 신용대출 상품 공급 제휴를 일시 중단했다.기업은행이 플랫폼에서의 대출 상품 공급을 중단한 것은 금융 당국의 '대출 자제령' 영향으로 풀이된다. 앞서 금융당국은 KB·신한·우리·하나·NH농협은행 등 5대 은행의 자금 담당 부행장들과 회의를 열고 대출 자산을 무리하게 확대하지 말라고 당부했다.당시 회의에서 금융 당국은 가계대출 등을 공격적으로 늘린 일부 은행에 "경쟁적으로 자산을 확대하지 말라"고 전달한 것으로 알려졌다. 한 은행권 관계자는 "최근 금융당국의 가계대출을 자제하라는 요청에 따라 은행들이 나가는 대출을 보수적으로 취급하며 더 이상 대출 늘리지는 않고 있다"면서도 "한도가 나오는데 차주를 거절할 이유는 없다"고 설명했다.  갈길 잃는 중저신용자문제는 1금융권에서 대출이 어려운 고신용자들이 제2금융권으로 발길을 돌리면서 저축은행을 이용하던 중저신용자들의 대출 절벽이 가속화되고 있는 것이다.은행연합회에 따르면 지난 7월 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)에서 신용대출을 받은 이들의 신용점수(신규 취급액 기준)는 은행별 평균 909~947점을 기록했다. 평균 신용점수는 지난해 연말 895~922점에서 올해 들어 지속적으로 올랐다. 지난 5월부터는 5대 은행 모두 신용대출자의 평균 신용점수가 900점을 넘었다.고신용자들이 2금융에 몰릴 경우 저신용자의 돈줄이 마를 수 있다는 우려도 나온다. 은행에서 대출을 거절당한 고신용자가 저축은행이나 카드사 등 2금융권에서 돈을 빌릴 경우 상대적으로 신용도가 낮은 중·저신용자가 설 자리가 좁아지기 때문이다.저축은행중앙회에 따르면 지난 6월 자산 규모 상위 4개사(SBI·OK·한국투자·웰컴저축은행)에서 나간 신규 신용대출중 700점대 이상 차주 비중은 전체의 78.27%였다. 이는 지난해 말(75.49%)보다 2.78%포인트 상승한 수치다.저축은행 관계자는 "최근 대출 심사 자체가 조금 더 보수적으로 진행되다 보니 리스크 관리를 위해 우량차주가 늘어난 측면이 있다"며 "고신용자들이 1금융권에서 대출을 못 받을 경우 당연히 2금융권으로 밀리게 되고, 그러면 2금융권 이용 중·저신용 차주들은 대부업으로 밀려날 수밖에 없다"고 말했다.불법사금융 피해 상담·신고 건수 / 그래픽=비즈워치실제 불법 사금융 시장으로 내몰리는 금융 취약계층은 지속적으로 증가하고 있다. 서범수 의원실이 금융감독원으로부터 제출받은 자료에 따르면 올 상반기 불법사금융 피해 상담‧신고 건수 6784건으로 △2019년 2459건 △2020년 3955건 △2021년 4926건 △2022년 5037건에 이어 지난 5년중 최대치를 기록했다.김대종 세종대학교 교수는 "정부가 부동산 관련 규제를 풀면서 가계부채가 급증하기 시작했는데 최근 은행을 압박하며 대출규제가 이어지고 있다"며 "고신용자들이 2금융권으로 오면서 자연스럽게 중저신용자는 사채시장으로 몰릴 수밖에 없다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.09.17.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>"토스가 또 한 사람 구했다"…송금하려는 순간 뜬 메시지</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004892703?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>출처=온라인 커뮤니티"토스 송금하려는데 사기 의심 계좌라고 뜨는데요?"최근 A 씨는 한 중고 사이트에서 평소 구매하고 싶었던 휴대전화를 구매하려고 주문했다.얼마 후 판매자 B씨로부터 온 메시지에는 "택배 문제가 생겨 당분간 배송이 어렵다. 취소 요청해주면 환불 처리하고 같은 제품을 네이버 중고나라에서 배송해주겠다"는 내용이 담겼다.A 씨는 "똑같은 미개봉 새제품이 맞느냐"고 확인한 후 B 씨가 안내한 개인 계좌에 송금을 진행했다.하지만 송금 최종 단계에서 '사기 의심 계좌예요'라는 안내창이 떴다. 놀란 A 씨가 이에 대해 문의하자 B 씨는 "토스가 가끔 이런 일이 있다. 그냥 송금하면 된다"고 안내했다. 뭔가 찜찜했던 A 씨는 송금을 중단한 뒤 이 사연을 온라인 커뮤니티에 공개했다.A 씨가 사기당할 뻔한 사연이 전해지자 네티즌들은 "토스가 또 한 사람을 구했다"며 호평했다.토스뱅크는 보이스피싱 범죄로 토스뱅크 계좌에서 다른 은행으로 송금되는 등의 피해를 보거나 국내 온라인 중고 거래 플랫폼에서 사기를 당한 경우 안심 보상제를 통해 보상하고 있다.토스뱅크에 따르면 2021년 10월부터 지난 6월까지 토스뱅크 고객들이 접수한 금융사기 피해 총 2148건을 대상으로 15억원 상당의 피해가 복구될 수 있도록 도운 것으로 전해진다.고객들이 겪은 피해는 중고 거래 사기 등에 연루된 부정 송금이 2100건, 보이스피싱이 48건이다.피해 발생 15일 이내에 토스뱅크 고객센터로 접수하면 보호 정책 대상일 경우 서류 접수와 검토가 진행된다. 제도 시행일(2021년 11월) 이전 피해자, 인터넷 거래 금지 품목, 피해 발생 후 15일 경과 등에 해당하지 않는다면 서류 제출 대상자로 선정된다. 이후 피의자와의 대화 내용 전체·게시글 캡처본, 수사기관 신고 증빙(사건사실확인원 사본) 등의 서류를 제출한다.서류 검토 절차까지 마무리된 신청자는 보상금을 받을 수 있다. 토스뱅크는 고객들이 입은 최초 1회의 피해만 중고 거래 사기 등 부정 송금의 경우 최대 50만원, 보이스피싱의 경우 최대 5000만원을 지급하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.09.21.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>토스뱅크 '햇살론뱅크' 출시 한 달… '10명중 9명은 중저신용자'</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002157324?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>ⓒ토스뱅크-햇살론뱅크, 출시 한 달 만에 1.5만명 고객에게 1151억원 공급- 4050세대가 10명 중 6명… 토스뱅크 "가계 경제 책임지는 중장년층 금융지원 역할 톡톡"[디지털데일리 박기록 기자] 토스뱅크(대표 홍민택)는 지난 달 인터넷뱅크 최초로 출시한 ‘햇살론뱅크’가 출시 한 달 만에 약 1만 5000명의 중저신용자 및 저소득층 고객에게 1151억원을 공급해 신용도 개선 및 은행권 안착을 지원했다고 21일 밝혔다.앞서 토스뱅크는 지난달 인터넷전문은행 중 최초로 햇살론뱅크를 출시한 바 있다.정책서민금융 상품인 햇살론뱅크는 정책서민금융상품을 이용한 후 대출을 잘 갚아 신용도가 개선된 고객이 이용할 수 있고, 정책서민금융상품을 6개월 이상 이용했거나 현재 이용중인, 또는 정상 완제하고 부채 또는 신용도가 개선된 고객이 대상이다.토스뱅크에 따르면, 한 달 간 하루 평균 600명(영업일 기준)의 신용 개선 의지가 있는 중저신용자 및 저소득층에게 햇살론뱅크를 지원했으며 햇살론뱅크 고객 97.8%가 중저신용자이다. 토스뱅크측은 "건전한 중저신용자의 은행권 안착을 돕는 징검다리로서 서민금융 상품 취지를 충실히 이행한 것"이라고 의미를 부여했다.햇살론뱅크를 이용한 차주의 연간소득 분포는 2500만원 미만 45.6%, 2500만원~3500만원 37.7% 등 연소득 3500만원 이하의 서민금융층이 83.3%를 차지했다.특히 햇살론뱅크의 주사용층은 가정 경제를 책임지고 있는 중장년층인 4050대이상으로 그 비중이 57.7%에 달해, 햇살론뱅크 공급의 목적인 서민의 금융생활 안정이라는 취지에 부합했다는 설명이다. 연령별로는 20대 14.3%, 30대 28.0%, 40대 28.9%, 50대이상 28.8% 이다.또한 토스뱅크는 향후 햇살론뱅크를 이용한 고객의 신용점수를 트래킹하고 신용점수 상승 효과를 측정하여 신용등급 상승에 도움을 줄 예정이다. 이를 통해 신용개선 의지가 있는 중저신용자의 금융 지원 및 은행권 안착을 위한 ‘징검다리’ 역할을 강화할 계획이라고 밝혔다.햇살론뱅크의 한도는 최소 500만원 최대 2500만원으로 서민금융진흥원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년이 선택 가능하고, 상환방법은 원리금균등분할상환이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘외국인등록증 진위확인 서비스’ 도입</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001232830?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 금융결제원의 ‘외국인등록증 진위확인 서비스’를 도입했다고 18일 밝혔다.외국인 고객이 토스뱅크 계좌를 개설할 시 금융결제원과 법무부가 구축한 전용 라인을 통해 실시간으로 외국인등록증 진위 확인을 할 수 있게 됐다. 진위확인 서비스는 외국인등록증(신분증)의 사진 특징점까지 추출하여 법무부 데이터베이스(DB) 사진과 유사도까지 검증한다. 기존 공공마이데이터를 활용하는 방식에 금융결제원의 진위확인 서비스까지 더해져 외국인 고객의 신원에 대해 보다 안정적으로 빠르고 정확하게 확인할 수 있게 됐다.토스뱅크는 지난해 5월 인터넷전문은행 최초로 국내 거주 외국인 고객 대상으로 비대면 뱅킹서비스를 제공하기 시작했다. 법무부 통계에 따르면 국내 체류 외국인 수는 2022년 말 기준 약 225만 명에 달한다. 하지만 그 동안 외국인 고객의 경우 은행 영업점을 방문해야만 첫 계좌 개설이 가능해 불편함을 겪어야 했다. 토스뱅크는 인터넷전문은행 최초로 이를 가장 먼저 해결했다.계좌를 개설한 외국인 고객들은 토스뱅크의 내국인 고객과 차별없이 비대면 뱅킹서비스를 이용할 수 있다. 조건 없이 2%(세전)의 금리를 제공하는 ‘토스뱅크 통장’은 물론, ‘지금 이자받기’를 통해 매일 남은 원금에 이자를 더한 잔액을 기준으로 또 다시 이자가 쌓이는 일 복리 혜택도 받을 수 있다.또한 대출 서비스를 제외한 예적금 상품은 물론 모임통장과 언제 어디서나 사용해도 캐시백 혜택을 받을 수 있는 체크카드 사용에도 제약이 없으며, 송금과 ATM 입출금 등 각종 수수료 무료 정책도 동일하게 적용된다.토스뱅크 관계자는 “지난해 5월 외국인 계좌개설 서비스를 선보인 이후부터 외국인 고객 위해 지속적인 서비스 고도화 진행해왔다”며 “앞으로도 은행에 대한 고객 경험을 바꿔나가도록 지속 최선을 다할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>"토스서 공구"…커머스로 진화하는 금융앱</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004243791?sid=105</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>◆카드사·핀테크 쇼핑서비스 강화BC카드, 참여형 커뮤니티 론칭쇼핑 이용후기 공유 땐 경품 제공KB페이 '라이프'탭선 새벽배송AI기반 여행지 추천 서비스까지고객 체류시간 늘려 매출 극대화[서울경제] 주요 카드사 및 핀테크 업체의 금융 애플리케이션을 중심으로 커머스 서비스가 잇따라 출시되고 있다. 앱 중요도가 커지면서 자체 쇼핑 서비스나 제휴 등을 통해 신규 고객을 유치하고 고객들의 체류 시간을 늘려 경쟁력을 강화하겠다는 전략으로 풀이된다.27일 카드 업계에 따르면 BC카드는 최근 금융 앱 ‘페이북’에 다양한 쇼핑 정보, 이용 후기, 앱 테크 정보 등을 공유할 수 있는 참여형 커뮤니티 서비스 ‘핫딜북’을 론칭했다. 페이북 이용 고객들이 직접 자신이 알고 있는 콘텐츠를 게재하고 공유하는 서비스로 매월 톱 5를 선정해 경품도 제공한다. BC카드는 이와 함께 페이북 쇼핑에서 3일마다 공개되는 초특가 상품 ‘33딜’, 식품관 ‘푸드(FOOD)득’ 등의 다양한 탭을 운영하고 있다. BC카드 관계자는 “고객들이 쇼핑 등 다양한 서비스를 직간접적으로 경험할 수 있게 함으로써 이용자 유입 효과와 체류 시간 증대 효과를 기대하고 있다”고 말했다.다른 핀테크 플랫폼과 카드사들도 쇼핑 연계 서비스에 공을 들이고 있다. 대표적으로 네이버페이가 결제와 쇼핑 서비스 시너지 효과를 톡톡히 보고 있다. 네이버페이는 가격 비교 기반의 탄탄한 쇼핑 서비스, 간편결제 서비스 네이버페이, 유료 회원제 서비스 ‘네이버플러스 멤버십’을 아우르는 금융 및 커머스 생태계를 구축했다. 또 네이버페이 고객들은 앱에서 바로 선물샵으로 이동하거나 주문 서비스 등을 이용할 수 있다.토스도 올해 3월 선보인 ‘공동구매’ 서비스를 확대하기 위해 이달 초 공동구매 파트너 시스템 ‘셀러 어드민’을 정식으로 론칭했다. 일종의 오픈마켓 시스템을 구현한 것으로 판매자들은 셀러 어드민을 통해 직접 입점 신청을 해 상품을 등록 및 판매할 수 있다. ‘공동구매’는 할인된 가격에 물건을 구매할 수 있는 서비스로 앱 테크로 모은 토스 포인트를 상품 구매 시 이용할 수 있다는 점이 특징이다. 토스 운영사 비바리퍼블리카에 따르면 셀러 어드민 론칭 후 입점 셀러 수는 기존에 e메일로 입점·판매 신청을 받을 때보다 3배가량 많아졌다.카드사 중에서는 KB국민카드의 ‘KB페이’가 올해 7월 쇼핑·여행 관련 상품과 서비스를 제공하는 ‘라이프’ 탭을 오픈했다. 쇼핑 서비스로는 ‘국민특가’ ‘라이브쇼핑’ ‘위시템’ ‘새벽배송’ 등이 제공되며 여행 서비스에서는 제주 맛집, 카페패스 등 전용 특화 콘텐츠와 인공지능(AI) 기반 여행 일정 추천 서비스, 추천 여행지 콘텐츠 등이 제공된다. KB페이는 올해 10월 말 라이프 서비스 2차 오픈을 통해 선물 하기, 구독 서비스, 공동구매 등 다양한 쇼핑 기능과 확장된 여행 콘텐츠를 추가로 선보일 예정이다.이밖에 하나카드는 자체 쇼핑 서비스를 운영하기보다는 e커머스 플랫폼과의 적극적인 제휴에 관심을 쏟고 있다. 하나카드가 운영하는 금융 앱 ‘하나페이’는 지난해 1월 지마켓과 제휴를 시작했고 옥션, 위메프, 중고서점 알리딘과도 손을 잡고 쇼핑몰 연동 기능을 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.09.25.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>‘통장협박’ ‘저금리 대환대출 피싱’ 주의보···사기이용계좌 지급정지 상반기 1만8000건</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003251346?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>경향신문 자료사진신종 보이스피싱 수법이 기승을 부리면서 상반기 사기이용계좌 지급정지 건수도 늘어난 것으로 나타났다.25일 국회 정무위원회 소속 윤창현 국민의힘 의원실이 금융감독원으로부터 제출 받은 자료에 따르면 올 상반기에만 사기이용계좌 지급정지 건수가 1만7683건에 달하는 것으로 집계됐다. 사기이용계좌로 인한 지급정지 건수는 2020년 2만191건에서 2021년 2만6321건, 2022년 3만3897건으로 지속해서 증가하는 추세다.은행별로는 KB국민은행이 3667건으로 가장 많은 가운데 카카오뱅크(3558건), 우리은행(2664건), 케이뱅크(2137건), 신한은행(2096건), 하나은행(1883건), 토스뱅크(1466건), SC제일은행(212건) 등 순이다.경찰에 따르면 최근 저금리 대환대출을 미끼로 한 보이스피싱이 증가하고 있다. 금융기관을 사칭한 보이스피싱 조직원이 “낮은 금리에 대환대출을 해주겠다”며 현금을 전달하게끔 만드는 식이다.‘통장 협박’이나 간편송금을 악용한 사기 사례도 빈번하게 발생하고 있다. 통장 협박은 보이스피싱 피해 신고가 접수되면 피해 금액이 입금된 계좌가 우선 동결되는 점을 악용하여 자영업자 등을 협박하는 신종 사기 수법이다.사기 일당은 제3자 계좌를 이용해 자영업자 등에게 소액을 이체하고 해당 예금주 명의로 피해구제를 신청해 해당 자영업자의 계좌가 지급정지 되도록 유도한다. 이후 지급정지 해제를 조건으로 자영업자에게 합의금을 요구해 금전을 갈취한다. 이들은 판매 대금을 계좌로 이체받기 위해 계좌번호를 매장 내에 게시하고 있는 소상공인 등 자영업자를 주요 표적으로 삼았다.금감원 관계자는 “사기범은 지급정지 해제 권한이 없으므로 합의금을 절대 송금하지 말아야 하고 통장협박으로 계좌가 지급정지된 경우 은행에 피해자와의 합의중재를 요청해야 한다”면서 “공개된 장소에서 불특정 다수에게 계좌번호 노출을 최소화해야 한다”고 강조했다.통장협박을 이용한 보이스피싱. 윤창현 의원실 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>금융당국, “인터넷은행 ‘수익성’ 유지 중…중·저신용대출 규제 ‘큰 문제’ 아냐”</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002200854?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>20일 서울 여의도 국회의원회관에서 진행된 ‘인터넷전문은행법 제정 5주년 기념 토론회’ 참석자들이 기념촬영을 하고 있다. 김광우 기자.[헤럴드경제=김광우 기자] 일각에서 인터넷은행에 대한 중·저신용대출 규제가 성장 및 건전성을 억제하고 있다는 지적이 제기되는 가운데, 금융당국이 중·저신용대출 규제가 인터넷은행의 수익성을 헤칠 만큼 큰 문제가 아니라는 설명을 내놨다.20일 국회 의원회관에서 열린 인터넷전문은행법 제정 5주년 기념 토론회에 참석한 신진창 금융위원회 금융산업국장은 이날 건의된 인터넷은행 중·저신용 대출 규제 완화와 관련해 “인터넷은행들이 포용성과 수익성을 균형되게 유지하고 있고 시장의 불안 요인이 되고 있지 않다”며 “근본적으로 (규제 완화를 주장한) 부분에 대해 생각해 보겠지만, 그렇게 큰 이슈가 아니라고 기대한다”고 말했다.이날 토론회에서는 인터넷은행의 성장을 위한 각종 규제 해소 방안에 대한 논의가 이뤄졌다. 특히 발제를 맡은 강경훈 동국대 경영학과 교수는 “인터넷은행은 지난 2021년부터 올해까지 매년 말 중·저신용대출 잔액 비율을 설정했는데, 현재 잔액 기준은 경직적이고 중도 상환 등으로 비중 관리에 어렵다”며 “탄력적인 신규 취급액 기준으로 변경이 필요하다”고 주장했다.이에 신 국장은 “중·저신용 대출 비중에 대해 불편한 말씀을 드린다”며 “큰 틀로 (인터넷은행의) 중·저신용자 자산포트폴리오 구성에 있어 당국의 관심은 지속될 수밖에 없다”고 말했다. 이어 “세부적인 사항에 있어서는 개선할 점이 있는지 진지하게 살펴볼 것”이라고 덧붙였다.20일 서울 여의도 국회의원회관에서 ‘인터넷전문은행법 제정 5주년 기념 토론회’가 진행되고 있다. 김광우 기자.아울러 금융당국은 인터넷은행의 영업행위 규제보다 건전성을 중심으로 감독하겠다는 방침을 설명했다. 토론회에 참석한 박충현 금감원 부원장보는 “최근 (인터넷은행 대출의) 연체율이 올라가는데, 이같이 약간 흔들리는 부분은 결국 자본이 탄탄하지 않기 때문”이라며 “금감원도 영업행위에 대한 규제나 감독보다는 건전성에 대한 감독을 이어갈 계획”이라고 말했다. 이어 “앞으로 인터넷은행에서 자본여력을 확충하는 방법에 노력을 해주시길 당부한다”고 말했다.한편 토론회 후 질의응답에서는 건전성 확충을 요구하면서, 중·저신용자 대출 비중을 유지하라는 당국의 주문이 다소 상충되는 것 아니냐는 의문이 제기됐다. 이에 신 국장은 “모든 은행이 리스크관리를 함에 있어 예상되는 연체율을 상정하고 있고, 이같이 예상되는 위험 요인에 따라 금리를 가산하는 것”이라며 “최근 중·저신용 대출의 연체율이 단기로 상승한 것과 (포용금융에 대한) 금융위의 입장을 직결해 볼 일은 아니라고 본다”고 말했다.박 부원장보 또한 “감독당국 입장에서 강조하는 건전성은 제재의 대부분이 영업행위에 초점이 맞춰져 있고, 건전성에 대한 제재가 많지 않기 때문에 말씀드리는 것”이라며 “이러한 차원에서 건전성의 중요성을 말한 것이지, 최근 중·저신용 연체율과는 다소 뉘앙스가 다르다”고 말했다.한편 이날 ‘인터넷은행이 걸어온 길 그리고 나아갈 길’이라는 주제로 열린 토론회에는 행사를 주관한 유의동 국민의힘 의원과 서호성 케이뱅크 대표, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표를 비롯한 각계 전문가들이 참석해 인터넷은행의 성장 및 규제 해소 방안에 대해 논의했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>5대 은행 예대금리차 더 벌어졌다…두달째 상승</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005585356?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>평균 0.936%p, 전월보다 0.002%p 올라NH농협은행 1.15%p 5대 은행 중 최대/뉴스1[이데일리 김국배 기자] 지난달 은행들의 가계 예대 금리 차가 소폭이지만 두 달 연속 올랐다. 예대금리 차가 클수록 은행의 이자이익은 늘어나게 된다. 다만 석 달 연속 1%포인트를 밑도는 상황이다.28일 은행연합회 공시에 따르면, 지난 8월 국내 5대 은행의 신규 취급 기준 가계 예대금리 차는 0.936%포인트로 집계됐다. 정책 서민금융 상품은 제외한 기준이다. 예대금리 차는 지난 6월(0.93%포인트) 1%포인트 아래로 떨어졌다가 지난 7월(0.934%포인트)부터 두 달 연속 오르고 있으나, 1%포인트를 넘진 않고 있다.5대 은행 중에는 NH농협은행(1.15%포인트)의 가계 예대금리 차가 가장 컸다. 다음은 우리은행(0.99%포인트), KB국민은행(0.92%포인트), 신한은행(0.90%포인트) 순으로 나타났다. 하나은행이 0.72%포인트로 가장 낮았다. 신한·하나은행은 예대 금리차가 전월보다 줄어든 반면, NH농협·우리은행은 더 커졌다.NH농협은행 관계자는 “농협은행은 정부정책자금이 수신에서 높은 비중을 차지한다”며 “정부정책자금이 주로 1~3개월 초단기 정기예금으로 예치돼 저축성 수신금리가 낮아 상대적으로 예대금리 차가 크게 나타난다”고 설명했다.19개 은행 전체로 보면 전북은행(4.91%), 토스뱅크(3.62%포인트), 한국씨티은행(3.06%포인트) 등의 예대 금리 차가 큰 편에 속했다. 19곳 중 12곳의 신규 취급 기준 가계 예대금리 차가 이전 달인 7월보다 늘어났다. 예대금리 차가 전달보다 작아진 곳은 신한, 하나, 광주, 제주, 전북, 케이뱅크뿐이었다.잔액 기준 가계 예대 금리 차는 5대 은행 가운데 KB국민은행(2.49%포인트)의 예대 금리 차가 가장 컸다. NH농협은행(2.39%포인트), 신한은행(2.34%포인트), 우리은행(2.16%포인트), 하나은행(2.05%포인트) 순이다. 5대 은행 평균은 2.286%포인트로 신규 취급 기준보다 높다.KB국민은행은 “대출 금리는 시중은행 중 높지 않은 수준이나, 개인 고객수가 많은 영향으로 총 예금 중에서 결제성 예금이 차지하는 비중이 높아 총 수신 금리가 상대적으로 낮다”며 “이에 따라 잔액 예대 금리 차도 상대적으로 크게 나타났다”고 설명했다.전체 은행 중에선 잔액 기준 예대 금리 차가 가장 높은 곳은 토스뱅크(5.38%포인트)인 것으로 나타났다. 전북은행(4.33%포인트), 광주은행(4.05%포인트) 등이 뒤를 이었다. 다른 인터넷 은행인 케이뱅크는 3.64%포인트, 카카오뱅크(323410)는 3.04%포인트였다. 예대 금리 차가 가장 낮은 곳은 KDB산업은행(0.73%포인트)였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>취준생 선호 금융회사 순위는</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000053823?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>잡코리아, 4년대졸 407명 조사구직자들이 가장 취업하고 싶은 금융회사로 KB국민은행이 꼽혔다.취업준비생 선호 금융회사 순위. 잡코리아메타 커리어 플랫폼 잡코리아는 신입 취업을 준비하는 4년대졸 학력의 구직자 407명을 대상으로 금융권 취업 선호도를 조사한 결과 이렇게 나타났다고 27일 밝혔다. 이번 조사는 모바일로 지난 18일부터 24일까지 이뤄졌다. 먼저 ‘금융권에 취업할 의사가 있는가’라는 질문에 전체 응답자 10명 중 7명에 달하는 78.1%가 ‘있다’고 답했다. 상경계열 전공자 중에는 대부분에 달하는 90.4%가 ‘금융권에 취업할 의사가 있다’고 답했고, 인문계열(76.8%), 사회과학계열(76.7%) 전공자 중에도 이러한 답변이 상대적으로 높았다. 금융권 중에도 ‘은행’ 취업을 선호하는 신입 구직자가 많았다. ‘금융권에서 가장 취업하고 싶은 업계는 어디인가’라는 질문에 과반수이상인 58.5%가 ‘은행’을 꼽았다. 이어 ‘증권’ 업계를 꼽은 응답자가 21.1%로 다음으로 많았다. 가장 취업하고 싶은 금융회사 1위는 KB국민은행이 차지했다. 잡코리아가 국내 주요 금융회사를 보기 문항으로 복수응답으로 조사한 결과, KB국민은행을 가장 취업하고 싶은 금융회사로 꼽은 신입 구직자가 20.8%(복수선택 응답률)로 가장 많았다. 이어 토스뱅크를 꼽은 응답자가 19.5%로 다음으로 많았고 카카오뱅크(17.0%), IBK기업은행(11.3%), 신한은행(9.1%) 순으로 취업하고 싶은 금융회사를 꼽은 응답자가 많았다. 우리은행, 하나은행은 순위권 밖이었다.남성 구직자 중에는 토스뱅크(15.7%)를, 여성 구직자 중에는 KB국민은행(25.8%)을 가장 선호했다.신입 구직자들이 이들 금융회사에 취업하고 싶은 이유 중에는 ‘직원 복지가 우수할 것’이라는 기대감과 ‘어릴 때부터 이용하던 회사’라는 익숙함이 높은 비율을 차지했다. 조사결과 ‘직원 복지가 우수할 것 같아서’ 취업하고 싶다고 답한 응답자가 28.9%로 가장 많았고 이어 ‘어릴 때부터 이용하던 회사라서’ 취업하고 싶다고 답한 응답자도 23.6%로 상대적으로 많았다. 이 외에는 ‘연봉이 높을 것 같아서(23.3%)’, ‘평소 기업 이미지가 좋아서(17.0%)’ 순이었다. 신입 구직자들이 금융권 취업을 위해 가장 열심히 준비한 것은 ‘인턴십’과 ‘금융분야 자격증 취득’인 것으로 나타났다. 조사결과 금융권 취업을 위해 가장 열심히 준비한 것으로 ‘인턴 경험’을 꼽은 응답자가 25.5%로 가장 많았다. 다음으로 ‘금융 분야 자격증 취득’을 준비했다는 응답자가 24.5%로 많았다. 이 외에는 ‘전공분야 자격증 취득(23.9%)’, ‘영어 실력(20.4%)’ 순으로 준비했다는 응답자가 많았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.09.20.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>토스뱅크, 정책자금대출 2종 출시...사장님 대출 라인업 확대</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003138030?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>토스뱅크토스뱅크가 정책자금대출 2종을 통해 사장님 대출 라인업을 확대한다. 소상공인 금융서비스를 통해 포용금융을 확대한다는 방침이다.토스뱅크는 이달 '사장님 모바일우대보증대출'과 '사장님 모바일기회보증대출'을 출시했다. 해당 상품은 정책자금대출 상품으로, 경기신용보증재단의 전액보증서를 담보로 지원하는 대출이다.경기도 소재 개인사업자를 대상으로 경기신용보증재단의 모바일우대·모바일기회 보증서를 발급받은 고객에게 대출을 진행한다. 상품은 최소 500만원에서 최대 5000만원 한도로 최고 5.39% 금리를 적용한다.토스뱅크는 경기신보와 협업을 통해 비대면·디지털 금융 활성화에 힘쓴다는 취지다. 개인사업자, 소상공인의 재도약을 위한 금융 지원 활성화와 정부의 디지털 혁신금융 생태계 조성 정책에 부응하기 위해 마련됐다.토스뱅크는 대출 상품 2종 출시를 통해 포용 금융 실천을 확대한다. 토스뱅크는 지난해 2월 인터넷전문은행 처음으로 '사장님 대출'을 출시하며 개인사업자·소상공인을 위한 개인사업자대출을 출시했다. 토스뱅크의 자체 신용평가모형(TSS)을 통해 소상공인에 특화된 심사 기준을 적용, 중저신용자를 발굴해 금융 지원을 늘려왔다.토스뱅크는 생계로 기관 방문이 어려운 소상공인에게 비대면 보증공급을 확대하고, 필요한 금융 서비스를 지원한다는 방침이다. 기존 토스뱅크 개인사업자 신용대출 상품인 '사장님대출' 보다 한도는 적지만 보증 대출로 상품군을 넓히고, 낮은 금리 대출 상품을 통해 사업자 시장 포용 대출을 늘릴 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.09.28.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>석달만에 고개 든 가계대출 금리…더 오를까</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019846?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[금융 핫&amp;뉴]KB라이프, 생보업계 첫 요양사업 자회사토스뱅크, 2850억원 규모 유상증자 결의/그래픽=비즈워치가계대출 금리 3개월 만에 상승 반전코픽스(조달금리지수) 및 은행채 금리 등이 오르면서 지난 8월 은행권의 가계대출 금리도 석 달 만에 반등했다.한국은행은 '금융기관 가중평균 금리' 통계에서 예금은행의 8월 가계대출 평균 금리(신규취급액 기준)가 연 4.83%로 7월보다 0.03%포인트 상승했다고 27일 밝혔다. 가계대출 금리는 지난 6월 4.81%, 7월 4.80%를 기록하며 두 달 연속 소폭 하락했다. 하지만 3개월 만에 상승 반전했다. 주택담보대출 금리만 보면 3개월 연속 상승(5월 4.21%)이다. 주택담보대출은 4.31%, 그 외 신용대출은 6.53%로 각각 전월보다 0.03%포인트, 0.01%포인트 올랐다. 특히 주택담보대출 가운데 변동형 금리는 4.50%를 기록하며 0.05%포인트 상승했다. 고정형은 4.25%로 0.03%포인트 올랐다. 한국은행은 "코픽스와 은행채 5년물 등의 상승으로 주택담보대출을 중심으로 가계대출 금리가 올랐다"고 설명했다.금리 상승 우려에 주택담보대출에서 고정금리를 택하는 비율도 높아졌다. 주담대 고정금리를 택한 비율은 지난 7월 73.7%에서 8월 76.5%로 상승했다. 가계대출에서의 고정금리 비율은 1개월 전 52.9%에서 54.1%로 높아졌다.금융기관 전체 수신 및 대출 금리 추이(왼쪽), 은행권 주택담보대출 금리 추이(오른쪽)/자료=한국은행 제공반면 기업 대출금리는 5.21%는 0.04%포인트 떨어졌다. 대기업 금리는 5.17%로 변화가 없었지만, 중소기업 금리가 5.24%가 0.08%포인트 낮아졌다. 기업대출 지표 금리 중 양도성예금증서(CD) 금리 등이 내렸기 때문이라는 게 한은의 분석이다. 여기에 시중은행들이 기업 여신영업을 강화하면서 적용 금리가 낮아지고 있다는 분석도 나온다.가계와 기업 모두 반영한 전체 대출금리는 5.10%로 한 달 새 0.01%포인트 낮아졌다.한편 예금은행 저축성 수신 평균 금리도 3.65%로 0.03%포인트 하락했다. 정기예금 등 순수저축성예금 금리가 3.59%로 0.04%포인트, 금융채 등 시장형 금융상품 금리는 3.79%로 0.01%포인트 하락한 것으로 집계됐다.은행 예대금리차(신규 취급액 기준 대출 금리와 저축성 수신 금리의 차이)는 1.45%포인트로 전월 1.43%포인트보다 0.02%포인트 커졌다. 이는 6개월 만의 확대다.신한카드 "중국서 QR결제 쉽게"신한카드는 유니온페이 제휴 신한카드 이용자가 해외에서 신한페이를 통해 쉽게 결제할 수 있는 QR결제 서비스를 출시했다고 27일 밝혔다. 유니온페이 인터내셔널(UPI)과 협업을 통해서다.'유니온페이 QR결제'는 중국 4700만개 이외에 홍콩·마카오, 싱가포르, 일본, 태국, 터키, 말레이시아 300만개 등 약 5000만개의 가맹점 망을 확보하고 있다.신한카드는 이번 협력으로 QR결제가 보편화된 중국뿐만 아니라 동남아시아 국가에서 자사 이용객들이 더욱 편리한 여행을 즐길 수 있을 것이라고 기대했다. 신한카드는 이번 서비스 출시와 중국 항저우 아시안게임을 맞아 해외현지 QR결제 할인 및 캐시백 행사도 진행한다.KB라이프생명, 업계 최초 첫 요양사업 KB라이프생명은 요양사업 자회사인 KB골든라이프케어의 편입을 지난 26일 금융당국으로부터 승인 받았다고 밝혔다. 생명보험 업계 최초로 요양사업에 진출하는 것이다. 편입은 10월에 완료된다.KB골든라이프케어는 2016년에 KB손해보험이 설립한 회사다. '도심형 프리미엄 라이프 케어 서비스'를 제공하기 위해 노인요양시설(위례빌리지, 서초빌리지 등)과 주·야간보호서비스(케어센터)를 운영하고 있다.KB라이프생명은 서울, 수도권 등 대도시 중심의 시설 공급을 확대하고, 라이프 3사(KB라이프생명, KB라이프파트너스, KB골든라이프케어)와 연계한 노년 서비스 및 상품을 제공할 예정이다.KB라이프생명 사옥 이미지/자료=KB라이프생명 제공우리은행, 소상공인에 5%대 대출우리은행은 경제적 어려움을 겪고 있는 소상공인에게 저금리 생활안정자금을 지원하는 '우리 사장님 생활비 대출'을 출시한다고 26일 밝혔다. 지난 3월 발표한 '우리 상생금융 3·3 패키지'의 일환이다.이 상품은 사업장을 1년 이상 운영한 개인사업자 중 연소득 4000만원 이하인 저소득 사업자가 대상이다. 연 5%대 저금리로 총 5000억원 한도로 자금을 제공한다.대출한도는 개인별 등급에 따라 최대 2000만원, 대출금리는 확정금리 5.5%다. 우리은행에 대출을 보유하고 있으면 0.5%포인트의 금리 인하 우대를 적용받을 수 없다. 1년 만기일시상환으로, 기한연장 시에는 최초 원금의 10%를 상환해야 한다.하나금융 "사우디서 보폭 넓힌다"하나금융그룹은 사우디 수출입은행과 협력을 통해 중동 진출기업을 지원한다고 밝혔다. 양측은 지난 25일(현지시간) 사우디아라비아 리야드 소재 사우디 수출입은행에서 중동 지역 내 협력사업 확대를 위한 업무협약을 체결했다.두 기관은 △중동 내 글로벌 프로젝트 공동 발굴 △글로벌 네트워크 대상 자금·크레딧라인·보증서 지원 △양국 기업 대상 금융 솔루션과 노하우 제공 등에서 협력을 강화하기로 했다.하나금융은 사우디아라비아 국가개발기금(NDF)도 방문해 '사우디 비전(Vision) 2030' 관련 주요 사업 현안과 비전을 공유했다. 또 산하 은행·경제 기금들과의 공동 사업·투자 참여 등 다양한 협업 방안에 관해서도 협의했다.토스뱅크, 2850억원 유상증자 추진/그래픽=비즈워치국내 3호 인터넷전문은행 토스뱅크는 지난 25일 이사회에서 2850억원 규모의 유상증자를 결의했다. 신규 발행 주식은 보통주 약 4384만주로, 주당 발행가는 6500원이다.토스뱅크의 총 납입 자본금은 이번 유상증자를 통해 1조9350억원으로 늘어난다. 배정내역을 보면 △한국투자캐피탈 1660만9658주 △하나은행 643만769주 △한국스탠다드차타드은행 461만5384주 △이랜드월드 438만4620주 등이 상위 규모다. 최대주주 비바리퍼블리카에는 76만9231주를 배정했다.토스뱅크 관계자는 "토스뱅크가 기업가치를 인정받을 수 있었던 것은 고객들과 주주사의 전폭적인 신뢰 때문"이라며 "월 흑자 달성을 기반으로 분기, 연간 흑자 달성 등 흐름을 이어갈 것"이라고 밝혔다.기업은행, 아·태권 최대 젠더본드 발행IBK기업은행은 글로벌 채권시장에서 6억달러 규모의 젠더본드를 발행했다고 25일 밝혔다. 기업은행 관계자는 "이번에 발행된 젠더본드는 아시아·태평양 지역에서 추진된 양성평등 채권 중 가장 큰 규모"라고 말했다.이번 채권의 만기는 5년, 금리는 5.457%(고정금리)다. 젠더본드로 마련된 재원은 양성 평등을 통한 사회적 가치 창출에 쓰인다. 기업은행은 채권 조달자금을 여성 최고경영자(CEO)가 운영하는 창업 7년 이내 중소기업을 지원하는 데 사용할 예정이다. '금융 핫&amp;뉴'는 한 주간 선보인 새로운 금융상품과 은행·보험·카드 등 금융사들의 눈에 띄는 움직임을 간추린 비즈워치 경제부의 주말 코너입니다. [편집자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.09.26.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>토스CX는 전문가 양성중…"성장 환경 구축 완료"</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002306463?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[2023 디미혁] 강희진 토스CX 대표 "고객 상담사도 전문성 가져야""고객 상담사를 전문가로 양성하고 싶은 바람이 있습니다. 복잡한 문제를 해결할 수 있도록 원스톱 솔루션을 만들고 싶어요. 토스가 성장할수록 토스CX도 함께 성장하고 있습니다. 커리어 성장을 원하는 분들이 오셨으면 좋겠습니다."강희진 토스CX 대표는 26일 서울 강남구 삼성동 코엑스 A홀에서 열린 '잡테크 커넥팅 데이즈' 채용 브랜딩 행사에서 이같이 말하며 고객 상담 전문가 육성 의지를 드러냈다. 토스CX는 토스 계열사로 고객 상담 업무를 담당하고 있다. 고객 상담 업무를 주로 하고 있지만, 토스 전 계열사 서비스 개선에도 깊이 관여하고 있다.강 대표는 "토스에는 안심보장제도가 있다. 고객이 금융사기를 당했을 때 조치를 빠르게 해야한다"며 "그만큼 고객 상담은 전문성이 중요하고, 누구보다 전문적이어야 한다"고 강조했다.토스CX 강희진 대표토스CX는 토스 내 고객행복팀으로 자리잡고 있다가 규모가 커지면서 어엿한 계열사로 분리됐다. 직원 10명부터 시작해 현재는 305명으로 성장했다.강 대표는 "토스는 제품에 대한 고객의 개선 요청과 의견을 중요하게 생각한다"며 "제품 라인업이 많아지고 고도화되면서 토스CX의 역할도 중요해졌다. 토스CX와 함께 긴밀하게 VOC(고객 목소리)를 듣고 해결하며 성장할 수 있다"고 말했다.토스CX에는 입사 전에 상담 직무가 아닌 다른 업무를 했던 직원들도 있다. 2개월 정도 촘촘한 온보딩 과정이 있기 때문에 누구나 지원이 가능하다. 일반적인 상담 업무 외에도 성장할 수 있는 다양한 업무 기회도 존재한다. 고객 만족을 목표로 개인의 커리어를 성장시킬 수 있는 환경이 구축돼 있다는 뜻이다.강 대표는 "특정 영역에 대한 전문성을 쌓을 수 있는 기회가 있다"며 "시스템을 만들어 줄 테크 직무 지원자도 기다린다"고 덧붙였다.토스CX 강희진 대표 강연 모습</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.09.27.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>증권, 은행 할 것 없이 나섰다…치열해지는 토큰증권 ‘인프라’ 구축 경쟁</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000050806?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>KB·신한·NH證, 토큰증권 컨소시엄 협약…공동 인프라 구축한국투자증권 클라우드 시스템 기반 분산원장 인프라 구현우리은행 '디지털자산 플랫폼' 2025 출시 목표…STO 발행 특화STO 이미지. [사진 게티이미지뱅크][이코노미스트 마켓in 김연서 기자] 금융투자업계가 토큰증권(ST·Security Token) 인프라 구축에 힘을 쏟고 있다. 아직 토큰증권의 발행과 유통이 국내에서 허용되지 않은 상황에서 선제적으로 플랫폼 구축과 상품 개발에 나서야 경쟁력을 갖출 수 있다는 이유에서다. 27일 금융투자업계에 따르면 전날 KB증권, 신한투자증권, NH투자증권은 토큰증권 시장 공동진출을 위한 ‘토큰증권 증권사 컨소시엄 구성’ 업무협약을 체결했다. 한국투자증권은 지난 9월 21일 업계 최초로 토큰증권 발행 인프라를 구축했다고 밝혔고, 우리은행은 지난 8월 ‘디지털자산 시장 선점을 위한 토큰증권 플랫폼 전략’을 수립하고 디지털자산 플랫폼 구축 작업에 착수했다.토큰증권은 분산원장 기술(Distributed Ledger Technology)을 활용해 발행된 디지털화된 증권으로, 실물증권과 전자증권에 이은 새로운 발행 형태의 증권이다. 부동산은 물론 선박, 항공기 미술품 등 실물로 존재하는 자산의 권리를 손쉽게 유동화해 ‘증권형 디지털자산’으로 전환, 조각 투자가 가능해진다.앞서 지난 2월 금융당국은 토큰증권의 발행 및 유통 규율체계 정비방안을 통해 가이드라인을 제시한 뒤 자본시장법과 전자증권법 개정을 추진 중이다. 금융투자업계는 경쟁력을 갖추기 위해 적극적인 인프라 구축에 나서고 있다.KB증권, 신한투자증권, NH투자증권은 ‘토큰증권 증권사 컨소시엄’은 토큰증권 공동 인프라 구축을 넘어 전략적 사업모델 발굴까지 추후 협업 범위를 확장할 계획이다. 3사는 ‘비용 효율화’ 뿐만 아니라 ‘발행사·투자자 규모의 경제’ 두 마리 토끼를 잡겠다는 전략을 밝혔다.3사는 컨소시엄 구성을 통해 본격적으로 ▲토큰증권 공동 인프라 구축 및 분산원장 검증 ▲토큰증권 정책 공동 대응 및 업계 표준 정립 ▲토큰증권 발행 및 유통 서비스 시너지 사업 모델 발굴 등을 상호 협력할 예정이다.증권사 간 공동 분산원장을 구성하게 되면 구축·운영 비용을 절감할 수 있다. 이를 통해 불필요한 인프라 경쟁에서 벗어나 토큰증권 사업영역에 더욱 집중할 수 있다. 또 협업을 통해 다양한 기초자산을 보유한 발행사 대량 확보 및 상품 발행·유통이 가능해 투자자에게도 매력적인 플랫폼을 제공할 수 있다는게 회사 측 설명이다.한국투자증권은 업계 최초로 토큰증권 발행 인프라 구축을 마쳤다. 한국투자증권은 클라우드 시스템을 기반으로 분산원장 인프라를 구현하고, 이를 통해 향후 제도 변화를 탄력적으로 수용하고 시스템 개선에 능동적으로 대처할 수 있게 했다고 밝혔다.카카오뱅크, 토스뱅크, 카카오엔터프라이즈, 오픈에셋 등이 참여한 토큰증권 협의체 '한국투자ST프렌즈'는 지난 5월부터 토큰증권 발행 인프라 구축에 나섰다. 4개월의 노력 끝에 국내 최초로 토큰증권 발행 및 청산에 필요한 과정을 구현한 인프라를 개발하고 시범 발행을 완료했다.한국투자증권은 ▲스마트계약을 통한 배당 처리 ▲분산원장 예수금을 활용한 즉각적인 거래 완결성 보장 ▲개인정보 처리 및 보호 기술 등은 특허 출원까지 진행 중이다. 회사는 토큰증권 인프라의 높은 기술력과 시스템 안정성을 입증해 업계를 선도하는 기술적 우위를 확보해 나갈 방침이다.우리은행은 지난 8월 ‘디지털자산 시장 선점을 위한 토큰증권 플랫폼 전략’을 수립하고 디지털자산 플랫폼 구축 작업에 들어갔다. 우리은행은 디지털자산 플랫폼을 통해 토큰증권 발행과 청약, 계좌 관리 등 서비스를 종합적으로 제공할 계획이다. 우리은행의 디지털자산 플랫폼은 토큰증권 유통이 아니라 발행 기능에 특화할 예정이며, 정식 출시 목표 시기는 2025년 초다.금융투자업계의 토큰증권 인프라 선점 경쟁은 더 치열해질 전망이다. 업계 관계자는 “블록체인 기술을 활용한 STO 시장은 국내 금융시장의 효율화에 큰 도움이 될 것”이라며 “캐나다, 미국, 영국 등 STO 시장이 비교적 활성화된 국가와 비교하면 한국은 완전히 시작 단계에 있기 때문에, 토큰증권 인프라 사업을 선점하는 것이 최우선 과제가 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.09.24.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>케이뱅크 중저신용대출 연체율 4% 넘어…IPO에 영향은?</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0004059367?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>고금리 지속으로 케이뱅크의 건전성에 대한 위기감이 높아지고 있다. 케이뱅크의 중·저신용대출 연체율이 사상 처음으로 4%를 넘어섰다.케이뱅크는 지난해보다 대손충당금을 2배 넘게 쌓는 등 건전성 관리에 나섰지만, 당분간 높은 금리가 지속될 것으로 보여 취약 차주를 중심으로 부실이 더 터져 나올 수 있다는 우려가 나온다.국회 기획재정위원회 양경숙 의원(더불어민주당)이 케이뱅크로부터 제출받은 자료에 따르면, 지난달 말 기준 케이뱅크의 신용대출 연체율은 1.57%를 기록했다. 이는 신용대출 연체액을 신용대출 잔액으로 나눈 수치다.국내은행의 지난 6월 말 기준 주택담보대출 제외 가계대출(신용대출 등) 연체율이 0.62%라는 것과 비교하면 케이뱅크의 신용대출 연체율은 높은 편이다.중·저신용대출 연체율로만 보면 케이뱅크가 4.13%로 인터넷은행 중 가장 높았다. 토스뱅크는 3.40%, 카카오뱅크는 1.68%이었다.케이뱅크 등 인터넷은행의 연체율이 빠르게 오르는 이유는 한국은행의 기준금리 인상 여파가 지속하고 있기 때문이다.한은이 지난 2021년 8월부터 올해 1월까지 기준금리를 10차례에 걸쳐 인상하면서, 연 0.50%였던 기준금리는 현재 3.50%까지 높아졌다.지난 2월부터는 기준금리를 동결하긴 했지만, 미국 등 주요국 긴축 장기화 가능성 등이 있어 당분간 고금리는 지속될 것으로 보인다.한은은 통화신용정책 보고서를 통해 국내 경제 성장세가 점차 개선되는 가운데 물가 상승률이 상당 기간 목표 수준(2%)을 상회할 것으로 전망된다고 밝혔다. 당분간은 긴축 기조를 지속할 것이라는 의견이다.케이뱅크와 같은 인터넷은행은 중·저신용대출 비중을 높여야 해 고금리 시기 건전성 관리가 쉽지 않다.'중·저신용 대출 공급'이라는 인가 취지에 따라, 중·저신용대출 비중 목표치 달성을 요구받기 때문이다.케이뱅크의 8월 말 기준 중·저신용자 대상 신용대출 비중(잔액 기준)은 25.4%다. 연말 목표치 32%에 미달해 하반기 중·저신용대출 비중을 끌어올려야 하는 상황이다.금융감독원 설명에 따르면 금리가 오르면 취약 차주부터 부실이 발생하는데, 통상 금리 인상 뒤 1년 정도의 시차를 두고 연체율이 오른다.특히 케이뱅크와 같은 인터넷은행은 중·저신용대출 비중이 상대적으로 커 연체율이 더 오를 수 있다. 고금리 상황이 지속되면 연체율이 더 상승할 수 있기 때문에 추이를 모니터링하고 있는 것으로 알려졌다.이 같은 상황에서 케이뱅크는 중·저신용대출 공급을 줄이고, 대손충당금 적립액을 늘려야 하는데 역부족이라는 지적이 나오고 있다.대손충당금 적립률이 지난해보다 하락했기 때문이다.금감원에 따르면 케이뱅크의 지난 6월 말 대손충당금 적립률은 182.4%로 인터넷은행 중 가장 낮았다. 이는 지난해 6월 말 221.4%보다 37%p 떨어진 수치다.대손충당금 적립률은 대손충당금 잔액을 고정이하여신으로 나눈 비율로, 위기 시 손실 흡수능력을 보여주는 지표다. 대손충당금 적립 비율이 하락했다는 것은 그만큼 부실 대응능력이 떨어졌다는 의미다.한편, 충당금 부담 등으로 순이익이 감소하는 상황이 케이뱅크 기업공개(IPO)에 어떠한 영향을 미칠지도 관심이 쏠리고 있다. 앞서 케이뱅크는 올해 초 상장을 계획했다가 철회한 바 있다.케이뱅크의 올해 2분기 당기순이익은 147억원으로 전년 동기(212억원) 대비 65억원(30.7%) 감소했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.09.16.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[단독] 이커머스 진출 준비 중인 토스, '설문조사 실수'로 구설</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000050308?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>토스, 스타트업 ‘올웨이즈’ 관련 노골적 설문 시행해 논란토스 “결제 서비스 개편 위한 설문조사서 실수…해당 기업에 소명”최근 토스가 일부 고객들을 상대로 진행한 설문조사 내용의 일부. [제공 링크드인 캡처][이코노미스트 윤형준 기자] 전자상거래(이커머스) 시장 진출을 준비 중인 토스가 자사 앱에서 특정 이커머스 스타트업에 대한 설문을 진행해 논란이다. 토스 측은 서비스 리뉴얼 차원에서 진행한 설문이 오해를 불러일으켰다고 해명했다. 16일 이커머스 업계에 따르면 최근 토스는 일부 고객을 대상으로 ‘새로운 서비스를 준비하고 있어서, 설문조사를 진행한다.’라는 설문을 진행했다. 문제는 이 설문조사가 이커머스 업계 전반을 다루는 질문이 아닌 특정 스타트업의 고객 이용 경험 내용으로 구성됐다는 점이다. 해당 스타트업은 스마트폰 앱 기반 이커머스 서비스 ‘올웨이즈’(Alwayz)을 운영하는 ‘레브잇’이다. 서울과학고와 서울대 전기정보공학부를 나온 강재윤 대표가 고교 및 대학 동문들과 2021년 3월 설립했다. 올웨이즈는 ‘팀구매’(공동구매)를 통해 상품을 저렴하게 사고, 미니게임 ‘올팜’을 통해 본인이 키운 농작물을 무료로 받을 수 있는 서비스다. 강 대표는 앞서 15일 사회관계망서비스(SNS)를 통해 토스 설문조사에 관련된 자신의 생각을 밝혔다. 그는 “(알람에 따라) 토스 앱에 접속했더니, 우리 올웨이즈 앱에 대한 설문조사를 세세하게 진행하고 있었다”며 “일반적인 이커머스 관련 설문조사가 아닌 올웨이즈 서비스 사용 자체를 노골적으로 조사하는 설문이었다”고 밝혔다.실제 토스의 설문에서는 올웨이즈에 관한 아주 상세한 질문들이 이어졌다. ▲‘올웨이즈’ 앱을 이용하고 있나요?(상품 구매 상관없이) ▲올웨이즈 앱을 얼마나 자주 이용하나요? ▲올웨이즈 앱에서 주로 이용하는 기능은 무엇인가요?(중복 선택 가능) 등 7가지 항목이었다.그는 “최근 토스가 공동구매를 시작으로 이커머스업에 진출한다는 소식이 들려오는 상황에 이처럼 특정 스타트업의 앱을 세세하게 파악하는 이유가 무엇일까”며 반문했다. 즉 대형 기업이 스타트업의 서비스나 아이디어를 편취하려는 것 아니냐는 의문이다.공교롭게도 토스는 이달 초 토스 앱의 ‘토스페이’ 탭에서 올웨이즈와 유사한 공동구매 서비스를 정식 오픈했다. 소비자는 토스 내에서 올웨이즈처럼 공동구매로 할인된 가격에 물건을 구매할 수 있다. 판매자 입장에서도 이용 고객이 많고 접근성이 좋은 토스에 직접 간편하게 입점 신청을 할 수 있어 입소문을 타고 있다. 공동구매 서비스 스타트업들은 충분히 우려를 할 수 있는 상황이다. 강 대표는 “설마 고객(올웨이즈)과 경쟁하는 서비스를 만들려는 것일까”라며 “서비스 론칭 2년 남짓 된 작은 스타트업으로서 할 수 있는 것은 ‘더욱 더 빠르게 성장하며 초격차를 만드는 것’밖에 없다는 생각이 든다”며 씁쓸함을 토로했다.이번 설문에 대해 토스 측은 ‘실수’라고 밝혔다. 이번 올웨이즈 앱 관련 설문은 토스의 ‘이커머스’ 팀이 아닌 ‘결제 서비스’ 팀에서 서비스 리뉴얼을 준비하며 진행한 설문조사였다는 설명이다. 토스 측은 “설문조사 배경과 기업이 특정되게 된 점 등을 해당 업체에 설명했다”며 “설문 내용도 모두 파기 조치했다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.09.18.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>토스뱅크, 외국인등록증 진위확인 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007056043?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>(토스뱅크 제공) /뉴스1(서울=뉴스1) 김정현 기자 = 토스뱅크가 금융결제원의 '외국인등록증 진위확인 서비스'를 도입했다고 18일 밝혔다.이번 서비스 도입을 통해 토스뱅크는 외국인등록증 진위 확인 시 금융결제원과 법무부가 구축한 전용라인을 통해 실시간으로 외국인등록증의 진위 확인을 할 수 있게 됐다.외국인등록증 진위확인 서비스는 실시간으로 신분증의 사진 특징점을 추출해 법무부 데이터베이스(DB) 사진과 유사도까지 검증한다. 기존 공공마이데이터를 활용하는 방식에 금융결제원의 진위확인 서비스까지 더해져 외국인 고객의 신원에 대해 보다 안정적으로 빠르고 정확하게 확인할 수 있다.토스뱅크 관계자는 "지난해 5월 외국인 계좌개설 서비스를 선보인 이후부터 외국인 고객 위해 지속적인 서비스 고도화를 진행해왔다"며 "앞으로도 은행에 대한 고객경험을 바꿔나가도록 지속 최선을 다할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
